--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,335 +437,536 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3211043499127476</v>
       </c>
+      <c r="B2" t="n">
+        <v>-0.3259533390584821</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0.213303373716679</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.1978902336276767</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0.1525587999853934</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.1309485718638484</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-0.05827854371500717</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.08566793824230819</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1403707434107166</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.1276278515980622</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>-0.4450174409816785</v>
       </c>
+      <c r="B7" t="n">
+        <v>-0.4614384876614183</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>-0.3030301672705884</v>
       </c>
+      <c r="B8" t="n">
+        <v>-0.2709866285093435</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>-0.409749234058028</v>
       </c>
+      <c r="B9" t="n">
+        <v>-0.4209679496845873</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.3113341736687468</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.3436887837841155</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>-0.2091865009652586</v>
       </c>
+      <c r="B11" t="n">
+        <v>-0.2482459491696268</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>-0.1091532854651345</v>
       </c>
+      <c r="B12" t="n">
+        <v>-0.1087508898535332</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0.003577772028258448</v>
       </c>
+      <c r="B13" t="n">
+        <v>-0.01150366747922753</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>-0.00473952087660777</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.01155081633247283</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>-0.1343171140022825</v>
       </c>
+      <c r="B15" t="n">
+        <v>-0.05835925389335367</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0.1950579304236688</v>
       </c>
+      <c r="B16" t="n">
+        <v>0.285877318254868</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0.5365672997990478</v>
       </c>
+      <c r="B17" t="n">
+        <v>0.56250432385674</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.07574279870074785</v>
       </c>
+      <c r="B18" t="n">
+        <v>0.04894586001739845</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0.3883739458912365</v>
       </c>
+      <c r="B19" t="n">
+        <v>0.3804570174281816</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.1759387395182929</v>
       </c>
+      <c r="B20" t="n">
+        <v>0.2361495213532234</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0.3666326857304784</v>
       </c>
+      <c r="B21" t="n">
+        <v>0.461768780998448</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>0.3079014554893899</v>
       </c>
+      <c r="B22" t="n">
+        <v>0.3414699679455382</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>-0.1049391584056181</v>
       </c>
+      <c r="B23" t="n">
+        <v>-0.09238712393905801</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4.411966037716434</v>
       </c>
+      <c r="B24" t="n">
+        <v>4.534771994148857</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>0.5712321784914061</v>
       </c>
+      <c r="B25" t="n">
+        <v>0.5243884960126119</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>0.3476013772240313</v>
       </c>
+      <c r="B26" t="n">
+        <v>0.3878503826166212</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>0.3240534889563179</v>
       </c>
+      <c r="B27" t="n">
+        <v>0.3341320112815402</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1.091560579196456</v>
       </c>
+      <c r="B28" t="n">
+        <v>1.096722682763318</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6.271004817915466</v>
       </c>
+      <c r="B29" t="n">
+        <v>5.863480215210426</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1.006536378306404</v>
       </c>
+      <c r="B30" t="n">
+        <v>1.00351129465251</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>-0.1107352304013519</v>
       </c>
+      <c r="B31" t="n">
+        <v>-0.15159602179001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.8299898334896445</v>
       </c>
+      <c r="B32" t="n">
+        <v>0.8266861627833791</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>0.9311484844234506</v>
       </c>
+      <c r="B33" t="n">
+        <v>0.9460996050162945</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>-0.571545222856736</v>
       </c>
+      <c r="B34" t="n">
+        <v>-0.6177245420987975</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>0.8422799497444543</v>
       </c>
+      <c r="B35" t="n">
+        <v>0.8228751327700211</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0.8024978359850354</v>
       </c>
+      <c r="B36" t="n">
+        <v>0.7853821015207229</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0.7912172320552134</v>
       </c>
+      <c r="B37" t="n">
+        <v>0.7609076149438667</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>0.7837700563970399</v>
       </c>
+      <c r="B38" t="n">
+        <v>0.7366364435688462</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>0.5860965796672563</v>
       </c>
+      <c r="B39" t="n">
+        <v>0.5855243524946664</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>0.7552916384599927</v>
       </c>
+      <c r="B40" t="n">
+        <v>0.7561083832988317</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>0.5824985163072363</v>
       </c>
+      <c r="B41" t="n">
+        <v>0.5622956694324531</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>0.7526836556520303</v>
       </c>
+      <c r="B42" t="n">
+        <v>0.717555762537827</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>0.7502657742423009</v>
       </c>
+      <c r="B43" t="n">
+        <v>0.7238315262564594</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>0.6824888561590887</v>
       </c>
+      <c r="B44" t="n">
+        <v>0.6827550122941594</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>0.6803937877007739</v>
       </c>
+      <c r="B45" t="n">
+        <v>0.6771136849576195</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>-1.24633521895066</v>
       </c>
+      <c r="B46" t="n">
+        <v>-1.259800347351256</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>-0.9626100134245785</v>
       </c>
+      <c r="B47" t="n">
+        <v>-0.9744785939232784</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>-0.8532902459198494</v>
       </c>
+      <c r="B48" t="n">
+        <v>-0.8670915112362984</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>-0.625930780610612</v>
       </c>
+      <c r="B49" t="n">
+        <v>-0.6387216172683954</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>-0.0485066351980171</v>
       </c>
+      <c r="B50" t="n">
+        <v>-0.04741797340894434</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>-0.8439751862521701</v>
       </c>
+      <c r="B51" t="n">
+        <v>-0.8597263583354644</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>-0.8439751862521701</v>
       </c>
+      <c r="B52" t="n">
+        <v>-0.8597263583354644</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>-1.059977206488503</v>
       </c>
+      <c r="B53" t="n">
+        <v>-1.084026444314512</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>-0.1869669533458129</v>
       </c>
+      <c r="B54" t="n">
+        <v>-0.1873877067204152</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>-0.9851476851446858</v>
       </c>
+      <c r="B55" t="n">
+        <v>-0.9949076990006762</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>-0.8990459399982134</v>
       </c>
+      <c r="B56" t="n">
+        <v>-0.8880174882996399</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>-0.9836382434262938</v>
       </c>
+      <c r="B57" t="n">
+        <v>-0.9465298564717861</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>-1.198312682398943</v>
       </c>
+      <c r="B58" t="n">
+        <v>-1.150464319453582</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>-0.8872480817410606</v>
       </c>
+      <c r="B59" t="n">
+        <v>-0.8597473676828168</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>-0.5482761642896989</v>
       </c>
+      <c r="B60" t="n">
+        <v>-0.5169242166440466</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>0.3642531991403423</v>
       </c>
+      <c r="B61" t="n">
+        <v>0.3695974316258775</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>-1.280524550406726</v>
       </c>
+      <c r="B62" t="n">
+        <v>-1.227904722946455</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>-0.7950617336764875</v>
       </c>
+      <c r="B63" t="n">
+        <v>-0.7638931319371256</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>-0.9052236543724776</v>
       </c>
+      <c r="B64" t="n">
+        <v>-0.9076479785611221</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>-0.1677027100732056</v>
       </c>
+      <c r="B65" t="n">
+        <v>-0.1299984289218459</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>-0.8678043789967734</v>
       </c>
+      <c r="B66" t="n">
+        <v>-0.8131741492812394</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>-0.8872140693307469</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.7940639888657253</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-0.3259533390584821</v>
       </c>
+      <c r="C2" t="n">
+        <v>-0.3112759201248513</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>0.1978902336276767</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.2068540516619886</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>0.1309485718638484</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.1424338389046362</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.08566793824230819</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.07641264223041008</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.1276278515980622</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.1432386406213986</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>-0.4614384876614183</v>
       </c>
+      <c r="C7" t="n">
+        <v>-0.4522942319464852</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>-0.2709866285093435</v>
       </c>
+      <c r="C8" t="n">
+        <v>-0.2592776833425081</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>-0.4209679496845873</v>
       </c>
+      <c r="C9" t="n">
+        <v>-0.4111143807139855</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.3436887837841155</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.3583482123923956</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +550,9 @@
       <c r="B11" t="n">
         <v>-0.2482459491696268</v>
       </c>
+      <c r="C11" t="n">
+        <v>-0.2395354272017014</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +561,9 @@
       <c r="B12" t="n">
         <v>-0.1087508898535332</v>
       </c>
+      <c r="C12" t="n">
+        <v>-0.08679071302812461</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +572,9 @@
       <c r="B13" t="n">
         <v>-0.01150366747922753</v>
       </c>
+      <c r="C13" t="n">
+        <v>-0.01165389346983012</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +583,9 @@
       <c r="B14" t="n">
         <v>0.01155081633247283</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.05155204817547648</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +594,9 @@
       <c r="B15" t="n">
         <v>-0.05835925389335367</v>
       </c>
+      <c r="C15" t="n">
+        <v>-0.01410836412500775</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +605,9 @@
       <c r="B16" t="n">
         <v>0.285877318254868</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.3469334748427019</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +616,9 @@
       <c r="B17" t="n">
         <v>0.56250432385674</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5975469357316218</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +627,9 @@
       <c r="B18" t="n">
         <v>0.04894586001739845</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.03667612137647214</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +638,9 @@
       <c r="B19" t="n">
         <v>0.3804570174281816</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.3958918984112226</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +649,9 @@
       <c r="B20" t="n">
         <v>0.2361495213532234</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.2938092751582803</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +660,9 @@
       <c r="B21" t="n">
         <v>0.461768780998448</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5186086745320461</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +671,9 @@
       <c r="B22" t="n">
         <v>0.3414699679455382</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.3776735756792909</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +682,9 @@
       <c r="B23" t="n">
         <v>-0.09238712393905801</v>
       </c>
+      <c r="C23" t="n">
+        <v>-0.06087923480789817</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +693,9 @@
       <c r="B24" t="n">
         <v>4.534771994148857</v>
       </c>
+      <c r="C24" t="n">
+        <v>4.57384989143239</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +704,9 @@
       <c r="B25" t="n">
         <v>0.5243884960126119</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.4894903269309043</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +715,9 @@
       <c r="B26" t="n">
         <v>0.3878503826166212</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.3649107407635929</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +726,9 @@
       <c r="B27" t="n">
         <v>0.3341320112815402</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.3022116221255643</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +737,9 @@
       <c r="B28" t="n">
         <v>1.096722682763318</v>
       </c>
+      <c r="C28" t="n">
+        <v>1.066131646617195</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +748,9 @@
       <c r="B29" t="n">
         <v>5.863480215210426</v>
       </c>
+      <c r="C29" t="n">
+        <v>5.447503492472463</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +759,9 @@
       <c r="B30" t="n">
         <v>1.00351129465251</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.9548851282734272</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +770,9 @@
       <c r="B31" t="n">
         <v>-0.15159602179001</v>
       </c>
+      <c r="C31" t="n">
+        <v>-0.2129154423199772</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +781,9 @@
       <c r="B32" t="n">
         <v>0.8266861627833791</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.7871732809015993</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +792,9 @@
       <c r="B33" t="n">
         <v>0.9460996050162945</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.9152751613758854</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +803,9 @@
       <c r="B34" t="n">
         <v>-0.6177245420987975</v>
       </c>
+      <c r="C34" t="n">
+        <v>-0.6507460697090554</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +814,9 @@
       <c r="B35" t="n">
         <v>0.8228751327700211</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.8138148514943915</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +825,9 @@
       <c r="B36" t="n">
         <v>0.7853821015207229</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.7678300236883154</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +836,9 @@
       <c r="B37" t="n">
         <v>0.7609076149438667</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.741357205273627</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +847,9 @@
       <c r="B38" t="n">
         <v>0.7366364435688462</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.7174454321700235</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +858,9 @@
       <c r="B39" t="n">
         <v>0.5855243524946664</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.581254185786493</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +869,9 @@
       <c r="B40" t="n">
         <v>0.7561083832988317</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.7529239259480895</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +880,9 @@
       <c r="B41" t="n">
         <v>0.5622956694324531</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5542491414506645</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +891,9 @@
       <c r="B42" t="n">
         <v>0.717555762537827</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.6901709337605276</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +902,9 @@
       <c r="B43" t="n">
         <v>0.7238315262564594</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.7089146264171076</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +913,9 @@
       <c r="B44" t="n">
         <v>0.6827550122941594</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.6744044547749227</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +924,9 @@
       <c r="B45" t="n">
         <v>0.6771136849576195</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.6583104991077348</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +935,9 @@
       <c r="B46" t="n">
         <v>-1.259800347351256</v>
       </c>
+      <c r="C46" t="n">
+        <v>-1.264221901809358</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +946,9 @@
       <c r="B47" t="n">
         <v>-0.9744785939232784</v>
       </c>
+      <c r="C47" t="n">
+        <v>-0.9798357644125127</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +957,9 @@
       <c r="B48" t="n">
         <v>-0.8670915112362984</v>
       </c>
+      <c r="C48" t="n">
+        <v>-0.8736975128145139</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +968,9 @@
       <c r="B49" t="n">
         <v>-0.6387216172683954</v>
       </c>
+      <c r="C49" t="n">
+        <v>-0.642552574792616</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +979,9 @@
       <c r="B50" t="n">
         <v>-0.04741797340894434</v>
       </c>
+      <c r="C50" t="n">
+        <v>-0.04890637255914625</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +990,9 @@
       <c r="B51" t="n">
         <v>-0.8597263583354644</v>
       </c>
+      <c r="C51" t="n">
+        <v>-0.8653123345455569</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1001,9 @@
       <c r="B52" t="n">
         <v>-0.8597263583354644</v>
       </c>
+      <c r="C52" t="n">
+        <v>-0.8653123345455569</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1012,9 @@
       <c r="B53" t="n">
         <v>-1.084026444314512</v>
       </c>
+      <c r="C53" t="n">
+        <v>-1.097711744551318</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1023,9 @@
       <c r="B54" t="n">
         <v>-0.1873877067204152</v>
       </c>
+      <c r="C54" t="n">
+        <v>-0.1870535167737291</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1034,9 @@
       <c r="B55" t="n">
         <v>-0.9949076990006762</v>
       </c>
+      <c r="C55" t="n">
+        <v>-0.9995363594736313</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1045,9 @@
       <c r="B56" t="n">
         <v>-0.8880174882996399</v>
       </c>
+      <c r="C56" t="n">
+        <v>-0.8846002655561328</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1056,9 @@
       <c r="B57" t="n">
         <v>-0.9465298564717861</v>
       </c>
+      <c r="C57" t="n">
+        <v>-0.9340088073217468</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1067,9 @@
       <c r="B58" t="n">
         <v>-1.150464319453582</v>
       </c>
+      <c r="C58" t="n">
+        <v>-1.12794034965257</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1078,9 @@
       <c r="B59" t="n">
         <v>-0.8597473676828168</v>
       </c>
+      <c r="C59" t="n">
+        <v>-0.8480402148460283</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1089,9 @@
       <c r="B60" t="n">
         <v>-0.5169242166440466</v>
       </c>
+      <c r="C60" t="n">
+        <v>-0.4971111734956855</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1100,9 @@
       <c r="B61" t="n">
         <v>0.3695974316258775</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.3715007413611734</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1111,9 @@
       <c r="B62" t="n">
         <v>-1.227904722946455</v>
       </c>
+      <c r="C62" t="n">
+        <v>-1.208923604921344</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1122,9 @@
       <c r="B63" t="n">
         <v>-0.7638931319371256</v>
       </c>
+      <c r="C63" t="n">
+        <v>-0.738311818883726</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1133,9 @@
       <c r="B64" t="n">
         <v>-0.9076479785611221</v>
       </c>
+      <c r="C64" t="n">
+        <v>-0.9019909101174564</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1144,9 @@
       <c r="B65" t="n">
         <v>-0.1299984289218459</v>
       </c>
+      <c r="C65" t="n">
+        <v>-0.1110487109336713</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1155,9 @@
       <c r="B66" t="n">
         <v>-0.8131741492812394</v>
       </c>
+      <c r="C66" t="n">
+        <v>-0.7899089345158966</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -967,6 +1165,9 @@
       </c>
       <c r="B67" t="n">
         <v>-0.7940639888657253</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.7620704255356806</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -449,10 +449,10 @@
         <v>-0.3211043499127476</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3259533390584821</v>
+        <v>-0.3030476147762293</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3112759201248513</v>
+        <v>-0.2852167463729813</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>0.213303373716679</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1978902336276767</v>
+        <v>0.2212987470419176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2068540516619886</v>
+        <v>0.2314516030111665</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>0.1525587999853934</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1309485718638484</v>
+        <v>0.1635776920988358</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1424338389046362</v>
+        <v>0.1762598686712164</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>-0.05827854371500717</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08566793824230819</v>
+        <v>-0.04981953747724374</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07641264223041008</v>
+        <v>-0.04037048095642987</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>0.1403707434107166</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1276278515980622</v>
+        <v>0.1575450856876263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1432386406213986</v>
+        <v>0.1734455518791605</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>-0.4450174409816785</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4614384876614183</v>
+        <v>-0.4379502147954654</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4522942319464852</v>
+        <v>-0.4275206503871763</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>-0.3030301672705884</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2709866285093435</v>
+        <v>-0.2808802019124831</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2592776833425081</v>
+        <v>-0.2590080310344377</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>-0.409749234058028</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4209679496845873</v>
+        <v>-0.4047525790627515</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4111143807139855</v>
+        <v>-0.3942749422504559</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>0.3113341736687468</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3436887837841155</v>
+        <v>0.3294102058557918</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3583482123923956</v>
+        <v>0.3468392264229247</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +548,10 @@
         <v>-0.2091865009652586</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2482459491696268</v>
+        <v>-0.202385559409978</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2395354272017014</v>
+        <v>-0.1944054799455128</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +559,10 @@
         <v>-0.1091532854651345</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1087508898535332</v>
+        <v>-0.08263167799945226</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08679071302812461</v>
+        <v>-0.05724445409281485</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +570,10 @@
         <v>0.003577772028258448</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01150366747922753</v>
+        <v>0.003378030045047247</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01165389346983012</v>
+        <v>0.003991582187646852</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         <v>-0.00473952087660777</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01155081633247283</v>
+        <v>0.03887108225803239</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05155204817547648</v>
+        <v>0.07897491892330588</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +592,10 @@
         <v>-0.1343171140022825</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05835925389335367</v>
+        <v>-0.07872759690180693</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01410836412500775</v>
+        <v>-0.02953390677198398</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +603,10 @@
         <v>0.1950579304236688</v>
       </c>
       <c r="B16" t="n">
-        <v>0.285877318254868</v>
+        <v>0.2669074388759973</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3469334748427019</v>
+        <v>0.3329519714974425</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +614,10 @@
         <v>0.5365672997990478</v>
       </c>
       <c r="B17" t="n">
-        <v>0.56250432385674</v>
+        <v>0.5781798699301779</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5975469357316218</v>
+        <v>0.6104878113432393</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +625,10 @@
         <v>0.07574279870074785</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04894586001739845</v>
+        <v>0.05681595236303819</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03667612137647214</v>
+        <v>0.03871942535414385</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +636,10 @@
         <v>0.3883739458912365</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3804570174281816</v>
+        <v>0.4004881803427321</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3958918984112226</v>
+        <v>0.4094959229080015</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +647,10 @@
         <v>0.1759387395182929</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2361495213532234</v>
+        <v>0.2416489704046453</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2938092751582803</v>
+        <v>0.3007323468731548</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +658,10 @@
         <v>0.3666326857304784</v>
       </c>
       <c r="B21" t="n">
-        <v>0.461768780998448</v>
+        <v>0.4429884574041729</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5186086745320461</v>
+        <v>0.5097515718032218</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +669,10 @@
         <v>0.3079014554893899</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3414699679455382</v>
+        <v>0.3506008479462824</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3776735756792909</v>
+        <v>0.3869851860350284</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +680,10 @@
         <v>-0.1049391584056181</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09238712393905801</v>
+        <v>-0.06633768584288893</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06087923480789817</v>
+        <v>-0.03439731083199027</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +691,10 @@
         <v>4.411966037716434</v>
       </c>
       <c r="B24" t="n">
-        <v>4.534771994148857</v>
+        <v>4.539342217017882</v>
       </c>
       <c r="C24" t="n">
-        <v>4.57384989143239</v>
+        <v>4.562109517439753</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +702,10 @@
         <v>0.5712321784914061</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5243884960126119</v>
+        <v>0.542396028553592</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4894903269309043</v>
+        <v>0.5076937306151328</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +713,10 @@
         <v>0.3476013772240313</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3878503826166212</v>
+        <v>0.4019698531004052</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3649107407635929</v>
+        <v>0.3829019154812469</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +724,10 @@
         <v>0.3240534889563179</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3341320112815402</v>
+        <v>0.3324666689593566</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3022116221255643</v>
+        <v>0.3026541687337232</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +735,10 @@
         <v>1.091560579196456</v>
       </c>
       <c r="B28" t="n">
-        <v>1.096722682763318</v>
+        <v>1.102688686605339</v>
       </c>
       <c r="C28" t="n">
-        <v>1.066131646617195</v>
+        <v>1.07192136330336</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +746,10 @@
         <v>6.271004817915466</v>
       </c>
       <c r="B29" t="n">
-        <v>5.863480215210426</v>
+        <v>5.829782112900279</v>
       </c>
       <c r="C29" t="n">
-        <v>5.447503492472463</v>
+        <v>5.37474763382918</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +757,10 @@
         <v>1.006536378306404</v>
       </c>
       <c r="B30" t="n">
-        <v>1.00351129465251</v>
+        <v>1.002976036868044</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9548851282734272</v>
+        <v>0.9535325995048894</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +768,10 @@
         <v>-0.1107352304013519</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.15159602179001</v>
+        <v>-0.1433614335482137</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2129154423199772</v>
+        <v>-0.2065261134623893</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +779,10 @@
         <v>0.8299898334896445</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8266861627833791</v>
+        <v>0.8203836391126612</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7871732809015993</v>
+        <v>0.7801732546091538</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +790,10 @@
         <v>0.9311484844234506</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9460996050162945</v>
+        <v>0.9197923190188908</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9152751613758854</v>
+        <v>0.89277604747635</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +801,10 @@
         <v>-0.571545222856736</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6177245420987975</v>
+        <v>-0.5953512697313745</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6507460697090554</v>
+        <v>-0.6266926107944895</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +812,10 @@
         <v>0.8422799497444543</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8228751327700211</v>
+        <v>0.8319897273086079</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8138148514943915</v>
+        <v>0.8220127442528157</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +823,10 @@
         <v>0.8024978359850354</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7853821015207229</v>
+        <v>0.7852938092493125</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7678300236883154</v>
+        <v>0.7691359516405509</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +834,10 @@
         <v>0.7912172320552134</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7609076149438667</v>
+        <v>0.767646983259594</v>
       </c>
       <c r="C37" t="n">
-        <v>0.741357205273627</v>
+        <v>0.7471079223737263</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +845,10 @@
         <v>0.7837700563970399</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7366364435688462</v>
+        <v>0.759471446328237</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7174454321700235</v>
+        <v>0.7365332892878046</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +856,10 @@
         <v>0.5860965796672563</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5855243524946664</v>
+        <v>0.5831043790969885</v>
       </c>
       <c r="C39" t="n">
-        <v>0.581254185786493</v>
+        <v>0.5807572289649692</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +867,10 @@
         <v>0.7552916384599927</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7561083832988317</v>
+        <v>0.7545904765981907</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7529239259480895</v>
+        <v>0.7531474682819043</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +878,10 @@
         <v>0.5824985163072363</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5622956694324531</v>
+        <v>0.5736631958143509</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5542491414506645</v>
+        <v>0.5660166821978613</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +889,10 @@
         <v>0.7526836556520303</v>
       </c>
       <c r="B42" t="n">
-        <v>0.717555762537827</v>
+        <v>0.7215599402919902</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6901709337605276</v>
+        <v>0.6920796923304855</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +900,10 @@
         <v>0.7502657742423009</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7238315262564594</v>
+        <v>0.7336091938271017</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7089146264171076</v>
+        <v>0.7179243178824716</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +911,10 @@
         <v>0.6824888561590887</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6827550122941594</v>
+        <v>0.6743193507660545</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6744044547749227</v>
+        <v>0.6672284289971849</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +922,10 @@
         <v>0.6803937877007739</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6771136849576195</v>
+        <v>0.6600740514179404</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6583104991077348</v>
+        <v>0.6429950345313618</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +933,10 @@
         <v>-1.24633521895066</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.259800347351256</v>
+        <v>-1.252431146668739</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.264221901809358</v>
+        <v>-1.256512184098387</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +944,10 @@
         <v>-0.9626100134245785</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9744785939232784</v>
+        <v>-0.9698305569425633</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9798357644125127</v>
+        <v>-0.9747869049202756</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +955,10 @@
         <v>-0.8532902459198494</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8670915112362984</v>
+        <v>-0.8627063238443551</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8736975128145139</v>
+        <v>-0.8687641519963322</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +966,10 @@
         <v>-0.625930780610612</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6387216172683954</v>
+        <v>-0.6316061218671422</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.642552574792616</v>
+        <v>-0.6349765219189132</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +977,10 @@
         <v>-0.0485066351980171</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04741797340894434</v>
+        <v>-0.04877058266929571</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.04890637255914625</v>
+        <v>-0.049114311899176</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +988,10 @@
         <v>-0.8439751862521701</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8597263583354644</v>
+        <v>-0.8513032994962222</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8653123345455569</v>
+        <v>-0.8551400172311395</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +999,10 @@
         <v>-0.8439751862521701</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8597263583354644</v>
+        <v>-0.8513032994962222</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8653123345455569</v>
+        <v>-0.8551400172311395</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1010,10 @@
         <v>-1.059977206488503</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.084026444314512</v>
+        <v>-1.079134497588794</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.097711744551318</v>
+        <v>-1.093551729333249</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1021,10 @@
         <v>-0.1869669533458129</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1873877067204152</v>
+        <v>-0.1865897922561882</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1870535167737291</v>
+        <v>-0.184982862779744</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1032,10 @@
         <v>-0.9851476851446858</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9949076990006762</v>
+        <v>-0.9900142941882175</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9995363594736313</v>
+        <v>-0.9935862167009119</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1043,10 @@
         <v>-0.8990459399982134</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8880174882996399</v>
+        <v>-0.8920081595603776</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8846002655561328</v>
+        <v>-0.8860932383385447</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1054,10 @@
         <v>-0.9836382434262938</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9465298564717861</v>
+        <v>-0.9651520261654113</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9340088073217468</v>
+        <v>-0.9480444094739415</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1065,10 @@
         <v>-1.198312682398943</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.150464319453582</v>
+        <v>-1.165967125806632</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.12794034965257</v>
+        <v>-1.135323957330342</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1076,10 @@
         <v>-0.8872480817410606</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8597473676828168</v>
+        <v>-0.8696744983449465</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8480402148460283</v>
+        <v>-0.8518372267606601</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1087,10 @@
         <v>-0.5482761642896989</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5169242166440466</v>
+        <v>-0.5216568842680853</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4971111734956855</v>
+        <v>-0.4958122221176305</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1098,10 @@
         <v>0.3642531991403423</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3695974316258775</v>
+        <v>0.3668232733977567</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3715007413611734</v>
+        <v>0.3699346703233274</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1109,10 @@
         <v>-1.280524550406726</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.227904722946455</v>
+        <v>-1.255433272480964</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.208923604921344</v>
+        <v>-1.232361134040926</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1120,10 @@
         <v>-0.7950617336764875</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7638931319371256</v>
+        <v>-0.762466120581034</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.738311818883726</v>
+        <v>-0.7268749157402274</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1131,10 @@
         <v>-0.9052236543724776</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9076479785611221</v>
+        <v>-0.9010610062281696</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.9019909101174564</v>
+        <v>-0.8924581126356002</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1142,10 @@
         <v>-0.1677027100732056</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1299984289218459</v>
+        <v>-0.1406406803056653</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1110487109336713</v>
+        <v>-0.115100628572694</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1153,10 @@
         <v>-0.8678043789967734</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8131741492812394</v>
+        <v>-0.8330872961444159</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7899089345158966</v>
+        <v>-0.8023975966178745</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1164,10 @@
         <v>-0.8872140693307469</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7940639888657253</v>
+        <v>-0.8361999719167592</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7620704255356806</v>
+        <v>-0.7939409826044265</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,16 +443,28 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3211043499127476</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3030476147762293</v>
+        <v>-0.3259533390584821</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2852167463729813</v>
+        <v>-0.3112759201248513</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.297031067946475</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2835478212216052</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +472,16 @@
         <v>0.213303373716679</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2212987470419176</v>
+        <v>0.1978902336276767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2314516030111665</v>
+        <v>0.2068540516619886</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2167871348091792</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2267546620335315</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +489,16 @@
         <v>0.1525587999853934</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1635776920988358</v>
+        <v>0.1309485718638484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1762598686712164</v>
+        <v>0.1424338389046362</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1548873122604492</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.167357836676539</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +506,16 @@
         <v>-0.05827854371500717</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.04981953747724374</v>
+        <v>-0.08566793824230819</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04037048095642987</v>
+        <v>-0.07641264223041008</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.06746381537253016</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05931672983184233</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +523,16 @@
         <v>0.1403707434107166</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1575450856876263</v>
+        <v>0.1276278515980622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1734455518791605</v>
+        <v>0.1432386406213986</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1583403482896266</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1721059907394258</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +540,16 @@
         <v>-0.4450174409816785</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4379502147954654</v>
+        <v>-0.4614384876614183</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4275206503871763</v>
+        <v>-0.4522942319464852</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4425846283667368</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4327701301594052</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +557,16 @@
         <v>-0.3030301672705884</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2808802019124831</v>
+        <v>-0.2709866285093435</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2590080310344377</v>
+        <v>-0.2592776833425081</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.24675526487405</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2341453757227157</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +574,16 @@
         <v>-0.409749234058028</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4047525790627515</v>
+        <v>-0.4209679496845873</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3942749422504559</v>
+        <v>-0.4111143807139855</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.398957653792802</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3855131683035065</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +591,16 @@
         <v>0.3113341736687468</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3294102058557918</v>
+        <v>0.3436887837841155</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3468392264229247</v>
+        <v>0.3583482123923956</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3721432788652395</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3844560053390241</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +608,16 @@
         <v>-0.2091865009652586</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.202385559409978</v>
+        <v>-0.2482459491696268</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1944054799455128</v>
+        <v>-0.2395354272017014</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.2306230765166948</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2220910555124325</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +625,16 @@
         <v>-0.1091532854651345</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.08263167799945226</v>
+        <v>-0.1087508898535332</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05724445409281485</v>
+        <v>-0.08679071302812461</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.06689733746444573</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.04954890393392026</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +642,16 @@
         <v>0.003577772028258448</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003378030045047247</v>
+        <v>-0.01150366747922753</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003991582187646852</v>
+        <v>-0.01165389346983012</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.01128321775599131</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.01090258543068098</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +659,16 @@
         <v>-0.00473952087660777</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03887108225803239</v>
+        <v>0.01155081633247283</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07897491892330588</v>
+        <v>0.05155204817547648</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08797073075114029</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1200001714382976</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +676,16 @@
         <v>-0.1343171140022825</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.07872759690180693</v>
+        <v>-0.05835925389335367</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02953390677198398</v>
+        <v>-0.01410836412500775</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02498140972080291</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05835158744491686</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +693,16 @@
         <v>0.1950579304236688</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2669074388759973</v>
+        <v>0.285877318254868</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3329519714974425</v>
+        <v>0.3469334748427019</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4017230581585344</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4493533368504043</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +710,16 @@
         <v>0.5365672997990478</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5781798699301779</v>
+        <v>0.56250432385674</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6104878113432393</v>
+        <v>0.5975469357316218</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6273381289153094</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.651411384363581</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +727,16 @@
         <v>0.07574279870074785</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05681595236303819</v>
+        <v>0.04894586001739845</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03871942535414385</v>
+        <v>0.03667612137647214</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02605881697684193</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01645657032599904</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +744,16 @@
         <v>0.3883739458912365</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4004881803427321</v>
+        <v>0.3804570174281816</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4094959229080015</v>
+        <v>0.3958918984112226</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4096285889324859</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4209024564469395</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +761,16 @@
         <v>0.1759387395182929</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2416489704046453</v>
+        <v>0.2361495213532234</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3007323468731548</v>
+        <v>0.2938092751582803</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3446769913520271</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3880996029008814</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +778,16 @@
         <v>0.3666326857304784</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4429884574041729</v>
+        <v>0.461768780998448</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5097515718032218</v>
+        <v>0.5186086745320461</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5674358504612063</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6079756543920941</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +795,16 @@
         <v>0.3079014554893899</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3506008479462824</v>
+        <v>0.3414699679455382</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3869851860350284</v>
+        <v>0.3776735756792909</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4089027974024245</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4346283633947823</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +812,16 @@
         <v>-0.1049391584056181</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.06633768584288893</v>
+        <v>-0.09238712393905801</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.03439731083199027</v>
+        <v>-0.06087923480789817</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.0340901860825687</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.01233182337135161</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +829,16 @@
         <v>4.411966037716434</v>
       </c>
       <c r="B24" t="n">
-        <v>4.539342217017882</v>
+        <v>4.534771994148857</v>
       </c>
       <c r="C24" t="n">
-        <v>4.562109517439753</v>
+        <v>4.57384989143239</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.530819290802055</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.421501485473843</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +846,16 @@
         <v>0.5712321784914061</v>
       </c>
       <c r="B25" t="n">
-        <v>0.542396028553592</v>
+        <v>0.5243884960126119</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5076937306151328</v>
+        <v>0.4894903269309043</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4584631546021023</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4307215870663407</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +863,16 @@
         <v>0.3476013772240313</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4019698531004052</v>
+        <v>0.3878503826166212</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3829019154812469</v>
+        <v>0.3649107407635929</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3443818550025777</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3232177437176343</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +880,16 @@
         <v>0.3240534889563179</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3324666689593566</v>
+        <v>0.3341320112815402</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3026541687337232</v>
+        <v>0.3022116221255643</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2744108646979151</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2469851926634682</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +897,16 @@
         <v>1.091560579196456</v>
       </c>
       <c r="B28" t="n">
-        <v>1.102688686605339</v>
+        <v>1.096722682763318</v>
       </c>
       <c r="C28" t="n">
-        <v>1.07192136330336</v>
+        <v>1.066131646617195</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.035108112914556</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.004102979255951</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +914,16 @@
         <v>6.271004817915466</v>
       </c>
       <c r="B29" t="n">
-        <v>5.829782112900279</v>
+        <v>5.863480215210426</v>
       </c>
       <c r="C29" t="n">
-        <v>5.37474763382918</v>
+        <v>5.447503492472463</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.039878943785543</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.644718656198088</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +931,16 @@
         <v>1.006536378306404</v>
       </c>
       <c r="B30" t="n">
-        <v>1.002976036868044</v>
+        <v>1.00351129465251</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9535325995048894</v>
+        <v>0.9548851282734272</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9101235324783095</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8684591437057199</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +948,16 @@
         <v>-0.1107352304013519</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1433614335482137</v>
+        <v>-0.15159602179001</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2065261134623893</v>
+        <v>-0.2129154423199772</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.2640089275842031</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3094231159897771</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +965,16 @@
         <v>0.8299898334896445</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8203836391126612</v>
+        <v>0.8266861627833791</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7801732546091538</v>
+        <v>0.7871732809015993</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7518820135477624</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7186382384955513</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +982,16 @@
         <v>0.9311484844234506</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9197923190188908</v>
+        <v>0.9460996050162945</v>
       </c>
       <c r="C33" t="n">
-        <v>0.89277604747635</v>
+        <v>0.9152751613758854</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8883997727241983</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8638037386630153</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +999,16 @@
         <v>-0.571545222856736</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.5953512697313745</v>
+        <v>-0.6177245420987975</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6266926107944895</v>
+        <v>-0.6507460697090554</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.6806282358220184</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.7080991982499313</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +1016,16 @@
         <v>0.8422799497444543</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8319897273086079</v>
+        <v>0.8228751327700211</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8220127442528157</v>
+        <v>0.8138148514943915</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8059150233966101</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.798585027036251</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +1033,16 @@
         <v>0.8024978359850354</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7852938092493125</v>
+        <v>0.7853821015207229</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7691359516405509</v>
+        <v>0.7678300236883154</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7529036636185144</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7399609149213061</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +1050,16 @@
         <v>0.7912172320552134</v>
       </c>
       <c r="B37" t="n">
-        <v>0.767646983259594</v>
+        <v>0.7609076149438667</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7471079223737263</v>
+        <v>0.741357205273627</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7246334206242682</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7100797884660245</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +1067,16 @@
         <v>0.7837700563970399</v>
       </c>
       <c r="B38" t="n">
-        <v>0.759471446328237</v>
+        <v>0.7366364435688462</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7365332892878046</v>
+        <v>0.7174454321700235</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.70071915508476</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.685775935387294</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +1084,16 @@
         <v>0.5860965796672563</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5831043790969885</v>
+        <v>0.5855243524946664</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5807572289649692</v>
+        <v>0.581254185786493</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5780010875797771</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5751782616211654</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +1101,16 @@
         <v>0.7552916384599927</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7545904765981907</v>
+        <v>0.7561083832988317</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7531474682819043</v>
+        <v>0.7529239259480895</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7501121386842887</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7471137381980206</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +1118,16 @@
         <v>0.5824985163072363</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5736631958143509</v>
+        <v>0.5622956694324531</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5660166821978613</v>
+        <v>0.5542491414506645</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.548426806697642</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5440186200575029</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +1135,16 @@
         <v>0.7526836556520303</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7215599402919902</v>
+        <v>0.717555762537827</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6920796923304855</v>
+        <v>0.6901709337605276</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6660525226508269</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6446131761416967</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +1152,16 @@
         <v>0.7502657742423009</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7336091938271017</v>
+        <v>0.7238315262564594</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7179243178824716</v>
+        <v>0.7089146264171076</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.696341770703753</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6853766591219899</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +1169,16 @@
         <v>0.6824888561590887</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6743193507660545</v>
+        <v>0.6827550122941594</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6672284289971849</v>
+        <v>0.6744044547749227</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.667962365449804</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6627042221303827</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +1186,16 @@
         <v>0.6803937877007739</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6600740514179404</v>
+        <v>0.6771136849576195</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6429950345313618</v>
+        <v>0.6583104991077348</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6426328492272336</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6294800221062965</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +1203,16 @@
         <v>-1.24633521895066</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.252431146668739</v>
+        <v>-1.259800347351256</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.256512184098387</v>
+        <v>-1.264221901809358</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.268027398285052</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.271146924770325</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +1220,16 @@
         <v>-0.9626100134245785</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9698305569425633</v>
+        <v>-0.9744785939232784</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9747869049202756</v>
+        <v>-0.9798357644125127</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.9844132606936714</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.9882470557222144</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +1237,16 @@
         <v>-0.8532902459198494</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8627063238443551</v>
+        <v>-0.8670915112362984</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8687641519963322</v>
+        <v>-0.8736975128145139</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.8786593157822313</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.8821926283974424</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +1254,16 @@
         <v>-0.625930780610612</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6316061218671422</v>
+        <v>-0.6387216172683954</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6349765219189132</v>
+        <v>-0.642552574792616</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6451620197963193</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.6468336844088383</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +1271,16 @@
         <v>-0.0485066351980171</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04877058266929571</v>
+        <v>-0.04741797340894434</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.049114311899176</v>
+        <v>-0.04890637255914625</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.04993958249645333</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.05092721814402677</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +1288,16 @@
         <v>-0.8439751862521701</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8513032994962222</v>
+        <v>-0.8597263583354644</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8551400172311395</v>
+        <v>-0.8653123345455569</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.8695821122363085</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.8726475335820014</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +1305,16 @@
         <v>-0.8439751862521701</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8513032994962222</v>
+        <v>-0.8597263583354644</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8551400172311395</v>
+        <v>-0.8653123345455569</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.8695821122363085</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.8726475335820014</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1322,16 @@
         <v>-1.059977206488503</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.079134497588794</v>
+        <v>-1.084026444314512</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.093551729333249</v>
+        <v>-1.097711744551318</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.108985501860831</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.11800541456916</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1339,16 @@
         <v>-0.1869669533458129</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1865897922561882</v>
+        <v>-0.1873877067204152</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.184982862779744</v>
+        <v>-0.1870535167737291</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.1861402416707913</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.1850279466862052</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1356,16 @@
         <v>-0.9851476851446858</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9900142941882175</v>
+        <v>-0.9949076990006762</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9935862167009119</v>
+        <v>-0.9995363594736313</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.003507091978611</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.006871462771747</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1373,16 @@
         <v>-0.8990459399982134</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8920081595603776</v>
+        <v>-0.8880174882996399</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8860932383385447</v>
+        <v>-0.8846002655561328</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.8821556501015857</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.8806100719199673</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1390,16 @@
         <v>-0.9836382434262938</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9651520261654113</v>
+        <v>-0.9465298564717861</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9480444094739415</v>
+        <v>-0.9340088073217468</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.922904250613037</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.9132601035758863</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1407,16 @@
         <v>-1.198312682398943</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.165967125806632</v>
+        <v>-1.150464319453582</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.135323957330342</v>
+        <v>-1.12794034965257</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.10819690669765</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.091082532953955</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1424,16 @@
         <v>-0.8872480817410606</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8696744983449465</v>
+        <v>-0.8597473676828168</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8518372267606601</v>
+        <v>-0.8480402148460283</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.837058229996587</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.8268423868653458</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1441,16 @@
         <v>-0.5482761642896989</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5216568842680853</v>
+        <v>-0.5169242166440466</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4958122221176305</v>
+        <v>-0.4971111734956855</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.4790572592892098</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.4629535461656677</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1458,16 @@
         <v>0.3642531991403423</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3668232733977567</v>
+        <v>0.3695974316258775</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3699346703233274</v>
+        <v>0.3715007413611734</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3739489402862353</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3762942870129932</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1475,16 @@
         <v>-1.280524550406726</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.255433272480964</v>
+        <v>-1.227904722946455</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.232361134040926</v>
+        <v>-1.208923604921344</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.192233073768022</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.177809331338004</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1492,16 @@
         <v>-0.7950617336764875</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.762466120581034</v>
+        <v>-0.7638931319371256</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7268749157402274</v>
+        <v>-0.738311818883726</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.7140604164949913</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.6912917416230074</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1509,16 @@
         <v>-0.9052236543724776</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9010610062281696</v>
+        <v>-0.9076479785611221</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8924581126356002</v>
+        <v>-0.9019909101174564</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.8951714533026974</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.8875848416232844</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1526,16 @@
         <v>-0.1677027100732056</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1406406803056653</v>
+        <v>-0.1299984289218459</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.115100628572694</v>
+        <v>-0.1110487109336713</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.09381236941148394</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.07860579463933087</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1543,16 @@
         <v>-0.8678043789967734</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8330872961444159</v>
+        <v>-0.8131741492812394</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.8023975966178745</v>
+        <v>-0.7899089345158966</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.7700727020603297</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7536157145179764</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1560,16 @@
         <v>-0.8872140693307469</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8361999719167592</v>
+        <v>-0.7940639888657253</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7939409826044265</v>
+        <v>-0.7620704255356806</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.7357373231785281</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.714712208034043</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-0.2835478212216052</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2710269763752791</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>0.2267546620335315</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2363808436179855</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.167357836676539</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1795064852000615</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>-0.05931672983184233</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05208998289107258</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>0.1721059907394258</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1844076168350241</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>-0.4327701301594052</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4231535794630749</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.2341453757227157</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2217019461042063</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>-0.3855131683035065</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3714819906331702</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.3844560053390241</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3952196170343812</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +649,9 @@
       <c r="E11" t="n">
         <v>-0.2220910555124325</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2140941130895492</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +669,9 @@
       <c r="E12" t="n">
         <v>-0.04954890393392026</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.03486007078908521</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +689,9 @@
       <c r="E13" t="n">
         <v>-0.01090258543068098</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01063241645665745</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +709,9 @@
       <c r="E14" t="n">
         <v>0.1200001714382976</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1473480827247241</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +729,9 @@
       <c r="E15" t="n">
         <v>0.05835158744491686</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.08578765710835162</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +749,9 @@
       <c r="E16" t="n">
         <v>0.4493533368504043</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4894684839837889</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +769,9 @@
       <c r="E17" t="n">
         <v>0.651411384363581</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.669739091604699</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +789,9 @@
       <c r="E18" t="n">
         <v>0.01645657032599904</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.007507396208013842</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +809,9 @@
       <c r="E19" t="n">
         <v>0.4209024564469395</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.429610769818263</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +829,9 @@
       <c r="E20" t="n">
         <v>0.3880996029008814</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4238516379713042</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +849,9 @@
       <c r="E21" t="n">
         <v>0.6079756543920941</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.6405392155634581</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +869,9 @@
       <c r="E22" t="n">
         <v>0.4346283633947823</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4548242411429864</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +889,9 @@
       <c r="E23" t="n">
         <v>-0.01233182337135161</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.004479195386683649</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +909,9 @@
       <c r="E24" t="n">
         <v>4.421501485473843</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.259839552787211</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +929,9 @@
       <c r="E25" t="n">
         <v>0.4307215870663407</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.4059509843541855</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +949,9 @@
       <c r="E26" t="n">
         <v>0.3232177437176343</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.3019561859823068</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +969,9 @@
       <c r="E27" t="n">
         <v>0.2469851926634682</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2203768463469604</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +989,9 @@
       <c r="E28" t="n">
         <v>1.004102979255951</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9738471261354708</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +1009,9 @@
       <c r="E29" t="n">
         <v>4.644718656198088</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.26616385744736</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +1029,9 @@
       <c r="E30" t="n">
         <v>0.8684591437057199</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.829872386609344</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +1049,9 @@
       <c r="E31" t="n">
         <v>-0.3094231159897771</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3491537164552728</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +1069,9 @@
       <c r="E32" t="n">
         <v>0.7186382384955513</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6877490123924601</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +1089,9 @@
       <c r="E33" t="n">
         <v>0.8638037386630153</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.841465792876865</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +1109,9 @@
       <c r="E34" t="n">
         <v>-0.7080991982499313</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7331700476335815</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +1129,9 @@
       <c r="E35" t="n">
         <v>0.798585027036251</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7920160292513163</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +1149,9 @@
       <c r="E36" t="n">
         <v>0.7399609149213061</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7291040594808949</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +1169,9 @@
       <c r="E37" t="n">
         <v>0.7100797884660245</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6977979880270858</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +1189,9 @@
       <c r="E38" t="n">
         <v>0.685775935387294</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6726470636006867</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +1209,9 @@
       <c r="E39" t="n">
         <v>0.5751782616211654</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5728836631162821</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +1229,9 @@
       <c r="E40" t="n">
         <v>0.7471137381980206</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7441935299025084</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +1249,9 @@
       <c r="E41" t="n">
         <v>0.5440186200575029</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5409113055652108</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +1269,9 @@
       <c r="E42" t="n">
         <v>0.6446131761416967</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6259873846379105</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +1289,9 @@
       <c r="E43" t="n">
         <v>0.6853766591219899</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6760181840510228</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +1309,9 @@
       <c r="E44" t="n">
         <v>0.6627042221303827</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6586461164293215</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +1329,9 @@
       <c r="E45" t="n">
         <v>0.6294800221062965</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6189495773455673</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +1349,9 @@
       <c r="E46" t="n">
         <v>-1.271146924770325</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.27372393909234</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +1369,9 @@
       <c r="E47" t="n">
         <v>-0.9882470557222144</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9914504265013799</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +1389,9 @@
       <c r="E48" t="n">
         <v>-0.8821926283974424</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8845205222125354</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +1409,9 @@
       <c r="E49" t="n">
         <v>-0.6468336844088383</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6477373608858487</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +1429,9 @@
       <c r="E50" t="n">
         <v>-0.05092721814402677</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05189220293911058</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +1449,9 @@
       <c r="E51" t="n">
         <v>-0.8726475335820014</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8746573423118718</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +1469,9 @@
       <c r="E52" t="n">
         <v>-0.8726475335820014</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8746573423118718</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +1489,9 @@
       <c r="E53" t="n">
         <v>-1.11800541456916</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.125079664764845</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +1509,9 @@
       <c r="E54" t="n">
         <v>-0.1850279466862052</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1837975095206258</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +1529,9 @@
       <c r="E55" t="n">
         <v>-1.006871462771747</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.009732129941108</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +1549,9 @@
       <c r="E56" t="n">
         <v>-0.8806100719199673</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8798622754710476</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +1569,9 @@
       <c r="E57" t="n">
         <v>-0.9132601035758863</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9052383395045035</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +1589,9 @@
       <c r="E58" t="n">
         <v>-1.091082532953955</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.076641687930251</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +1609,9 @@
       <c r="E59" t="n">
         <v>-0.8268423868653458</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8175362572497751</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +1629,9 @@
       <c r="E60" t="n">
         <v>-0.4629535461656677</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4488722512572212</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +1649,9 @@
       <c r="E61" t="n">
         <v>0.3762942870129932</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3784817097557416</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +1669,9 @@
       <c r="E62" t="n">
         <v>-1.177809331338004</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.165772963610407</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +1689,9 @@
       <c r="E63" t="n">
         <v>-0.6912917416230074</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6701820481963325</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +1709,9 @@
       <c r="E64" t="n">
         <v>-0.8875848416232844</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8797003049845384</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +1729,9 @@
       <c r="E65" t="n">
         <v>-0.07860579463933087</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06542044143690855</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +1749,9 @@
       <c r="E66" t="n">
         <v>-0.7536157145179764</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7404256950561909</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +1768,9 @@
       </c>
       <c r="E67" t="n">
         <v>-0.714712208034043</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.69860541503373</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-0.2710269763752791</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.2596158854930152</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>0.2363808436179855</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.2453710828670461</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1795064852000615</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1910613554898959</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>-0.05208998289107258</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.04585987684371877</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>0.1844076168350241</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.1951605857904352</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.4231535794630749</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.4139817083952959</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.2217019461042063</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2096411149282374</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>-0.3714819906331702</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.3574484980562222</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.3952196170343812</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.404418330280007</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>-0.2140941130895492</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.206760032417857</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -672,6 +705,9 @@
       <c r="F12" t="n">
         <v>-0.03486007078908521</v>
       </c>
+      <c r="G12" t="n">
+        <v>-0.02286030729197874</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -692,6 +728,9 @@
       <c r="F13" t="n">
         <v>-0.01063241645665745</v>
       </c>
+      <c r="G13" t="n">
+        <v>-0.01055839702378772</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -712,6 +751,9 @@
       <c r="F14" t="n">
         <v>0.1473480827247241</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.1699052433392719</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -732,6 +774,9 @@
       <c r="F15" t="n">
         <v>0.08578765710835162</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.1072905834958369</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -752,6 +797,9 @@
       <c r="F16" t="n">
         <v>0.4894684839837889</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.5220003343357564</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -772,6 +820,9 @@
       <c r="F17" t="n">
         <v>0.669739091604699</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.6824811243605586</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -792,6 +843,9 @@
       <c r="F18" t="n">
         <v>0.007507396208013842</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.001061856884163964</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -812,6 +866,9 @@
       <c r="F19" t="n">
         <v>0.429610769818263</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.4357424955611553</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -832,6 +889,9 @@
       <c r="F20" t="n">
         <v>0.4238516379713042</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.451975737329019</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -852,6 +912,9 @@
       <c r="F21" t="n">
         <v>0.6405392155634581</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.6655800444305084</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -872,6 +935,9 @@
       <c r="F22" t="n">
         <v>0.4548242411429864</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.4696315792878966</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -892,6 +958,9 @@
       <c r="F23" t="n">
         <v>0.004479195386683649</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.01654273463297604</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -912,6 +981,9 @@
       <c r="F24" t="n">
         <v>4.259839552787211</v>
       </c>
+      <c r="G24" t="n">
+        <v>4.058606163239139</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -932,6 +1004,9 @@
       <c r="F25" t="n">
         <v>0.4059509843541855</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.3840881617944347</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -952,6 +1027,9 @@
       <c r="F26" t="n">
         <v>0.3019561859823068</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.2810078270096733</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -972,6 +1050,9 @@
       <c r="F27" t="n">
         <v>0.2203768463469604</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.1949246789246313</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -992,6 +1073,9 @@
       <c r="F28" t="n">
         <v>0.9738471261354708</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.9449041074225966</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1012,6 +1096,9 @@
       <c r="F29" t="n">
         <v>4.26616385744736</v>
       </c>
+      <c r="G29" t="n">
+        <v>3.907558034466732</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1032,6 +1119,9 @@
       <c r="F30" t="n">
         <v>0.829872386609344</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.7945940167542531</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1052,6 +1142,9 @@
       <c r="F31" t="n">
         <v>-0.3491537164552728</v>
       </c>
+      <c r="G31" t="n">
+        <v>-0.3833871922137009</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1072,6 +1165,9 @@
       <c r="F32" t="n">
         <v>0.6877490123924601</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.6594323439048555</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1092,6 +1188,9 @@
       <c r="F33" t="n">
         <v>0.841465792876865</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.8214501340055419</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1112,6 +1211,9 @@
       <c r="F34" t="n">
         <v>-0.7331700476335815</v>
       </c>
+      <c r="G34" t="n">
+        <v>-0.7557519296278324</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1132,6 +1234,9 @@
       <c r="F35" t="n">
         <v>0.7920160292513163</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.7863407935156189</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1152,6 +1257,9 @@
       <c r="F36" t="n">
         <v>0.7291040594808949</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.7203619484195833</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1172,6 +1280,9 @@
       <c r="F37" t="n">
         <v>0.6977979880270858</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.6878153740605372</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1192,6 +1303,9 @@
       <c r="F38" t="n">
         <v>0.6726470636006867</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.6613186423500823</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1212,6 +1326,9 @@
       <c r="F39" t="n">
         <v>0.5728836631162821</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.5711784634406741</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1232,6 +1349,9 @@
       <c r="F40" t="n">
         <v>0.7441935299025084</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.7415545105863276</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1252,6 +1372,9 @@
       <c r="F41" t="n">
         <v>0.5409113055652108</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.5389798271629738</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1272,6 +1395,9 @@
       <c r="F42" t="n">
         <v>0.6259873846379105</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.6102109263094102</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1292,6 +1418,9 @@
       <c r="F43" t="n">
         <v>0.6760181840510228</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.6682308675736951</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1312,6 +1441,9 @@
       <c r="F44" t="n">
         <v>0.6586461164293215</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.6557696586575195</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1332,6 +1464,9 @@
       <c r="F45" t="n">
         <v>0.6189495773455673</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.6110476820857152</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1352,6 +1487,9 @@
       <c r="F46" t="n">
         <v>-1.27372393909234</v>
       </c>
+      <c r="G46" t="n">
+        <v>-1.275893389814392</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1372,6 +1510,9 @@
       <c r="F47" t="n">
         <v>-0.9914504265013799</v>
       </c>
+      <c r="G47" t="n">
+        <v>-0.9941366854700846</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1392,6 +1533,9 @@
       <c r="F48" t="n">
         <v>-0.8845205222125354</v>
       </c>
+      <c r="G48" t="n">
+        <v>-0.8858589476385033</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1412,6 +1556,9 @@
       <c r="F49" t="n">
         <v>-0.6477373608858487</v>
       </c>
+      <c r="G49" t="n">
+        <v>-0.6480340209576047</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1432,6 +1579,9 @@
       <c r="F50" t="n">
         <v>-0.05189220293911058</v>
       </c>
+      <c r="G50" t="n">
+        <v>-0.0528562930497221</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1452,6 +1602,9 @@
       <c r="F51" t="n">
         <v>-0.8746573423118718</v>
       </c>
+      <c r="G51" t="n">
+        <v>-0.8757645416470228</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1472,6 +1625,9 @@
       <c r="F52" t="n">
         <v>-0.8746573423118718</v>
       </c>
+      <c r="G52" t="n">
+        <v>-0.8757645416470228</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1492,6 +1648,9 @@
       <c r="F53" t="n">
         <v>-1.125079664764845</v>
       </c>
+      <c r="G53" t="n">
+        <v>-1.130506392711533</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1512,6 +1671,9 @@
       <c r="F54" t="n">
         <v>-0.1837975095206258</v>
       </c>
+      <c r="G54" t="n">
+        <v>-0.1825188512807592</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1532,6 +1694,9 @@
       <c r="F55" t="n">
         <v>-1.009732129941108</v>
       </c>
+      <c r="G55" t="n">
+        <v>-1.012192604975014</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1552,6 +1717,9 @@
       <c r="F56" t="n">
         <v>-0.8798622754710476</v>
       </c>
+      <c r="G56" t="n">
+        <v>-0.879820587749738</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1572,6 +1740,9 @@
       <c r="F57" t="n">
         <v>-0.9052383395045035</v>
       </c>
+      <c r="G57" t="n">
+        <v>-0.8989251602634961</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1592,6 +1763,9 @@
       <c r="F58" t="n">
         <v>-1.076641687930251</v>
       </c>
+      <c r="G58" t="n">
+        <v>-1.064849937722372</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1612,6 +1786,9 @@
       <c r="F59" t="n">
         <v>-0.8175362572497751</v>
       </c>
+      <c r="G59" t="n">
+        <v>-0.8092358130213406</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1632,6 +1809,9 @@
       <c r="F60" t="n">
         <v>-0.4488722512572212</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.4368266935790862</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1652,6 +1832,9 @@
       <c r="F61" t="n">
         <v>0.3784817097557416</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.3804714086399231</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1672,6 +1855,9 @@
       <c r="F62" t="n">
         <v>-1.165772963610407</v>
       </c>
+      <c r="G62" t="n">
+        <v>-1.156171114900485</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1692,6 +1878,9 @@
       <c r="F63" t="n">
         <v>-0.6701820481963325</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.6508516953063617</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1712,6 +1901,9 @@
       <c r="F64" t="n">
         <v>-0.8797003049845384</v>
       </c>
+      <c r="G64" t="n">
+        <v>-0.871910900885668</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1732,6 +1924,9 @@
       <c r="F65" t="n">
         <v>-0.06542044143690855</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.05420637743493682</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1752,6 +1947,9 @@
       <c r="F66" t="n">
         <v>-0.7404256950561909</v>
       </c>
+      <c r="G66" t="n">
+        <v>-0.7303398719340658</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1771,6 +1969,9 @@
       </c>
       <c r="F67" t="n">
         <v>-0.69860541503373</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6869868437876415</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-0.2596158854930152</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.2494134647591624</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>0.2453710828670461</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.2535077598705133</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1910613554898959</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.2018116045508441</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>-0.04585987684371877</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.04066387733147439</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>0.1951605857904352</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.2043343713306258</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.4139817083952959</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.4054487654042924</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2096411149282374</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.1981431910756002</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>-0.3574484980562222</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.3438843844624649</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.404418330280007</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.4120749168501524</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +715,9 @@
       <c r="G11" t="n">
         <v>-0.206760032417857</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.2001810938827234</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +741,9 @@
       <c r="G12" t="n">
         <v>-0.02286030729197874</v>
       </c>
+      <c r="H12" t="n">
+        <v>-0.01350236170101133</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +767,9 @@
       <c r="G13" t="n">
         <v>-0.01055839702378772</v>
       </c>
+      <c r="H13" t="n">
+        <v>-0.01073958581464813</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +793,9 @@
       <c r="G14" t="n">
         <v>0.1699052433392719</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.1877179317744765</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +819,9 @@
       <c r="G15" t="n">
         <v>0.1072905834958369</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.123034024999615</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +845,9 @@
       <c r="G16" t="n">
         <v>0.5220003343357564</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.5471072515249714</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +871,9 @@
       <c r="G17" t="n">
         <v>0.6824811243605586</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.6899423237603094</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +897,9 @@
       <c r="G18" t="n">
         <v>-0.001061856884163964</v>
       </c>
+      <c r="H18" t="n">
+        <v>-0.00944370154860058</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +923,9 @@
       <c r="G19" t="n">
         <v>0.4357424955611553</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.4393731070100824</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +949,9 @@
       <c r="G20" t="n">
         <v>0.451975737329019</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.472725734299636</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +975,9 @@
       <c r="G21" t="n">
         <v>0.6655800444305084</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.6836574877233705</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1001,9 @@
       <c r="G22" t="n">
         <v>0.4696315792878966</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.4793266742615949</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1027,9 @@
       <c r="G23" t="n">
         <v>0.01654273463297604</v>
       </c>
+      <c r="H23" t="n">
+        <v>0.02415916386444616</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1053,9 @@
       <c r="G24" t="n">
         <v>4.058606163239139</v>
       </c>
+      <c r="H24" t="n">
+        <v>3.829293887061531</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1079,9 @@
       <c r="G25" t="n">
         <v>0.3840881617944347</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.3650346733374713</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1105,9 @@
       <c r="G26" t="n">
         <v>0.2810078270096733</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.2607594902820894</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1131,9 @@
       <c r="G27" t="n">
         <v>0.1949246789246313</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.1709217269518086</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1157,9 @@
       <c r="G28" t="n">
         <v>0.9449041074225966</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.917754431113464</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1183,9 @@
       <c r="G29" t="n">
         <v>3.907558034466732</v>
       </c>
+      <c r="H29" t="n">
+        <v>3.571574335776444</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1209,9 @@
       <c r="G30" t="n">
         <v>0.7945940167542531</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.7627834673995552</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1235,9 @@
       <c r="G31" t="n">
         <v>-0.3833871922137009</v>
       </c>
+      <c r="H31" t="n">
+        <v>-0.4123672452361589</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1261,9 @@
       <c r="G32" t="n">
         <v>0.6594323439048555</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.6338429560111434</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1287,9 @@
       <c r="G33" t="n">
         <v>0.8214501340055419</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.8037741575345301</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1313,9 @@
       <c r="G34" t="n">
         <v>-0.7557519296278324</v>
       </c>
+      <c r="H34" t="n">
+        <v>-0.7758161368769759</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1339,9 @@
       <c r="G35" t="n">
         <v>0.7863407935156189</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.7816377779166287</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1365,9 @@
       <c r="G36" t="n">
         <v>0.7203619484195833</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.7136966432730085</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1391,9 @@
       <c r="G37" t="n">
         <v>0.6878153740605372</v>
       </c>
+      <c r="H37" t="n">
+        <v>0.6800883543495084</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1417,9 @@
       <c r="G38" t="n">
         <v>0.6613186423500823</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.6517414797042518</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1443,9 @@
       <c r="G39" t="n">
         <v>0.5711784634406741</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.5700878755006239</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1469,9 @@
       <c r="G40" t="n">
         <v>0.7415545105863276</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.739341944465693</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1495,9 @@
       <c r="G41" t="n">
         <v>0.5389798271629738</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.5380921947740711</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +1521,9 @@
       <c r="G42" t="n">
         <v>0.6102109263094102</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.5972412922606662</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +1547,9 @@
       <c r="G43" t="n">
         <v>0.6682308675736951</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.661948359135175</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +1573,9 @@
       <c r="G44" t="n">
         <v>0.6557696586575195</v>
       </c>
+      <c r="H44" t="n">
+        <v>0.6540222362406667</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +1599,9 @@
       <c r="G45" t="n">
         <v>0.6110476820857152</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.6056952120027472</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +1625,9 @@
       <c r="G46" t="n">
         <v>-1.275893389814392</v>
       </c>
+      <c r="H46" t="n">
+        <v>-1.27777541265767</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +1651,9 @@
       <c r="G47" t="n">
         <v>-0.9941366854700846</v>
       </c>
+      <c r="H47" t="n">
+        <v>-0.996411346157938</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +1677,9 @@
       <c r="G48" t="n">
         <v>-0.8858589476385033</v>
       </c>
+      <c r="H48" t="n">
+        <v>-0.8864115789058282</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +1703,9 @@
       <c r="G49" t="n">
         <v>-0.6480340209576047</v>
       </c>
+      <c r="H49" t="n">
+        <v>-0.6478729951673289</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +1729,9 @@
       <c r="G50" t="n">
         <v>-0.0528562930497221</v>
       </c>
+      <c r="H50" t="n">
+        <v>-0.05383724913442071</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +1755,9 @@
       <c r="G51" t="n">
         <v>-0.8757645416470228</v>
       </c>
+      <c r="H51" t="n">
+        <v>-0.8761230794044883</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +1781,9 @@
       <c r="G52" t="n">
         <v>-0.8757645416470228</v>
       </c>
+      <c r="H52" t="n">
+        <v>-0.8761230794044883</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +1807,9 @@
       <c r="G53" t="n">
         <v>-1.130506392711533</v>
       </c>
+      <c r="H53" t="n">
+        <v>-1.134565847807824</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +1833,9 @@
       <c r="G54" t="n">
         <v>-0.1825188512807592</v>
       </c>
+      <c r="H54" t="n">
+        <v>-0.1812547211952495</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +1859,9 @@
       <c r="G55" t="n">
         <v>-1.012192604975014</v>
       </c>
+      <c r="H55" t="n">
+        <v>-1.014347451810009</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +1885,9 @@
       <c r="G56" t="n">
         <v>-0.879820587749738</v>
       </c>
+      <c r="H56" t="n">
+        <v>-0.880397995984679</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +1911,9 @@
       <c r="G57" t="n">
         <v>-0.8989251602634961</v>
       </c>
+      <c r="H57" t="n">
+        <v>-0.8943422840970707</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +1937,9 @@
       <c r="G58" t="n">
         <v>-1.064849937722372</v>
       </c>
+      <c r="H58" t="n">
+        <v>-1.05562582062832</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +1963,9 @@
       <c r="G59" t="n">
         <v>-0.8092358130213406</v>
       </c>
+      <c r="H59" t="n">
+        <v>-0.8020029699480234</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +1989,9 @@
       <c r="G60" t="n">
         <v>-0.4368266935790862</v>
       </c>
+      <c r="H60" t="n">
+        <v>-0.426785253035197</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2015,9 @@
       <c r="G61" t="n">
         <v>0.3804714086399231</v>
       </c>
+      <c r="H61" t="n">
+        <v>0.3822343904524416</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2041,9 @@
       <c r="G62" t="n">
         <v>-1.156171114900485</v>
       </c>
+      <c r="H62" t="n">
+        <v>-1.148978508218805</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1881,6 +2067,9 @@
       <c r="G63" t="n">
         <v>-0.6508516953063617</v>
       </c>
+      <c r="H63" t="n">
+        <v>-0.6333795734145016</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1904,6 +2093,9 @@
       <c r="G64" t="n">
         <v>-0.871910900885668</v>
       </c>
+      <c r="H64" t="n">
+        <v>-0.864531820010805</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1927,6 +2119,9 @@
       <c r="G65" t="n">
         <v>-0.05420637743493682</v>
       </c>
+      <c r="H65" t="n">
+        <v>-0.04488487545218349</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1950,6 +2145,9 @@
       <c r="G66" t="n">
         <v>-0.7303398719340658</v>
       </c>
+      <c r="H66" t="n">
+        <v>-0.7231512973373276</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1972,6 +2170,9 @@
       </c>
       <c r="G67" t="n">
         <v>-0.6869868437876415</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6794025051807976</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-0.2494134647591624</v>
       </c>
+      <c r="I2" t="n">
+        <v>-0.2404759728594606</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>0.2535077598705133</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.2606417486989158</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.2018116045508441</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2116024479038412</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>-0.04066387733147439</v>
       </c>
+      <c r="I5" t="n">
+        <v>-0.03650552651546127</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>0.2043343713306258</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.2119431823239076</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.4054487654042924</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.3976998626715903</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.1981431910756002</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.1873522784280649</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>-0.3438843844624649</v>
       </c>
+      <c r="I9" t="n">
+        <v>-0.3311570684597888</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.4120749168501524</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.4182448081930997</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,6 +748,9 @@
       <c r="H11" t="n">
         <v>-0.2001810938827234</v>
       </c>
+      <c r="I11" t="n">
+        <v>-0.1944173193469702</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -744,6 +777,9 @@
       <c r="H12" t="n">
         <v>-0.01350236170101133</v>
       </c>
+      <c r="I12" t="n">
+        <v>-0.006675735533797481</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -770,6 +806,9 @@
       <c r="H13" t="n">
         <v>-0.01073958581464813</v>
       </c>
+      <c r="I13" t="n">
+        <v>-0.01121168398898065</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -796,6 +835,9 @@
       <c r="H14" t="n">
         <v>0.1877179317744765</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.200958133470859</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -822,6 +864,9 @@
       <c r="H15" t="n">
         <v>0.123034024999615</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.1333281808994932</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -848,6 +893,9 @@
       <c r="H16" t="n">
         <v>0.5471072515249714</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.5651306696252288</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -874,6 +922,9 @@
       <c r="H17" t="n">
         <v>0.6899423237603094</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.6925355295975975</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -900,6 +951,9 @@
       <c r="H18" t="n">
         <v>-0.00944370154860058</v>
       </c>
+      <c r="I18" t="n">
+        <v>-0.01776560869409105</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -926,6 +980,9 @@
       <c r="H19" t="n">
         <v>0.4393731070100824</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.4406442149391571</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -952,6 +1009,9 @@
       <c r="H20" t="n">
         <v>0.472725734299636</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.4865221549901725</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -978,6 +1038,9 @@
       <c r="H21" t="n">
         <v>0.6836574877233705</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.6954078207971177</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1004,6 +1067,9 @@
       <c r="H22" t="n">
         <v>0.4793266742615949</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.4842882933511818</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1030,6 +1096,9 @@
       <c r="H23" t="n">
         <v>0.02415916386444616</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.02770241852969221</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1056,6 +1125,9 @@
       <c r="H24" t="n">
         <v>3.829293887061531</v>
       </c>
+      <c r="I24" t="n">
+        <v>3.582069113500677</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1082,6 +1154,9 @@
       <c r="H25" t="n">
         <v>0.3650346733374713</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.3486592294956423</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1108,6 +1183,9 @@
       <c r="H26" t="n">
         <v>0.2607594902820894</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.241519524240988</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1134,6 +1212,9 @@
       <c r="H27" t="n">
         <v>0.1709217269518086</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.1485890555498114</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1160,6 +1241,9 @@
       <c r="H28" t="n">
         <v>0.917754431113464</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.8927569204684576</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1186,6 +1270,9 @@
       <c r="H29" t="n">
         <v>3.571574335776444</v>
       </c>
+      <c r="I29" t="n">
+        <v>3.260208721662153</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1212,6 +1299,9 @@
       <c r="H30" t="n">
         <v>0.7627834673995552</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.7345066210396571</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1238,6 +1328,9 @@
       <c r="H31" t="n">
         <v>-0.4123672452361589</v>
       </c>
+      <c r="I31" t="n">
+        <v>-0.4364064298054283</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1264,6 +1357,9 @@
       <c r="H32" t="n">
         <v>0.6338429560111434</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.6110549473703306</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1290,6 +1386,9 @@
       <c r="H33" t="n">
         <v>0.8037741575345301</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.7884055637459912</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1316,6 +1415,9 @@
       <c r="H34" t="n">
         <v>-0.7758161368769759</v>
       </c>
+      <c r="I34" t="n">
+        <v>-0.7933915385576685</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1342,6 +1444,9 @@
       <c r="H35" t="n">
         <v>0.7816377779166287</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.7779394804285167</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1368,6 +1473,9 @@
       <c r="H36" t="n">
         <v>0.7136966432730085</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.7090165876941451</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1394,6 +1502,9 @@
       <c r="H37" t="n">
         <v>0.6800883543495084</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.674517059438786</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1420,6 +1531,9 @@
       <c r="H38" t="n">
         <v>0.6517414797042518</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.6438366321590819</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1446,6 +1560,9 @@
       <c r="H39" t="n">
         <v>0.5700878755006239</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.5696083321702065</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1472,6 +1589,9 @@
       <c r="H40" t="n">
         <v>0.739341944465693</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.7376519628031695</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1498,6 +1618,9 @@
       <c r="H41" t="n">
         <v>0.5380921947740711</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.5381131475647695</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1524,6 +1647,9 @@
       <c r="H42" t="n">
         <v>0.5972412922606662</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.5869711874767473</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1550,6 +1676,9 @@
       <c r="H43" t="n">
         <v>0.661948359135175</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.6570797491988574</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1576,6 +1705,9 @@
       <c r="H44" t="n">
         <v>0.6540222362406667</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.6533253168312592</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1602,6 +1734,9 @@
       <c r="H45" t="n">
         <v>0.6056952120027472</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.6027471389560697</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1628,6 +1763,9 @@
       <c r="H46" t="n">
         <v>-1.27777541265767</v>
       </c>
+      <c r="I46" t="n">
+        <v>-1.279474928605885</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1654,6 +1792,9 @@
       <c r="H47" t="n">
         <v>-0.996411346157938</v>
       </c>
+      <c r="I47" t="n">
+        <v>-0.9983706959192367</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1680,6 +1821,9 @@
       <c r="H48" t="n">
         <v>-0.8864115789058282</v>
       </c>
+      <c r="I48" t="n">
+        <v>-0.8863664927238913</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1706,6 +1850,9 @@
       <c r="H49" t="n">
         <v>-0.6478729951673289</v>
       </c>
+      <c r="I49" t="n">
+        <v>-0.6473899105519477</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1732,6 +1879,9 @@
       <c r="H50" t="n">
         <v>-0.05383724913442071</v>
       </c>
+      <c r="I50" t="n">
+        <v>-0.05484928663512835</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1758,6 +1908,9 @@
       <c r="H51" t="n">
         <v>-0.8761230794044883</v>
       </c>
+      <c r="I51" t="n">
+        <v>-0.8758826000222626</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1784,6 +1937,9 @@
       <c r="H52" t="n">
         <v>-0.8761230794044883</v>
       </c>
+      <c r="I52" t="n">
+        <v>-0.8758826000222626</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1810,6 +1966,9 @@
       <c r="H53" t="n">
         <v>-1.134565847807824</v>
       </c>
+      <c r="I53" t="n">
+        <v>-1.137517334342016</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1836,6 +1995,9 @@
       <c r="H54" t="n">
         <v>-0.1812547211952495</v>
       </c>
+      <c r="I54" t="n">
+        <v>-0.1800594831859968</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1862,6 +2024,9 @@
       <c r="H55" t="n">
         <v>-1.014347451810009</v>
       </c>
+      <c r="I55" t="n">
+        <v>-1.016281607107832</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1888,6 +2053,9 @@
       <c r="H56" t="n">
         <v>-0.880397995984679</v>
       </c>
+      <c r="I56" t="n">
+        <v>-0.8815123090215582</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1914,6 +2082,9 @@
       <c r="H57" t="n">
         <v>-0.8943422840970707</v>
       </c>
+      <c r="I57" t="n">
+        <v>-0.8914578531645718</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1940,6 +2111,9 @@
       <c r="H58" t="n">
         <v>-1.05562582062832</v>
       </c>
+      <c r="I58" t="n">
+        <v>-1.048840863499895</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1966,6 +2140,9 @@
       <c r="H59" t="n">
         <v>-0.8020029699480234</v>
       </c>
+      <c r="I59" t="n">
+        <v>-0.7958681379564728</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1992,6 +2169,9 @@
       <c r="H60" t="n">
         <v>-0.426785253035197</v>
       </c>
+      <c r="I60" t="n">
+        <v>-0.4186777125266424</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2018,6 +2198,9 @@
       <c r="H61" t="n">
         <v>0.3822343904524416</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.3837518258425081</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2044,6 +2227,9 @@
       <c r="H62" t="n">
         <v>-1.148978508218805</v>
       </c>
+      <c r="I62" t="n">
+        <v>-1.144110587613577</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2070,6 +2256,9 @@
       <c r="H63" t="n">
         <v>-0.6333795734145016</v>
       </c>
+      <c r="I63" t="n">
+        <v>-0.617802922687071</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2096,6 +2285,9 @@
       <c r="H64" t="n">
         <v>-0.864531820010805</v>
       </c>
+      <c r="I64" t="n">
+        <v>-0.8578063864726944</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2122,6 +2314,9 @@
       <c r="H65" t="n">
         <v>-0.04488487545218349</v>
       </c>
+      <c r="I65" t="n">
+        <v>-0.03735261557683875</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2148,6 +2343,9 @@
       <c r="H66" t="n">
         <v>-0.7231512973373276</v>
       </c>
+      <c r="I66" t="n">
+        <v>-0.7186198046479091</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2173,6 +2371,9 @@
       </c>
       <c r="H67" t="n">
         <v>-0.6794025051807976</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6753872027566308</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-0.2404759728594606</v>
       </c>
+      <c r="J2" t="n">
+        <v>-0.232822303522194</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>0.2606417486989158</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.2666833371015181</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2116024479038412</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.2203296333044949</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>-0.03650552651546127</v>
       </c>
+      <c r="J5" t="n">
+        <v>-0.03336019002879025</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>0.2119431823239076</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.2180381711982811</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.3976998626715903</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.3908356495012238</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.1873522784280649</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.1773776702096947</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>-0.3311570684597888</v>
       </c>
+      <c r="J9" t="n">
+        <v>-0.3195397314496072</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.4182448081930997</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.4230095490861648</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -751,6 +781,9 @@
       <c r="I11" t="n">
         <v>-0.1944173193469702</v>
       </c>
+      <c r="J11" t="n">
+        <v>-0.1894999843049163</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -780,6 +813,9 @@
       <c r="I12" t="n">
         <v>-0.006675735533797481</v>
       </c>
+      <c r="J12" t="n">
+        <v>-0.002220599517920502</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -809,6 +845,9 @@
       <c r="I13" t="n">
         <v>-0.01121168398898065</v>
       </c>
+      <c r="J13" t="n">
+        <v>-0.01199080141790344</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -838,6 +877,9 @@
       <c r="I14" t="n">
         <v>0.200958133470859</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.2098963702078227</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -867,6 +909,9 @@
       <c r="I15" t="n">
         <v>0.1333281808994932</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.1385865487741634</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -896,6 +941,9 @@
       <c r="I16" t="n">
         <v>0.5651306696252288</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.5765529099216992</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -925,6 +973,9 @@
       <c r="I17" t="n">
         <v>0.6925355295975975</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.6907498020085852</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -954,6 +1005,9 @@
       <c r="I18" t="n">
         <v>-0.01776560869409105</v>
       </c>
+      <c r="J18" t="n">
+        <v>-0.02610232393856689</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -983,6 +1037,9 @@
       <c r="I19" t="n">
         <v>0.4406442149391571</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.4397471041706126</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1012,6 +1069,9 @@
       <c r="I20" t="n">
         <v>0.4865221549901725</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.4939107190402706</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1041,6 +1101,9 @@
       <c r="I21" t="n">
         <v>0.6954078207971177</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.7015159836111202</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1070,6 +1133,9 @@
       <c r="I22" t="n">
         <v>0.4842882933511818</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.4849684959646284</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1099,6 +1165,9 @@
       <c r="I23" t="n">
         <v>0.02770241852969221</v>
       </c>
+      <c r="J23" t="n">
+        <v>0.02759688120563128</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1128,6 +1197,9 @@
       <c r="I24" t="n">
         <v>3.582069113500677</v>
       </c>
+      <c r="J24" t="n">
+        <v>3.325755979431261</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1157,6 +1229,9 @@
       <c r="I25" t="n">
         <v>0.3486592294956423</v>
       </c>
+      <c r="J25" t="n">
+        <v>0.3348047525211469</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1186,6 +1261,9 @@
       <c r="I26" t="n">
         <v>0.241519524240988</v>
       </c>
+      <c r="J26" t="n">
+        <v>0.2235245307387315</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1215,6 +1293,9 @@
       <c r="I27" t="n">
         <v>0.1485890555498114</v>
       </c>
+      <c r="J27" t="n">
+        <v>0.1280833015648155</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1244,6 +1325,9 @@
       <c r="I28" t="n">
         <v>0.8927569204684576</v>
       </c>
+      <c r="J28" t="n">
+        <v>0.8701596713505033</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1273,6 +1357,9 @@
       <c r="I29" t="n">
         <v>3.260208721662153</v>
       </c>
+      <c r="J29" t="n">
+        <v>2.9748036443069</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1302,6 +1389,9 @@
       <c r="I30" t="n">
         <v>0.7345066210396571</v>
       </c>
+      <c r="J30" t="n">
+        <v>0.7097485539998468</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1331,6 +1421,9 @@
       <c r="I31" t="n">
         <v>-0.4364064298054283</v>
       </c>
+      <c r="J31" t="n">
+        <v>-0.4558666551024488</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1360,6 +1453,9 @@
       <c r="I32" t="n">
         <v>0.6110549473703306</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.5910732129381779</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1389,6 +1485,9 @@
       <c r="I33" t="n">
         <v>0.7884055637459912</v>
       </c>
+      <c r="J33" t="n">
+        <v>0.7752712732644464</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1418,6 +1517,9 @@
       <c r="I34" t="n">
         <v>-0.7933915385576685</v>
       </c>
+      <c r="J34" t="n">
+        <v>-0.8085541372165379</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1447,6 +1549,9 @@
       <c r="I35" t="n">
         <v>0.7779394804285167</v>
       </c>
+      <c r="J35" t="n">
+        <v>0.7752405001529453</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1476,6 +1581,9 @@
       <c r="I36" t="n">
         <v>0.7090165876941451</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.7061889749995243</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1505,6 +1613,9 @@
       <c r="I37" t="n">
         <v>0.674517059438786</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.6709582973472393</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1534,6 +1645,9 @@
       <c r="I38" t="n">
         <v>0.6438366321590819</v>
       </c>
+      <c r="J38" t="n">
+        <v>0.6375017477183078</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1563,6 +1677,9 @@
       <c r="I39" t="n">
         <v>0.5696083321702065</v>
       </c>
+      <c r="J39" t="n">
+        <v>0.5697136560434141</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1592,6 +1709,9 @@
       <c r="I40" t="n">
         <v>0.7376519628031695</v>
       </c>
+      <c r="J40" t="n">
+        <v>0.7365393036289473</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1621,6 +1741,9 @@
       <c r="I41" t="n">
         <v>0.5381131475647695</v>
       </c>
+      <c r="J41" t="n">
+        <v>0.5389080304880427</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1650,6 +1773,9 @@
       <c r="I42" t="n">
         <v>0.5869711874767473</v>
       </c>
+      <c r="J42" t="n">
+        <v>0.5792424257292372</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1679,6 +1805,9 @@
       <c r="I43" t="n">
         <v>0.6570797491988574</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.6535158201456253</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1708,6 +1837,9 @@
       <c r="I44" t="n">
         <v>0.6533253168312592</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.6535816580668321</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1737,6 +1869,9 @@
       <c r="I45" t="n">
         <v>0.6027471389560697</v>
       </c>
+      <c r="J45" t="n">
+        <v>0.6020092202119568</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1766,6 +1901,9 @@
       <c r="I46" t="n">
         <v>-1.279474928605885</v>
       </c>
+      <c r="J46" t="n">
+        <v>-1.281081603219082</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1795,6 +1933,9 @@
       <c r="I47" t="n">
         <v>-0.9983706959192367</v>
       </c>
+      <c r="J47" t="n">
+        <v>-1.000100948161297</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1824,6 +1965,9 @@
       <c r="I48" t="n">
         <v>-0.8863664927238913</v>
       </c>
+      <c r="J48" t="n">
+        <v>-0.885894011295027</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1853,6 +1997,9 @@
       <c r="I49" t="n">
         <v>-0.6473899105519477</v>
       </c>
+      <c r="J49" t="n">
+        <v>-0.6467054205444435</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1882,6 +2029,9 @@
       <c r="I50" t="n">
         <v>-0.05484928663512835</v>
       </c>
+      <c r="J50" t="n">
+        <v>-0.0559031565432704</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1911,6 +2061,9 @@
       <c r="I51" t="n">
         <v>-0.8758826000222626</v>
       </c>
+      <c r="J51" t="n">
+        <v>-0.8751849097204181</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1940,6 +2093,9 @@
       <c r="I52" t="n">
         <v>-0.8758826000222626</v>
       </c>
+      <c r="J52" t="n">
+        <v>-0.8751849097204181</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1969,6 +2125,9 @@
       <c r="I53" t="n">
         <v>-1.137517334342016</v>
       </c>
+      <c r="J53" t="n">
+        <v>-1.139597021077551</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1998,6 +2157,9 @@
       <c r="I54" t="n">
         <v>-0.1800594831859968</v>
       </c>
+      <c r="J54" t="n">
+        <v>-0.1789786861425482</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2027,6 +2189,9 @@
       <c r="I55" t="n">
         <v>-1.016281607107832</v>
       </c>
+      <c r="J55" t="n">
+        <v>-1.018069801533375</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2056,6 +2221,9 @@
       <c r="I56" t="n">
         <v>-0.8815123090215582</v>
       </c>
+      <c r="J56" t="n">
+        <v>-0.8830864344087977</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2085,6 +2253,9 @@
       <c r="I57" t="n">
         <v>-0.8914578531645718</v>
       </c>
+      <c r="J57" t="n">
+        <v>-0.8901968715835221</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2114,6 +2285,9 @@
       <c r="I58" t="n">
         <v>-1.048840863499895</v>
       </c>
+      <c r="J58" t="n">
+        <v>-1.044330094394709</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2143,6 +2317,9 @@
       <c r="I59" t="n">
         <v>-0.7958681379564728</v>
       </c>
+      <c r="J59" t="n">
+        <v>-0.7908339464704452</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2172,6 +2349,9 @@
       <c r="I60" t="n">
         <v>-0.4186777125266424</v>
       </c>
+      <c r="J60" t="n">
+        <v>-0.4124026353263292</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2201,6 +2381,9 @@
       <c r="I61" t="n">
         <v>0.3837518258425081</v>
       </c>
+      <c r="J61" t="n">
+        <v>0.3850139722846385</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2230,6 +2413,9 @@
       <c r="I62" t="n">
         <v>-1.144110587613577</v>
       </c>
+      <c r="J62" t="n">
+        <v>-1.141435760791423</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2259,6 +2445,9 @@
       <c r="I63" t="n">
         <v>-0.617802922687071</v>
       </c>
+      <c r="J63" t="n">
+        <v>-0.6041211811518767</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2288,6 +2477,9 @@
       <c r="I64" t="n">
         <v>-0.8578063864726944</v>
       </c>
+      <c r="J64" t="n">
+        <v>-0.8519130504275263</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2317,6 +2509,9 @@
       <c r="I65" t="n">
         <v>-0.03735261557683875</v>
       </c>
+      <c r="J65" t="n">
+        <v>-0.03148710987974868</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2346,6 +2541,9 @@
       <c r="I66" t="n">
         <v>-0.7186198046479091</v>
       </c>
+      <c r="J66" t="n">
+        <v>-0.7164827973954824</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2374,6 +2572,9 @@
       </c>
       <c r="I67" t="n">
         <v>-0.6753872027566308</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6744760753810256</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-0.232822303522194</v>
       </c>
+      <c r="K2" t="n">
+        <v>-0.2264393990900728</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>0.2666833371015181</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.2715932029369747</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.2203296333044949</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.227933395128128</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>-0.03336019002879025</v>
       </c>
+      <c r="K5" t="n">
+        <v>-0.03118064515507078</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>0.2180381711982811</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.2226998193027494</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.3908356495012238</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.3849173974105329</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.1773776702096947</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.1682961863859622</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>-0.3195397314496072</v>
       </c>
+      <c r="K9" t="n">
+        <v>-0.3092219932519451</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.4230095490861648</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.4264705491219702</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -784,6 +814,9 @@
       <c r="J11" t="n">
         <v>-0.1894999843049163</v>
       </c>
+      <c r="K11" t="n">
+        <v>-0.1854354800068831</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -816,6 +849,9 @@
       <c r="J12" t="n">
         <v>-0.002220599517920502</v>
       </c>
+      <c r="K12" t="n">
+        <v>5.925827294288311e-05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -848,6 +884,9 @@
       <c r="J13" t="n">
         <v>-0.01199080141790344</v>
       </c>
+      <c r="K13" t="n">
+        <v>-0.01307710363766527</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -880,6 +919,9 @@
       <c r="J14" t="n">
         <v>0.2098963702078227</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.2148765014556044</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -912,6 +954,9 @@
       <c r="J15" t="n">
         <v>0.1385865487741634</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.139295627976061</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -944,6 +989,9 @@
       <c r="J16" t="n">
         <v>0.5765529099216992</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.5819584557072928</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -976,6 +1024,9 @@
       <c r="J17" t="n">
         <v>0.6907498020085852</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.6851222926542602</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1008,6 +1059,9 @@
       <c r="J18" t="n">
         <v>-0.02610232393856689</v>
       </c>
+      <c r="K18" t="n">
+        <v>-0.03448693441039789</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1040,6 +1094,9 @@
       <c r="J19" t="n">
         <v>0.4397471041706126</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.4369077880202669</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,6 +1129,9 @@
       <c r="J20" t="n">
         <v>0.4939107190402706</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.495524636100371</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1104,6 +1164,9 @@
       <c r="J21" t="n">
         <v>0.7015159836111202</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.7026904583270334</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1136,6 +1199,9 @@
       <c r="J22" t="n">
         <v>0.4849684959646284</v>
       </c>
+      <c r="K22" t="n">
+        <v>0.4818665512043299</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1168,6 +1234,9 @@
       <c r="J23" t="n">
         <v>0.02759688120563128</v>
       </c>
+      <c r="K23" t="n">
+        <v>0.0242967767174937</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1200,6 +1269,9 @@
       <c r="J24" t="n">
         <v>3.325755979431261</v>
       </c>
+      <c r="K24" t="n">
+        <v>3.067855860204649</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1232,6 +1304,9 @@
       <c r="J25" t="n">
         <v>0.3348047525211469</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.323294682301933</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1264,6 +1339,9 @@
       <c r="J26" t="n">
         <v>0.2235245307387315</v>
       </c>
+      <c r="K26" t="n">
+        <v>0.2069453751345977</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1296,6 +1374,9 @@
       <c r="J27" t="n">
         <v>0.1280833015648155</v>
       </c>
+      <c r="K27" t="n">
+        <v>0.1095022082931845</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1328,6 +1409,9 @@
       <c r="J28" t="n">
         <v>0.8701596713505033</v>
       </c>
+      <c r="K28" t="n">
+        <v>0.8501125800158844</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1360,6 +1444,9 @@
       <c r="J29" t="n">
         <v>2.9748036443069</v>
       </c>
+      <c r="K29" t="n">
+        <v>2.716090659100397</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1392,6 +1479,9 @@
       <c r="J30" t="n">
         <v>0.7097485539998468</v>
       </c>
+      <c r="K30" t="n">
+        <v>0.6884259800254956</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1424,6 +1514,9 @@
       <c r="J31" t="n">
         <v>-0.4558666551024488</v>
       </c>
+      <c r="K31" t="n">
+        <v>-0.4711441414672404</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1456,6 +1549,9 @@
       <c r="J32" t="n">
         <v>0.5910732129381779</v>
       </c>
+      <c r="K32" t="n">
+        <v>0.573843767026244</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1488,6 +1584,9 @@
       <c r="J33" t="n">
         <v>0.7752712732644464</v>
       </c>
+      <c r="K33" t="n">
+        <v>0.7642650843655904</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1520,6 +1619,9 @@
       <c r="J34" t="n">
         <v>-0.8085541372165379</v>
       </c>
+      <c r="K34" t="n">
+        <v>-0.8214180968252411</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1552,6 +1654,9 @@
       <c r="J35" t="n">
         <v>0.7752405001529453</v>
       </c>
+      <c r="K35" t="n">
+        <v>0.7735050893958337</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1584,6 +1689,9 @@
       <c r="J36" t="n">
         <v>0.7061889749995243</v>
       </c>
+      <c r="K36" t="n">
+        <v>0.7050510290737229</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1616,6 +1724,9 @@
       <c r="J37" t="n">
         <v>0.6709582973472393</v>
       </c>
+      <c r="K37" t="n">
+        <v>0.669237350340682</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1648,6 +1759,9 @@
       <c r="J38" t="n">
         <v>0.6375017477183078</v>
       </c>
+      <c r="K38" t="n">
+        <v>0.6326170593782461</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1680,6 +1794,9 @@
       <c r="J39" t="n">
         <v>0.5697136560434141</v>
       </c>
+      <c r="K39" t="n">
+        <v>0.5703605993790515</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1712,6 +1829,9 @@
       <c r="J40" t="n">
         <v>0.7365393036289473</v>
       </c>
+      <c r="K40" t="n">
+        <v>0.7360245396304541</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1744,6 +1864,9 @@
       <c r="J41" t="n">
         <v>0.5389080304880427</v>
       </c>
+      <c r="K41" t="n">
+        <v>0.5403460145937296</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1776,6 +1899,9 @@
       <c r="J42" t="n">
         <v>0.5792424257292372</v>
       </c>
+      <c r="K42" t="n">
+        <v>0.573858833332389</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1808,6 +1934,9 @@
       <c r="J43" t="n">
         <v>0.6535158201456253</v>
       </c>
+      <c r="K43" t="n">
+        <v>0.6511347477104283</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1840,6 +1969,9 @@
       <c r="J44" t="n">
         <v>0.6535816580668321</v>
       </c>
+      <c r="K44" t="n">
+        <v>0.6546816725022224</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1872,6 +2004,9 @@
       <c r="J45" t="n">
         <v>0.6020092202119568</v>
       </c>
+      <c r="K45" t="n">
+        <v>0.6032529733976483</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1904,6 +2039,9 @@
       <c r="J46" t="n">
         <v>-1.281081603219082</v>
       </c>
+      <c r="K46" t="n">
+        <v>-1.282670321466564</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1936,6 +2074,9 @@
       <c r="J47" t="n">
         <v>-1.000100948161297</v>
       </c>
+      <c r="K47" t="n">
+        <v>-1.001677890357433</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1968,6 +2109,9 @@
       <c r="J48" t="n">
         <v>-0.885894011295027</v>
       </c>
+      <c r="K48" t="n">
+        <v>-0.8851454643882273</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2000,6 +2144,9 @@
       <c r="J49" t="n">
         <v>-0.6467054205444435</v>
       </c>
+      <c r="K49" t="n">
+        <v>-0.6459246491060552</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2032,6 +2179,9 @@
       <c r="J50" t="n">
         <v>-0.0559031565432704</v>
       </c>
+      <c r="K50" t="n">
+        <v>-0.05700640361058325</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2064,6 +2214,9 @@
       <c r="J51" t="n">
         <v>-0.8751849097204181</v>
       </c>
+      <c r="K51" t="n">
+        <v>-0.8741613638794615</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2096,6 +2249,9 @@
       <c r="J52" t="n">
         <v>-0.8751849097204181</v>
       </c>
+      <c r="K52" t="n">
+        <v>-0.8741613638794615</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2128,6 +2284,9 @@
       <c r="J53" t="n">
         <v>-1.139597021077551</v>
       </c>
+      <c r="K53" t="n">
+        <v>-1.14101669801091</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2160,6 +2319,9 @@
       <c r="J54" t="n">
         <v>-0.1789786861425482</v>
       </c>
+      <c r="K54" t="n">
+        <v>-0.1780490725505502</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2192,6 +2354,9 @@
       <c r="J55" t="n">
         <v>-1.018069801533375</v>
       </c>
+      <c r="K55" t="n">
+        <v>-1.019776466443843</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2224,6 +2389,9 @@
       <c r="J56" t="n">
         <v>-0.8830864344087977</v>
       </c>
+      <c r="K56" t="n">
+        <v>-0.8850487490555765</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2256,6 +2424,9 @@
       <c r="J57" t="n">
         <v>-0.8901968715835221</v>
       </c>
+      <c r="K57" t="n">
+        <v>-0.8904510683551</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2288,6 +2459,9 @@
       <c r="J58" t="n">
         <v>-1.044330094394709</v>
       </c>
+      <c r="K58" t="n">
+        <v>-1.041901971793366</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2320,6 +2494,9 @@
       <c r="J59" t="n">
         <v>-0.7908339464704452</v>
       </c>
+      <c r="K59" t="n">
+        <v>-0.7868792397863567</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2352,6 +2529,9 @@
       <c r="J60" t="n">
         <v>-0.4124026353263292</v>
       </c>
+      <c r="K60" t="n">
+        <v>-0.4078345293250901</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2384,6 +2564,9 @@
       <c r="J61" t="n">
         <v>0.3850139722846385</v>
       </c>
+      <c r="K61" t="n">
+        <v>0.3860189516686505</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2416,6 +2599,9 @@
       <c r="J62" t="n">
         <v>-1.141435760791423</v>
       </c>
+      <c r="K62" t="n">
+        <v>-1.140786986138403</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2448,6 +2634,9 @@
       <c r="J63" t="n">
         <v>-0.6041211811518767</v>
       </c>
+      <c r="K63" t="n">
+        <v>-0.5923005015101084</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2480,6 +2669,9 @@
       <c r="J64" t="n">
         <v>-0.8519130504275263</v>
       </c>
+      <c r="K64" t="n">
+        <v>-0.8469728354528405</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2512,6 +2704,9 @@
       <c r="J65" t="n">
         <v>-0.03148710987974868</v>
       </c>
+      <c r="K65" t="n">
+        <v>-0.02715198045673088</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2544,6 +2739,9 @@
       <c r="J66" t="n">
         <v>-0.7164827973954824</v>
       </c>
+      <c r="K66" t="n">
+        <v>-0.7164651255221527</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2575,6 +2773,9 @@
       </c>
       <c r="J67" t="n">
         <v>-0.6744760753810256</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6762146858500181</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-0.2264393990900728</v>
       </c>
+      <c r="L2" t="n">
+        <v>-0.2212877046616806</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>0.2715932029369747</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.2753737040011678</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.227933395128128</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.2343922135020183</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>-0.03118064515507078</v>
       </c>
+      <c r="L5" t="n">
+        <v>-0.02990233685615846</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>0.2226998193027494</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.2260308073915238</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.3849173974105329</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.3799723032418012</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.1682961863859622</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.1601551146658719</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>-0.3092219932519451</v>
       </c>
+      <c r="L9" t="n">
+        <v>-0.3003208272511507</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.4264705491219702</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.4287432829066691</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,6 +847,9 @@
       <c r="K11" t="n">
         <v>-0.1854354800068831</v>
       </c>
+      <c r="L11" t="n">
+        <v>-0.1822092530203364</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -852,6 +885,9 @@
       <c r="K12" t="n">
         <v>5.925827294288311e-05</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.0003847174795628891</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -887,6 +923,9 @@
       <c r="K13" t="n">
         <v>-0.01307710363766527</v>
       </c>
+      <c r="L13" t="n">
+        <v>-0.01445820492276214</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -922,6 +961,9 @@
       <c r="K14" t="n">
         <v>0.2148765014556044</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.2162929623675983</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -957,6 +999,9 @@
       <c r="K15" t="n">
         <v>0.139295627976061</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.1359879946511332</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -992,6 +1037,9 @@
       <c r="K16" t="n">
         <v>0.5819584557072928</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.5819992708946151</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1027,6 +1075,9 @@
       <c r="K17" t="n">
         <v>0.6851222926542602</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.6762138660006545</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1062,6 +1113,9 @@
       <c r="K18" t="n">
         <v>-0.03448693441039789</v>
       </c>
+      <c r="L18" t="n">
+        <v>-0.0429206712272996</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1097,6 +1151,9 @@
       <c r="K19" t="n">
         <v>0.4369077880202669</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.4323738102818762</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1132,6 +1189,9 @@
       <c r="K20" t="n">
         <v>0.495524636100371</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.4920511645810925</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1167,6 +1227,9 @@
       <c r="K21" t="n">
         <v>0.7026904583270334</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.6996416018472186</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1202,6 +1265,9 @@
       <c r="K22" t="n">
         <v>0.4818665512043299</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.4755062160876661</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1237,6 +1303,9 @@
       <c r="K23" t="n">
         <v>0.0242967767174937</v>
       </c>
+      <c r="L23" t="n">
+        <v>0.01826835669368626</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1272,6 +1341,9 @@
       <c r="K24" t="n">
         <v>3.067855860204649</v>
       </c>
+      <c r="L24" t="n">
+        <v>2.814596551989631</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1307,6 +1379,9 @@
       <c r="K25" t="n">
         <v>0.323294682301933</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.3139388089854533</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1342,6 +1417,9 @@
       <c r="K26" t="n">
         <v>0.2069453751345977</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.1918938018955871</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1377,6 +1455,9 @@
       <c r="K27" t="n">
         <v>0.1095022082931845</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.09289089497298178</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1412,6 +1493,9 @@
       <c r="K28" t="n">
         <v>0.8501125800158844</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.8326803197664699</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1447,6 +1531,9 @@
       <c r="K29" t="n">
         <v>2.716090659100397</v>
       </c>
+      <c r="L29" t="n">
+        <v>2.484247017134511</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1482,6 +1569,9 @@
       <c r="K30" t="n">
         <v>0.6884259800254956</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.6703993067816729</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1517,6 +1607,9 @@
       <c r="K31" t="n">
         <v>-0.4711441414672404</v>
       </c>
+      <c r="L31" t="n">
+        <v>-0.4826556948625582</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1552,6 +1645,9 @@
       <c r="K32" t="n">
         <v>0.573843767026244</v>
       </c>
+      <c r="L32" t="n">
+        <v>0.5592639829108522</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1587,6 +1683,9 @@
       <c r="K33" t="n">
         <v>0.7642650843655904</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.7552549245868315</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1622,6 +1721,9 @@
       <c r="K34" t="n">
         <v>-0.8214180968252411</v>
       </c>
+      <c r="L34" t="n">
+        <v>-0.8321272854708637</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1657,6 +1759,9 @@
       <c r="K35" t="n">
         <v>0.7735050893958337</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.7726741047059967</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1692,6 +1797,9 @@
       <c r="K36" t="n">
         <v>0.7050510290737229</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.7054200625380107</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1727,6 +1835,9 @@
       <c r="K37" t="n">
         <v>0.669237350340682</v>
       </c>
+      <c r="L37" t="n">
+        <v>0.6691585193194669</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1762,6 +1873,9 @@
       <c r="K38" t="n">
         <v>0.6326170593782461</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.6290509106206497</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1797,6 +1911,9 @@
       <c r="K39" t="n">
         <v>0.5703605993790515</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.5714937505625191</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1832,6 +1949,9 @@
       <c r="K40" t="n">
         <v>0.7360245396304541</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.736100777915992</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1867,6 +1987,9 @@
       <c r="K41" t="n">
         <v>0.5403460145937296</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.5423026813359975</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1902,6 +2025,9 @@
       <c r="K42" t="n">
         <v>0.573858833332389</v>
       </c>
+      <c r="L42" t="n">
+        <v>0.570597966750622</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1937,6 +2063,9 @@
       <c r="K43" t="n">
         <v>0.6511347477104283</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.6498071956405724</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1972,6 +2101,9 @@
       <c r="K44" t="n">
         <v>0.6546816725022224</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.6565089422953434</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2007,6 +2139,9 @@
       <c r="K45" t="n">
         <v>0.6032529733976483</v>
       </c>
+      <c r="L45" t="n">
+        <v>0.6062288153204016</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2042,6 +2177,9 @@
       <c r="K46" t="n">
         <v>-1.282670321466564</v>
       </c>
+      <c r="L46" t="n">
+        <v>-1.284302012647016</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2077,6 +2215,9 @@
       <c r="K47" t="n">
         <v>-1.001677890357433</v>
       </c>
+      <c r="L47" t="n">
+        <v>-1.003166898733935</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2112,6 +2253,9 @@
       <c r="K48" t="n">
         <v>-0.8851454643882273</v>
       </c>
+      <c r="L48" t="n">
+        <v>-0.8842527093945725</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2147,6 +2291,9 @@
       <c r="K49" t="n">
         <v>-0.6459246491060552</v>
       </c>
+      <c r="L49" t="n">
+        <v>-0.6451371957767881</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2182,6 +2329,9 @@
       <c r="K50" t="n">
         <v>-0.05700640361058325</v>
       </c>
+      <c r="L50" t="n">
+        <v>-0.05816371495980785</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2217,6 +2367,9 @@
       <c r="K51" t="n">
         <v>-0.8741613638794615</v>
       </c>
+      <c r="L51" t="n">
+        <v>-0.8729310613174318</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2252,6 +2405,9 @@
       <c r="K52" t="n">
         <v>-0.8741613638794615</v>
       </c>
+      <c r="L52" t="n">
+        <v>-0.8729310613174318</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2287,6 +2443,9 @@
       <c r="K53" t="n">
         <v>-1.14101669801091</v>
       </c>
+      <c r="L53" t="n">
+        <v>-1.141963338954162</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2322,6 +2481,9 @@
       <c r="K54" t="n">
         <v>-0.1780490725505502</v>
       </c>
+      <c r="L54" t="n">
+        <v>-0.1772989132274479</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2357,6 +2519,9 @@
       <c r="K55" t="n">
         <v>-1.019776466443843</v>
       </c>
+      <c r="L55" t="n">
+        <v>-1.021455973304315</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2392,6 +2557,9 @@
       <c r="K56" t="n">
         <v>-0.8850487490555765</v>
       </c>
+      <c r="L56" t="n">
+        <v>-0.8873334043944496</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2427,6 +2595,9 @@
       <c r="K57" t="n">
         <v>-0.8904510683551</v>
       </c>
+      <c r="L57" t="n">
+        <v>-0.8920879704993995</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2462,6 +2633,9 @@
       <c r="K58" t="n">
         <v>-1.041901971793366</v>
       </c>
+      <c r="L58" t="n">
+        <v>-1.041347472736044</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2497,6 +2671,9 @@
       <c r="K59" t="n">
         <v>-0.7868792397863567</v>
       </c>
+      <c r="L59" t="n">
+        <v>-0.7839631823155845</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2532,6 +2709,9 @@
       <c r="K60" t="n">
         <v>-0.4078345293250901</v>
       </c>
+      <c r="L60" t="n">
+        <v>-0.4048305925867337</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2567,6 +2747,9 @@
       <c r="K61" t="n">
         <v>0.3860189516686505</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.3867714834269881</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2602,6 +2785,9 @@
       <c r="K62" t="n">
         <v>-1.140786986138403</v>
       </c>
+      <c r="L62" t="n">
+        <v>-1.141972393102245</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2637,6 +2823,9 @@
       <c r="K63" t="n">
         <v>-0.5923005015101084</v>
       </c>
+      <c r="L63" t="n">
+        <v>-0.5822786938390102</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2672,6 +2861,9 @@
       <c r="K64" t="n">
         <v>-0.8469728354528405</v>
       </c>
+      <c r="L64" t="n">
+        <v>-0.843056988861778</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2707,6 +2899,9 @@
       <c r="K65" t="n">
         <v>-0.02715198045673088</v>
       </c>
+      <c r="L65" t="n">
+        <v>-0.02420191506520407</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2742,6 +2937,9 @@
       <c r="K66" t="n">
         <v>-0.7164651255221527</v>
       </c>
+      <c r="L66" t="n">
+        <v>-0.7182877730602382</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2776,6 +2974,9 @@
       </c>
       <c r="K67" t="n">
         <v>-0.6762146858500181</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6801674293071619</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-0.2212877046616806</v>
       </c>
+      <c r="M2" t="n">
+        <v>-0.2173064676974724</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>0.2753737040011678</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.2780606639320644</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.2343922135020183</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.2397166086051254</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>-0.02990233685615846</v>
       </c>
+      <c r="M5" t="n">
+        <v>-0.02944819294839553</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>0.2260308073915238</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.2281495004425507</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.3799723032418012</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.3759988025960627</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.1601551146658719</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.1529755411381008</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>-0.3003208272511507</v>
       </c>
+      <c r="M9" t="n">
+        <v>-0.292891383108708</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.4287432829066691</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.4299520568246387</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -850,6 +880,9 @@
       <c r="L11" t="n">
         <v>-0.1822092530203364</v>
       </c>
+      <c r="M11" t="n">
+        <v>-0.1797896750940751</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -888,6 +921,9 @@
       <c r="L12" t="n">
         <v>0.0003847174795628891</v>
       </c>
+      <c r="M12" t="n">
+        <v>-0.001009008819284979</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -926,6 +962,9 @@
       <c r="L13" t="n">
         <v>-0.01445820492276214</v>
       </c>
+      <c r="M13" t="n">
+        <v>-0.01611224615791037</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -964,6 +1003,9 @@
       <c r="L14" t="n">
         <v>0.2162929623675983</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.2145706983386212</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1002,6 +1044,9 @@
       <c r="L15" t="n">
         <v>0.1359879946511332</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.1292189775140453</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1040,6 +1085,9 @@
       <c r="L16" t="n">
         <v>0.5819992708946151</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.5773645014204942</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1078,6 +1126,9 @@
       <c r="L17" t="n">
         <v>0.6762138660006545</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.664588544443776</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1116,6 +1167,9 @@
       <c r="L18" t="n">
         <v>-0.0429206712272996</v>
       </c>
+      <c r="M18" t="n">
+        <v>-0.05138143908090988</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1154,6 +1208,9 @@
       <c r="L19" t="n">
         <v>0.4323738102818762</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.4264028869092601</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1192,6 +1249,9 @@
       <c r="L20" t="n">
         <v>0.4920511645810925</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.4842027032820512</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1230,6 +1290,9 @@
       <c r="L21" t="n">
         <v>0.6996416018472186</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.6930635416624329</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1268,6 +1331,9 @@
       <c r="L22" t="n">
         <v>0.4755062160876661</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.4664164676233731</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1306,6 +1372,9 @@
       <c r="L23" t="n">
         <v>0.01826835669368626</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.009974934684803122</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1344,6 +1413,9 @@
       <c r="L24" t="n">
         <v>2.814596551989631</v>
       </c>
+      <c r="M24" t="n">
+        <v>2.571005353352922</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1382,6 +1454,9 @@
       <c r="L25" t="n">
         <v>0.3139388089854533</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.306538736867619</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1420,6 +1495,9 @@
       <c r="L26" t="n">
         <v>0.1918938018955871</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.1784294951910398</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1458,6 +1536,9 @@
       <c r="L27" t="n">
         <v>0.09289089497298178</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.07824862993905118</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1496,6 +1577,9 @@
       <c r="L28" t="n">
         <v>0.8326803197664699</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.8178553484720438</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1534,6 +1618,9 @@
       <c r="L29" t="n">
         <v>2.484247017134511</v>
       </c>
+      <c r="M29" t="n">
+        <v>2.278961439811676</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1572,6 +1659,9 @@
       <c r="L30" t="n">
         <v>0.6703993067816729</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.6554843417920445</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1610,6 +1700,9 @@
       <c r="L31" t="n">
         <v>-0.4826556948625582</v>
       </c>
+      <c r="M31" t="n">
+        <v>-0.4908264812098705</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1648,6 +1741,9 @@
       <c r="L32" t="n">
         <v>0.5592639829108522</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.5471925241592899</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1686,6 +1782,9 @@
       <c r="L33" t="n">
         <v>0.7552549245868315</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.7480896866407832</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1724,6 +1823,9 @@
       <c r="L34" t="n">
         <v>-0.8321272854708637</v>
       </c>
+      <c r="M34" t="n">
+        <v>-0.8408473337883595</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1762,6 +1864,9 @@
       <c r="L35" t="n">
         <v>0.7726741047059967</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.7726712736771477</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1800,6 +1905,9 @@
       <c r="L36" t="n">
         <v>0.7054200625380107</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.707102236998938</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,6 +1946,9 @@
       <c r="L37" t="n">
         <v>0.6691585193194669</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.6705143296408305</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1876,6 +1987,9 @@
       <c r="L38" t="n">
         <v>0.6290509106206497</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.6266647127052852</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1914,6 +2028,9 @@
       <c r="L39" t="n">
         <v>0.5714937505625191</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.5730497963148017</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1952,6 +2069,9 @@
       <c r="L40" t="n">
         <v>0.736100777915992</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.7367397576015616</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1990,6 +2110,9 @@
       <c r="L41" t="n">
         <v>0.5423026813359975</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.5446619955361208</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2028,6 +2151,9 @@
       <c r="L42" t="n">
         <v>0.570597966750622</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.5692214953943697</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2066,6 +2192,9 @@
       <c r="L43" t="n">
         <v>0.6498071956405724</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.6494007517247419</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2104,6 +2233,9 @@
       <c r="L44" t="n">
         <v>0.6565089422953434</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.6589448808602363</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2142,6 +2274,9 @@
       <c r="L45" t="n">
         <v>0.6062288153204016</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.6106773186861072</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2180,6 +2315,9 @@
       <c r="L46" t="n">
         <v>-1.284302012647016</v>
       </c>
+      <c r="M46" t="n">
+        <v>-1.286024704935879</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2218,6 +2356,9 @@
       <c r="L47" t="n">
         <v>-1.003166898733935</v>
       </c>
+      <c r="M47" t="n">
+        <v>-1.004623228665661</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2256,6 +2397,9 @@
       <c r="L48" t="n">
         <v>-0.8842527093945725</v>
       </c>
+      <c r="M48" t="n">
+        <v>-0.8833282639875342</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2294,6 +2438,9 @@
       <c r="L49" t="n">
         <v>-0.6451371957767881</v>
       </c>
+      <c r="M49" t="n">
+        <v>-0.6444175761401036</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2332,6 +2479,9 @@
       <c r="L50" t="n">
         <v>-0.05816371495980785</v>
       </c>
+      <c r="M50" t="n">
+        <v>-0.05937730984828606</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2370,6 +2520,9 @@
       <c r="L51" t="n">
         <v>-0.8729310613174318</v>
       </c>
+      <c r="M51" t="n">
+        <v>-0.8715997273292767</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2408,6 +2561,9 @@
       <c r="L52" t="n">
         <v>-0.8729310613174318</v>
       </c>
+      <c r="M52" t="n">
+        <v>-0.8715997273292767</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2446,6 +2602,9 @@
       <c r="L53" t="n">
         <v>-1.141963338954162</v>
       </c>
+      <c r="M53" t="n">
+        <v>-1.142599326844389</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2484,6 +2643,9 @@
       <c r="L54" t="n">
         <v>-0.1772989132274479</v>
       </c>
+      <c r="M54" t="n">
+        <v>-0.1767485681819325</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2522,6 +2684,9 @@
       <c r="L55" t="n">
         <v>-1.021455973304315</v>
       </c>
+      <c r="M55" t="n">
+        <v>-1.023153109534513</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2560,6 +2725,9 @@
       <c r="L56" t="n">
         <v>-0.8873334043944496</v>
       </c>
+      <c r="M56" t="n">
+        <v>-0.8898805194937134</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2598,6 +2766,9 @@
       <c r="L57" t="n">
         <v>-0.8920879704993995</v>
       </c>
+      <c r="M57" t="n">
+        <v>-0.8949590198429416</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2636,6 +2807,9 @@
       <c r="L58" t="n">
         <v>-1.041347472736044</v>
       </c>
+      <c r="M58" t="n">
+        <v>-1.042448162764118</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2674,6 +2848,9 @@
       <c r="L59" t="n">
         <v>-0.7839631823155845</v>
       </c>
+      <c r="M59" t="n">
+        <v>-0.7820292806276196</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2712,6 +2889,9 @@
       <c r="L60" t="n">
         <v>-0.4048305925867337</v>
       </c>
+      <c r="M60" t="n">
+        <v>-0.4032368667548915</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2750,6 +2930,9 @@
       <c r="L61" t="n">
         <v>0.3867714834269881</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.387281633138987</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2788,6 +2971,9 @@
       <c r="L62" t="n">
         <v>-1.141972393102245</v>
       </c>
+      <c r="M62" t="n">
+        <v>-1.144784744310136</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2826,6 +3012,9 @@
       <c r="L63" t="n">
         <v>-0.5822786938390102</v>
       </c>
+      <c r="M63" t="n">
+        <v>-0.5739703153792151</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2864,6 +3053,9 @@
       <c r="L64" t="n">
         <v>-0.843056988861778</v>
       </c>
+      <c r="M64" t="n">
+        <v>-0.8401945679613897</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2902,6 +3094,9 @@
       <c r="L65" t="n">
         <v>-0.02420191506520407</v>
       </c>
+      <c r="M65" t="n">
+        <v>-0.02248715841383221</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2940,6 +3135,9 @@
       <c r="L66" t="n">
         <v>-0.7182877730602382</v>
       </c>
+      <c r="M66" t="n">
+        <v>-0.7216752500446488</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2977,6 +3175,9 @@
       </c>
       <c r="L67" t="n">
         <v>-0.6801674293071619</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6859242080383238</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-0.2173064676974724</v>
       </c>
+      <c r="N2" t="n">
+        <v>-0.2144187287822407</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>0.2780606639320644</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.2797158010365374</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.2397166086051254</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.243943159561018</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>-0.02944819294839553</v>
       </c>
+      <c r="N5" t="n">
+        <v>-0.0297329214153451</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>0.2281495004425507</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.2291841442127158</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.3759988025960627</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.3729717209640455</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.1529755411381008</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.1467558842454626</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>-0.292891383108708</v>
       </c>
+      <c r="N9" t="n">
+        <v>-0.2869374310001999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.4299520568246387</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.430225418091631</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -883,6 +913,9 @@
       <c r="M11" t="n">
         <v>-0.1797896750940751</v>
       </c>
+      <c r="N11" t="n">
+        <v>-0.1781317208413023</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -924,6 +957,9 @@
       <c r="M12" t="n">
         <v>-0.001009008819284979</v>
       </c>
+      <c r="N12" t="n">
+        <v>-0.00388124685704179</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -965,6 +1001,9 @@
       <c r="M13" t="n">
         <v>-0.01611224615791037</v>
       </c>
+      <c r="N13" t="n">
+        <v>-0.01801062050270715</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1006,6 +1045,9 @@
       <c r="M14" t="n">
         <v>0.2145706983386212</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.2101479241123486</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1047,6 +1089,9 @@
       <c r="M15" t="n">
         <v>0.1292189775140453</v>
       </c>
+      <c r="N15" t="n">
+        <v>0.1195470004429182</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1088,6 +1133,9 @@
       <c r="M16" t="n">
         <v>0.5773645014204942</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.5687546926076366</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1129,6 +1177,9 @@
       <c r="M17" t="n">
         <v>0.664588544443776</v>
       </c>
+      <c r="N17" t="n">
+        <v>0.6507967108669446</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1170,6 +1221,9 @@
       <c r="M18" t="n">
         <v>-0.05138143908090988</v>
       </c>
+      <c r="N18" t="n">
+        <v>-0.05983109473500289</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1211,6 +1265,9 @@
       <c r="M19" t="n">
         <v>0.4264028869092601</v>
       </c>
+      <c r="N19" t="n">
+        <v>0.4192534075175207</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1252,6 +1309,9 @@
       <c r="M20" t="n">
         <v>0.4842027032820512</v>
       </c>
+      <c r="N20" t="n">
+        <v>0.4726924858725581</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1293,6 +1353,9 @@
       <c r="M21" t="n">
         <v>0.6930635416624329</v>
       </c>
+      <c r="N21" t="n">
+        <v>0.6836195986241431</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1334,6 +1397,9 @@
       <c r="M22" t="n">
         <v>0.4664164676233731</v>
       </c>
+      <c r="N22" t="n">
+        <v>0.4551156543030137</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1375,6 +1441,9 @@
       <c r="M23" t="n">
         <v>0.009974934684803122</v>
       </c>
+      <c r="N23" t="n">
+        <v>-0.0001352713879659018</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1416,6 +1485,9 @@
       <c r="M24" t="n">
         <v>2.571005353352922</v>
       </c>
+      <c r="N24" t="n">
+        <v>2.341000210934896</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1457,6 +1529,9 @@
       <c r="M25" t="n">
         <v>0.306538736867619</v>
       </c>
+      <c r="N25" t="n">
+        <v>0.3008928405616139</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1498,6 +1573,9 @@
       <c r="M26" t="n">
         <v>0.1784294951910398</v>
       </c>
+      <c r="N26" t="n">
+        <v>0.1665673433710552</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1539,6 +1617,9 @@
       <c r="M27" t="n">
         <v>0.07824862993905118</v>
       </c>
+      <c r="N27" t="n">
+        <v>0.06553580938439815</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1580,6 +1661,9 @@
       <c r="M28" t="n">
         <v>0.8178553484720438</v>
       </c>
+      <c r="N28" t="n">
+        <v>0.8055705890911949</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1621,6 +1705,9 @@
       <c r="M29" t="n">
         <v>2.278961439811676</v>
       </c>
+      <c r="N29" t="n">
+        <v>2.099504948098969</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1662,6 +1749,9 @@
       <c r="M30" t="n">
         <v>0.6554843417920445</v>
       </c>
+      <c r="N30" t="n">
+        <v>0.6434633546242939</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1703,6 +1793,9 @@
       <c r="M31" t="n">
         <v>-0.4908264812098705</v>
       </c>
+      <c r="N31" t="n">
+        <v>-0.4960794439636088</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1744,6 +1837,9 @@
       <c r="M32" t="n">
         <v>0.5471925241592899</v>
       </c>
+      <c r="N32" t="n">
+        <v>0.5374587209526445</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1785,6 +1881,9 @@
       <c r="M33" t="n">
         <v>0.7480896866407832</v>
       </c>
+      <c r="N33" t="n">
+        <v>0.7426055039144754</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1826,6 +1925,9 @@
       <c r="M34" t="n">
         <v>-0.8408473337883595</v>
       </c>
+      <c r="N34" t="n">
+        <v>-0.8477583692360124</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1867,6 +1969,9 @@
       <c r="M35" t="n">
         <v>0.7726712736771477</v>
       </c>
+      <c r="N35" t="n">
+        <v>0.7734087273483482</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1908,6 +2013,9 @@
       <c r="M36" t="n">
         <v>0.707102236998938</v>
       </c>
+      <c r="N36" t="n">
+        <v>0.7099000022051685</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1949,6 +2057,9 @@
       <c r="M37" t="n">
         <v>0.6705143296408305</v>
       </c>
+      <c r="N37" t="n">
+        <v>0.6730933654363714</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1990,6 +2101,9 @@
       <c r="M38" t="n">
         <v>0.6266647127052852</v>
       </c>
+      <c r="N38" t="n">
+        <v>0.6253172755336448</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2031,6 +2145,9 @@
       <c r="M39" t="n">
         <v>0.5730497963148017</v>
       </c>
+      <c r="N39" t="n">
+        <v>0.5749611463833704</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2072,6 +2189,9 @@
       <c r="M40" t="n">
         <v>0.7367397576015616</v>
       </c>
+      <c r="N40" t="n">
+        <v>0.7378972970519303</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2113,6 +2233,9 @@
       <c r="M41" t="n">
         <v>0.5446619955361208</v>
       </c>
+      <c r="N41" t="n">
+        <v>0.5473177120604305</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2154,6 +2277,9 @@
       <c r="M42" t="n">
         <v>0.5692214953943697</v>
       </c>
+      <c r="N42" t="n">
+        <v>0.5694841743865285</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2195,6 +2321,9 @@
       <c r="M43" t="n">
         <v>0.6494007517247419</v>
       </c>
+      <c r="N43" t="n">
+        <v>0.6497836849311037</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2236,6 +2365,9 @@
       <c r="M44" t="n">
         <v>0.6589448808602363</v>
       </c>
+      <c r="N44" t="n">
+        <v>0.6618725633999357</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2277,6 +2409,9 @@
       <c r="M45" t="n">
         <v>0.6106773186861072</v>
       </c>
+      <c r="N45" t="n">
+        <v>0.6163386022329698</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2318,6 +2453,9 @@
       <c r="M46" t="n">
         <v>-1.286024704935879</v>
       </c>
+      <c r="N46" t="n">
+        <v>-1.287874713889447</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2359,6 +2497,9 @@
       <c r="M47" t="n">
         <v>-1.004623228665661</v>
       </c>
+      <c r="N47" t="n">
+        <v>-1.006092503893718</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2400,6 +2541,9 @@
       <c r="M48" t="n">
         <v>-0.8833282639875342</v>
       </c>
+      <c r="N48" t="n">
+        <v>-0.8824659200365693</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2441,6 +2585,9 @@
       <c r="M49" t="n">
         <v>-0.6444175761401036</v>
       </c>
+      <c r="N49" t="n">
+        <v>-0.6438259884052493</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2482,6 +2629,9 @@
       <c r="M50" t="n">
         <v>-0.05937730984828606</v>
       </c>
+      <c r="N50" t="n">
+        <v>-0.06064733344380073</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2523,6 +2673,9 @@
       <c r="M51" t="n">
         <v>-0.8715997273292767</v>
       </c>
+      <c r="N51" t="n">
+        <v>-0.8702591755119998</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2564,6 +2717,9 @@
       <c r="M52" t="n">
         <v>-0.8715997273292767</v>
       </c>
+      <c r="N52" t="n">
+        <v>-0.8702591755119998</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2605,6 +2761,9 @@
       <c r="M53" t="n">
         <v>-1.142599326844389</v>
       </c>
+      <c r="N53" t="n">
+        <v>-1.143063208764865</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2646,6 +2805,9 @@
       <c r="M54" t="n">
         <v>-0.1767485681819325</v>
       </c>
+      <c r="N54" t="n">
+        <v>-0.1764111937374491</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2687,6 +2849,9 @@
       <c r="M55" t="n">
         <v>-1.023153109534513</v>
       </c>
+      <c r="N55" t="n">
+        <v>-1.024903711653617</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2728,6 +2893,9 @@
       <c r="M56" t="n">
         <v>-0.8898805194937134</v>
       </c>
+      <c r="N56" t="n">
+        <v>-0.892636240791856</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2769,6 +2937,9 @@
       <c r="M57" t="n">
         <v>-0.8949590198429416</v>
       </c>
+      <c r="N57" t="n">
+        <v>-0.8989066382161147</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2810,6 +2981,9 @@
       <c r="M58" t="n">
         <v>-1.042448162764118</v>
       </c>
+      <c r="N58" t="n">
+        <v>-1.044983148401146</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2851,6 +3025,9 @@
       <c r="M59" t="n">
         <v>-0.7820292806276196</v>
       </c>
+      <c r="N59" t="n">
+        <v>-0.7810091826740548</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2892,6 +3069,9 @@
       <c r="M60" t="n">
         <v>-0.4032368667548915</v>
       </c>
+      <c r="N60" t="n">
+        <v>-0.4028936857738594</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2933,6 +3113,9 @@
       <c r="M61" t="n">
         <v>0.387281633138987</v>
       </c>
+      <c r="N61" t="n">
+        <v>0.3875636229588697</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2974,6 +3157,9 @@
       <c r="M62" t="n">
         <v>-1.144784744310136</v>
       </c>
+      <c r="N62" t="n">
+        <v>-1.149009627226889</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3015,6 +3201,9 @@
       <c r="M63" t="n">
         <v>-0.5739703153792151</v>
       </c>
+      <c r="N63" t="n">
+        <v>-0.5672716835311973</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3056,6 +3245,9 @@
       <c r="M64" t="n">
         <v>-0.8401945679613897</v>
       </c>
+      <c r="N64" t="n">
+        <v>-0.8383797397851729</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3097,6 +3289,9 @@
       <c r="M65" t="n">
         <v>-0.02248715841383221</v>
       </c>
+      <c r="N65" t="n">
+        <v>-0.02185744841652408</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3138,6 +3333,9 @@
       <c r="M66" t="n">
         <v>-0.7216752500446488</v>
       </c>
+      <c r="N66" t="n">
+        <v>-0.726361654340326</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3178,6 +3376,9 @@
       </c>
       <c r="M67" t="n">
         <v>-0.6859242080383238</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6931054122632734</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-0.2144187287822407</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.2125358924799186</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2115618058472211</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>0.2797158010365374</v>
       </c>
+      <c r="O3" t="n">
+        <v>0.2804199035622875</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.280266812961422</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.243943159561018</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.2471288954660506</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2493461651665066</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>-0.0297329214153451</v>
       </c>
+      <c r="O5" t="n">
+        <v>-0.03066674603132093</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03215856623565759</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>0.2291841442127158</v>
       </c>
+      <c r="O6" t="n">
+        <v>0.2292678284262772</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2285342342747512</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.3729717209640455</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.3708471285936795</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3695668025220744</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.1467558842454626</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.1414754737630154</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1370980462934937</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>-0.2869374310001999</v>
       </c>
+      <c r="O9" t="n">
+        <v>-0.2824211976526718</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2792724227708773</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.430225418091631</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.4296922439413407</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4284785154670471</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -916,6 +976,12 @@
       <c r="N11" t="n">
         <v>-0.1781317208413023</v>
       </c>
+      <c r="O11" t="n">
+        <v>-0.1771803635111997</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1768736292806702</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -960,6 +1026,12 @@
       <c r="N12" t="n">
         <v>-0.00388124685704179</v>
       </c>
+      <c r="O12" t="n">
+        <v>-0.007993258584414957</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01311420331645243</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1004,6 +1076,12 @@
       <c r="N13" t="n">
         <v>-0.01801062050270715</v>
       </c>
+      <c r="O13" t="n">
+        <v>-0.02012032951476822</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02240596973031777</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1048,6 +1126,12 @@
       <c r="N14" t="n">
         <v>0.2101479241123486</v>
       </c>
+      <c r="O14" t="n">
+        <v>0.2034617189598873</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1949363713022942</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1092,6 +1176,12 @@
       <c r="N15" t="n">
         <v>0.1195470004429182</v>
       </c>
+      <c r="O15" t="n">
+        <v>0.1075175228514393</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.09365039824090399</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1136,6 +1226,12 @@
       <c r="N16" t="n">
         <v>0.5687546926076366</v>
       </c>
+      <c r="O16" t="n">
+        <v>0.5568604849942538</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5423456070667526</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1180,6 +1276,12 @@
       <c r="N17" t="n">
         <v>0.6507967108669446</v>
       </c>
+      <c r="O17" t="n">
+        <v>0.6353618880560403</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6187708266261263</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1224,6 +1326,12 @@
       <c r="N18" t="n">
         <v>-0.05983109473500289</v>
       </c>
+      <c r="O18" t="n">
+        <v>-0.06822152723612694</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07649961690124031</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1268,6 +1376,12 @@
       <c r="N19" t="n">
         <v>0.4192534075175207</v>
       </c>
+      <c r="O19" t="n">
+        <v>0.4111767471347207</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4024112839341616</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1312,6 +1426,12 @@
       <c r="N20" t="n">
         <v>0.4726924858725581</v>
       </c>
+      <c r="O20" t="n">
+        <v>0.4582147822908585</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4414293750204749</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1356,6 +1476,12 @@
       <c r="N21" t="n">
         <v>0.6836195986241431</v>
       </c>
+      <c r="O21" t="n">
+        <v>0.6719310804902803</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6585691956035908</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1400,6 +1526,12 @@
       <c r="N22" t="n">
         <v>0.4551156543030137</v>
       </c>
+      <c r="O22" t="n">
+        <v>0.4420989245126605</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.4278287041609329</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1444,6 +1576,12 @@
       <c r="N23" t="n">
         <v>-0.0001352713879659018</v>
       </c>
+      <c r="O23" t="n">
+        <v>-0.01163862315642603</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.02414307508162968</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1488,6 +1626,12 @@
       <c r="N24" t="n">
         <v>2.341000210934896</v>
       </c>
+      <c r="O24" t="n">
+        <v>2.127493328782096</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.932502094650812</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1532,6 +1676,12 @@
       <c r="N25" t="n">
         <v>0.3008928405616139</v>
       </c>
+      <c r="O25" t="n">
+        <v>0.2968006167949152</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2940663808138195</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1576,6 +1726,12 @@
       <c r="N26" t="n">
         <v>0.1665673433710552</v>
       </c>
+      <c r="O26" t="n">
+        <v>0.1562846535522882</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1475281067981714</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1620,6 +1776,12 @@
       <c r="N27" t="n">
         <v>0.06553580938439815</v>
       </c>
+      <c r="O27" t="n">
+        <v>0.05468087244996441</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04558693761122762</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1664,6 +1826,12 @@
       <c r="N28" t="n">
         <v>0.8055705890911949</v>
       </c>
+      <c r="O28" t="n">
+        <v>0.7957114587545457</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7881270009708706</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1708,6 +1876,12 @@
       <c r="N29" t="n">
         <v>2.099504948098969</v>
       </c>
+      <c r="O29" t="n">
+        <v>1.944803223047363</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.813507612086966</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1752,6 +1926,12 @@
       <c r="N30" t="n">
         <v>0.6434633546242939</v>
       </c>
+      <c r="O30" t="n">
+        <v>0.6340952467610315</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6271246598854809</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1796,6 +1976,12 @@
       <c r="N31" t="n">
         <v>-0.4960794439636088</v>
       </c>
+      <c r="O31" t="n">
+        <v>-0.4988264367412496</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4994610635860754</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1840,6 +2026,12 @@
       <c r="N32" t="n">
         <v>0.5374587209526445</v>
       </c>
+      <c r="O32" t="n">
+        <v>0.5298711885311274</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5242255491853003</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1884,6 +2076,12 @@
       <c r="N33" t="n">
         <v>0.7426055039144754</v>
       </c>
+      <c r="O33" t="n">
+        <v>0.7386313586358176</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7359939609253274</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1928,6 +2126,12 @@
       <c r="N34" t="n">
         <v>-0.8477583692360124</v>
       </c>
+      <c r="O34" t="n">
+        <v>-0.8530485429394171</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8569084167357776</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1972,6 +2176,12 @@
       <c r="N35" t="n">
         <v>0.7734087273483482</v>
       </c>
+      <c r="O35" t="n">
+        <v>0.7747917777023493</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7767229460071331</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2016,6 +2226,12 @@
       <c r="N36" t="n">
         <v>0.7099000022051685</v>
       </c>
+      <c r="O36" t="n">
+        <v>0.7136182366490784</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7180691500632012</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2060,6 +2276,12 @@
       <c r="N37" t="n">
         <v>0.6730933654363714</v>
       </c>
+      <c r="O37" t="n">
+        <v>0.6766867498219962</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6810933295711001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2104,6 +2326,12 @@
       <c r="N38" t="n">
         <v>0.6253172755336448</v>
       </c>
+      <c r="O38" t="n">
+        <v>0.624868485521312</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6251823317021289</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2148,6 +2376,12 @@
       <c r="N39" t="n">
         <v>0.5749611463833704</v>
       </c>
+      <c r="O39" t="n">
+        <v>0.5771589433185644</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5795754927826959</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2192,6 +2426,12 @@
       <c r="N40" t="n">
         <v>0.7378972970519303</v>
       </c>
+      <c r="O40" t="n">
+        <v>0.7395180674214268</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7415396913555018</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2236,6 +2476,12 @@
       <c r="N41" t="n">
         <v>0.5473177120604305</v>
       </c>
+      <c r="O41" t="n">
+        <v>0.5501742733505088</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5531472627949815</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2280,6 +2526,12 @@
       <c r="N42" t="n">
         <v>0.5694841743865285</v>
       </c>
+      <c r="O42" t="n">
+        <v>0.5711413899992752</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.573955310691755</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2324,6 +2576,12 @@
       <c r="N43" t="n">
         <v>0.6497836849311037</v>
       </c>
+      <c r="O43" t="n">
+        <v>0.6508280297409779</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6524120255491189</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2368,6 +2626,12 @@
       <c r="N44" t="n">
         <v>0.6618725633999357</v>
       </c>
+      <c r="O44" t="n">
+        <v>0.6651797703601553</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6687613046237939</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2412,6 +2676,12 @@
       <c r="N45" t="n">
         <v>0.6163386022329698</v>
       </c>
+      <c r="O45" t="n">
+        <v>0.6229599254771434</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6303016033025318</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2456,6 +2726,12 @@
       <c r="N46" t="n">
         <v>-1.287874713889447</v>
       </c>
+      <c r="O46" t="n">
+        <v>-1.289877892817069</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.292050892517576</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2500,6 +2776,12 @@
       <c r="N47" t="n">
         <v>-1.006092503893718</v>
       </c>
+      <c r="O47" t="n">
+        <v>-1.007611343809836</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.009208081669638</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2544,6 +2826,12 @@
       <c r="N48" t="n">
         <v>-0.8824659200365693</v>
       </c>
+      <c r="O48" t="n">
+        <v>-0.8817417231319653</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8812152176844328</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2588,6 +2876,12 @@
       <c r="N49" t="n">
         <v>-0.6438259884052493</v>
       </c>
+      <c r="O49" t="n">
+        <v>-0.6434093130117455</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6432022674863436</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2632,6 +2926,12 @@
       <c r="N50" t="n">
         <v>-0.06064733344380073</v>
       </c>
+      <c r="O50" t="n">
+        <v>-0.06197223061920823</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06334908601762014</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2676,6 +2976,12 @@
       <c r="N51" t="n">
         <v>-0.8702591755119998</v>
       </c>
+      <c r="O51" t="n">
+        <v>-0.8689872467926884</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8678481333333029</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2720,6 +3026,12 @@
       <c r="N52" t="n">
         <v>-0.8702591755119998</v>
       </c>
+      <c r="O52" t="n">
+        <v>-0.8689872467926884</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8678481333333029</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2764,6 +3076,12 @@
       <c r="N53" t="n">
         <v>-1.143063208764865</v>
       </c>
+      <c r="O53" t="n">
+        <v>-1.143470861639018</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.143916963618337</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2808,6 +3126,12 @@
       <c r="N54" t="n">
         <v>-0.1764111937374491</v>
       </c>
+      <c r="O54" t="n">
+        <v>-0.1762935326014256</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1763967384019015</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2852,6 +3176,12 @@
       <c r="N55" t="n">
         <v>-1.024903711653617</v>
       </c>
+      <c r="O55" t="n">
+        <v>-1.026735395816189</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.028668341483162</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2896,6 +3226,12 @@
       <c r="N56" t="n">
         <v>-0.892636240791856</v>
       </c>
+      <c r="O56" t="n">
+        <v>-0.8955526673001041</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8985876543085083</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2940,6 +3276,12 @@
       <c r="N57" t="n">
         <v>-0.8989066382161147</v>
       </c>
+      <c r="O57" t="n">
+        <v>-0.9037702065448942</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9093909733198395</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2984,6 +3326,12 @@
       <c r="N58" t="n">
         <v>-1.044983148401146</v>
       </c>
+      <c r="O58" t="n">
+        <v>-1.048734878463608</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.053493814648325</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3028,6 +3376,12 @@
       <c r="N59" t="n">
         <v>-0.7810091826740548</v>
       </c>
+      <c r="O59" t="n">
+        <v>-0.7808261565040457</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7813981875539462</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3072,6 +3426,12 @@
       <c r="N60" t="n">
         <v>-0.4028936857738594</v>
       </c>
+      <c r="O60" t="n">
+        <v>-0.4036403583600968</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4053190666441998</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3116,6 +3476,12 @@
       <c r="N61" t="n">
         <v>0.3875636229588697</v>
       </c>
+      <c r="O61" t="n">
+        <v>0.3876347372667817</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3875143449590815</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3160,6 +3526,12 @@
       <c r="N62" t="n">
         <v>-1.149009627226889</v>
       </c>
+      <c r="O62" t="n">
+        <v>-1.154432337354456</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.160843475630652</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3204,6 +3576,12 @@
       <c r="N63" t="n">
         <v>-0.5672716835311973</v>
       </c>
+      <c r="O63" t="n">
+        <v>-0.5620656377423728</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5582259242165966</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3248,6 +3626,12 @@
       <c r="N64" t="n">
         <v>-0.8383797397851729</v>
       </c>
+      <c r="O64" t="n">
+        <v>-0.8375786247702771</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8377355649355009</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3292,6 +3676,12 @@
       <c r="N65" t="n">
         <v>-0.02185744841652408</v>
       </c>
+      <c r="O65" t="n">
+        <v>-0.02216534937065239</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02326897064305818</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3336,6 +3726,12 @@
       <c r="N66" t="n">
         <v>-0.726361654340326</v>
       </c>
+      <c r="O66" t="n">
+        <v>-0.7320954311482674</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7386429067919765</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3379,6 +3775,12 @@
       </c>
       <c r="N67" t="n">
         <v>-0.6931054122632734</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7013653139109522</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.710394028805811</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.2115618058472211</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.2113963060965328</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>0.280266812961422</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.279358238597195</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>0.2493461651665066</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.2506780542676632</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>-0.03215856623565759</v>
       </c>
+      <c r="Q5" t="n">
+        <v>-0.03411855190915689</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>0.2285342342747512</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0.2271141522338609</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.3695668025220744</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.3690622332627759</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.1370980462934937</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.1335750581965593</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>-0.2792724227708773</v>
       </c>
+      <c r="Q9" t="n">
+        <v>-0.2773965207262803</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.4284785154670471</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.4267047532487073</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -982,6 +1012,9 @@
       <c r="P11" t="n">
         <v>-0.1768736292806702</v>
       </c>
+      <c r="Q11" t="n">
+        <v>-0.1771452768994382</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1032,6 +1065,9 @@
       <c r="P12" t="n">
         <v>-0.01311420331645243</v>
       </c>
+      <c r="Q12" t="n">
+        <v>-0.01902575085069192</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1082,6 +1118,9 @@
       <c r="P13" t="n">
         <v>-0.02240596973031777</v>
       </c>
+      <c r="Q13" t="n">
+        <v>-0.0248313636877311</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1132,6 +1171,9 @@
       <c r="P14" t="n">
         <v>0.1949363713022942</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0.1849743072183584</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1182,6 +1224,9 @@
       <c r="P15" t="n">
         <v>0.09365039824090399</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0.07843038604592219</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1232,6 +1277,9 @@
       <c r="P16" t="n">
         <v>0.5423456070667526</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0.5258338692610121</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1282,6 +1330,9 @@
       <c r="P17" t="n">
         <v>0.6187708266261263</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0.6014665698527819</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1332,6 +1383,9 @@
       <c r="P18" t="n">
         <v>-0.07649961690124031</v>
       </c>
+      <c r="Q18" t="n">
+        <v>-0.08461116870782959</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1382,6 +1436,9 @@
       <c r="P19" t="n">
         <v>0.4024112839341616</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0.3931779775582956</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1432,6 +1489,9 @@
       <c r="P20" t="n">
         <v>0.4414293750204749</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0.4229499733130113</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1482,6 +1542,9 @@
       <c r="P21" t="n">
         <v>0.6585691956035908</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0.6440497684068451</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1532,6 +1595,9 @@
       <c r="P22" t="n">
         <v>0.4278287041609329</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0.4127279332244905</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1582,6 +1648,9 @@
       <c r="P23" t="n">
         <v>-0.02414307508162968</v>
       </c>
+      <c r="Q23" t="n">
+        <v>-0.03729296942026317</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1632,6 +1701,9 @@
       <c r="P24" t="n">
         <v>1.932502094650812</v>
       </c>
+      <c r="Q24" t="n">
+        <v>1.757262791393045</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1682,6 +1754,9 @@
       <c r="P25" t="n">
         <v>0.2940663808138195</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0.2925022937997688</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1732,6 +1807,9 @@
       <c r="P26" t="n">
         <v>0.1475281067981714</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0.1402202898347069</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1782,6 +1860,9 @@
       <c r="P27" t="n">
         <v>0.04558693761122762</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0.03813799647761485</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1832,6 +1913,9 @@
       <c r="P28" t="n">
         <v>0.7881270009708706</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0.7826399518597517</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1882,6 +1966,9 @@
       <c r="P29" t="n">
         <v>1.813507612086966</v>
       </c>
+      <c r="Q29" t="n">
+        <v>1.704062533205739</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1932,6 +2019,9 @@
       <c r="P30" t="n">
         <v>0.6271246598854809</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0.622289924454701</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1982,6 +2072,9 @@
       <c r="P31" t="n">
         <v>-0.4994610635860754</v>
       </c>
+      <c r="Q31" t="n">
+        <v>-0.4983531569370602</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2032,6 +2125,9 @@
       <c r="P32" t="n">
         <v>0.5242255491853003</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0.5203111771408788</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2082,6 +2178,9 @@
       <c r="P33" t="n">
         <v>0.7359939609253274</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0.7345218752346809</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2132,6 +2231,9 @@
       <c r="P34" t="n">
         <v>-0.8569084167357776</v>
       </c>
+      <c r="Q34" t="n">
+        <v>-0.8595262352606027</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2182,6 +2284,9 @@
       <c r="P35" t="n">
         <v>0.7767229460071331</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0.7791052699657874</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2232,6 +2337,9 @@
       <c r="P36" t="n">
         <v>0.7180691500632012</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0.7230760379292515</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2282,6 +2390,9 @@
       <c r="P37" t="n">
         <v>0.6810933295711001</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0.6861236551550187</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2332,6 +2443,9 @@
       <c r="P38" t="n">
         <v>0.6251823317021289</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0.6261293042205321</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2382,6 +2496,9 @@
       <c r="P39" t="n">
         <v>0.5795754927826959</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0.5821461599526181</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2432,6 +2549,9 @@
       <c r="P40" t="n">
         <v>0.7415396913555018</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0.7438961851913849</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2482,6 +2602,9 @@
       <c r="P41" t="n">
         <v>0.5531472627949815</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0.556163482578663</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2532,6 +2655,9 @@
       <c r="P42" t="n">
         <v>0.573955310691755</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0.5776997177180934</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2582,6 +2708,9 @@
       <c r="P43" t="n">
         <v>0.6524120255491189</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0.6544219559842945</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2632,6 +2761,9 @@
       <c r="P44" t="n">
         <v>0.6687613046237939</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.6725206551683318</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2682,6 +2814,9 @@
       <c r="P45" t="n">
         <v>0.6303016033025318</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.6381413887445588</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2732,6 +2867,9 @@
       <c r="P46" t="n">
         <v>-1.292050892517576</v>
       </c>
+      <c r="Q46" t="n">
+        <v>-1.294402393430351</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2782,6 +2920,9 @@
       <c r="P47" t="n">
         <v>-1.009208081669638</v>
       </c>
+      <c r="Q47" t="n">
+        <v>-1.010903537409902</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2832,6 +2973,9 @@
       <c r="P48" t="n">
         <v>-0.8812152176844328</v>
       </c>
+      <c r="Q48" t="n">
+        <v>-0.8809308722048186</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2882,6 +3026,9 @@
       <c r="P49" t="n">
         <v>-0.6432022674863436</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-0.6432286526370264</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2932,6 +3079,9 @@
       <c r="P50" t="n">
         <v>-0.06334908601762014</v>
       </c>
+      <c r="Q50" t="n">
+        <v>-0.06477392429268361</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2982,6 +3132,9 @@
       <c r="P51" t="n">
         <v>-0.8678481333333029</v>
       </c>
+      <c r="Q51" t="n">
+        <v>-0.866893004079634</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3032,6 +3185,9 @@
       <c r="P52" t="n">
         <v>-0.8678481333333029</v>
       </c>
+      <c r="Q52" t="n">
+        <v>-0.866893004079634</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3082,6 +3238,9 @@
       <c r="P53" t="n">
         <v>-1.143916963618337</v>
       </c>
+      <c r="Q53" t="n">
+        <v>-1.144476679662605</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3132,6 +3291,9 @@
       <c r="P54" t="n">
         <v>-0.1763967384019015</v>
       </c>
+      <c r="Q54" t="n">
+        <v>-0.1767171987985417</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3182,6 +3344,9 @@
       <c r="P55" t="n">
         <v>-1.028668341483162</v>
       </c>
+      <c r="Q55" t="n">
+        <v>-1.03071609615979</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3232,6 +3397,9 @@
       <c r="P56" t="n">
         <v>-0.8985876543085083</v>
       </c>
+      <c r="Q56" t="n">
+        <v>-0.9017045172344313</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3282,6 +3450,9 @@
       <c r="P57" t="n">
         <v>-0.9093909733198395</v>
       </c>
+      <c r="Q57" t="n">
+        <v>-0.9156159469169581</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3332,6 +3503,9 @@
       <c r="P58" t="n">
         <v>-1.053493814648325</v>
       </c>
+      <c r="Q58" t="n">
+        <v>-1.059062033698173</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3382,6 +3556,9 @@
       <c r="P59" t="n">
         <v>-0.7813981875539462</v>
       </c>
+      <c r="Q59" t="n">
+        <v>-0.7826406643130245</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3432,6 +3609,9 @@
       <c r="P60" t="n">
         <v>-0.4053190666441998</v>
       </c>
+      <c r="Q60" t="n">
+        <v>-0.4077779990546171</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3482,6 +3662,9 @@
       <c r="P61" t="n">
         <v>0.3875143449590815</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0.3872230495012516</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3532,6 +3715,9 @@
       <c r="P62" t="n">
         <v>-1.160843475630652</v>
       </c>
+      <c r="Q62" t="n">
+        <v>-1.168043329627256</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3582,6 +3768,9 @@
       <c r="P63" t="n">
         <v>-0.5582259242165966</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-0.555621120550112</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3632,6 +3821,9 @@
       <c r="P64" t="n">
         <v>-0.8377355649355009</v>
       </c>
+      <c r="Q64" t="n">
+        <v>-0.8387787421484574</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3682,6 +3874,9 @@
       <c r="P65" t="n">
         <v>-0.02326897064305818</v>
       </c>
+      <c r="Q65" t="n">
+        <v>-0.02503408871239126</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3732,6 +3927,9 @@
       <c r="P66" t="n">
         <v>-0.7386429067919765</v>
       </c>
+      <c r="Q66" t="n">
+        <v>-0.7457907085905111</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3781,6 +3979,9 @@
       </c>
       <c r="P67" t="n">
         <v>-0.710394028805811</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7199182335225917</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.2113963060965328</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2119382274833596</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>0.279358238597195</v>
       </c>
+      <c r="R3" t="n">
+        <v>0.2777993945932187</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>0.2506780542676632</v>
       </c>
+      <c r="R4" t="n">
+        <v>0.2512143840511494</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>-0.03411855190915689</v>
       </c>
+      <c r="R5" t="n">
+        <v>-0.03646020300875291</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>0.2271141522338609</v>
       </c>
+      <c r="R6" t="n">
+        <v>0.2251327308044784</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.3690622332627759</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.3692581433675649</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.1335750581965593</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.1308487444315692</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>-0.2773965207262803</v>
       </c>
+      <c r="R9" t="n">
+        <v>-0.2766817839496643</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.4267047532487073</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.4244840707965336</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1015,6 +1045,9 @@
       <c r="Q11" t="n">
         <v>-0.1771452768994382</v>
       </c>
+      <c r="R11" t="n">
+        <v>-0.1779270915567804</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1068,6 +1101,9 @@
       <c r="Q12" t="n">
         <v>-0.01902575085069192</v>
       </c>
+      <c r="R12" t="n">
+        <v>-0.02552546492933162</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1121,6 +1157,9 @@
       <c r="Q13" t="n">
         <v>-0.0248313636877311</v>
       </c>
+      <c r="R13" t="n">
+        <v>-0.02736085983267601</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1174,6 +1213,9 @@
       <c r="Q14" t="n">
         <v>0.1849743072183584</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.1739493784990284</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1227,6 +1269,9 @@
       <c r="Q15" t="n">
         <v>0.07843038604592219</v>
       </c>
+      <c r="R15" t="n">
+        <v>0.06230049207778075</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1280,6 +1325,9 @@
       <c r="Q16" t="n">
         <v>0.5258338692610121</v>
       </c>
+      <c r="R16" t="n">
+        <v>0.5078997805973946</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1333,6 +1381,9 @@
       <c r="Q17" t="n">
         <v>0.6014665698527819</v>
       </c>
+      <c r="R17" t="n">
+        <v>0.5838441242658016</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1386,6 +1437,9 @@
       <c r="Q18" t="n">
         <v>-0.08461116870782959</v>
       </c>
+      <c r="R18" t="n">
+        <v>-0.09250392828529236</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1439,6 +1493,9 @@
       <c r="Q19" t="n">
         <v>0.3931779775582956</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.3836773349695586</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1492,6 +1549,9 @@
       <c r="Q20" t="n">
         <v>0.4229499733130113</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.4033361550243623</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1545,6 +1605,9 @@
       <c r="Q21" t="n">
         <v>0.6440497684068451</v>
       </c>
+      <c r="R21" t="n">
+        <v>0.6288303964873254</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1598,6 +1661,9 @@
       <c r="Q22" t="n">
         <v>0.4127279332244905</v>
       </c>
+      <c r="R22" t="n">
+        <v>0.3971757304791835</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1651,6 +1717,9 @@
       <c r="Q23" t="n">
         <v>-0.03729296942026317</v>
       </c>
+      <c r="R23" t="n">
+        <v>-0.05077189548953738</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1704,6 +1773,9 @@
       <c r="Q24" t="n">
         <v>1.757262791393045</v>
       </c>
+      <c r="R24" t="n">
+        <v>1.602343274056888</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1757,6 +1829,9 @@
       <c r="Q25" t="n">
         <v>0.2925022937997688</v>
       </c>
+      <c r="R25" t="n">
+        <v>0.2919307377154214</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1810,6 +1885,9 @@
       <c r="Q26" t="n">
         <v>0.1402202898347069</v>
       </c>
+      <c r="R26" t="n">
+        <v>0.1342656838583542</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1863,6 +1941,9 @@
       <c r="Q27" t="n">
         <v>0.03813799647761485</v>
       </c>
+      <c r="R27" t="n">
+        <v>0.03220454949406199</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1916,6 +1997,9 @@
       <c r="Q28" t="n">
         <v>0.7826399518597517</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.7790556406531616</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1969,6 +2053,9 @@
       <c r="Q29" t="n">
         <v>1.704062533205739</v>
       </c>
+      <c r="R29" t="n">
+        <v>1.614767636804712</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2022,6 +2109,9 @@
       <c r="Q30" t="n">
         <v>0.622289924454701</v>
       </c>
+      <c r="R30" t="n">
+        <v>0.6193298120755489</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2075,6 +2165,9 @@
       <c r="Q31" t="n">
         <v>-0.4983531569370602</v>
       </c>
+      <c r="R31" t="n">
+        <v>-0.4958447752589118</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2128,6 +2221,9 @@
       <c r="Q32" t="n">
         <v>0.5203111771408788</v>
       </c>
+      <c r="R32" t="n">
+        <v>0.5179169364371363</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2181,6 +2277,9 @@
       <c r="Q33" t="n">
         <v>0.7345218752346809</v>
       </c>
+      <c r="R33" t="n">
+        <v>0.7340489026534536</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2234,6 +2333,9 @@
       <c r="Q34" t="n">
         <v>-0.8595262352606027</v>
       </c>
+      <c r="R34" t="n">
+        <v>-0.8610840712953124</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2287,6 +2389,9 @@
       <c r="Q35" t="n">
         <v>0.7791052699657874</v>
       </c>
+      <c r="R35" t="n">
+        <v>0.781844935380217</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2340,6 +2445,9 @@
       <c r="Q36" t="n">
         <v>0.7230760379292515</v>
       </c>
+      <c r="R36" t="n">
+        <v>0.7284759994254388</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2393,6 +2501,9 @@
       <c r="Q37" t="n">
         <v>0.6861236551550187</v>
       </c>
+      <c r="R37" t="n">
+        <v>0.6916028704757299</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2446,6 +2557,9 @@
       <c r="Q38" t="n">
         <v>0.6261293042205321</v>
       </c>
+      <c r="R38" t="n">
+        <v>0.6275882072263066</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2499,6 +2613,9 @@
       <c r="Q39" t="n">
         <v>0.5821461599526181</v>
       </c>
+      <c r="R39" t="n">
+        <v>0.584810784866717</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2552,6 +2669,9 @@
       <c r="Q40" t="n">
         <v>0.7438961851913849</v>
       </c>
+      <c r="R40" t="n">
+        <v>0.7465207791740711</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2605,6 +2725,9 @@
       <c r="Q41" t="n">
         <v>0.556163482578663</v>
       </c>
+      <c r="R41" t="n">
+        <v>0.5591607247217059</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2658,6 +2781,9 @@
       <c r="Q42" t="n">
         <v>0.5776997177180934</v>
       </c>
+      <c r="R42" t="n">
+        <v>0.5821636205976913</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2711,6 +2837,9 @@
       <c r="Q43" t="n">
         <v>0.6544219559842945</v>
       </c>
+      <c r="R43" t="n">
+        <v>0.6567534452521776</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2764,6 +2893,9 @@
       <c r="Q44" t="n">
         <v>0.6725206551683318</v>
       </c>
+      <c r="R44" t="n">
+        <v>0.6763710871987633</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2817,6 +2949,9 @@
       <c r="Q45" t="n">
         <v>0.6381413887445588</v>
       </c>
+      <c r="R45" t="n">
+        <v>0.6462774946038721</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2870,6 +3005,9 @@
       <c r="Q46" t="n">
         <v>-1.294402393430351</v>
       </c>
+      <c r="R46" t="n">
+        <v>-1.296934285072778</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2923,6 +3061,9 @@
       <c r="Q47" t="n">
         <v>-1.010903537409902</v>
       </c>
+      <c r="R47" t="n">
+        <v>-1.012711817012449</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2976,6 +3117,9 @@
       <c r="Q48" t="n">
         <v>-0.8809308722048186</v>
       </c>
+      <c r="R48" t="n">
+        <v>-0.8809196127756593</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3029,6 +3173,9 @@
       <c r="Q49" t="n">
         <v>-0.6432286526370264</v>
       </c>
+      <c r="R49" t="n">
+        <v>-0.6435026383495803</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3082,6 +3229,9 @@
       <c r="Q50" t="n">
         <v>-0.06477392429268361</v>
       </c>
+      <c r="R50" t="n">
+        <v>-0.06624196968617972</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3135,6 +3285,9 @@
       <c r="Q51" t="n">
         <v>-0.866893004079634</v>
       </c>
+      <c r="R51" t="n">
+        <v>-0.8661608575454833</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3188,6 +3341,9 @@
       <c r="Q52" t="n">
         <v>-0.866893004079634</v>
       </c>
+      <c r="R52" t="n">
+        <v>-0.8661608575454833</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3241,6 +3397,9 @@
       <c r="Q53" t="n">
         <v>-1.144476679662605</v>
       </c>
+      <c r="R53" t="n">
+        <v>-1.145207482432568</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3294,6 +3453,9 @@
       <c r="Q54" t="n">
         <v>-0.1767171987985417</v>
       </c>
+      <c r="R54" t="n">
+        <v>-0.177247331544804</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3347,6 +3509,9 @@
       <c r="Q55" t="n">
         <v>-1.03071609615979</v>
       </c>
+      <c r="R55" t="n">
+        <v>-1.032886378182189</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3400,6 +3565,9 @@
       <c r="Q56" t="n">
         <v>-0.9017045172344313</v>
       </c>
+      <c r="R56" t="n">
+        <v>-0.9048716611425812</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3453,6 +3621,9 @@
       <c r="Q57" t="n">
         <v>-0.9156159469169581</v>
       </c>
+      <c r="R57" t="n">
+        <v>-0.9223008544077526</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3506,6 +3677,9 @@
       <c r="Q58" t="n">
         <v>-1.059062033698173</v>
       </c>
+      <c r="R58" t="n">
+        <v>-1.065255853350797</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3559,6 +3733,9 @@
       <c r="Q59" t="n">
         <v>-0.7826406643130245</v>
       </c>
+      <c r="R59" t="n">
+        <v>-0.784468646686267</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3612,6 +3789,9 @@
       <c r="Q60" t="n">
         <v>-0.4077779990546171</v>
       </c>
+      <c r="R60" t="n">
+        <v>-0.4108737627001426</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3665,6 +3845,9 @@
       <c r="Q61" t="n">
         <v>0.3872230495012516</v>
       </c>
+      <c r="R61" t="n">
+        <v>0.3867819695121186</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3718,6 +3901,9 @@
       <c r="Q62" t="n">
         <v>-1.168043329627256</v>
       </c>
+      <c r="R62" t="n">
+        <v>-1.175845141716221</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3771,6 +3957,9 @@
       <c r="Q63" t="n">
         <v>-0.555621120550112</v>
       </c>
+      <c r="R63" t="n">
+        <v>-0.5541180545541255</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3824,6 +4013,9 @@
       <c r="Q64" t="n">
         <v>-0.8387787421484574</v>
       </c>
+      <c r="R64" t="n">
+        <v>-0.8406251108487721</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3877,6 +4069,9 @@
       <c r="Q65" t="n">
         <v>-0.02503408871239126</v>
       </c>
+      <c r="R65" t="n">
+        <v>-0.02733571232118206</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3930,6 +4125,9 @@
       <c r="Q66" t="n">
         <v>-0.7457907085905111</v>
       </c>
+      <c r="R66" t="n">
+        <v>-0.75334720504195</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3982,6 +4180,9 @@
       </c>
       <c r="Q67" t="n">
         <v>-0.7199182335225917</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7297008382865617</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2119382274833596</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.2130878803581599</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>0.2777993945932187</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.2756954230167693</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>0.2512143840511494</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.2510482984687545</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>-0.03646020300875291</v>
       </c>
+      <c r="S5" t="n">
+        <v>-0.0391019179564738</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>0.2251327308044784</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.2227073979002345</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.3692581433675649</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.370075509867899</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.1308487444315692</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.1288548765507325</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>-0.2766817839496643</v>
       </c>
+      <c r="S9" t="n">
+        <v>-0.2770056093553663</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.4244840707965336</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.4219207869908598</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1048,6 +1078,9 @@
       <c r="R11" t="n">
         <v>-0.1779270915567804</v>
       </c>
+      <c r="S11" t="n">
+        <v>-0.179150799326964</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1104,6 +1137,9 @@
       <c r="R12" t="n">
         <v>-0.02552546492933162</v>
       </c>
+      <c r="S12" t="n">
+        <v>-0.03242909703455028</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1160,6 +1196,9 @@
       <c r="R13" t="n">
         <v>-0.02736085983267601</v>
       </c>
+      <c r="S13" t="n">
+        <v>-0.02996033280788072</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1216,6 +1255,9 @@
       <c r="R14" t="n">
         <v>0.1739493784990284</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.1622022470349894</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1272,6 +1314,9 @@
       <c r="R15" t="n">
         <v>0.06230049207778075</v>
       </c>
+      <c r="S15" t="n">
+        <v>0.04565777741038887</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1328,6 +1373,9 @@
       <c r="R16" t="n">
         <v>0.5078997805973946</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.4890623566804494</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1384,6 +1432,9 @@
       <c r="R17" t="n">
         <v>0.5838441242658016</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.5662483473317076</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1440,6 +1491,9 @@
       <c r="R18" t="n">
         <v>-0.09250392828529236</v>
       </c>
+      <c r="S18" t="n">
+        <v>-0.1001297953899099</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1496,6 +1550,9 @@
       <c r="R19" t="n">
         <v>0.3836773349695586</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.3740875756856692</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1552,6 +1609,9 @@
       <c r="R20" t="n">
         <v>0.4033361550243623</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.3830883824723184</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1608,6 +1668,9 @@
       <c r="R21" t="n">
         <v>0.6288303964873254</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.6133096701805735</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1664,6 +1727,9 @@
       <c r="R22" t="n">
         <v>0.3971757304791835</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.3815051359305501</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1720,6 +1786,9 @@
       <c r="R23" t="n">
         <v>-0.05077189548953738</v>
       </c>
+      <c r="S23" t="n">
+        <v>-0.06430390871290163</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1776,6 +1845,9 @@
       <c r="R24" t="n">
         <v>1.602343274056888</v>
       </c>
+      <c r="S24" t="n">
+        <v>1.467751545761645</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1832,6 +1904,9 @@
       <c r="R25" t="n">
         <v>0.2919307377154214</v>
       </c>
+      <c r="S25" t="n">
+        <v>0.2921860769174669</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1888,6 +1963,9 @@
       <c r="R26" t="n">
         <v>0.1342656838583542</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.1295560328204403</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1944,6 +2022,9 @@
       <c r="R27" t="n">
         <v>0.03220454949406199</v>
       </c>
+      <c r="S27" t="n">
+        <v>0.0276486119707646</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2000,6 +2081,9 @@
       <c r="R28" t="n">
         <v>0.7790556406531616</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.7771696850629978</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2056,6 +2140,9 @@
       <c r="R29" t="n">
         <v>1.614767636804712</v>
       </c>
+      <c r="S29" t="n">
+        <v>1.543833638527737</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2112,6 +2199,9 @@
       <c r="R30" t="n">
         <v>0.6193298120755489</v>
       </c>
+      <c r="S30" t="n">
+        <v>0.6179891065193116</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2168,6 +2258,9 @@
       <c r="R31" t="n">
         <v>-0.4958447752589118</v>
       </c>
+      <c r="S31" t="n">
+        <v>-0.4922475682748502</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2224,6 +2317,9 @@
       <c r="R32" t="n">
         <v>0.5179169364371363</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.516835924395846</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2280,6 +2376,9 @@
       <c r="R33" t="n">
         <v>0.7340489026534536</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.7344167530733605</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2336,6 +2435,9 @@
       <c r="R34" t="n">
         <v>-0.8610840712953124</v>
       </c>
+      <c r="S34" t="n">
+        <v>-0.8617548028603674</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2392,6 +2494,9 @@
       <c r="R35" t="n">
         <v>0.781844935380217</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.7848532910848375</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2448,6 +2553,9 @@
       <c r="R36" t="n">
         <v>0.7284759994254388</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.7341217434565784</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2504,6 +2612,9 @@
       <c r="R37" t="n">
         <v>0.6916028704757299</v>
       </c>
+      <c r="S37" t="n">
+        <v>0.6973726413872287</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2560,6 +2671,9 @@
       <c r="R38" t="n">
         <v>0.6275882072263066</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.6294474409771059</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2616,6 +2730,9 @@
       <c r="R39" t="n">
         <v>0.584810784866717</v>
       </c>
+      <c r="S39" t="n">
+        <v>0.5875146740222695</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2672,6 +2789,9 @@
       <c r="R40" t="n">
         <v>0.7465207791740711</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.7493481626815386</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2728,6 +2848,9 @@
       <c r="R41" t="n">
         <v>0.5591607247217059</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.5620873012092414</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2784,6 +2907,9 @@
       <c r="R42" t="n">
         <v>0.5821636205976913</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.5871537843225009</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2840,6 +2966,9 @@
       <c r="R43" t="n">
         <v>0.6567534452521776</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.659312276332455</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2896,6 +3025,9 @@
       <c r="R44" t="n">
         <v>0.6763710871987633</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.6802362418229262</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2952,6 +3084,9 @@
       <c r="R45" t="n">
         <v>0.6462774946038721</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.6545304365081148</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3008,6 +3143,9 @@
       <c r="R46" t="n">
         <v>-1.296934285072778</v>
       </c>
+      <c r="S46" t="n">
+        <v>-1.299642776317827</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3064,6 +3202,9 @@
       <c r="R47" t="n">
         <v>-1.012711817012449</v>
       </c>
+      <c r="S47" t="n">
+        <v>-1.014641116565164</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3120,6 +3261,9 @@
       <c r="R48" t="n">
         <v>-0.8809196127756593</v>
       </c>
+      <c r="S48" t="n">
+        <v>-0.8812004048809928</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3176,6 +3320,9 @@
       <c r="R49" t="n">
         <v>-0.6435026383495803</v>
       </c>
+      <c r="S49" t="n">
+        <v>-0.6440300478069334</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3232,6 +3379,9 @@
       <c r="R50" t="n">
         <v>-0.06624196968617972</v>
       </c>
+      <c r="S50" t="n">
+        <v>-0.0677478673479847</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3288,6 +3438,9 @@
       <c r="R51" t="n">
         <v>-0.8661608575454833</v>
       </c>
+      <c r="S51" t="n">
+        <v>-0.8656795360269731</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3344,6 +3497,9 @@
       <c r="R52" t="n">
         <v>-0.8661608575454833</v>
       </c>
+      <c r="S52" t="n">
+        <v>-0.8656795360269731</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3400,6 +3556,9 @@
       <c r="R53" t="n">
         <v>-1.145207482432568</v>
       </c>
+      <c r="S53" t="n">
+        <v>-1.146151041366658</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3456,6 +3615,9 @@
       <c r="R54" t="n">
         <v>-0.177247331544804</v>
       </c>
+      <c r="S54" t="n">
+        <v>-0.177976335999805</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3512,6 +3674,9 @@
       <c r="R55" t="n">
         <v>-1.032886378182189</v>
       </c>
+      <c r="S55" t="n">
+        <v>-1.035181861026002</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3568,6 +3733,9 @@
       <c r="R56" t="n">
         <v>-0.9048716611425812</v>
       </c>
+      <c r="S56" t="n">
+        <v>-0.9080621617636764</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3624,6 +3792,9 @@
       <c r="R57" t="n">
         <v>-0.9223008544077526</v>
       </c>
+      <c r="S57" t="n">
+        <v>-0.9293122676028494</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3680,6 +3851,9 @@
       <c r="R58" t="n">
         <v>-1.065255853350797</v>
       </c>
+      <c r="S58" t="n">
+        <v>-1.071907593189039</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3736,6 +3910,9 @@
       <c r="R59" t="n">
         <v>-0.784468646686267</v>
       </c>
+      <c r="S59" t="n">
+        <v>-0.7867987299234536</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3792,6 +3969,9 @@
       <c r="R60" t="n">
         <v>-0.4108737627001426</v>
       </c>
+      <c r="S60" t="n">
+        <v>-0.4144731395739215</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3848,6 +4028,9 @@
       <c r="R61" t="n">
         <v>0.3867819695121186</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.3862121462605518</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3904,6 +4087,9 @@
       <c r="R62" t="n">
         <v>-1.175845141716221</v>
       </c>
+      <c r="S62" t="n">
+        <v>-1.184077388625422</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3960,6 +4146,9 @@
       <c r="R63" t="n">
         <v>-0.5541180545541255</v>
       </c>
+      <c r="S63" t="n">
+        <v>-0.5535847021732977</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4016,6 +4205,9 @@
       <c r="R64" t="n">
         <v>-0.8406251108487721</v>
       </c>
+      <c r="S64" t="n">
+        <v>-0.8431846414843174</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4072,6 +4264,9 @@
       <c r="R65" t="n">
         <v>-0.02733571232118206</v>
       </c>
+      <c r="S65" t="n">
+        <v>-0.03005914544591402</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4128,6 +4323,9 @@
       <c r="R66" t="n">
         <v>-0.75334720504195</v>
       </c>
+      <c r="S66" t="n">
+        <v>-0.7611431116426128</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4183,6 +4381,9 @@
       </c>
       <c r="R67" t="n">
         <v>-0.7297008382865617</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7395398191808252</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.2130878803581599</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.2147490324870791</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>0.2756954230167693</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.273148547675647</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>0.2510482984687545</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.2502734226367735</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>-0.0391019179564738</v>
       </c>
+      <c r="T5" t="n">
+        <v>-0.04196812361060441</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>0.2227073979002345</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.2199463840479339</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.370075509867899</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.371434102235947</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.1288548765507325</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.1275251943915741</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>-0.2770056093553663</v>
       </c>
+      <c r="T9" t="n">
+        <v>-0.2782397661252795</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.4219207869908598</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.4191095296755549</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1081,6 +1111,9 @@
       <c r="S11" t="n">
         <v>-0.179150799326964</v>
       </c>
+      <c r="T11" t="n">
+        <v>-0.1807496216148141</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1173,9 @@
       <c r="S12" t="n">
         <v>-0.03242909703455028</v>
       </c>
+      <c r="T12" t="n">
+        <v>-0.03957194116584029</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1199,6 +1235,9 @@
       <c r="S13" t="n">
         <v>-0.02996033280788072</v>
       </c>
+      <c r="T13" t="n">
+        <v>-0.03259791965249854</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1258,6 +1297,9 @@
       <c r="S14" t="n">
         <v>0.1622022470349894</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.1500375819502239</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1317,6 +1359,9 @@
       <c r="S15" t="n">
         <v>0.04565777741038887</v>
       </c>
+      <c r="T15" t="n">
+        <v>0.02885126203877013</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1376,6 +1421,9 @@
       <c r="S16" t="n">
         <v>0.4890623566804494</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.4697816631131124</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1435,6 +1483,9 @@
       <c r="S17" t="n">
         <v>0.5662483473317076</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.5489736652515809</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1494,6 +1545,9 @@
       <c r="S18" t="n">
         <v>-0.1001297953899099</v>
       </c>
+      <c r="T18" t="n">
+        <v>-0.1074463510400012</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1553,6 +1607,9 @@
       <c r="S19" t="n">
         <v>0.3740875756856692</v>
       </c>
+      <c r="T19" t="n">
+        <v>0.3645638042850822</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1612,6 +1669,9 @@
       <c r="S20" t="n">
         <v>0.3830883824723184</v>
       </c>
+      <c r="T20" t="n">
+        <v>0.3626456226754195</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1671,6 +1731,9 @@
       <c r="S21" t="n">
         <v>0.6133096701805735</v>
       </c>
+      <c r="T21" t="n">
+        <v>0.5978280771910374</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1730,6 +1793,9 @@
       <c r="S22" t="n">
         <v>0.3815051359305501</v>
       </c>
+      <c r="T22" t="n">
+        <v>0.366002578902952</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1789,6 +1855,9 @@
       <c r="S23" t="n">
         <v>-0.06430390871290163</v>
       </c>
+      <c r="T23" t="n">
+        <v>-0.07765340283773421</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1848,6 +1917,9 @@
       <c r="S24" t="n">
         <v>1.467751545761645</v>
       </c>
+      <c r="T24" t="n">
+        <v>1.353037907922757</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1907,6 +1979,9 @@
       <c r="S25" t="n">
         <v>0.2921860769174669</v>
       </c>
+      <c r="T25" t="n">
+        <v>0.293115862013258</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1966,6 +2041,9 @@
       <c r="S26" t="n">
         <v>0.1295560328204403</v>
       </c>
+      <c r="T26" t="n">
+        <v>0.1259750508775501</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2025,6 +2103,9 @@
       <c r="S27" t="n">
         <v>0.0276486119707646</v>
       </c>
+      <c r="T27" t="n">
+        <v>0.02432805697626515</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2084,6 +2165,9 @@
       <c r="S28" t="n">
         <v>0.7771696850629978</v>
       </c>
+      <c r="T28" t="n">
+        <v>0.7767744921724671</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2143,6 +2227,9 @@
       <c r="S29" t="n">
         <v>1.543833638527737</v>
       </c>
+      <c r="T29" t="n">
+        <v>1.489431218300105</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2202,6 +2289,9 @@
       <c r="S30" t="n">
         <v>0.6179891065193116</v>
       </c>
+      <c r="T30" t="n">
+        <v>0.6180230485838482</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2261,6 +2351,9 @@
       <c r="S31" t="n">
         <v>-0.4922475682748502</v>
       </c>
+      <c r="T31" t="n">
+        <v>-0.4878413370528136</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2320,6 +2413,9 @@
       <c r="S32" t="n">
         <v>0.516835924395846</v>
       </c>
+      <c r="T32" t="n">
+        <v>0.5168692668693414</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,6 +2475,9 @@
       <c r="S33" t="n">
         <v>0.7344167530733605</v>
       </c>
+      <c r="T33" t="n">
+        <v>0.7354770601868399</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2438,6 +2537,9 @@
       <c r="S34" t="n">
         <v>-0.8617548028603674</v>
       </c>
+      <c r="T34" t="n">
+        <v>-0.8616998581484722</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2497,6 +2599,9 @@
       <c r="S35" t="n">
         <v>0.7848532910848375</v>
       </c>
+      <c r="T35" t="n">
+        <v>0.7880483143507215</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2556,6 +2661,9 @@
       <c r="S36" t="n">
         <v>0.7341217434565784</v>
       </c>
+      <c r="T36" t="n">
+        <v>0.7398826132163276</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2615,6 +2723,9 @@
       <c r="S37" t="n">
         <v>0.6973726413872287</v>
       </c>
+      <c r="T37" t="n">
+        <v>0.7032922589238396</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2674,6 +2785,9 @@
       <c r="S38" t="n">
         <v>0.6294474409771059</v>
       </c>
+      <c r="T38" t="n">
+        <v>0.6316058159448692</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2733,6 +2847,9 @@
       <c r="S39" t="n">
         <v>0.5875146740222695</v>
       </c>
+      <c r="T39" t="n">
+        <v>0.5902092272899885</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2792,6 +2909,9 @@
       <c r="S40" t="n">
         <v>0.7493481626815386</v>
       </c>
+      <c r="T40" t="n">
+        <v>0.7523162101117609</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2851,6 +2971,9 @@
       <c r="S41" t="n">
         <v>0.5620873012092414</v>
       </c>
+      <c r="T41" t="n">
+        <v>0.5649013941156593</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2910,6 +3033,9 @@
       <c r="S42" t="n">
         <v>0.5871537843225009</v>
       </c>
+      <c r="T42" t="n">
+        <v>0.5924963075432054</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2969,6 +3095,9 @@
       <c r="S43" t="n">
         <v>0.659312276332455</v>
       </c>
+      <c r="T43" t="n">
+        <v>0.6620147994809013</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3028,6 +3157,9 @@
       <c r="S44" t="n">
         <v>0.6802362418229262</v>
       </c>
+      <c r="T44" t="n">
+        <v>0.6840503276887239</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3087,6 +3219,9 @@
       <c r="S45" t="n">
         <v>0.6545304365081148</v>
       </c>
+      <c r="T45" t="n">
+        <v>0.6627438827456908</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3146,6 +3281,9 @@
       <c r="S46" t="n">
         <v>-1.299642776317827</v>
       </c>
+      <c r="T46" t="n">
+        <v>-1.302519426289494</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3205,6 +3343,9 @@
       <c r="S47" t="n">
         <v>-1.014641116565164</v>
       </c>
+      <c r="T47" t="n">
+        <v>-1.016694513846651</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3264,6 +3405,9 @@
       <c r="S48" t="n">
         <v>-0.8812004048809928</v>
       </c>
+      <c r="T48" t="n">
+        <v>-0.881781834740294</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3323,6 +3467,9 @@
       <c r="S49" t="n">
         <v>-0.6440300478069334</v>
       </c>
+      <c r="T49" t="n">
+        <v>-0.6448096080303526</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3382,6 +3529,9 @@
       <c r="S50" t="n">
         <v>-0.0677478673479847</v>
       </c>
+      <c r="T50" t="n">
+        <v>-0.06928587048634904</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3441,6 +3591,9 @@
       <c r="S51" t="n">
         <v>-0.8656795360269731</v>
       </c>
+      <c r="T51" t="n">
+        <v>-0.8654668438830458</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3500,6 +3653,9 @@
       <c r="S52" t="n">
         <v>-0.8656795360269731</v>
       </c>
+      <c r="T52" t="n">
+        <v>-0.8654668438830458</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3559,6 +3715,9 @@
       <c r="S53" t="n">
         <v>-1.146151041366658</v>
       </c>
+      <c r="T53" t="n">
+        <v>-1.147335123761274</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3618,6 +3777,9 @@
       <c r="S54" t="n">
         <v>-0.177976335999805</v>
       </c>
+      <c r="T54" t="n">
+        <v>-0.1788908888471821</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3677,6 +3839,9 @@
       <c r="S55" t="n">
         <v>-1.035181861026002</v>
       </c>
+      <c r="T55" t="n">
+        <v>-1.037600927181662</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3736,6 +3901,9 @@
       <c r="S56" t="n">
         <v>-0.9080621617636764</v>
       </c>
+      <c r="T56" t="n">
+        <v>-0.9112533216710159</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3795,6 +3963,9 @@
       <c r="S57" t="n">
         <v>-0.9293122676028494</v>
       </c>
+      <c r="T57" t="n">
+        <v>-0.936529006368353</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3854,6 +4025,9 @@
       <c r="S58" t="n">
         <v>-1.071907593189039</v>
       </c>
+      <c r="T58" t="n">
+        <v>-1.07886659085877</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3913,6 +4087,9 @@
       <c r="S59" t="n">
         <v>-0.7867987299234536</v>
       </c>
+      <c r="T59" t="n">
+        <v>-0.7895505301007344</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3972,6 +4149,9 @@
       <c r="S60" t="n">
         <v>-0.4144731395739215</v>
       </c>
+      <c r="T60" t="n">
+        <v>-0.4184542626020983</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4031,6 +4211,9 @@
       <c r="S61" t="n">
         <v>0.3862121462605518</v>
       </c>
+      <c r="T61" t="n">
+        <v>0.3855340699184373</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4090,6 +4273,9 @@
       <c r="S62" t="n">
         <v>-1.184077388625422</v>
       </c>
+      <c r="T62" t="n">
+        <v>-1.192585207336388</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4149,6 +4335,9 @@
       <c r="S63" t="n">
         <v>-0.5535847021732977</v>
       </c>
+      <c r="T63" t="n">
+        <v>-0.5538925734900859</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4208,6 +4397,9 @@
       <c r="S64" t="n">
         <v>-0.8431846414843174</v>
       </c>
+      <c r="T64" t="n">
+        <v>-0.8463638958162192</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4267,6 +4459,9 @@
       <c r="S65" t="n">
         <v>-0.03005914544591402</v>
       </c>
+      <c r="T65" t="n">
+        <v>-0.03310061154197287</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4326,6 +4521,9 @@
       <c r="S66" t="n">
         <v>-0.7611431116426128</v>
       </c>
+      <c r="T66" t="n">
+        <v>-0.7690314093153928</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4384,6 +4582,9 @@
       </c>
       <c r="S67" t="n">
         <v>-0.7395398191808252</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.749266404368058</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.2147490324870791</v>
       </c>
+      <c r="U2" t="n">
+        <v>-0.2168304345774632</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>0.273148547675647</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.270255889325333</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>0.2502734226367735</v>
       </c>
+      <c r="U4" t="n">
+        <v>0.2489815592757333</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>-0.04196812361060441</v>
       </c>
+      <c r="U5" t="n">
+        <v>-0.044990024175422</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>0.2199463840479339</v>
       </c>
+      <c r="U6" t="n">
+        <v>0.2169477697700422</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.371434102235947</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.3732545621305715</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.1275251943915741</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.1267895035658603</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>-0.2782397661252795</v>
       </c>
+      <c r="U9" t="n">
+        <v>-0.2802547518343415</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.4191095296755549</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.4161347586457676</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1114,6 +1144,9 @@
       <c r="T11" t="n">
         <v>-0.1807496216148141</v>
       </c>
+      <c r="U11" t="n">
+        <v>-0.1826594980267841</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1176,6 +1209,9 @@
       <c r="T12" t="n">
         <v>-0.03957194116584029</v>
       </c>
+      <c r="U12" t="n">
+        <v>-0.04680940199513434</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1238,6 +1274,9 @@
       <c r="T13" t="n">
         <v>-0.03259791965249854</v>
       </c>
+      <c r="U13" t="n">
+        <v>-0.03524452889184571</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1300,6 +1339,9 @@
       <c r="T14" t="n">
         <v>0.1500375819502239</v>
       </c>
+      <c r="U14" t="n">
+        <v>0.1377227816517142</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1362,6 +1404,9 @@
       <c r="T15" t="n">
         <v>0.02885126203877013</v>
       </c>
+      <c r="U15" t="n">
+        <v>0.01218155465940696</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1424,6 +1469,9 @@
       <c r="T16" t="n">
         <v>0.4697816631131124</v>
       </c>
+      <c r="U16" t="n">
+        <v>0.4504576378179784</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1486,6 +1534,9 @@
       <c r="T17" t="n">
         <v>0.5489736652515809</v>
       </c>
+      <c r="U17" t="n">
+        <v>0.5322652512689661</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1548,6 +1599,9 @@
       <c r="T18" t="n">
         <v>-0.1074463510400012</v>
       </c>
+      <c r="U18" t="n">
+        <v>-0.1144178111993319</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1610,6 +1664,9 @@
       <c r="T19" t="n">
         <v>0.3645638042850822</v>
       </c>
+      <c r="U19" t="n">
+        <v>0.355238003242437</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1672,6 +1729,9 @@
       <c r="T20" t="n">
         <v>0.3626456226754195</v>
       </c>
+      <c r="U20" t="n">
+        <v>0.3423851092977129</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1734,6 +1794,9 @@
       <c r="T21" t="n">
         <v>0.5978280771910374</v>
       </c>
+      <c r="U21" t="n">
+        <v>0.5826702322476933</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1796,6 +1859,9 @@
       <c r="T22" t="n">
         <v>0.366002578902952</v>
       </c>
+      <c r="U22" t="n">
+        <v>0.3509087331533706</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1858,6 +1924,9 @@
       <c r="T23" t="n">
         <v>-0.07765340283773421</v>
       </c>
+      <c r="U23" t="n">
+        <v>-0.09062391461829222</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1920,6 +1989,9 @@
       <c r="T24" t="n">
         <v>1.353037907922757</v>
       </c>
+      <c r="U24" t="n">
+        <v>1.257389053502572</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1982,6 +2054,9 @@
       <c r="T25" t="n">
         <v>0.293115862013258</v>
       </c>
+      <c r="U25" t="n">
+        <v>0.2945815414142619</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2044,6 +2119,9 @@
       <c r="T26" t="n">
         <v>0.1259750508775501</v>
       </c>
+      <c r="U26" t="n">
+        <v>0.1234024602854218</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2106,6 +2184,9 @@
       <c r="T27" t="n">
         <v>0.02432805697626515</v>
       </c>
+      <c r="U27" t="n">
+        <v>0.02210029308213796</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2168,6 +2249,9 @@
       <c r="T28" t="n">
         <v>0.7767744921724671</v>
       </c>
+      <c r="U28" t="n">
+        <v>0.7776646147402922</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2230,6 +2314,9 @@
       <c r="T29" t="n">
         <v>1.489431218300105</v>
       </c>
+      <c r="U29" t="n">
+        <v>1.449732781213119</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2292,6 +2379,9 @@
       <c r="T30" t="n">
         <v>0.6180230485838482</v>
       </c>
+      <c r="U30" t="n">
+        <v>0.6192007395047945</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2354,6 +2444,9 @@
       <c r="T31" t="n">
         <v>-0.4878413370528136</v>
       </c>
+      <c r="U31" t="n">
+        <v>-0.4828736073737683</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2416,6 +2509,9 @@
       <c r="T32" t="n">
         <v>0.5168692668693414</v>
       </c>
+      <c r="U32" t="n">
+        <v>0.5178290361078839</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2478,6 +2574,9 @@
       <c r="T33" t="n">
         <v>0.7354770601868399</v>
       </c>
+      <c r="U33" t="n">
+        <v>0.7370928050695225</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2540,6 +2639,9 @@
       <c r="T34" t="n">
         <v>-0.8616998581484722</v>
       </c>
+      <c r="U34" t="n">
+        <v>-0.8610676492515096</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2602,6 +2704,9 @@
       <c r="T35" t="n">
         <v>0.7880483143507215</v>
       </c>
+      <c r="U35" t="n">
+        <v>0.7913555981578843</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2664,6 +2769,9 @@
       <c r="T36" t="n">
         <v>0.7398826132163276</v>
       </c>
+      <c r="U36" t="n">
+        <v>0.7456449591448511</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2726,6 +2834,9 @@
       <c r="T37" t="n">
         <v>0.7032922589238396</v>
       </c>
+      <c r="U37" t="n">
+        <v>0.7092390531048496</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2788,6 +2899,9 @@
       <c r="T38" t="n">
         <v>0.6316058159448692</v>
       </c>
+      <c r="U38" t="n">
+        <v>0.6339729654153353</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2850,6 +2964,9 @@
       <c r="T39" t="n">
         <v>0.5902092272899885</v>
       </c>
+      <c r="U39" t="n">
+        <v>0.5928522585716852</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2912,6 +3029,9 @@
       <c r="T40" t="n">
         <v>0.7523162101117609</v>
       </c>
+      <c r="U40" t="n">
+        <v>0.7553672480790506</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2974,6 +3094,9 @@
       <c r="T41" t="n">
         <v>0.5649013941156593</v>
       </c>
+      <c r="U41" t="n">
+        <v>0.5675702801417178</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3036,6 +3159,9 @@
       <c r="T42" t="n">
         <v>0.5924963075432054</v>
       </c>
+      <c r="U42" t="n">
+        <v>0.5980373951433955</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3098,6 +3224,9 @@
       <c r="T43" t="n">
         <v>0.6620147994809013</v>
       </c>
+      <c r="U43" t="n">
+        <v>0.6647879995724915</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3160,6 +3289,9 @@
       <c r="T44" t="n">
         <v>0.6840503276887239</v>
       </c>
+      <c r="U44" t="n">
+        <v>0.6877579833209241</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3222,6 +3354,9 @@
       <c r="T45" t="n">
         <v>0.6627438827456908</v>
       </c>
+      <c r="U45" t="n">
+        <v>0.6707846910732727</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3284,6 +3419,9 @@
       <c r="T46" t="n">
         <v>-1.302519426289494</v>
       </c>
+      <c r="U46" t="n">
+        <v>-1.305552090060731</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3346,6 +3484,9 @@
       <c r="T47" t="n">
         <v>-1.016694513846651</v>
       </c>
+      <c r="U47" t="n">
+        <v>-1.018870733873831</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3408,6 +3549,9 @@
       <c r="T48" t="n">
         <v>-0.881781834740294</v>
       </c>
+      <c r="U48" t="n">
+        <v>-0.8826636511786776</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3470,6 +3614,9 @@
       <c r="T49" t="n">
         <v>-0.6448096080303526</v>
       </c>
+      <c r="U49" t="n">
+        <v>-0.6458341424172734</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3532,6 +3679,9 @@
       <c r="T50" t="n">
         <v>-0.06928587048634904</v>
       </c>
+      <c r="U50" t="n">
+        <v>-0.07084999801104942</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3594,6 +3744,9 @@
       <c r="T51" t="n">
         <v>-0.8654668438830458</v>
       </c>
+      <c r="U51" t="n">
+        <v>-0.8655317207944331</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3656,6 +3809,9 @@
       <c r="T52" t="n">
         <v>-0.8654668438830458</v>
       </c>
+      <c r="U52" t="n">
+        <v>-0.8655317207944331</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3718,6 +3874,9 @@
       <c r="T53" t="n">
         <v>-1.147335123761274</v>
       </c>
+      <c r="U53" t="n">
+        <v>-1.148775461866246</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3780,6 +3939,9 @@
       <c r="T54" t="n">
         <v>-0.1788908888471821</v>
       </c>
+      <c r="U54" t="n">
+        <v>-0.1799757774968584</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3842,6 +4004,9 @@
       <c r="T55" t="n">
         <v>-1.037600927181662</v>
       </c>
+      <c r="U55" t="n">
+        <v>-1.040138382870657</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3904,6 +4069,9 @@
       <c r="T56" t="n">
         <v>-0.9112533216710159</v>
       </c>
+      <c r="U56" t="n">
+        <v>-0.9144262216499401</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3966,6 +4134,9 @@
       <c r="T57" t="n">
         <v>-0.936529006368353</v>
       </c>
+      <c r="U57" t="n">
+        <v>-0.9438429312734321</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4028,6 +4199,9 @@
       <c r="T58" t="n">
         <v>-1.07886659085877</v>
       </c>
+      <c r="U58" t="n">
+        <v>-1.085999595611775</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4090,6 +4264,9 @@
       <c r="T59" t="n">
         <v>-0.7895505301007344</v>
       </c>
+      <c r="U59" t="n">
+        <v>-0.7926478255608932</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4152,6 +4329,9 @@
       <c r="T60" t="n">
         <v>-0.4184542626020983</v>
       </c>
+      <c r="U60" t="n">
+        <v>-0.4227072929475683</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4214,6 +4394,9 @@
       <c r="T61" t="n">
         <v>0.3855340699184373</v>
       </c>
+      <c r="U61" t="n">
+        <v>0.3847673135083878</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4276,6 +4459,9 @@
       <c r="T62" t="n">
         <v>-1.192585207336388</v>
       </c>
+      <c r="U62" t="n">
+        <v>-1.201231104012863</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4338,6 +4524,9 @@
       <c r="T63" t="n">
         <v>-0.5538925734900859</v>
       </c>
+      <c r="U63" t="n">
+        <v>-0.5549186136318843</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4400,6 +4589,9 @@
       <c r="T64" t="n">
         <v>-0.8463638958162192</v>
       </c>
+      <c r="U64" t="n">
+        <v>-0.8500689734895658</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4462,6 +4654,9 @@
       <c r="T65" t="n">
         <v>-0.03310061154197287</v>
       </c>
+      <c r="U65" t="n">
+        <v>-0.03636750603871652</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4524,6 +4719,9 @@
       <c r="T66" t="n">
         <v>-0.7690314093153928</v>
       </c>
+      <c r="U66" t="n">
+        <v>-0.7768867166857624</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4585,6 +4783,9 @@
       </c>
       <c r="T67" t="n">
         <v>-0.749266404368058</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7587427929186176</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>-0.2168304345774632</v>
       </c>
+      <c r="V2" t="n">
+        <v>-0.2192469390648388</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>0.270255889325333</v>
       </c>
+      <c r="V3" t="n">
+        <v>0.2671078654449727</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>0.2489815592757333</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.2472608779449708</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>-0.044990024175422</v>
       </c>
+      <c r="V5" t="n">
+        <v>-0.04810602729501326</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>0.2169477697700422</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.2137989776342386</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.3732545621305715</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.3754600612258685</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.1267895035658603</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.126577444598363</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>-0.2802547518343415</v>
       </c>
+      <c r="V9" t="n">
+        <v>-0.2829233044061508</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.4161347586457676</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.4130706365408097</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1147,6 +1177,9 @@
       <c r="U11" t="n">
         <v>-0.1826594980267841</v>
       </c>
+      <c r="V11" t="n">
+        <v>-0.1848200115670943</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1212,6 +1245,9 @@
       <c r="U12" t="n">
         <v>-0.04680940199513434</v>
       </c>
+      <c r="V12" t="n">
+        <v>-0.05401692345580375</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1277,6 +1313,9 @@
       <c r="U13" t="n">
         <v>-0.03524452889184571</v>
       </c>
+      <c r="V13" t="n">
+        <v>-0.03787415892757239</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,6 +1381,9 @@
       <c r="U14" t="n">
         <v>0.1377227816517142</v>
       </c>
+      <c r="V14" t="n">
+        <v>0.1254879418358609</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1407,6 +1449,9 @@
       <c r="U15" t="n">
         <v>0.01218155465940696</v>
       </c>
+      <c r="V15" t="n">
+        <v>-0.004098140535662181</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1472,6 +1517,9 @@
       <c r="U16" t="n">
         <v>0.4504576378179784</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.4314307545672155</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1537,6 +1585,9 @@
       <c r="U17" t="n">
         <v>0.5322652512689661</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.5163213239474934</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1602,6 +1653,9 @@
       <c r="U18" t="n">
         <v>-0.1144178111993319</v>
       </c>
+      <c r="V18" t="n">
+        <v>-0.121015513016765</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1667,6 +1721,9 @@
       <c r="U19" t="n">
         <v>0.355238003242437</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.3462196712774535</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1732,6 +1789,9 @@
       <c r="U20" t="n">
         <v>0.3423851092977129</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.3226238086344418</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1797,6 +1857,9 @@
       <c r="U21" t="n">
         <v>0.5826702322476933</v>
       </c>
+      <c r="V21" t="n">
+        <v>0.5680681012354953</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1862,6 +1925,9 @@
       <c r="U22" t="n">
         <v>0.3509087331533706</v>
       </c>
+      <c r="V22" t="n">
+        <v>0.3364204450928256</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1927,6 +1993,9 @@
       <c r="U23" t="n">
         <v>-0.09062391461829222</v>
       </c>
+      <c r="V23" t="n">
+        <v>-0.1030561173436847</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1992,6 +2061,9 @@
       <c r="U24" t="n">
         <v>1.257389053502572</v>
       </c>
+      <c r="V24" t="n">
+        <v>1.179713087719618</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2057,6 +2129,9 @@
       <c r="U25" t="n">
         <v>0.2945815414142619</v>
       </c>
+      <c r="V25" t="n">
+        <v>0.2964587507095792</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2122,6 +2197,9 @@
       <c r="U26" t="n">
         <v>0.1234024602854218</v>
       </c>
+      <c r="V26" t="n">
+        <v>0.1217173763069375</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2187,6 +2265,9 @@
       <c r="U27" t="n">
         <v>0.02210029308213796</v>
       </c>
+      <c r="V27" t="n">
+        <v>0.0208252994946482</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2252,6 +2333,9 @@
       <c r="U28" t="n">
         <v>0.7776646147402922</v>
       </c>
+      <c r="V28" t="n">
+        <v>0.7796410414370416</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2317,6 +2401,9 @@
       <c r="U29" t="n">
         <v>1.449732781213119</v>
       </c>
+      <c r="V29" t="n">
+        <v>1.422947191914691</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2382,6 +2469,9 @@
       <c r="U30" t="n">
         <v>0.6192007395047945</v>
       </c>
+      <c r="V30" t="n">
+        <v>0.6213076069606236</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2447,6 +2537,9 @@
       <c r="U31" t="n">
         <v>-0.4828736073737683</v>
       </c>
+      <c r="V31" t="n">
+        <v>-0.4775600359064907</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2512,6 +2605,9 @@
       <c r="U32" t="n">
         <v>0.5178290361078839</v>
       </c>
+      <c r="V32" t="n">
+        <v>0.5195403783374553</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2577,6 +2673,9 @@
       <c r="U33" t="n">
         <v>0.7370928050695225</v>
       </c>
+      <c r="V33" t="n">
+        <v>0.7391392212776853</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2642,6 +2741,9 @@
       <c r="U34" t="n">
         <v>-0.8610676492515096</v>
       </c>
+      <c r="V34" t="n">
+        <v>-0.8599926071572211</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2707,6 +2809,9 @@
       <c r="U35" t="n">
         <v>0.7913555981578843</v>
       </c>
+      <c r="V35" t="n">
+        <v>0.7947089322603654</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2772,6 +2877,9 @@
       <c r="U36" t="n">
         <v>0.7456449591448511</v>
       </c>
+      <c r="V36" t="n">
+        <v>0.7513119844259424</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2837,6 +2945,9 @@
       <c r="U37" t="n">
         <v>0.7092390531048496</v>
       </c>
+      <c r="V37" t="n">
+        <v>0.7151082475993765</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2902,6 +3013,9 @@
       <c r="U38" t="n">
         <v>0.6339729654153353</v>
       </c>
+      <c r="V38" t="n">
+        <v>0.6364694231459684</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2967,6 +3081,9 @@
       <c r="U39" t="n">
         <v>0.5928522585716852</v>
       </c>
+      <c r="V39" t="n">
+        <v>0.595408065994805</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3032,6 +3149,9 @@
       <c r="U40" t="n">
         <v>0.7553672480790506</v>
       </c>
+      <c r="V40" t="n">
+        <v>0.7584489262817544</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3097,6 +3217,9 @@
       <c r="U41" t="n">
         <v>0.5675702801417178</v>
       </c>
+      <c r="V41" t="n">
+        <v>0.5700694766522707</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3162,6 +3285,9 @@
       <c r="U42" t="n">
         <v>0.5980373951433955</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.6036434659538313</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3227,6 +3353,9 @@
       <c r="U43" t="n">
         <v>0.6647879995724915</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.6675692880668188</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3292,6 +3421,9 @@
       <c r="U44" t="n">
         <v>0.6877579833209241</v>
       </c>
+      <c r="V44" t="n">
+        <v>0.6913138829214791</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3357,6 +3489,9 @@
       <c r="U45" t="n">
         <v>0.6707846910732727</v>
       </c>
+      <c r="V45" t="n">
+        <v>0.6785423014634957</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3422,6 +3557,9 @@
       <c r="U46" t="n">
         <v>-1.305552090060731</v>
       </c>
+      <c r="V46" t="n">
+        <v>-1.308725776461888</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3487,6 +3625,9 @@
       <c r="U47" t="n">
         <v>-1.018870733873831</v>
       </c>
+      <c r="V47" t="n">
+        <v>-1.021164877762821</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3552,6 +3693,9 @@
       <c r="U48" t="n">
         <v>-0.8826636511786776</v>
       </c>
+      <c r="V48" t="n">
+        <v>-0.8838382379124488</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3617,6 +3761,9 @@
       <c r="U49" t="n">
         <v>-0.6458341424172734</v>
       </c>
+      <c r="V49" t="n">
+        <v>-0.6470916875786514</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3682,6 +3829,9 @@
       <c r="U50" t="n">
         <v>-0.07084999801104942</v>
       </c>
+      <c r="V50" t="n">
+        <v>-0.07243416719526728</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3747,6 +3897,9 @@
       <c r="U51" t="n">
         <v>-0.8655317207944331</v>
       </c>
+      <c r="V51" t="n">
+        <v>-0.8658754289507236</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3812,6 +3965,9 @@
       <c r="U52" t="n">
         <v>-0.8655317207944331</v>
       </c>
+      <c r="V52" t="n">
+        <v>-0.8658754289507236</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3877,6 +4033,9 @@
       <c r="U53" t="n">
         <v>-1.148775461866246</v>
       </c>
+      <c r="V53" t="n">
+        <v>-1.150477549438405</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3942,6 +4101,9 @@
       <c r="U54" t="n">
         <v>-0.1799757774968584</v>
       </c>
+      <c r="V54" t="n">
+        <v>-0.1812144681356365</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4007,6 +4169,9 @@
       <c r="U55" t="n">
         <v>-1.040138382870657</v>
       </c>
+      <c r="V55" t="n">
+        <v>-1.042786127229887</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4072,6 +4237,9 @@
       <c r="U56" t="n">
         <v>-0.9144262216499401</v>
       </c>
+      <c r="V56" t="n">
+        <v>-0.9175652830353342</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4137,6 +4305,9 @@
       <c r="U57" t="n">
         <v>-0.9438429312734321</v>
       </c>
+      <c r="V57" t="n">
+        <v>-0.9511592340275952</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4202,6 +4373,9 @@
       <c r="U58" t="n">
         <v>-1.085999595611775</v>
       </c>
+      <c r="V58" t="n">
+        <v>-1.093190656592353</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4267,6 +4441,9 @@
       <c r="U59" t="n">
         <v>-0.7926478255608932</v>
       </c>
+      <c r="V59" t="n">
+        <v>-0.7960193932702174</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4332,6 +4509,9 @@
       <c r="U60" t="n">
         <v>-0.4227072929475683</v>
       </c>
+      <c r="V60" t="n">
+        <v>-0.4271346802740462</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4397,6 +4577,9 @@
       <c r="U61" t="n">
         <v>0.3847673135083878</v>
       </c>
+      <c r="V61" t="n">
+        <v>0.3839302619357703</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4462,6 +4645,9 @@
       <c r="U62" t="n">
         <v>-1.201231104012863</v>
       </c>
+      <c r="V62" t="n">
+        <v>-1.209895077642052</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4527,6 +4713,9 @@
       <c r="U63" t="n">
         <v>-0.5549186136318843</v>
       </c>
+      <c r="V63" t="n">
+        <v>-0.5565466575795913</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4592,6 +4781,9 @@
       <c r="U64" t="n">
         <v>-0.8500689734895658</v>
       </c>
+      <c r="V64" t="n">
+        <v>-0.8542078815074745</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4657,6 +4849,9 @@
       <c r="U65" t="n">
         <v>-0.03636750603871652</v>
       </c>
+      <c r="V65" t="n">
+        <v>-0.03977834344156868</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4722,6 +4917,9 @@
       <c r="U66" t="n">
         <v>-0.7768867166857624</v>
       </c>
+      <c r="V66" t="n">
+        <v>-0.7846042464151983</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4786,6 +4984,9 @@
       </c>
       <c r="U67" t="n">
         <v>-0.7587427929186176</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7678595638933489</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>-0.2192469390648388</v>
       </c>
+      <c r="W2" t="n">
+        <v>-0.2219202644078217</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>0.2671078654449727</v>
       </c>
+      <c r="W3" t="n">
+        <v>0.2637870950756141</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>0.2472608779449708</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.2451945450567601</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>-0.04810602729501326</v>
       </c>
+      <c r="W5" t="n">
+        <v>-0.05126190365666104</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>0.2137989776342386</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.2105766314799307</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.3754600612258685</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.3779775794628877</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.126577444598363</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.1268199497417502</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>-0.2829233044061508</v>
       </c>
+      <c r="W9" t="n">
+        <v>-0.2861231504610005</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.4130706365408097</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.4099811796078699</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1180,6 +1210,9 @@
       <c r="V11" t="n">
         <v>-0.1848200115670943</v>
       </c>
+      <c r="W11" t="n">
+        <v>-0.1871750526240212</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1248,6 +1281,9 @@
       <c r="V12" t="n">
         <v>-0.05401692345580375</v>
       </c>
+      <c r="W12" t="n">
+        <v>-0.06108941430324891</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1316,6 +1352,9 @@
       <c r="V13" t="n">
         <v>-0.03787415892757239</v>
       </c>
+      <c r="W13" t="n">
+        <v>-0.04046406008525653</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1384,6 +1423,9 @@
       <c r="V14" t="n">
         <v>0.1254879418358609</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.11352680917592</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1452,6 +1494,9 @@
       <c r="V15" t="n">
         <v>-0.004098140535662181</v>
       </c>
+      <c r="W15" t="n">
+        <v>-0.01977995926985506</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1520,6 +1565,9 @@
       <c r="V16" t="n">
         <v>0.4314307545672155</v>
       </c>
+      <c r="W16" t="n">
+        <v>0.4129841230705058</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1588,6 +1636,9 @@
       <c r="V17" t="n">
         <v>0.5163213239474934</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.5012962616579835</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1656,6 +1707,9 @@
       <c r="V18" t="n">
         <v>-0.121015513016765</v>
       </c>
+      <c r="W18" t="n">
+        <v>-0.1272180302123397</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1724,6 +1778,9 @@
       <c r="V19" t="n">
         <v>0.3462196712774535</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.3375969492681314</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1792,6 +1849,9 @@
       <c r="V20" t="n">
         <v>0.3226238086344418</v>
       </c>
+      <c r="W20" t="n">
+        <v>0.3036211898376904</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1860,6 +1920,9 @@
       <c r="V21" t="n">
         <v>0.5680681012354953</v>
       </c>
+      <c r="W21" t="n">
+        <v>0.5542049263426277</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1928,6 +1991,9 @@
       <c r="V22" t="n">
         <v>0.3364204450928256</v>
       </c>
+      <c r="W22" t="n">
+        <v>0.3226934535341402</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1996,6 +2062,9 @@
       <c r="V23" t="n">
         <v>-0.1030561173436847</v>
       </c>
+      <c r="W23" t="n">
+        <v>-0.1148252309883906</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2064,6 +2133,9 @@
       <c r="V24" t="n">
         <v>1.179713087719618</v>
       </c>
+      <c r="W24" t="n">
+        <v>1.118714982633974</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2132,6 +2204,9 @@
       <c r="V25" t="n">
         <v>0.2964587507095792</v>
       </c>
+      <c r="W25" t="n">
+        <v>0.29863725035006</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2200,6 +2275,9 @@
       <c r="V26" t="n">
         <v>0.1217173763069375</v>
       </c>
+      <c r="W26" t="n">
+        <v>0.120801074682802</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2268,6 +2346,9 @@
       <c r="V27" t="n">
         <v>0.0208252994946482</v>
       </c>
+      <c r="W27" t="n">
+        <v>0.02036805900178914</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2336,6 +2417,9 @@
       <c r="V28" t="n">
         <v>0.7796410414370416</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.7825145184182609</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2404,6 +2488,9 @@
       <c r="V29" t="n">
         <v>1.422947191914691</v>
       </c>
+      <c r="W29" t="n">
+        <v>1.407347829005501</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2472,6 +2559,9 @@
       <c r="V30" t="n">
         <v>0.6213076069606236</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.6241470481452267</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2540,6 +2630,9 @@
       <c r="V31" t="n">
         <v>-0.4775600359064907</v>
       </c>
+      <c r="W31" t="n">
+        <v>-0.4720854775054419</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2608,6 +2701,9 @@
       <c r="V32" t="n">
         <v>0.5195403783374553</v>
       </c>
+      <c r="W32" t="n">
+        <v>0.5218429469697065</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2676,6 +2772,9 @@
       <c r="V33" t="n">
         <v>0.7391392212776853</v>
       </c>
+      <c r="W33" t="n">
+        <v>0.7415042568328377</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2744,6 +2843,9 @@
       <c r="V34" t="n">
         <v>-0.8599926071572211</v>
       </c>
+      <c r="W34" t="n">
+        <v>-0.8585947277335235</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2812,6 +2914,9 @@
       <c r="V35" t="n">
         <v>0.7947089322603654</v>
       </c>
+      <c r="W35" t="n">
+        <v>0.7980505475388008</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2880,6 +2985,9 @@
       <c r="V36" t="n">
         <v>0.7513119844259424</v>
       </c>
+      <c r="W36" t="n">
+        <v>0.7568031776694637</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2948,6 +3056,9 @@
       <c r="V37" t="n">
         <v>0.7151082475993765</v>
       </c>
+      <c r="W37" t="n">
+        <v>0.7208123758551556</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3016,6 +3127,9 @@
       <c r="V38" t="n">
         <v>0.6364694231459684</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.6390264298858798</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3084,6 +3198,9 @@
       <c r="V39" t="n">
         <v>0.595408065994805</v>
       </c>
+      <c r="W39" t="n">
+        <v>0.5978473032929903</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3152,6 +3269,9 @@
       <c r="V40" t="n">
         <v>0.7584489262817544</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.7615147533784906</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3220,6 +3340,9 @@
       <c r="V41" t="n">
         <v>0.5700694766522707</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.572381848688147</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3288,6 +3411,9 @@
       <c r="V42" t="n">
         <v>0.6036434659538313</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.6092007284439254</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3356,6 +3482,9 @@
       <c r="V43" t="n">
         <v>0.6675692880668188</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.6703060805221239</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3424,6 +3553,9 @@
       <c r="V44" t="n">
         <v>0.6913138829214791</v>
       </c>
+      <c r="W44" t="n">
+        <v>0.6946821508827916</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3492,6 +3624,9 @@
       <c r="V45" t="n">
         <v>0.6785423014634957</v>
       </c>
+      <c r="W45" t="n">
+        <v>0.6859276382115538</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3560,6 +3695,9 @@
       <c r="V46" t="n">
         <v>-1.308725776461888</v>
       </c>
+      <c r="W46" t="n">
+        <v>-1.312023417553124</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3628,6 +3766,9 @@
       <c r="V47" t="n">
         <v>-1.021164877762821</v>
       </c>
+      <c r="W47" t="n">
+        <v>-1.023569106708908</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3696,6 +3837,9 @@
       <c r="V48" t="n">
         <v>-0.8838382379124488</v>
       </c>
+      <c r="W48" t="n">
+        <v>-0.8852919939613406</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3764,6 +3908,9 @@
       <c r="V49" t="n">
         <v>-0.6470916875786514</v>
       </c>
+      <c r="W49" t="n">
+        <v>-0.6485665223863676</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3832,6 +3979,9 @@
       <c r="V50" t="n">
         <v>-0.07243416719526728</v>
       </c>
+      <c r="W50" t="n">
+        <v>-0.0740323053511615</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3900,6 +4050,9 @@
       <c r="V51" t="n">
         <v>-0.8658754289507236</v>
       </c>
+      <c r="W51" t="n">
+        <v>-0.8664927207874138</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3968,6 +4121,9 @@
       <c r="V52" t="n">
         <v>-0.8658754289507236</v>
       </c>
+      <c r="W52" t="n">
+        <v>-0.8664927207874138</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4036,6 +4192,9 @@
       <c r="V53" t="n">
         <v>-1.150477549438405</v>
       </c>
+      <c r="W53" t="n">
+        <v>-1.152438339816236</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4104,6 +4263,9 @@
       <c r="V54" t="n">
         <v>-0.1812144681356365</v>
       </c>
+      <c r="W54" t="n">
+        <v>-0.1825896079278401</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4172,6 +4334,9 @@
       <c r="V55" t="n">
         <v>-1.042786127229887</v>
       </c>
+      <c r="W55" t="n">
+        <v>-1.045533771400217</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4240,6 +4405,9 @@
       <c r="V56" t="n">
         <v>-0.9175652830353342</v>
       </c>
+      <c r="W56" t="n">
+        <v>-0.9206578525035037</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4308,6 +4476,9 @@
       <c r="V57" t="n">
         <v>-0.9511592340275952</v>
       </c>
+      <c r="W57" t="n">
+        <v>-0.9583963265678377</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4376,6 +4547,9 @@
       <c r="V58" t="n">
         <v>-1.093190656592353</v>
       </c>
+      <c r="W58" t="n">
+        <v>-1.100340614491728</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4444,6 +4618,9 @@
       <c r="V59" t="n">
         <v>-0.7960193932702174</v>
       </c>
+      <c r="W59" t="n">
+        <v>-0.799599580574785</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4512,6 +4689,9 @@
       <c r="V60" t="n">
         <v>-0.4271346802740462</v>
       </c>
+      <c r="W60" t="n">
+        <v>-0.4316510841392854</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4580,6 +4760,9 @@
       <c r="V61" t="n">
         <v>0.3839302619357703</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.3830399230076222</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4648,6 +4831,9 @@
       <c r="V62" t="n">
         <v>-1.209895077642052</v>
       </c>
+      <c r="W62" t="n">
+        <v>-1.218474280312063</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4716,6 +4902,9 @@
       <c r="V63" t="n">
         <v>-0.5565466575795913</v>
       </c>
+      <c r="W63" t="n">
+        <v>-0.5586684852145045</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4784,6 +4973,9 @@
       <c r="V64" t="n">
         <v>-0.8542078815074745</v>
       </c>
+      <c r="W64" t="n">
+        <v>-0.8586923853499654</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4852,6 +5044,9 @@
       <c r="V65" t="n">
         <v>-0.03977834344156868</v>
       </c>
+      <c r="W65" t="n">
+        <v>-0.04326246174436195</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4920,6 +5115,9 @@
       <c r="V66" t="n">
         <v>-0.7846042464151983</v>
       </c>
+      <c r="W66" t="n">
+        <v>-0.7920984614211779</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4987,6 +5185,9 @@
       </c>
       <c r="V67" t="n">
         <v>-0.7678595638933489</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7765329099636779</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>-0.2219202644078217</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.2247794572363956</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>0.2637870950756141</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.2603677305033895</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>0.2451945450567601</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.2428597397103099</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>-0.05126190365666104</v>
       </c>
+      <c r="X5" t="n">
+        <v>-0.05441073251451019</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>0.2105766314799307</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.2073467102247422</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.3779775794628877</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.3807388488230297</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.1268199497417502</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.1274504104626152</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>-0.2861231504610005</v>
       </c>
+      <c r="X9" t="n">
+        <v>-0.2897390773128505</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.4099811796078699</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.4069206259610184</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,6 +1243,9 @@
       <c r="W11" t="n">
         <v>-0.1871750526240212</v>
       </c>
+      <c r="X11" t="n">
+        <v>-0.1896732585115708</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1284,6 +1317,9 @@
       <c r="W12" t="n">
         <v>-0.06108941430324891</v>
       </c>
+      <c r="X12" t="n">
+        <v>-0.06794029330231188</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1355,6 +1391,9 @@
       <c r="W13" t="n">
         <v>-0.04046406008525653</v>
       </c>
+      <c r="X13" t="n">
+        <v>-0.0429947716443894</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1426,6 +1465,9 @@
       <c r="W14" t="n">
         <v>0.11352680917592</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.1019984856692209</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1497,6 +1539,9 @@
       <c r="W15" t="n">
         <v>-0.01977995926985506</v>
       </c>
+      <c r="X15" t="n">
+        <v>-0.03469853773757155</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1568,6 +1613,9 @@
       <c r="W16" t="n">
         <v>0.4129841230705058</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.3953466632739082</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1639,6 +1687,9 @@
       <c r="W17" t="n">
         <v>0.5012962616579835</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.4873042703595802</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1710,6 +1761,9 @@
       <c r="W18" t="n">
         <v>-0.1272180302123397</v>
       </c>
+      <c r="X18" t="n">
+        <v>-0.1330110032546332</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1781,6 +1835,9 @@
       <c r="W19" t="n">
         <v>0.3375969492681314</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.3294380953640821</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1852,6 +1909,9 @@
       <c r="W20" t="n">
         <v>0.3036211898376904</v>
       </c>
+      <c r="X20" t="n">
+        <v>0.2855829453681602</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1923,6 +1983,9 @@
       <c r="W21" t="n">
         <v>0.5542049263426277</v>
       </c>
+      <c r="X21" t="n">
+        <v>0.5412195997676118</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1994,6 +2057,9 @@
       <c r="W22" t="n">
         <v>0.3226934535341402</v>
       </c>
+      <c r="X22" t="n">
+        <v>0.3098456559281772</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2065,6 +2131,9 @@
       <c r="W23" t="n">
         <v>-0.1148252309883906</v>
       </c>
+      <c r="X23" t="n">
+        <v>-0.1258380452892136</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2136,6 +2205,9 @@
       <c r="W24" t="n">
         <v>1.118714982633974</v>
       </c>
+      <c r="X24" t="n">
+        <v>1.072962394093017</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2207,6 +2279,9 @@
       <c r="W25" t="n">
         <v>0.29863725035006</v>
       </c>
+      <c r="X25" t="n">
+        <v>0.3010205792413093</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2278,6 +2353,9 @@
       <c r="W26" t="n">
         <v>0.120801074682802</v>
       </c>
+      <c r="X26" t="n">
+        <v>0.1205391902998182</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2349,6 +2427,9 @@
       <c r="W27" t="n">
         <v>0.02036805900178914</v>
       </c>
+      <c r="X27" t="n">
+        <v>0.02060044103619736</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2420,6 +2501,9 @@
       <c r="W28" t="n">
         <v>0.7825145184182609</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.7861080100728179</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2491,6 +2575,9 @@
       <c r="W29" t="n">
         <v>1.407347829005501</v>
       </c>
+      <c r="X29" t="n">
+        <v>1.401294467293321</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2562,6 +2649,9 @@
       <c r="W30" t="n">
         <v>0.6241470481452267</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.6275413674395708</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2633,6 +2723,9 @@
       <c r="W31" t="n">
         <v>-0.4720854775054419</v>
       </c>
+      <c r="X31" t="n">
+        <v>-0.4666055561834148</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2704,6 +2797,9 @@
       <c r="W32" t="n">
         <v>0.5218429469697065</v>
       </c>
+      <c r="X32" t="n">
+        <v>0.5245917400319802</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2775,6 +2871,9 @@
       <c r="W33" t="n">
         <v>0.7415042568328377</v>
       </c>
+      <c r="X33" t="n">
+        <v>0.7440886671361326</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2846,6 +2945,9 @@
       <c r="W34" t="n">
         <v>-0.8585947277335235</v>
       </c>
+      <c r="X34" t="n">
+        <v>-0.8569795402352561</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2917,6 +3019,9 @@
       <c r="W35" t="n">
         <v>0.7980505475388008</v>
       </c>
+      <c r="X35" t="n">
+        <v>0.8013310885119296</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2988,6 +3093,9 @@
       <c r="W36" t="n">
         <v>0.7568031776694637</v>
       </c>
+      <c r="X36" t="n">
+        <v>0.7620534354685236</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3059,6 +3167,9 @@
       <c r="W37" t="n">
         <v>0.7208123758551556</v>
       </c>
+      <c r="X37" t="n">
+        <v>0.7262803669288507</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3130,6 +3241,9 @@
       <c r="W38" t="n">
         <v>0.6390264298858798</v>
       </c>
+      <c r="X38" t="n">
+        <v>0.6415855277577824</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3201,6 +3315,9 @@
       <c r="W39" t="n">
         <v>0.5978473032929903</v>
       </c>
+      <c r="X39" t="n">
+        <v>0.600146698858521</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3272,6 +3389,9 @@
       <c r="W40" t="n">
         <v>0.7615147533784906</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.7645243560672148</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3343,6 +3463,9 @@
       <c r="W41" t="n">
         <v>0.572381848688147</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.5744967089799435</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3414,6 +3537,9 @@
       <c r="W42" t="n">
         <v>0.6092007284439254</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.6146143456421914</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3485,6 +3611,9 @@
       <c r="W43" t="n">
         <v>0.6703060805221239</v>
       </c>
+      <c r="X43" t="n">
+        <v>0.6729552143484991</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3556,6 +3685,9 @@
       <c r="W44" t="n">
         <v>0.6946821508827916</v>
       </c>
+      <c r="X44" t="n">
+        <v>0.6978356419066809</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3627,6 +3759,9 @@
       <c r="W45" t="n">
         <v>0.6859276382115538</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.6928716566783315</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3698,6 +3833,9 @@
       <c r="W46" t="n">
         <v>-1.312023417553124</v>
       </c>
+      <c r="X46" t="n">
+        <v>-1.315426550966748</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3769,6 +3907,9 @@
       <c r="W47" t="n">
         <v>-1.023569106708908</v>
       </c>
+      <c r="X47" t="n">
+        <v>-1.026073275038132</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3840,6 +3981,9 @@
       <c r="W48" t="n">
         <v>-0.8852919939613406</v>
       </c>
+      <c r="X48" t="n">
+        <v>-0.8870066067259438</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3911,6 +4055,9 @@
       <c r="W49" t="n">
         <v>-0.6485665223863676</v>
       </c>
+      <c r="X49" t="n">
+        <v>-0.6502401018307815</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3982,6 +4129,9 @@
       <c r="W50" t="n">
         <v>-0.0740323053511615</v>
       </c>
+      <c r="X50" t="n">
+        <v>-0.07563844382053991</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4053,6 +4203,9 @@
       <c r="W51" t="n">
         <v>-0.8664927207874138</v>
       </c>
+      <c r="X51" t="n">
+        <v>-0.8673729610557205</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4124,6 +4277,9 @@
       <c r="W52" t="n">
         <v>-0.8664927207874138</v>
       </c>
+      <c r="X52" t="n">
+        <v>-0.8673729610557205</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4195,6 +4351,9 @@
       <c r="W53" t="n">
         <v>-1.152438339816236</v>
       </c>
+      <c r="X53" t="n">
+        <v>-1.154647825316721</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4266,6 +4425,9 @@
       <c r="W54" t="n">
         <v>-0.1825896079278401</v>
       </c>
+      <c r="X54" t="n">
+        <v>-0.1840834626741135</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4337,6 +4499,9 @@
       <c r="W55" t="n">
         <v>-1.045533771400217</v>
       </c>
+      <c r="X55" t="n">
+        <v>-1.048369204435828</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4408,6 +4573,9 @@
       <c r="W56" t="n">
         <v>-0.9206578525035037</v>
       </c>
+      <c r="X56" t="n">
+        <v>-0.9236938168874076</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4479,6 +4647,9 @@
       <c r="W57" t="n">
         <v>-0.9583963265678377</v>
       </c>
+      <c r="X57" t="n">
+        <v>-0.9654854195281193</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4550,6 +4721,9 @@
       <c r="W58" t="n">
         <v>-1.100340614491728</v>
       </c>
+      <c r="X58" t="n">
+        <v>-1.107366293746432</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4621,6 +4795,9 @@
       <c r="W59" t="n">
         <v>-0.799599580574785</v>
       </c>
+      <c r="X59" t="n">
+        <v>-0.8033286521279727</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4692,6 +4869,9 @@
       <c r="W60" t="n">
         <v>-0.4316510841392854</v>
       </c>
+      <c r="X60" t="n">
+        <v>-0.4361830285138577</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4763,6 +4943,9 @@
       <c r="W61" t="n">
         <v>0.3830399230076222</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.3821118076320532</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4834,6 +5017,9 @@
       <c r="W62" t="n">
         <v>-1.218474280312063</v>
       </c>
+      <c r="X62" t="n">
+        <v>-1.226882323331717</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4905,6 +5091,9 @@
       <c r="W63" t="n">
         <v>-0.5586684852145045</v>
       </c>
+      <c r="X63" t="n">
+        <v>-0.5611845263306325</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4976,6 +5165,9 @@
       <c r="W64" t="n">
         <v>-0.8586923853499654</v>
       </c>
+      <c r="X64" t="n">
+        <v>-0.8634394034060782</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5047,6 +5239,9 @@
       <c r="W65" t="n">
         <v>-0.04326246174436195</v>
       </c>
+      <c r="X65" t="n">
+        <v>-0.04675954118647493</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5118,6 +5313,9 @@
       <c r="W66" t="n">
         <v>-0.7920984614211779</v>
       </c>
+      <c r="X66" t="n">
+        <v>-0.7993015307572406</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5188,6 +5386,9 @@
       </c>
       <c r="W67" t="n">
         <v>-0.7765329099636779</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.784701806027667</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>-0.2247794572363956</v>
       </c>
+      <c r="Y2" t="n">
+        <v>-0.2277611025276924</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>0.2603677305033895</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0.2569151417715713</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>0.2428597397103099</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0.2403270004996927</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>-0.05441073251451019</v>
       </c>
+      <c r="Y5" t="n">
+        <v>-0.05751268037140656</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>0.2073467102247422</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.204164930434211</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.3807388488230297</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.3836810079213939</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.1274504104626152</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.1284055828391391</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>-0.2897390773128505</v>
       </c>
+      <c r="Y9" t="n">
+        <v>-0.2936644174110665</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.4069206259610184</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.4039339659399066</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1246,6 +1276,9 @@
       <c r="X11" t="n">
         <v>-0.1896732585115708</v>
       </c>
+      <c r="Y11" t="n">
+        <v>-0.1922682639783286</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1320,6 +1353,9 @@
       <c r="X12" t="n">
         <v>-0.06794029330231188</v>
       </c>
+      <c r="Y12" t="n">
+        <v>-0.07450026104265713</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1394,6 +1430,9 @@
       <c r="X13" t="n">
         <v>-0.0429947716443894</v>
       </c>
+      <c r="Y13" t="n">
+        <v>-0.0454500615975488</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1468,6 +1507,9 @@
       <c r="X14" t="n">
         <v>0.1019984856692209</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.09102967752677502</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1542,6 +1584,9 @@
       <c r="X15" t="n">
         <v>-0.03469853773757155</v>
       </c>
+      <c r="Y15" t="n">
+        <v>-0.04872764202563502</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1616,6 +1661,9 @@
       <c r="X16" t="n">
         <v>0.3953466632739082</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.3786970386378452</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1690,6 +1738,9 @@
       <c r="X17" t="n">
         <v>0.4873042703595802</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0.4744233835869266</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1764,6 +1815,9 @@
       <c r="X18" t="n">
         <v>-0.1330110032546332</v>
       </c>
+      <c r="Y18" t="n">
+        <v>-0.1383867583893501</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1838,6 +1892,9 @@
       <c r="X19" t="n">
         <v>0.3294380953640821</v>
       </c>
+      <c r="Y19" t="n">
+        <v>0.3217931915205432</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1912,6 +1969,9 @@
       <c r="X20" t="n">
         <v>0.2855829453681602</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.2686653570612277</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1986,6 +2046,9 @@
       <c r="X21" t="n">
         <v>0.5412195997676118</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0.5292112753041298</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2060,6 +2123,9 @@
       <c r="X22" t="n">
         <v>0.3098456559281772</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0.2979607138983515</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2134,6 +2200,9 @@
       <c r="X23" t="n">
         <v>-0.1258380452892136</v>
       </c>
+      <c r="Y23" t="n">
+        <v>-0.1360297200506755</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2208,6 +2277,9 @@
       <c r="X24" t="n">
         <v>1.072962394093017</v>
       </c>
+      <c r="Y24" t="n">
+        <v>1.040942093814831</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2282,6 +2354,9 @@
       <c r="X25" t="n">
         <v>0.3010205792413093</v>
       </c>
+      <c r="Y25" t="n">
+        <v>0.3035254866868522</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2356,6 +2431,9 @@
       <c r="X26" t="n">
         <v>0.1205391902998182</v>
       </c>
+      <c r="Y26" t="n">
+        <v>0.1208234036137248</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2430,6 +2508,9 @@
       <c r="X27" t="n">
         <v>0.02060044103619736</v>
       </c>
+      <c r="Y27" t="n">
+        <v>0.02140259388229372</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2504,6 +2585,9 @@
       <c r="X28" t="n">
         <v>0.7861080100728179</v>
       </c>
+      <c r="Y28" t="n">
+        <v>0.7902584102983615</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2578,6 +2662,9 @@
       <c r="X29" t="n">
         <v>1.401294467293321</v>
       </c>
+      <c r="Y29" t="n">
+        <v>1.40324959414602</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2652,6 +2739,9 @@
       <c r="X30" t="n">
         <v>0.6275413674395708</v>
       </c>
+      <c r="Y30" t="n">
+        <v>0.6313321235593377</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2726,6 +2816,9 @@
       <c r="X31" t="n">
         <v>-0.4666055561834148</v>
       </c>
+      <c r="Y31" t="n">
+        <v>-0.4612485998987958</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2800,6 +2893,9 @@
       <c r="X32" t="n">
         <v>0.5245917400319802</v>
       </c>
+      <c r="Y32" t="n">
+        <v>0.5276574382742287</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2874,6 +2970,9 @@
       <c r="X33" t="n">
         <v>0.7440886671361326</v>
       </c>
+      <c r="Y33" t="n">
+        <v>0.7468058087426148</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2948,6 +3047,9 @@
       <c r="X34" t="n">
         <v>-0.8569795402352561</v>
       </c>
+      <c r="Y34" t="n">
+        <v>-0.8552384150628443</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3022,6 +3124,9 @@
       <c r="X35" t="n">
         <v>0.8013310885119296</v>
       </c>
+      <c r="Y35" t="n">
+        <v>0.8045093728004128</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3096,6 +3201,9 @@
       <c r="X36" t="n">
         <v>0.7620534354685236</v>
       </c>
+      <c r="Y36" t="n">
+        <v>0.7670119642896961</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3170,6 +3278,9 @@
       <c r="X37" t="n">
         <v>0.7262803669288507</v>
       </c>
+      <c r="Y37" t="n">
+        <v>0.7314563954688807</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3244,6 +3355,9 @@
       <c r="X38" t="n">
         <v>0.6415855277577824</v>
       </c>
+      <c r="Y38" t="n">
+        <v>0.6440979954008</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3318,6 +3432,9 @@
       <c r="X39" t="n">
         <v>0.600146698858521</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0.6022886632326387</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3392,6 +3509,9 @@
       <c r="X40" t="n">
         <v>0.7645243560672148</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.7674435149296803</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3466,6 +3586,9 @@
       <c r="X41" t="n">
         <v>0.5744967089799435</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.5764089360483545</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3540,6 +3663,9 @@
       <c r="X42" t="n">
         <v>0.6146143456421914</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.6198072967507644</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3614,6 +3740,9 @@
       <c r="X43" t="n">
         <v>0.6729552143484991</v>
       </c>
+      <c r="Y43" t="n">
+        <v>0.6754822545191052</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3688,6 +3817,9 @@
       <c r="X44" t="n">
         <v>0.6978356419066809</v>
       </c>
+      <c r="Y44" t="n">
+        <v>0.7007551350231249</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3762,6 +3894,9 @@
       <c r="X45" t="n">
         <v>0.6928716566783315</v>
       </c>
+      <c r="Y45" t="n">
+        <v>0.6993236507224078</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3836,6 +3971,9 @@
       <c r="X46" t="n">
         <v>-1.315426550966748</v>
       </c>
+      <c r="Y46" t="n">
+        <v>-1.318915917572703</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3910,6 +4048,9 @@
       <c r="X47" t="n">
         <v>-1.026073275038132</v>
       </c>
+      <c r="Y47" t="n">
+        <v>-1.028665508194422</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3984,6 +4125,9 @@
       <c r="X48" t="n">
         <v>-0.8870066067259438</v>
       </c>
+      <c r="Y48" t="n">
+        <v>-0.8889602081031631</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4058,6 +4202,9 @@
       <c r="X49" t="n">
         <v>-0.6502401018307815</v>
       </c>
+      <c r="Y49" t="n">
+        <v>-0.6520918921467381</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4132,6 +4279,9 @@
       <c r="X50" t="n">
         <v>-0.07563844382053991</v>
       </c>
+      <c r="Y50" t="n">
+        <v>-0.07724679687910198</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4206,6 +4356,9 @@
       <c r="X51" t="n">
         <v>-0.8673729610557205</v>
       </c>
+      <c r="Y51" t="n">
+        <v>-0.8685011835223008</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4280,6 +4433,9 @@
       <c r="X52" t="n">
         <v>-0.8673729610557205</v>
       </c>
+      <c r="Y52" t="n">
+        <v>-0.8685011835223008</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4354,6 +4510,9 @@
       <c r="X53" t="n">
         <v>-1.154647825316721</v>
       </c>
+      <c r="Y53" t="n">
+        <v>-1.157090484548438</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4428,6 +4587,9 @@
       <c r="X54" t="n">
         <v>-0.1840834626741135</v>
       </c>
+      <c r="Y54" t="n">
+        <v>-0.1856782924942873</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4502,6 +4664,9 @@
       <c r="X55" t="n">
         <v>-1.048369204435828</v>
       </c>
+      <c r="Y55" t="n">
+        <v>-1.051279104225894</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4576,6 +4741,9 @@
       <c r="X56" t="n">
         <v>-0.9236938168874076</v>
       </c>
+      <c r="Y56" t="n">
+        <v>-0.926665252262714</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4650,6 +4818,9 @@
       <c r="X57" t="n">
         <v>-0.9654854195281193</v>
       </c>
+      <c r="Y57" t="n">
+        <v>-0.9723698694073548</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4724,6 +4895,9 @@
       <c r="X58" t="n">
         <v>-1.107366293746432</v>
       </c>
+      <c r="Y58" t="n">
+        <v>-1.114199479704105</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4798,6 +4972,9 @@
       <c r="X59" t="n">
         <v>-0.8033286521279727</v>
       </c>
+      <c r="Y59" t="n">
+        <v>-0.8071529495130553</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4872,6 +5049,9 @@
       <c r="X60" t="n">
         <v>-0.4361830285138577</v>
       </c>
+      <c r="Y60" t="n">
+        <v>-0.4406683536652758</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4946,6 +5126,9 @@
       <c r="X61" t="n">
         <v>0.3821118076320532</v>
       </c>
+      <c r="Y61" t="n">
+        <v>0.3811598672080261</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5020,6 +5203,9 @@
       <c r="X62" t="n">
         <v>-1.226882323331717</v>
       </c>
+      <c r="Y62" t="n">
+        <v>-1.235048324227772</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5094,6 +5280,9 @@
       <c r="X63" t="n">
         <v>-0.5611845263306325</v>
       </c>
+      <c r="Y63" t="n">
+        <v>-0.5640042656831779</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5168,6 +5357,9 @@
       <c r="X64" t="n">
         <v>-0.8634394034060782</v>
       </c>
+      <c r="Y64" t="n">
+        <v>-0.8683720061014616</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5242,6 +5434,9 @@
       <c r="X65" t="n">
         <v>-0.04675954118647493</v>
       </c>
+      <c r="Y65" t="n">
+        <v>-0.05021898758455004</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5316,6 +5511,9 @@
       <c r="X66" t="n">
         <v>-0.7993015307572406</v>
       </c>
+      <c r="Y66" t="n">
+        <v>-0.8061616685408501</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5389,6 +5587,9 @@
       </c>
       <c r="X67" t="n">
         <v>-0.784701806027667</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7923252004736228</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>-0.2277611025276924</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.2308093282840157</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>0.2569151417715713</v>
       </c>
+      <c r="Z3" t="n">
+        <v>0.2534858861477217</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>0.2403270004996927</v>
       </c>
+      <c r="Z4" t="n">
+        <v>0.2376598507905638</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>-0.05751268037140656</v>
       </c>
+      <c r="Z5" t="n">
+        <v>-0.06053465424619863</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>0.204164930434211</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.2010772996513702</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.3836810079213939</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.3867470110494745</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.1284055828391391</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.1296262601541602</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>-0.2936644174110665</v>
       </c>
+      <c r="Z9" t="n">
+        <v>-0.2978020316567911</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.4039339659399066</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.4010575867373097</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1309,9 @@
       <c r="Y11" t="n">
         <v>-0.1922682639783286</v>
       </c>
+      <c r="Z11" t="n">
+        <v>-0.1949187956312373</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1356,6 +1389,9 @@
       <c r="Y12" t="n">
         <v>-0.07450026104265713</v>
       </c>
+      <c r="Z12" t="n">
+        <v>-0.08071588925328946</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1433,6 +1469,9 @@
       <c r="Y13" t="n">
         <v>-0.0454500615975488</v>
       </c>
+      <c r="Z13" t="n">
+        <v>-0.04781679310834602</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1510,6 +1549,9 @@
       <c r="Y14" t="n">
         <v>0.09102967752677502</v>
       </c>
+      <c r="Z14" t="n">
+        <v>0.08071731260874536</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1587,6 +1629,9 @@
       <c r="Y15" t="n">
         <v>-0.04872764202563502</v>
       </c>
+      <c r="Z15" t="n">
+        <v>-0.06177647074726662</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1664,6 +1709,9 @@
       <c r="Y16" t="n">
         <v>0.3786970386378452</v>
       </c>
+      <c r="Z16" t="n">
+        <v>0.3631680814298298</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1741,6 +1789,9 @@
       <c r="Y17" t="n">
         <v>0.4744233835869266</v>
       </c>
+      <c r="Z17" t="n">
+        <v>0.4626996139748754</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1818,6 +1869,9 @@
       <c r="Y18" t="n">
         <v>-0.1383867583893501</v>
       </c>
+      <c r="Z18" t="n">
+        <v>-0.1433437780734525</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1895,6 +1949,9 @@
       <c r="Y19" t="n">
         <v>0.3217931915205432</v>
       </c>
+      <c r="Z19" t="n">
+        <v>0.3146959839145627</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1972,6 +2029,9 @@
       <c r="Y20" t="n">
         <v>0.2686653570612277</v>
       </c>
+      <c r="Z20" t="n">
+        <v>0.2529800527367519</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2049,6 +2109,9 @@
       <c r="Y21" t="n">
         <v>0.5292112753041298</v>
       </c>
+      <c r="Z21" t="n">
+        <v>0.5182440472700093</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2126,6 +2189,9 @@
       <c r="Y22" t="n">
         <v>0.2979607138983515</v>
       </c>
+      <c r="Z22" t="n">
+        <v>0.2870918277610652</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2203,6 +2269,9 @@
       <c r="Y23" t="n">
         <v>-0.1360297200506755</v>
       </c>
+      <c r="Z23" t="n">
+        <v>-0.1453604962417989</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2280,6 +2349,9 @@
       <c r="Y24" t="n">
         <v>1.040942093814831</v>
       </c>
+      <c r="Z24" t="n">
+        <v>1.021107504017024</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2357,6 +2429,9 @@
       <c r="Y25" t="n">
         <v>0.3035254866868522</v>
       </c>
+      <c r="Z25" t="n">
+        <v>0.3060811985814043</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2434,6 +2509,9 @@
       <c r="Y26" t="n">
         <v>0.1208234036137248</v>
       </c>
+      <c r="Z26" t="n">
+        <v>0.121552675034151</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2511,6 +2589,9 @@
       <c r="Y27" t="n">
         <v>0.02140259388229372</v>
       </c>
+      <c r="Z27" t="n">
+        <v>0.02266390762832376</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2588,6 +2669,9 @@
       <c r="Y28" t="n">
         <v>0.7902584102983615</v>
       </c>
+      <c r="Z28" t="n">
+        <v>0.7948176138389933</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2665,6 +2749,9 @@
       <c r="Y29" t="n">
         <v>1.40324959414602</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1.411789813395077</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2742,6 +2829,9 @@
       <c r="Y30" t="n">
         <v>0.6313321235593377</v>
       </c>
+      <c r="Z30" t="n">
+        <v>0.6353799942994905</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2819,6 +2909,9 @@
       <c r="Y31" t="n">
         <v>-0.4612485998987958</v>
       </c>
+      <c r="Z31" t="n">
+        <v>-0.4561178184484148</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2896,6 +2989,9 @@
       <c r="Y32" t="n">
         <v>0.5276574382742287</v>
       </c>
+      <c r="Z32" t="n">
+        <v>0.5309263348201534</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2973,6 +3069,9 @@
       <c r="Y33" t="n">
         <v>0.7468058087426148</v>
       </c>
+      <c r="Z33" t="n">
+        <v>0.7495811979506946</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3050,6 +3149,9 @@
       <c r="Y34" t="n">
         <v>-0.8552384150628443</v>
       </c>
+      <c r="Z34" t="n">
+        <v>-0.8534491349433646</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3127,6 +3229,9 @@
       <c r="Y35" t="n">
         <v>0.8045093728004128</v>
       </c>
+      <c r="Z35" t="n">
+        <v>0.8075519894603329</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3204,6 +3309,9 @@
       <c r="Y36" t="n">
         <v>0.7670119642896961</v>
       </c>
+      <c r="Z36" t="n">
+        <v>0.7716410376291949</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3281,6 +3389,9 @@
       <c r="Y37" t="n">
         <v>0.7314563954688807</v>
       </c>
+      <c r="Z37" t="n">
+        <v>0.7362985761448129</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3358,6 +3469,9 @@
       <c r="Y38" t="n">
         <v>0.6440979954008</v>
       </c>
+      <c r="Z38" t="n">
+        <v>0.6465241700177294</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3435,6 +3549,9 @@
       <c r="Y39" t="n">
         <v>0.6022886632326387</v>
       </c>
+      <c r="Z39" t="n">
+        <v>0.6042608199205195</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3512,6 +3629,9 @@
       <c r="Y40" t="n">
         <v>0.7674435149296803</v>
       </c>
+      <c r="Z40" t="n">
+        <v>0.7702440250641555</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3589,6 +3709,9 @@
       <c r="Y41" t="n">
         <v>0.5764089360483545</v>
       </c>
+      <c r="Z41" t="n">
+        <v>0.5781181292541583</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3666,6 +3789,9 @@
       <c r="Y42" t="n">
         <v>0.6198072967507644</v>
       </c>
+      <c r="Z42" t="n">
+        <v>0.6247190281863744</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3743,6 +3869,9 @@
       <c r="Y43" t="n">
         <v>0.6754822545191052</v>
       </c>
+      <c r="Z43" t="n">
+        <v>0.6778607277858493</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3820,6 +3949,9 @@
       <c r="Y44" t="n">
         <v>0.7007551350231249</v>
       </c>
+      <c r="Z44" t="n">
+        <v>0.7034284814373652</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3897,6 +4029,9 @@
       <c r="Y45" t="n">
         <v>0.6993236507224078</v>
       </c>
+      <c r="Z45" t="n">
+        <v>0.7052494177850598</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3974,6 +4109,9 @@
       <c r="Y46" t="n">
         <v>-1.318915917572703</v>
       </c>
+      <c r="Z46" t="n">
+        <v>-1.322471977878238</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4051,6 +4189,9 @@
       <c r="Y47" t="n">
         <v>-1.028665508194422</v>
       </c>
+      <c r="Z47" t="n">
+        <v>-1.031332723229821</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4128,6 +4269,9 @@
       <c r="Y48" t="n">
         <v>-0.8889602081031631</v>
       </c>
+      <c r="Z48" t="n">
+        <v>-0.8911284088818735</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4205,6 +4349,9 @@
       <c r="Y49" t="n">
         <v>-0.6520918921467381</v>
       </c>
+      <c r="Z49" t="n">
+        <v>-0.6541001067733495</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4282,6 +4429,9 @@
       <c r="Y50" t="n">
         <v>-0.07724679687910198</v>
       </c>
+      <c r="Z50" t="n">
+        <v>-0.0788518275296777</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4359,6 +4509,9 @@
       <c r="Y51" t="n">
         <v>-0.8685011835223008</v>
       </c>
+      <c r="Z51" t="n">
+        <v>-0.8698590683623485</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4436,6 +4589,9 @@
       <c r="Y52" t="n">
         <v>-0.8685011835223008</v>
       </c>
+      <c r="Z52" t="n">
+        <v>-0.8698590683623485</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4513,6 +4669,9 @@
       <c r="Y53" t="n">
         <v>-1.157090484548438</v>
       </c>
+      <c r="Z53" t="n">
+        <v>-1.159746590046918</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4590,6 +4749,9 @@
       <c r="Y54" t="n">
         <v>-0.1856782924942873</v>
       </c>
+      <c r="Z54" t="n">
+        <v>-0.1873566689471018</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4667,6 +4829,9 @@
       <c r="Y55" t="n">
         <v>-1.051279104225894</v>
       </c>
+      <c r="Z55" t="n">
+        <v>-1.054249392748619</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4744,6 +4909,9 @@
       <c r="Y56" t="n">
         <v>-0.926665252262714</v>
       </c>
+      <c r="Z56" t="n">
+        <v>-0.9295661089141897</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4821,6 +4989,9 @@
       <c r="Y57" t="n">
         <v>-0.9723698694073548</v>
       </c>
+      <c r="Z57" t="n">
+        <v>-0.9790043620251652</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4898,6 +5069,9 @@
       <c r="Y58" t="n">
         <v>-1.114199479704105</v>
       </c>
+      <c r="Z58" t="n">
+        <v>-1.120785752181046</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4975,6 +5149,9 @@
       <c r="Y59" t="n">
         <v>-0.8071529495130553</v>
       </c>
+      <c r="Z59" t="n">
+        <v>-0.8110248978837846</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5052,6 +5229,9 @@
       <c r="Y60" t="n">
         <v>-0.4406683536652758</v>
       </c>
+      <c r="Z60" t="n">
+        <v>-0.4450555211707682</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5129,6 +5309,9 @@
       <c r="Y61" t="n">
         <v>0.3811598672080261</v>
       </c>
+      <c r="Z61" t="n">
+        <v>0.3801964773462446</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5206,6 +5389,9 @@
       <c r="Y62" t="n">
         <v>-1.235048324227772</v>
       </c>
+      <c r="Z62" t="n">
+        <v>-1.242915775207692</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5283,6 +5469,9 @@
       <c r="Y63" t="n">
         <v>-0.5640042656831779</v>
       </c>
+      <c r="Z63" t="n">
+        <v>-0.5670463962813606</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5360,6 +5549,9 @@
       <c r="Y64" t="n">
         <v>-0.8683720061014616</v>
       </c>
+      <c r="Z64" t="n">
+        <v>-0.8734200785006692</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5437,6 +5629,9 @@
       <c r="Y65" t="n">
         <v>-0.05021898758455004</v>
       </c>
+      <c r="Z65" t="n">
+        <v>-0.05359922323394718</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5514,6 +5709,9 @@
       <c r="Y66" t="n">
         <v>-0.8061616685408501</v>
       </c>
+      <c r="Z66" t="n">
+        <v>-0.8126414235959177</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5590,6 +5788,9 @@
       </c>
       <c r="Y67" t="n">
         <v>-0.7923252004736228</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7993792959513307</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>-0.2308093282840157</v>
       </c>
+      <c r="AA2" t="n">
+        <v>-0.233875646588699</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>0.2534858861477217</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0.2501279019180896</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>0.2376598507905638</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0.2349146537861176</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>-0.06053465424619863</v>
       </c>
+      <c r="AA5" t="n">
+        <v>-0.06344986499217964</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>0.2010772996513702</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0.1981207906393114</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.3867470110494745</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.3898858323698022</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.1296262601541602</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.131057742319982</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>-0.2978020316567911</v>
       </c>
+      <c r="AA9" t="n">
+        <v>-0.3020648729185354</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.4010575867373097</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.3983199910444091</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,6 +1342,9 @@
       <c r="Z11" t="n">
         <v>-0.1949187956312373</v>
       </c>
+      <c r="AA11" t="n">
+        <v>-0.1975886401008937</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1392,6 +1425,9 @@
       <c r="Z12" t="n">
         <v>-0.08071588925328946</v>
       </c>
+      <c r="AA12" t="n">
+        <v>-0.08654810285487453</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1472,6 +1508,9 @@
       <c r="Z13" t="n">
         <v>-0.04781679310834602</v>
       </c>
+      <c r="AA13" t="n">
+        <v>-0.05008473792035612</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1552,6 +1591,9 @@
       <c r="Z14" t="n">
         <v>0.08071731260874536</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0.07113137987756095</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1632,6 +1674,9 @@
       <c r="Z15" t="n">
         <v>-0.06177647074726662</v>
       </c>
+      <c r="AA15" t="n">
+        <v>-0.07378579776130909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1712,6 +1757,9 @@
       <c r="Z16" t="n">
         <v>0.3631680814298298</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0.3488514897121747</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1792,6 +1840,9 @@
       <c r="Z17" t="n">
         <v>0.4626996139748754</v>
       </c>
+      <c r="AA17" t="n">
+        <v>0.4521511129847586</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1872,6 +1923,9 @@
       <c r="Z18" t="n">
         <v>-0.1433437780734525</v>
       </c>
+      <c r="AA18" t="n">
+        <v>-0.1478860744754513</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1952,6 +2006,9 @@
       <c r="Z19" t="n">
         <v>0.3146959839145627</v>
       </c>
+      <c r="AA19" t="n">
+        <v>0.3081657786431961</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2032,6 +2089,9 @@
       <c r="Z20" t="n">
         <v>0.2529800527367519</v>
       </c>
+      <c r="AA20" t="n">
+        <v>0.2385989453912643</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2112,6 +2172,9 @@
       <c r="Z21" t="n">
         <v>0.5182440472700093</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0.5083515631180135</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2192,6 +2255,9 @@
       <c r="Z22" t="n">
         <v>0.2870918277610652</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0.2772655440086896</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2272,6 +2338,9 @@
       <c r="Z23" t="n">
         <v>-0.1453604962417989</v>
       </c>
+      <c r="AA23" t="n">
+        <v>-0.153812423207754</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2352,6 +2421,9 @@
       <c r="Z24" t="n">
         <v>1.021107504017024</v>
       </c>
+      <c r="AA24" t="n">
+        <v>1.011917978756843</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2432,6 +2504,9 @@
       <c r="Z25" t="n">
         <v>0.3060811985814043</v>
       </c>
+      <c r="AA25" t="n">
+        <v>0.3086285665565141</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2512,6 +2587,9 @@
       <c r="Z26" t="n">
         <v>0.121552675034151</v>
       </c>
+      <c r="AA26" t="n">
+        <v>0.1226340877976616</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2592,6 +2670,9 @@
       <c r="Z27" t="n">
         <v>0.02266390762832376</v>
       </c>
+      <c r="AA27" t="n">
+        <v>0.02428360887223454</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2672,6 +2753,9 @@
       <c r="Z28" t="n">
         <v>0.7948176138389933</v>
       </c>
+      <c r="AA28" t="n">
+        <v>0.7996530515808739</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2752,6 +2836,9 @@
       <c r="Z29" t="n">
         <v>1.411789813395077</v>
       </c>
+      <c r="AA29" t="n">
+        <v>1.425612998063921</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2832,6 +2919,9 @@
       <c r="Z30" t="n">
         <v>0.6353799942994905</v>
       </c>
+      <c r="AA30" t="n">
+        <v>0.6395642575861297</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2912,6 +3002,9 @@
       <c r="Z31" t="n">
         <v>-0.4561178184484148</v>
       </c>
+      <c r="AA31" t="n">
+        <v>-0.4512936230509373</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2992,6 +3085,9 @@
       <c r="Z32" t="n">
         <v>0.5309263348201534</v>
       </c>
+      <c r="AA32" t="n">
+        <v>0.534299939391026</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3072,6 +3168,9 @@
       <c r="Z33" t="n">
         <v>0.7495811979506946</v>
       </c>
+      <c r="AA33" t="n">
+        <v>0.7523518911244835</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3152,6 +3251,9 @@
       <c r="Z34" t="n">
         <v>-0.8534491349433646</v>
       </c>
+      <c r="AA34" t="n">
+        <v>-0.8516766624066502</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3232,6 +3334,9 @@
       <c r="Z35" t="n">
         <v>0.8075519894603329</v>
       </c>
+      <c r="AA35" t="n">
+        <v>0.8104327809714161</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3312,6 +3417,9 @@
       <c r="Z36" t="n">
         <v>0.7716410376291949</v>
       </c>
+      <c r="AA36" t="n">
+        <v>0.7759146712965644</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3392,6 +3500,9 @@
       <c r="Z37" t="n">
         <v>0.7362985761448129</v>
       </c>
+      <c r="AA37" t="n">
+        <v>0.7407775690938988</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3472,6 +3583,9 @@
       <c r="Z38" t="n">
         <v>0.6465241700177294</v>
       </c>
+      <c r="AA38" t="n">
+        <v>0.6488326955781155</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3552,6 +3666,9 @@
       <c r="Z39" t="n">
         <v>0.6042608199205195</v>
       </c>
+      <c r="AA39" t="n">
+        <v>0.6060554886927695</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3632,6 +3749,9 @@
       <c r="Z40" t="n">
         <v>0.7702440250641555</v>
       </c>
+      <c r="AA40" t="n">
+        <v>0.7729034235767781</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3712,6 +3832,9 @@
       <c r="Z41" t="n">
         <v>0.5781181292541583</v>
       </c>
+      <c r="AA41" t="n">
+        <v>0.5796278142778457</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3792,6 +3915,9 @@
       <c r="Z42" t="n">
         <v>0.6247190281863744</v>
       </c>
+      <c r="AA42" t="n">
+        <v>0.6293039720933122</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3872,6 +3998,9 @@
       <c r="Z43" t="n">
         <v>0.6778607277858493</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0.6800713189832558</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3952,6 +4081,9 @@
       <c r="Z44" t="n">
         <v>0.7034284814373652</v>
       </c>
+      <c r="AA44" t="n">
+        <v>0.7058497383442329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4032,6 +4164,9 @@
       <c r="Z45" t="n">
         <v>0.7052494177850598</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0.7106293605457952</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4112,6 +4247,9 @@
       <c r="Z46" t="n">
         <v>-1.322471977878238</v>
       </c>
+      <c r="AA46" t="n">
+        <v>-1.326075351310509</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4192,6 +4330,9 @@
       <c r="Z47" t="n">
         <v>-1.031332723229821</v>
       </c>
+      <c r="AA47" t="n">
+        <v>-1.034061090864767</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4272,6 +4413,9 @@
       <c r="Z48" t="n">
         <v>-0.8911284088818735</v>
       </c>
+      <c r="AA48" t="n">
+        <v>-0.893485210615605</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4352,6 +4496,9 @@
       <c r="Z49" t="n">
         <v>-0.6541001067733495</v>
       </c>
+      <c r="AA49" t="n">
+        <v>-0.6562423451483339</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4432,6 +4579,9 @@
       <c r="Z50" t="n">
         <v>-0.0788518275296777</v>
       </c>
+      <c r="AA50" t="n">
+        <v>-0.0804483016583194</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4512,6 +4662,9 @@
       <c r="Z51" t="n">
         <v>-0.8698590683623485</v>
       </c>
+      <c r="AA51" t="n">
+        <v>-0.8714258312716869</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4592,6 +4745,9 @@
       <c r="Z52" t="n">
         <v>-0.8698590683623485</v>
       </c>
+      <c r="AA52" t="n">
+        <v>-0.8714258312716869</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4672,6 +4828,9 @@
       <c r="Z53" t="n">
         <v>-1.159746590046918</v>
       </c>
+      <c r="AA53" t="n">
+        <v>-1.162593373471425</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4752,6 +4911,9 @@
       <c r="Z54" t="n">
         <v>-0.1873566689471018</v>
       </c>
+      <c r="AA54" t="n">
+        <v>-0.1891017375404469</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4832,6 +4994,9 @@
       <c r="Z55" t="n">
         <v>-1.054249392748619</v>
       </c>
+      <c r="AA55" t="n">
+        <v>-1.057265635980545</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4912,6 +5077,9 @@
       <c r="Z56" t="n">
         <v>-0.9295661089141897</v>
       </c>
+      <c r="AA56" t="n">
+        <v>-0.9323919318297195</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4992,6 +5160,9 @@
       <c r="Z57" t="n">
         <v>-0.9790043620251652</v>
       </c>
+      <c r="AA57" t="n">
+        <v>-0.9853539885315239</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5072,6 +5243,9 @@
       <c r="Z58" t="n">
         <v>-1.120785752181046</v>
       </c>
+      <c r="AA58" t="n">
+        <v>-1.127083234358924</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5152,6 +5326,9 @@
       <c r="Z59" t="n">
         <v>-0.8110248978837846</v>
       </c>
+      <c r="AA59" t="n">
+        <v>-0.8149028902541908</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5232,6 +5409,9 @@
       <c r="Z60" t="n">
         <v>-0.4450555211707682</v>
       </c>
+      <c r="AA60" t="n">
+        <v>-0.4493028192879711</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5312,6 +5492,9 @@
       <c r="Z61" t="n">
         <v>0.3801964773462446</v>
       </c>
+      <c r="AA61" t="n">
+        <v>0.3792324583422622</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5392,6 +5575,9 @@
       <c r="Z62" t="n">
         <v>-1.242915775207692</v>
       </c>
+      <c r="AA62" t="n">
+        <v>-1.25044129980729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5472,6 +5658,9 @@
       <c r="Z63" t="n">
         <v>-0.5670463962813606</v>
       </c>
+      <c r="AA63" t="n">
+        <v>-0.5702387657997448</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5552,6 +5741,9 @@
       <c r="Z64" t="n">
         <v>-0.8734200785006692</v>
       </c>
+      <c r="AA64" t="n">
+        <v>-0.8785207010265419</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5632,6 +5824,9 @@
       <c r="Z65" t="n">
         <v>-0.05359922323394718</v>
       </c>
+      <c r="AA65" t="n">
+        <v>-0.05686692123787707</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5712,6 +5907,9 @@
       <c r="Z66" t="n">
         <v>-0.8126414235959177</v>
       </c>
+      <c r="AA66" t="n">
+        <v>-0.8187159730861526</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5791,6 +5989,9 @@
       </c>
       <c r="Z67" t="n">
         <v>-0.7993792959513307</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.805854968312037</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>-0.233875646588699</v>
       </c>
+      <c r="AB2" t="n">
+        <v>-0.2369186679160922</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>0.2501279019180896</v>
       </c>
+      <c r="AB3" t="n">
+        <v>0.2468808735577175</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>0.2349146537861176</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0.2321406533921041</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>-0.06344986499217964</v>
       </c>
+      <c r="AB5" t="n">
+        <v>-0.06623733037354324</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>0.1981207906393114</v>
       </c>
+      <c r="AB6" t="n">
+        <v>0.1953240946724</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.3898858323698022</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.3930525022897294</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.131057742319982</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1326501309000507</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>-0.3020648729185354</v>
       </c>
+      <c r="AB9" t="n">
+        <v>-0.3063762042395042</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.3983199910444091</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.3957425566521404</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1345,6 +1375,9 @@
       <c r="AA11" t="n">
         <v>-0.1975886401008937</v>
       </c>
+      <c r="AB11" t="n">
+        <v>-0.2002465123537339</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1428,6 +1461,9 @@
       <c r="AA12" t="n">
         <v>-0.08654810285487453</v>
       </c>
+      <c r="AB12" t="n">
+        <v>-0.09197061551774702</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1511,6 +1547,9 @@
       <c r="AA13" t="n">
         <v>-0.05008473792035612</v>
       </c>
+      <c r="AB13" t="n">
+        <v>-0.05224635348855228</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1594,6 +1633,9 @@
       <c r="AA14" t="n">
         <v>0.07113137987756095</v>
       </c>
+      <c r="AB14" t="n">
+        <v>0.06231787184618104</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1677,6 +1719,9 @@
       <c r="AA15" t="n">
         <v>-0.07378579776130909</v>
       </c>
+      <c r="AB15" t="n">
+        <v>-0.084724087643069</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1760,6 +1805,9 @@
       <c r="AA16" t="n">
         <v>0.3488514897121747</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0.3358026188199088</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1843,6 +1891,9 @@
       <c r="AA17" t="n">
         <v>0.4521511129847586</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0.4427722287172052</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1926,6 +1977,9 @@
       <c r="AA18" t="n">
         <v>-0.1478860744754513</v>
       </c>
+      <c r="AB18" t="n">
+        <v>-0.1520225077736876</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2009,6 +2063,9 @@
       <c r="AA19" t="n">
         <v>0.3081657786431961</v>
       </c>
+      <c r="AB19" t="n">
+        <v>0.3022093311346511</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2092,6 +2149,9 @@
       <c r="AA20" t="n">
         <v>0.2385989453912643</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0.2255591899810366</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2175,6 +2235,9 @@
       <c r="AA21" t="n">
         <v>0.5083515631180135</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0.4995414686783976</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2258,6 +2321,9 @@
       <c r="AA22" t="n">
         <v>0.2772655440086896</v>
       </c>
+      <c r="AB22" t="n">
+        <v>0.2684854904206586</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2341,6 +2407,9 @@
       <c r="AA23" t="n">
         <v>-0.153812423207754</v>
       </c>
+      <c r="AB23" t="n">
+        <v>-0.1613861823154087</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2424,6 +2493,9 @@
       <c r="AA24" t="n">
         <v>1.011917978756843</v>
       </c>
+      <c r="AB24" t="n">
+        <v>1.011870568515686</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2507,6 +2579,9 @@
       <c r="AA25" t="n">
         <v>0.3086285665565141</v>
       </c>
+      <c r="AB25" t="n">
+        <v>0.311119141488516</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2590,6 +2665,9 @@
       <c r="AA26" t="n">
         <v>0.1226340877976616</v>
       </c>
+      <c r="AB26" t="n">
+        <v>0.1239833577365291</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2673,6 +2751,9 @@
       <c r="AA27" t="n">
         <v>0.02428360887223454</v>
       </c>
+      <c r="AB27" t="n">
+        <v>0.02617104534934049</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2756,6 +2837,9 @@
       <c r="AA28" t="n">
         <v>0.7996530515808739</v>
       </c>
+      <c r="AB28" t="n">
+        <v>0.8046477855696114</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2839,6 +2923,9 @@
       <c r="AA29" t="n">
         <v>1.425612998063921</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1.443541832503783</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2922,6 +3009,9 @@
       <c r="AA30" t="n">
         <v>0.6395642575861297</v>
       </c>
+      <c r="AB30" t="n">
+        <v>0.6437819766936</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3005,6 +3095,9 @@
       <c r="AA31" t="n">
         <v>-0.4512936230509373</v>
       </c>
+      <c r="AB31" t="n">
+        <v>-0.4468360046064236</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3088,6 +3181,9 @@
       <c r="AA32" t="n">
         <v>0.534299939391026</v>
       </c>
+      <c r="AB32" t="n">
+        <v>0.5376943310602711</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3171,6 +3267,9 @@
       <c r="AA33" t="n">
         <v>0.7523518911244835</v>
       </c>
+      <c r="AB33" t="n">
+        <v>0.7550657362120523</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3254,6 +3353,9 @@
       <c r="AA34" t="n">
         <v>-0.8516766624066502</v>
       </c>
+      <c r="AB34" t="n">
+        <v>-0.8499740455954693</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3337,6 +3439,9 @@
       <c r="AA35" t="n">
         <v>0.8104327809714161</v>
       </c>
+      <c r="AB35" t="n">
+        <v>0.8131322466893603</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3420,6 +3525,9 @@
       <c r="AA36" t="n">
         <v>0.7759146712965644</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0.7798172675881755</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3503,6 +3611,9 @@
       <c r="AA37" t="n">
         <v>0.7407775690938988</v>
       </c>
+      <c r="AB37" t="n">
+        <v>0.7448751502241144</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3586,6 +3697,9 @@
       <c r="AA38" t="n">
         <v>0.6488326955781155</v>
       </c>
+      <c r="AB38" t="n">
+        <v>0.6509997297825822</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3669,6 +3783,9 @@
       <c r="AA39" t="n">
         <v>0.6060554886927695</v>
       </c>
+      <c r="AB39" t="n">
+        <v>0.6076691451901005</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3752,6 +3869,9 @@
       <c r="AA40" t="n">
         <v>0.7729034235767781</v>
       </c>
+      <c r="AB40" t="n">
+        <v>0.775404620027845</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3835,6 +3955,9 @@
       <c r="AA41" t="n">
         <v>0.5796278142778457</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0.580944707997318</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3918,6 +4041,9 @@
       <c r="AA42" t="n">
         <v>0.6293039720933122</v>
       </c>
+      <c r="AB42" t="n">
+        <v>0.6335299964521462</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4001,6 +4127,9 @@
       <c r="AA43" t="n">
         <v>0.6800713189832558</v>
       </c>
+      <c r="AB43" t="n">
+        <v>0.6821010565373113</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4084,6 +4213,9 @@
       <c r="AA44" t="n">
         <v>0.7058497383442329</v>
       </c>
+      <c r="AB44" t="n">
+        <v>0.7080183138518468</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4167,6 +4299,9 @@
       <c r="AA45" t="n">
         <v>0.7106293605457952</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0.7154565876594096</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4250,6 +4385,9 @@
       <c r="AA46" t="n">
         <v>-1.326075351310509</v>
       </c>
+      <c r="AB46" t="n">
+        <v>-1.329707183089105</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4333,6 +4471,9 @@
       <c r="AA47" t="n">
         <v>-1.034061090864767</v>
       </c>
+      <c r="AB47" t="n">
+        <v>-1.036836439476756</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4416,6 +4557,9 @@
       <c r="AA48" t="n">
         <v>-0.893485210615605</v>
       </c>
+      <c r="AB48" t="n">
+        <v>-0.8960037972816671</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4499,6 +4643,9 @@
       <c r="AA49" t="n">
         <v>-0.6562423451483339</v>
       </c>
+      <c r="AB49" t="n">
+        <v>-0.6584961381829972</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4582,6 +4729,9 @@
       <c r="AA50" t="n">
         <v>-0.0804483016583194</v>
       </c>
+      <c r="AB50" t="n">
+        <v>-0.0820313316563248</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4665,6 +4815,9 @@
       <c r="AA51" t="n">
         <v>-0.8714258312716869</v>
       </c>
+      <c r="AB51" t="n">
+        <v>-0.8731790194719979</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4748,6 +4901,9 @@
       <c r="AA52" t="n">
         <v>-0.8714258312716869</v>
       </c>
+      <c r="AB52" t="n">
+        <v>-0.8731790194719979</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4831,6 +4987,9 @@
       <c r="AA53" t="n">
         <v>-1.162593373471425</v>
       </c>
+      <c r="AB53" t="n">
+        <v>-1.165606049497354</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4914,6 +5073,9 @@
       <c r="AA54" t="n">
         <v>-0.1891017375404469</v>
       </c>
+      <c r="AB54" t="n">
+        <v>-0.1908974298997624</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4997,6 +5159,9 @@
       <c r="AA55" t="n">
         <v>-1.057265635980545</v>
       </c>
+      <c r="AB55" t="n">
+        <v>-1.060313389663159</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5080,6 +5245,9 @@
       <c r="AA56" t="n">
         <v>-0.9323919318297195</v>
       </c>
+      <c r="AB56" t="n">
+        <v>-0.9351396150153949</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5163,6 +5331,9 @@
       <c r="AA57" t="n">
         <v>-0.9853539885315239</v>
       </c>
+      <c r="AB57" t="n">
+        <v>-0.991393259790895</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5246,6 +5417,9 @@
       <c r="AA58" t="n">
         <v>-1.127083234358924</v>
       </c>
+      <c r="AB58" t="n">
+        <v>-1.133061304518034</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5329,6 +5503,9 @@
       <c r="AA59" t="n">
         <v>-0.8149028902541908</v>
       </c>
+      <c r="AB59" t="n">
+        <v>-0.8187510762322557</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5412,6 +5589,9 @@
       <c r="AA60" t="n">
         <v>-0.4493028192879711</v>
       </c>
+      <c r="AB60" t="n">
+        <v>-0.4533775077895266</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5495,6 +5675,9 @@
       <c r="AA61" t="n">
         <v>0.3792324583422622</v>
       </c>
+      <c r="AB61" t="n">
+        <v>0.3782771241316983</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5578,6 +5761,9 @@
       <c r="AA62" t="n">
         <v>-1.25044129980729</v>
       </c>
+      <c r="AB62" t="n">
+        <v>-1.257593351711258</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5661,6 +5847,9 @@
       <c r="AA63" t="n">
         <v>-0.5702387657997448</v>
       </c>
+      <c r="AB63" t="n">
+        <v>-0.5735181567830298</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5744,6 +5933,9 @@
       <c r="AA64" t="n">
         <v>-0.8785207010265419</v>
       </c>
+      <c r="AB64" t="n">
+        <v>-0.8836182979139324</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5827,6 +6019,9 @@
       <c r="AA65" t="n">
         <v>-0.05686692123787707</v>
       </c>
+      <c r="AB65" t="n">
+        <v>-0.05999621244300638</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5910,6 +6105,9 @@
       <c r="AA66" t="n">
         <v>-0.8187159730861526</v>
       </c>
+      <c r="AB66" t="n">
+        <v>-0.8243714607351219</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5992,6 +6190,9 @@
       </c>
       <c r="AA67" t="n">
         <v>-0.805854968312037</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8117553570055448</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>-0.2369186679160922</v>
       </c>
+      <c r="AC2" t="n">
+        <v>-0.2399037205445143</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>0.2468808735577175</v>
       </c>
+      <c r="AC3" t="n">
+        <v>0.2437767229278285</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>0.2321406533921041</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0.22938016195553</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>-0.06623733037354324</v>
       </c>
+      <c r="AC5" t="n">
+        <v>-0.06888134228427925</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>0.1953240946724</v>
       </c>
+      <c r="AC6" t="n">
+        <v>0.1927084194671607</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.3930525022897294</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.3962080090183912</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1326501309000507</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1343584767990803</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>-0.3063762042395042</v>
       </c>
+      <c r="AC9" t="n">
+        <v>-0.3106695384950866</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.3957425566521404</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.3933403104880572</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1378,6 +1408,9 @@
       <c r="AB11" t="n">
         <v>-0.2002465123537339</v>
       </c>
+      <c r="AC11" t="n">
+        <v>-0.202865847099297</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1464,6 +1497,9 @@
       <c r="AB12" t="n">
         <v>-0.09197061551774702</v>
       </c>
+      <c r="AC12" t="n">
+        <v>-0.09696836657836147</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1550,6 +1586,9 @@
       <c r="AB13" t="n">
         <v>-0.05224635348855228</v>
       </c>
+      <c r="AC13" t="n">
+        <v>-0.05429653746743333</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1636,6 +1675,9 @@
       <c r="AB14" t="n">
         <v>0.06231787184618104</v>
       </c>
+      <c r="AC14" t="n">
+        <v>0.05430173573449947</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1722,6 +1764,9 @@
       <c r="AB15" t="n">
         <v>-0.084724087643069</v>
       </c>
+      <c r="AC15" t="n">
+        <v>-0.09458368640063641</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1808,6 +1853,9 @@
       <c r="AB16" t="n">
         <v>0.3358026188199088</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0.3240452285735043</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1894,6 +1942,9 @@
       <c r="AB17" t="n">
         <v>0.4427722287172052</v>
       </c>
+      <c r="AC17" t="n">
+        <v>0.4345373803312101</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1980,6 +2031,9 @@
       <c r="AB18" t="n">
         <v>-0.1520225077736876</v>
       </c>
+      <c r="AC18" t="n">
+        <v>-0.1557660822160312</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2066,6 +2120,9 @@
       <c r="AB19" t="n">
         <v>0.3022093311346511</v>
       </c>
+      <c r="AC19" t="n">
+        <v>0.2968226825209661</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2152,6 +2209,9 @@
       <c r="AB20" t="n">
         <v>0.2255591899810366</v>
       </c>
+      <c r="AC20" t="n">
+        <v>0.2138680306800309</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2238,6 +2298,9 @@
       <c r="AB21" t="n">
         <v>0.4995414686783976</v>
       </c>
+      <c r="AC21" t="n">
+        <v>0.4917996129099821</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2324,6 +2387,9 @@
       <c r="AB22" t="n">
         <v>0.2684854904206586</v>
       </c>
+      <c r="AC22" t="n">
+        <v>0.2607359600609353</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2410,6 +2476,9 @@
       <c r="AB23" t="n">
         <v>-0.1613861823154087</v>
       </c>
+      <c r="AC23" t="n">
+        <v>-0.1680980659025336</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2496,6 +2565,9 @@
       <c r="AB24" t="n">
         <v>1.011870568515686</v>
       </c>
+      <c r="AC24" t="n">
+        <v>1.019525046154715</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2582,6 +2654,9 @@
       <c r="AB25" t="n">
         <v>0.311119141488516</v>
       </c>
+      <c r="AC25" t="n">
+        <v>0.3135142057928972</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2668,6 +2743,9 @@
       <c r="AB26" t="n">
         <v>0.1239833577365291</v>
       </c>
+      <c r="AC26" t="n">
+        <v>0.1255250645883887</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2754,6 +2832,9 @@
       <c r="AB27" t="n">
         <v>0.02617104534934049</v>
       </c>
+      <c r="AC27" t="n">
+        <v>0.0282457143485391</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2840,6 +2921,9 @@
       <c r="AB28" t="n">
         <v>0.8046477855696114</v>
       </c>
+      <c r="AC28" t="n">
+        <v>0.8097002499902135</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2926,6 +3010,9 @@
       <c r="AB29" t="n">
         <v>1.443541832503783</v>
       </c>
+      <c r="AC29" t="n">
+        <v>1.46452434471861</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3012,6 +3099,9 @@
       <c r="AB30" t="n">
         <v>0.6437819766936</v>
       </c>
+      <c r="AC30" t="n">
+        <v>0.647946966142424</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3098,6 +3188,9 @@
       <c r="AB31" t="n">
         <v>-0.4468360046064236</v>
       </c>
+      <c r="AC31" t="n">
+        <v>-0.4427869044449894</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3184,6 +3277,9 @@
       <c r="AB32" t="n">
         <v>0.5376943310602711</v>
       </c>
+      <c r="AC32" t="n">
+        <v>0.5410393239964978</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3270,6 +3366,9 @@
       <c r="AB33" t="n">
         <v>0.7550657362120523</v>
       </c>
+      <c r="AC33" t="n">
+        <v>0.7576805375383012</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3356,6 +3455,9 @@
       <c r="AB34" t="n">
         <v>-0.8499740455954693</v>
       </c>
+      <c r="AC34" t="n">
+        <v>-0.8483834134817465</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3442,6 +3544,9 @@
       <c r="AB35" t="n">
         <v>0.8131322466893603</v>
       </c>
+      <c r="AC35" t="n">
+        <v>0.8156368990404915</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3528,6 +3633,9 @@
       <c r="AB36" t="n">
         <v>0.7798172675881755</v>
       </c>
+      <c r="AC36" t="n">
+        <v>0.7833422682973855</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3614,6 +3722,9 @@
       <c r="AB37" t="n">
         <v>0.7448751502241144</v>
       </c>
+      <c r="AC37" t="n">
+        <v>0.748582788813031</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3700,6 +3811,9 @@
       <c r="AB38" t="n">
         <v>0.6509997297825822</v>
       </c>
+      <c r="AC38" t="n">
+        <v>0.6530081362521478</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3786,6 +3900,9 @@
       <c r="AB39" t="n">
         <v>0.6076691451901005</v>
       </c>
+      <c r="AC39" t="n">
+        <v>0.6091018758247857</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3872,6 +3989,9 @@
       <c r="AB40" t="n">
         <v>0.775404620027845</v>
       </c>
+      <c r="AC40" t="n">
+        <v>0.7777354602184449</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3958,6 +4078,9 @@
       <c r="AB41" t="n">
         <v>0.580944707997318</v>
       </c>
+      <c r="AC41" t="n">
+        <v>0.5820780480629424</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4044,6 +4167,9 @@
       <c r="AB42" t="n">
         <v>0.6335299964521462</v>
       </c>
+      <c r="AC42" t="n">
+        <v>0.6373768382180447</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4130,6 +4256,9 @@
       <c r="AB43" t="n">
         <v>0.6821010565373113</v>
       </c>
+      <c r="AC43" t="n">
+        <v>0.6839425084993972</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4216,6 +4345,9 @@
       <c r="AB44" t="n">
         <v>0.7080183138518468</v>
       </c>
+      <c r="AC44" t="n">
+        <v>0.7099381420625724</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4302,6 +4434,9 @@
       <c r="AB45" t="n">
         <v>0.7154565876594096</v>
       </c>
+      <c r="AC45" t="n">
+        <v>0.7197350616494081</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4388,6 +4523,9 @@
       <c r="AB46" t="n">
         <v>-1.329707183089105</v>
       </c>
+      <c r="AC46" t="n">
+        <v>-1.33334944380029</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4474,6 +4612,9 @@
       <c r="AB47" t="n">
         <v>-1.036836439476756</v>
       </c>
+      <c r="AC47" t="n">
+        <v>-1.039644602456975</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4560,6 +4701,9 @@
       <c r="AB48" t="n">
         <v>-0.8960037972816671</v>
       </c>
+      <c r="AC48" t="n">
+        <v>-0.8986572113971628</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4646,6 +4790,9 @@
       <c r="AB49" t="n">
         <v>-0.6584961381829972</v>
       </c>
+      <c r="AC49" t="n">
+        <v>-0.6608394056018418</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4732,6 +4879,9 @@
       <c r="AB50" t="n">
         <v>-0.0820313316563248</v>
       </c>
+      <c r="AC50" t="n">
+        <v>-0.08359641036102762</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4818,6 +4968,9 @@
       <c r="AB51" t="n">
         <v>-0.8731790194719979</v>
       </c>
+      <c r="AC51" t="n">
+        <v>-0.8750952131498683</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4904,6 +5057,9 @@
       <c r="AB52" t="n">
         <v>-0.8731790194719979</v>
       </c>
+      <c r="AC52" t="n">
+        <v>-0.8750952131498683</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4990,6 +5146,9 @@
       <c r="AB53" t="n">
         <v>-1.165606049497354</v>
       </c>
+      <c r="AC53" t="n">
+        <v>-1.168758702568784</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5076,6 +5235,9 @@
       <c r="AB54" t="n">
         <v>-0.1908974298997624</v>
       </c>
+      <c r="AC54" t="n">
+        <v>-0.1927286300091058</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5162,6 +5324,9 @@
       <c r="AB55" t="n">
         <v>-1.060313389663159</v>
       </c>
+      <c r="AC55" t="n">
+        <v>-1.063378492879843</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5248,6 +5413,9 @@
       <c r="AB56" t="n">
         <v>-0.9351396150153949</v>
       </c>
+      <c r="AC56" t="n">
+        <v>-0.9378071870818097</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5334,6 +5502,9 @@
       <c r="AB57" t="n">
         <v>-0.991393259790895</v>
       </c>
+      <c r="AC57" t="n">
+        <v>-0.997105095664743</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5420,6 +5591,9 @@
       <c r="AB58" t="n">
         <v>-1.133061304518034</v>
       </c>
+      <c r="AC58" t="n">
+        <v>-1.138699307964814</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5506,6 +5680,9 @@
       <c r="AB59" t="n">
         <v>-0.8187510762322557</v>
       </c>
+      <c r="AC59" t="n">
+        <v>-0.8225390782525768</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5592,6 +5769,9 @@
       <c r="AB60" t="n">
         <v>-0.4533775077895266</v>
       </c>
+      <c r="AC60" t="n">
+        <v>-0.4572549339527514</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5678,6 +5858,9 @@
       <c r="AB61" t="n">
         <v>0.3782771241316983</v>
       </c>
+      <c r="AC61" t="n">
+        <v>0.377338352712183</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5764,6 +5947,9 @@
       <c r="AB62" t="n">
         <v>-1.257593351711258</v>
       </c>
+      <c r="AC62" t="n">
+        <v>-1.26435089845412</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5850,6 +6036,9 @@
       <c r="AB63" t="n">
         <v>-0.5735181567830298</v>
       </c>
+      <c r="AC63" t="n">
+        <v>-0.5768299367275429</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5936,6 +6125,9 @@
       <c r="AB64" t="n">
         <v>-0.8836182979139324</v>
       </c>
+      <c r="AC64" t="n">
+        <v>-0.888664597604753</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6022,6 +6214,9 @@
       <c r="AB65" t="n">
         <v>-0.05999621244300638</v>
       </c>
+      <c r="AC65" t="n">
+        <v>-0.06296788815695598</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6108,6 +6303,9 @@
       <c r="AB66" t="n">
         <v>-0.8243714607351219</v>
       </c>
+      <c r="AC66" t="n">
+        <v>-0.8296034094117587</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6193,6 +6391,9 @@
       </c>
       <c r="AB67" t="n">
         <v>-0.8117553570055448</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.817093647653075</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>-0.2399037205445143</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-0.2428024021220314</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>0.2437767229278285</v>
       </c>
+      <c r="AD3" t="n">
+        <v>0.2408401883355339</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>0.22938016195553</v>
       </c>
+      <c r="AD4" t="n">
+        <v>0.2266688610319369</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>-0.06888134228427925</v>
       </c>
+      <c r="AD5" t="n">
+        <v>-0.07137091774081297</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>0.1927084194671607</v>
       </c>
+      <c r="AD6" t="n">
+        <v>0.1902883040596093</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.3962080090183912</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.3993190942367623</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1343584767990803</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1361428055041763</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>-0.3106695384950866</v>
       </c>
+      <c r="AD9" t="n">
+        <v>-0.3148883582537978</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.3933403104880572</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.3911226963246074</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1411,6 +1441,9 @@
       <c r="AC11" t="n">
         <v>-0.202865847099297</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-0.2054245329290955</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1500,6 +1533,9 @@
       <c r="AC12" t="n">
         <v>-0.09696836657836147</v>
       </c>
+      <c r="AD12" t="n">
+        <v>-0.1015359959831657</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1589,6 +1625,9 @@
       <c r="AC13" t="n">
         <v>-0.05429653746743333</v>
       </c>
+      <c r="AD13" t="n">
+        <v>-0.05623237044681147</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1678,6 +1717,9 @@
       <c r="AC14" t="n">
         <v>0.05430173573449947</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0.04708976061917993</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1767,6 +1809,9 @@
       <c r="AC15" t="n">
         <v>-0.09458368640063641</v>
       </c>
+      <c r="AD15" t="n">
+        <v>-0.1033771640779452</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1856,6 +1901,9 @@
       <c r="AC16" t="n">
         <v>0.3240452285735043</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0.3135760807481509</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1945,6 +1993,9 @@
       <c r="AC17" t="n">
         <v>0.4345373803312101</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0.427404691586841</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2034,6 +2085,9 @@
       <c r="AC18" t="n">
         <v>-0.1557660822160312</v>
       </c>
+      <c r="AD18" t="n">
+        <v>-0.1591332453652725</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2123,6 +2177,9 @@
       <c r="AC19" t="n">
         <v>0.2968226825209661</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0.29199290875053</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2212,6 +2269,9 @@
       <c r="AC20" t="n">
         <v>0.2138680306800309</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0.2035074439246218</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2301,6 +2361,9 @@
       <c r="AC21" t="n">
         <v>0.4917996129099821</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0.4850939622725188</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2390,6 +2453,9 @@
       <c r="AC22" t="n">
         <v>0.2607359600609353</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0.2539852878211163</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2479,6 +2545,9 @@
       <c r="AC23" t="n">
         <v>-0.1680980659025336</v>
       </c>
+      <c r="AD23" t="n">
+        <v>-0.1739771525102634</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2568,6 +2637,9 @@
       <c r="AC24" t="n">
         <v>1.019525046154715</v>
       </c>
+      <c r="AD24" t="n">
+        <v>1.03352297585665</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2657,6 +2729,9 @@
       <c r="AC25" t="n">
         <v>0.3135142057928972</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0.3157837925089018</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2746,6 +2821,9 @@
       <c r="AC26" t="n">
         <v>0.1255250645883887</v>
       </c>
+      <c r="AD26" t="n">
+        <v>0.1271926547440677</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2835,6 +2913,9 @@
       <c r="AC27" t="n">
         <v>0.0282457143485391</v>
       </c>
+      <c r="AD27" t="n">
+        <v>0.03043708366341234</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2924,6 +3005,9 @@
       <c r="AC28" t="n">
         <v>0.8097002499902135</v>
       </c>
+      <c r="AD28" t="n">
+        <v>0.814723714293451</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3013,6 +3097,9 @@
       <c r="AC29" t="n">
         <v>1.46452434471861</v>
       </c>
+      <c r="AD29" t="n">
+        <v>1.487631978431541</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3102,6 +3189,9 @@
       <c r="AC30" t="n">
         <v>0.647946966142424</v>
       </c>
+      <c r="AD30" t="n">
+        <v>0.6519886036574833</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3191,6 +3281,9 @@
       <c r="AC31" t="n">
         <v>-0.4427869044449894</v>
       </c>
+      <c r="AD31" t="n">
+        <v>-0.4391725262542152</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3280,6 +3373,9 @@
       <c r="AC32" t="n">
         <v>0.5410393239964978</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0.5442775013104584</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3369,6 +3465,9 @@
       <c r="AC33" t="n">
         <v>0.7576805375383012</v>
       </c>
+      <c r="AD33" t="n">
+        <v>0.760163168974519</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3458,6 +3557,9 @@
       <c r="AC34" t="n">
         <v>-0.8483834134817465</v>
       </c>
+      <c r="AD34" t="n">
+        <v>-0.8469370200493708</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3547,6 +3649,9 @@
       <c r="AC35" t="n">
         <v>0.8156368990404915</v>
       </c>
+      <c r="AD35" t="n">
+        <v>0.8179385978271018</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3636,6 +3741,9 @@
       <c r="AC36" t="n">
         <v>0.7833422682973855</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0.7864908471184863</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3725,6 +3833,9 @@
       <c r="AC37" t="n">
         <v>0.748582788813031</v>
       </c>
+      <c r="AD37" t="n">
+        <v>0.7519002649305198</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3814,6 +3925,9 @@
       <c r="AC38" t="n">
         <v>0.6530081362521478</v>
       </c>
+      <c r="AD38" t="n">
+        <v>0.6548466829185382</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3903,6 +4017,9 @@
       <c r="AC39" t="n">
         <v>0.6091018758247857</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0.6103568427431995</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3992,6 +4109,9 @@
       <c r="AC40" t="n">
         <v>0.7777354602184449</v>
       </c>
+      <c r="AD40" t="n">
+        <v>0.7798882484419044</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4081,6 +4201,9 @@
       <c r="AC41" t="n">
         <v>0.5820780480629424</v>
       </c>
+      <c r="AD41" t="n">
+        <v>0.5830389895714209</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4170,6 +4293,9 @@
       <c r="AC42" t="n">
         <v>0.6373768382180447</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0.6408345597171639</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4259,6 +4385,9 @@
       <c r="AC43" t="n">
         <v>0.6839425084993972</v>
       </c>
+      <c r="AD43" t="n">
+        <v>0.6855930053812248</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4348,6 +4477,9 @@
       <c r="AC44" t="n">
         <v>0.7099381420625724</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0.7116169021913658</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4437,6 +4569,9 @@
       <c r="AC45" t="n">
         <v>0.7197350616494081</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0.7234778296812386</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4526,6 +4661,9 @@
       <c r="AC46" t="n">
         <v>-1.33334944380029</v>
       </c>
+      <c r="AD46" t="n">
+        <v>-1.336985167055253</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4615,6 +4753,9 @@
       <c r="AC47" t="n">
         <v>-1.039644602456975</v>
       </c>
+      <c r="AD47" t="n">
+        <v>-1.042471711249921</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4704,6 +4845,9 @@
       <c r="AC48" t="n">
         <v>-0.8986572113971628</v>
       </c>
+      <c r="AD48" t="n">
+        <v>-0.9014189209731349</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4793,6 +4937,9 @@
       <c r="AC49" t="n">
         <v>-0.6608394056018418</v>
       </c>
+      <c r="AD49" t="n">
+        <v>-0.6632508312431138</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4882,6 +5029,9 @@
       <c r="AC50" t="n">
         <v>-0.08359641036102762</v>
       </c>
+      <c r="AD50" t="n">
+        <v>-0.0851394360183544</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4971,6 +5121,9 @@
       <c r="AC51" t="n">
         <v>-0.8750952131498683</v>
       </c>
+      <c r="AD51" t="n">
+        <v>-0.8771506335176821</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5060,6 +5213,9 @@
       <c r="AC52" t="n">
         <v>-0.8750952131498683</v>
       </c>
+      <c r="AD52" t="n">
+        <v>-0.8771506335176821</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5149,6 +5305,9 @@
       <c r="AC53" t="n">
         <v>-1.168758702568784</v>
       </c>
+      <c r="AD53" t="n">
+        <v>-1.172025042937724</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5238,6 +5397,9 @@
       <c r="AC54" t="n">
         <v>-0.1927286300091058</v>
       </c>
+      <c r="AD54" t="n">
+        <v>-0.1945812989644209</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5327,6 +5489,9 @@
       <c r="AC55" t="n">
         <v>-1.063378492879843</v>
       </c>
+      <c r="AD55" t="n">
+        <v>-1.066447312016141</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5416,6 +5581,9 @@
       <c r="AC56" t="n">
         <v>-0.9378071870818097</v>
       </c>
+      <c r="AD56" t="n">
+        <v>-0.9403936251116739</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5505,6 +5673,9 @@
       <c r="AC57" t="n">
         <v>-0.997105095664743</v>
       </c>
+      <c r="AD57" t="n">
+        <v>-1.002479817680507</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5594,6 +5765,9 @@
       <c r="AC58" t="n">
         <v>-1.138699307964814</v>
       </c>
+      <c r="AD58" t="n">
+        <v>-1.143985297792078</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5683,6 +5857,9 @@
       <c r="AC59" t="n">
         <v>-0.8225390782525768</v>
       </c>
+      <c r="AD59" t="n">
+        <v>-0.8262416548758849</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5772,6 +5949,9 @@
       <c r="AC60" t="n">
         <v>-0.4572549339527514</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-0.4609176448474742</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5861,6 +6041,9 @@
       <c r="AC61" t="n">
         <v>0.377338352712183</v>
       </c>
+      <c r="AD61" t="n">
+        <v>0.3764226721667671</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5950,6 +6133,9 @@
       <c r="AC62" t="n">
         <v>-1.26435089845412</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-1.270702123001003</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6039,6 +6225,9 @@
       <c r="AC63" t="n">
         <v>-0.5768299367275429</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-0.5801276094850185</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6128,6 +6317,9 @@
       <c r="AC64" t="n">
         <v>-0.888664597604753</v>
       </c>
+      <c r="AD64" t="n">
+        <v>-0.8936184438646844</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6217,6 +6409,9 @@
       <c r="AC65" t="n">
         <v>-0.06296788815695598</v>
       </c>
+      <c r="AD65" t="n">
+        <v>-0.0657686165993755</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6306,6 +6501,9 @@
       <c r="AC66" t="n">
         <v>-0.8296034094117587</v>
       </c>
+      <c r="AD66" t="n">
+        <v>-0.8344152288910479</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6394,6 +6592,9 @@
       </c>
       <c r="AC67" t="n">
         <v>-0.817093647653075</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8218910575502127</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>-0.2428024021220314</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.2455920860236548</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>0.2408401883355339</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.2380894598426063</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>0.2266688610319369</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.2240361861861967</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>-0.07137091774081297</v>
       </c>
+      <c r="AE5" t="n">
+        <v>-0.07369924915046409</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>0.1902883040596093</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.1880724288125032</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.3993190942367623</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.4023579678900367</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1361428055041763</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.1379680423274533</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>-0.3148883582537978</v>
       </c>
+      <c r="AE9" t="n">
+        <v>-0.3189856667691674</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.3911226963246074</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.3890943203233659</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,6 +1474,9 @@
       <c r="AD11" t="n">
         <v>-0.2054245329290955</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.2079046057700853</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1536,6 +1569,9 @@
       <c r="AD12" t="n">
         <v>-0.1015359959831657</v>
       </c>
+      <c r="AE12" t="n">
+        <v>-0.1056763844892118</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1628,6 +1664,9 @@
       <c r="AD13" t="n">
         <v>-0.05623237044681147</v>
       </c>
+      <c r="AE13" t="n">
+        <v>-0.05805285548636115</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1720,6 +1759,9 @@
       <c r="AD14" t="n">
         <v>0.04708976061917993</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.04067334619462798</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1812,6 +1854,9 @@
       <c r="AD15" t="n">
         <v>-0.1033771640779452</v>
       </c>
+      <c r="AE15" t="n">
+        <v>-0.111133864285644</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1904,6 +1949,9 @@
       <c r="AD16" t="n">
         <v>0.3135760807481509</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.3043693093934072</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1996,6 +2044,9 @@
       <c r="AD17" t="n">
         <v>0.427404691586841</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.4213193456370349</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2088,6 +2139,9 @@
       <c r="AD18" t="n">
         <v>-0.1591332453652725</v>
       </c>
+      <c r="AE18" t="n">
+        <v>-0.1621432096197048</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2180,6 +2234,9 @@
       <c r="AD19" t="n">
         <v>0.29199290875053</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.2876997585510973</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2272,6 +2329,9 @@
       <c r="AD20" t="n">
         <v>0.2035074439246218</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.1944385096272031</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2364,6 +2424,9 @@
       <c r="AD21" t="n">
         <v>0.4850939622725188</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.4793781936646266</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2456,6 +2519,9 @@
       <c r="AD22" t="n">
         <v>0.2539852878211163</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.2481889815674927</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2548,6 +2614,9 @@
       <c r="AD23" t="n">
         <v>-0.1739771525102634</v>
       </c>
+      <c r="AE23" t="n">
+        <v>-0.1790627048322829</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2640,6 +2709,9 @@
       <c r="AD24" t="n">
         <v>1.03352297585665</v>
       </c>
+      <c r="AE24" t="n">
+        <v>1.052601583117361</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2732,6 +2804,9 @@
       <c r="AD25" t="n">
         <v>0.3157837925089018</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.3179057134655901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2824,6 +2899,9 @@
       <c r="AD26" t="n">
         <v>0.1271926547440677</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.1289282601136961</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2916,6 +2994,9 @@
       <c r="AD27" t="n">
         <v>0.03043708366341234</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.03268424837558324</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3008,6 +3089,9 @@
       <c r="AD28" t="n">
         <v>0.814723714293451</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.8196455346864523</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3100,6 +3184,9 @@
       <c r="AD29" t="n">
         <v>1.487631978431541</v>
       </c>
+      <c r="AE29" t="n">
+        <v>1.512055697725786</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3192,6 +3279,9 @@
       <c r="AD30" t="n">
         <v>0.6519886036574833</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.6558505431033591</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3284,6 +3374,9 @@
       <c r="AD31" t="n">
         <v>-0.4391725262542152</v>
       </c>
+      <c r="AE31" t="n">
+        <v>-0.4360055506617917</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3376,6 +3469,9 @@
       <c r="AD32" t="n">
         <v>0.5442775013104584</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.5473631633334601</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3468,6 +3564,9 @@
       <c r="AD33" t="n">
         <v>0.760163168974519</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.7624886642265035</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3560,6 +3659,9 @@
       <c r="AD34" t="n">
         <v>-0.8469370200493708</v>
       </c>
+      <c r="AE34" t="n">
+        <v>-0.845658304698322</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3652,6 +3754,9 @@
       <c r="AD35" t="n">
         <v>0.8179385978271018</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.8200338828094059</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3744,6 +3849,9 @@
       <c r="AD36" t="n">
         <v>0.7864908471184863</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.7892706640503082</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3836,6 +3944,9 @@
       <c r="AD37" t="n">
         <v>0.7519002649305198</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.7548343508101532</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3928,6 +4039,9 @@
       <c r="AD38" t="n">
         <v>0.6548466829185382</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.6565092628215196</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4020,6 +4134,9 @@
       <c r="AD39" t="n">
         <v>0.6103568427431995</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.6114397699943205</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4112,6 +4229,9 @@
       <c r="AD40" t="n">
         <v>0.7798882484419044</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.7818592486176752</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4204,6 +4324,9 @@
       <c r="AD41" t="n">
         <v>0.5830389895714209</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.5838400690182759</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4296,6 +4419,9 @@
       <c r="AD42" t="n">
         <v>0.6408345597171639</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.643902058893602</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4388,6 +4514,9 @@
       <c r="AD43" t="n">
         <v>0.6855930053812248</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.6870539017867496</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4480,6 +4609,9 @@
       <c r="AD44" t="n">
         <v>0.7116169021913658</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.7130652913227241</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4572,6 +4704,9 @@
       <c r="AD45" t="n">
         <v>0.7234778296812386</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.726705362627192</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4664,6 +4799,9 @@
       <c r="AD46" t="n">
         <v>-1.336985167055253</v>
       </c>
+      <c r="AE46" t="n">
+        <v>-1.340598630766993</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4756,6 +4894,9 @@
       <c r="AD47" t="n">
         <v>-1.042471711249921</v>
       </c>
+      <c r="AE47" t="n">
+        <v>-1.04530443707173</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4848,6 +4989,9 @@
       <c r="AD48" t="n">
         <v>-0.9014189209731349</v>
       </c>
+      <c r="AE48" t="n">
+        <v>-0.904263284853117</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4940,6 +5084,9 @@
       <c r="AD49" t="n">
         <v>-0.6632508312431138</v>
       </c>
+      <c r="AE49" t="n">
+        <v>-0.665710162981181</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5032,6 +5179,9 @@
       <c r="AD50" t="n">
         <v>-0.0851394360183544</v>
       </c>
+      <c r="AE50" t="n">
+        <v>-0.08665672889708466</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5124,6 +5274,9 @@
       <c r="AD51" t="n">
         <v>-0.8771506335176821</v>
       </c>
+      <c r="AE51" t="n">
+        <v>-0.8793216606950779</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5216,6 +5369,9 @@
       <c r="AD52" t="n">
         <v>-0.8771506335176821</v>
       </c>
+      <c r="AE52" t="n">
+        <v>-0.8793216606950779</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5308,6 +5464,9 @@
       <c r="AD53" t="n">
         <v>-1.172025042937724</v>
       </c>
+      <c r="AE53" t="n">
+        <v>-1.175379040018711</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5400,6 +5559,9 @@
       <c r="AD54" t="n">
         <v>-0.1945812989644209</v>
       </c>
+      <c r="AE54" t="n">
+        <v>-0.1964425626159677</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5492,6 +5654,9 @@
       <c r="AD55" t="n">
         <v>-1.066447312016141</v>
       </c>
+      <c r="AE55" t="n">
+        <v>-1.069506938166093</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5584,6 +5749,9 @@
       <c r="AD56" t="n">
         <v>-0.9403936251116739</v>
       </c>
+      <c r="AE56" t="n">
+        <v>-0.9428986936790505</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5676,6 +5844,9 @@
       <c r="AD57" t="n">
         <v>-1.002479817680507</v>
       </c>
+      <c r="AE57" t="n">
+        <v>-1.007514166796559</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5768,6 +5939,9 @@
       <c r="AD58" t="n">
         <v>-1.143985297792078</v>
       </c>
+      <c r="AE58" t="n">
+        <v>-1.148914825796359</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5860,6 +6034,9 @@
       <c r="AD59" t="n">
         <v>-0.8262416548758849</v>
       </c>
+      <c r="AE59" t="n">
+        <v>-0.8298383275748047</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5952,6 +6129,9 @@
       <c r="AD60" t="n">
         <v>-0.4609176448474742</v>
       </c>
+      <c r="AE60" t="n">
+        <v>-0.4643545154358579</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6044,6 +6224,9 @@
       <c r="AD61" t="n">
         <v>0.3764226721667671</v>
       </c>
+      <c r="AE61" t="n">
+        <v>0.3755353574431385</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6136,6 +6319,9 @@
       <c r="AD62" t="n">
         <v>-1.270702123001003</v>
       </c>
+      <c r="AE62" t="n">
+        <v>-1.276643168054186</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6228,6 +6414,9 @@
       <c r="AD63" t="n">
         <v>-0.5801276094850185</v>
       </c>
+      <c r="AE63" t="n">
+        <v>-0.58337229498697</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6320,6 +6509,9 @@
       <c r="AD64" t="n">
         <v>-0.8936184438646844</v>
       </c>
+      <c r="AE64" t="n">
+        <v>-0.8984454912098416</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6412,6 +6604,9 @@
       <c r="AD65" t="n">
         <v>-0.0657686165993755</v>
       </c>
+      <c r="AE65" t="n">
+        <v>-0.06839018661353198</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6504,6 +6699,9 @@
       <c r="AD66" t="n">
         <v>-0.8344152288910479</v>
       </c>
+      <c r="AE66" t="n">
+        <v>-0.8388168323511904</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6595,6 +6793,9 @@
       </c>
       <c r="AD67" t="n">
         <v>-0.8218910575502127</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8261750271946369</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>-0.2455920860236548</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-0.2482554011976328</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>0.2380894598426063</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.2355368450245152</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>0.2240361861861967</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.2215057713006151</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>-0.07369924915046409</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-0.0758631658504493</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>0.1880724288125032</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.1860644037578333</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.4023579678900367</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.4053019634720854</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.1379680423274533</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.1398038576097859</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>-0.3189856667691674</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-0.3229234136785887</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.3890943203233659</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.3872556627033494</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1477,6 +1507,9 @@
       <c r="AE11" t="n">
         <v>-0.2079046057700853</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-0.2102919154990437</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1572,6 +1605,9 @@
       <c r="AE12" t="n">
         <v>-0.1056763844892118</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-0.109399278556972</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,6 +1703,9 @@
       <c r="AE13" t="n">
         <v>-0.05805285548636115</v>
       </c>
+      <c r="AF13" t="n">
+        <v>-0.0597586610444835</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1762,6 +1801,9 @@
       <c r="AE14" t="n">
         <v>0.04067334619462798</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.03503111399946506</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1857,6 +1899,9 @@
       <c r="AE15" t="n">
         <v>-0.111133864285644</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-0.1178966980498815</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1952,6 +1997,9 @@
       <c r="AE16" t="n">
         <v>0.3043693093934072</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.296380509756529</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2047,6 +2095,9 @@
       <c r="AE17" t="n">
         <v>0.4213193456370349</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.4162166388451972</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2142,6 +2193,9 @@
       <c r="AE18" t="n">
         <v>-0.1621432096197048</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-0.1648173098805777</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2237,6 +2291,9 @@
       <c r="AE19" t="n">
         <v>0.2876997585510973</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.2839171646845079</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2332,6 +2389,9 @@
       <c r="AE20" t="n">
         <v>0.1944385096272031</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.1866054650385222</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2427,6 +2487,9 @@
       <c r="AE21" t="n">
         <v>0.4793781936646266</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.474594949761606</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2522,6 +2585,9 @@
       <c r="AE22" t="n">
         <v>0.2481889815674927</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.2432925847179135</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2617,6 +2683,9 @@
       <c r="AE23" t="n">
         <v>-0.1790627048322829</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-0.18340180526363</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2712,6 +2781,9 @@
       <c r="AE24" t="n">
         <v>1.052601583117361</v>
       </c>
+      <c r="AF24" t="n">
+        <v>1.075603142421942</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2807,6 +2879,9 @@
       <c r="AE25" t="n">
         <v>0.3179057134655901</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.3198646138682375</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2902,6 +2977,9 @@
       <c r="AE26" t="n">
         <v>0.1289282601136961</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.1306823724851839</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2997,6 +3075,9 @@
       <c r="AE27" t="n">
         <v>0.03268424837558324</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.03493546134284867</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3092,6 +3173,9 @@
       <c r="AE28" t="n">
         <v>0.8196455346864523</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.8244062507508285</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3187,6 +3271,9 @@
       <c r="AE29" t="n">
         <v>1.512055697725786</v>
       </c>
+      <c r="AF29" t="n">
+        <v>1.537100559211789</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3282,6 +3369,9 @@
       <c r="AE30" t="n">
         <v>0.6558505431033591</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.6594893738020788</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3377,6 +3467,9 @@
       <c r="AE31" t="n">
         <v>-0.4360055506617917</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-0.4332872246800617</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3472,6 +3565,9 @@
       <c r="AE32" t="n">
         <v>0.5473631633334601</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.5502612286572387</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3567,6 +3663,9 @@
       <c r="AE33" t="n">
         <v>0.7624886642265035</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.7646393073445094</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3662,6 +3761,9 @@
       <c r="AE34" t="n">
         <v>-0.845658304698322</v>
       </c>
+      <c r="AF34" t="n">
+        <v>-0.8445629429029251</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3757,6 +3859,9 @@
       <c r="AE35" t="n">
         <v>0.8200338828094059</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.8219233202525428</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3852,6 +3957,9 @@
       <c r="AE36" t="n">
         <v>0.7892706640503082</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.791694697816039</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3947,6 +4055,9 @@
       <c r="AE37" t="n">
         <v>0.7548343508101532</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.7573975733227243</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4042,6 +4153,9 @@
       <c r="AE38" t="n">
         <v>0.6565092628215196</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.6579941494672443</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4137,6 +4251,9 @@
       <c r="AE39" t="n">
         <v>0.6114397699943205</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.6123584590157328</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4232,6 +4349,9 @@
       <c r="AE40" t="n">
         <v>0.7818592486176752</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.7836481806120154</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4327,6 +4447,9 @@
       <c r="AE41" t="n">
         <v>0.5838400690182759</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.5844947340585538</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4422,6 +4545,9 @@
       <c r="AE42" t="n">
         <v>0.643902058893602</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.6465856558968032</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4517,6 +4643,9 @@
       <c r="AE43" t="n">
         <v>0.6870539017867496</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.688329885284048</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4612,6 +4741,9 @@
       <c r="AE44" t="n">
         <v>0.7130652913227241</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.7142963569398145</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4707,6 +4839,9 @@
       <c r="AE45" t="n">
         <v>0.726705362627192</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.7294440194117056</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4802,6 +4937,9 @@
       <c r="AE46" t="n">
         <v>-1.340598630766993</v>
       </c>
+      <c r="AF46" t="n">
+        <v>-1.344175487630391</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4897,6 +5035,9 @@
       <c r="AE47" t="n">
         <v>-1.04530443707173</v>
       </c>
+      <c r="AF47" t="n">
+        <v>-1.048130184805982</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4992,6 +5133,9 @@
       <c r="AE48" t="n">
         <v>-0.904263284853117</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-0.9071659247027948</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5087,6 +5231,9 @@
       <c r="AE49" t="n">
         <v>-0.665710162981181</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-0.6681984442197619</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5182,6 +5329,9 @@
       <c r="AE50" t="n">
         <v>-0.08665672889708466</v>
       </c>
+      <c r="AF50" t="n">
+        <v>-0.08814504016559527</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5277,6 +5427,9 @@
       <c r="AE51" t="n">
         <v>-0.8793216606950779</v>
       </c>
+      <c r="AF51" t="n">
+        <v>-0.8815852660757065</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5372,6 +5525,9 @@
       <c r="AE52" t="n">
         <v>-0.8793216606950779</v>
       </c>
+      <c r="AF52" t="n">
+        <v>-0.8815852660757065</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5467,6 +5623,9 @@
       <c r="AE53" t="n">
         <v>-1.175379040018711</v>
       </c>
+      <c r="AF53" t="n">
+        <v>-1.178795442140667</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5562,6 +5721,9 @@
       <c r="AE54" t="n">
         <v>-0.1964425626159677</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-0.1983007663525703</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5657,6 +5819,9 @@
       <c r="AE55" t="n">
         <v>-1.069506938166093</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-1.072545341413114</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5752,6 +5917,9 @@
       <c r="AE56" t="n">
         <v>-0.9428986936790505</v>
       </c>
+      <c r="AF56" t="n">
+        <v>-0.945322805960106</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5847,6 +6015,9 @@
       <c r="AE57" t="n">
         <v>-1.007514166796559</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-1.01221036237061</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5942,6 +6113,9 @@
       <c r="AE58" t="n">
         <v>-1.148914825796359</v>
       </c>
+      <c r="AF58" t="n">
+        <v>-1.153489798870253</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6037,6 +6211,9 @@
       <c r="AE59" t="n">
         <v>-0.8298383275748047</v>
       </c>
+      <c r="AF59" t="n">
+        <v>-0.8333129846507439</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6132,6 +6309,9 @@
       <c r="AE60" t="n">
         <v>-0.4643545154358579</v>
       </c>
+      <c r="AF60" t="n">
+        <v>-0.4675599072648617</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6227,6 +6407,9 @@
       <c r="AE61" t="n">
         <v>0.3755353574431385</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.3746805339241112</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6322,6 +6505,9 @@
       <c r="AE62" t="n">
         <v>-1.276643168054186</v>
       </c>
+      <c r="AF62" t="n">
+        <v>-1.282176941224393</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6417,6 +6603,9 @@
       <c r="AE63" t="n">
         <v>-0.58337229498697</v>
       </c>
+      <c r="AF63" t="n">
+        <v>-0.5865321601765845</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6512,6 +6701,9 @@
       <c r="AE64" t="n">
         <v>-0.8984454912098416</v>
       </c>
+      <c r="AF64" t="n">
+        <v>-0.9031178134284954</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6607,6 +6799,9 @@
       <c r="AE65" t="n">
         <v>-0.06839018661353198</v>
       </c>
+      <c r="AF65" t="n">
+        <v>-0.0708287885014971</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6702,6 +6897,9 @@
       <c r="AE66" t="n">
         <v>-0.8388168323511904</v>
       </c>
+      <c r="AF66" t="n">
+        <v>-0.8428233694473979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6796,6 +6994,9 @@
       </c>
       <c r="AE67" t="n">
         <v>-0.8261750271946369</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8299776152312174</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>-0.2482554011976328</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-0.2507797007536665</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>0.2355368450245152</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.2331894444317141</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>0.2215057713006151</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.2190959318747434</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>-0.0758631658504493</v>
       </c>
+      <c r="AG5" t="n">
+        <v>-0.07786261598722402</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>0.1860644037578333</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.1842635226881597</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.4053019634720854</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.4081331518811342</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.1398038576097859</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.1416244494214456</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>-0.3229234136785887</v>
       </c>
+      <c r="AG9" t="n">
+        <v>-0.3266718322775248</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.3872556627033494</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.3856037472048145</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1510,6 +1540,9 @@
       <c r="AF11" t="n">
         <v>-0.2102919154990437</v>
       </c>
+      <c r="AG11" t="n">
+        <v>-0.2125757771632915</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1608,6 +1641,9 @@
       <c r="AF12" t="n">
         <v>-0.109399278556972</v>
       </c>
+      <c r="AG12" t="n">
+        <v>-0.1127200130574647</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1706,6 +1742,9 @@
       <c r="AF13" t="n">
         <v>-0.0597586610444835</v>
       </c>
+      <c r="AG13" t="n">
+        <v>-0.06135187228947872</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1804,6 +1843,9 @@
       <c r="AF14" t="n">
         <v>0.03503111399946506</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.03013133438563804</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1902,6 +1944,9 @@
       <c r="AF15" t="n">
         <v>-0.1178966980498815</v>
       </c>
+      <c r="AG15" t="n">
+        <v>-0.123719205227955</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2000,6 +2045,9 @@
       <c r="AF16" t="n">
         <v>0.296380509756529</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.2895505102993021</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2098,6 +2146,9 @@
       <c r="AF17" t="n">
         <v>0.4162166388451972</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.412024723626019</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2196,6 +2247,9 @@
       <c r="AF18" t="n">
         <v>-0.1648173098805777</v>
       </c>
+      <c r="AG18" t="n">
+        <v>-0.1671784070136255</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2294,6 +2348,9 @@
       <c r="AF19" t="n">
         <v>0.2839171646845079</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.280614619514751</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2392,6 +2449,9 @@
       <c r="AF20" t="n">
         <v>0.1866054650385222</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.1799394134194054</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2490,6 +2550,9 @@
       <c r="AF21" t="n">
         <v>0.474594949761606</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.4706787520839316</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2588,6 +2651,9 @@
       <c r="AF22" t="n">
         <v>0.2432925847179135</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.2392342586754077</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2686,6 +2752,9 @@
       <c r="AF23" t="n">
         <v>-0.18340180526363</v>
       </c>
+      <c r="AG23" t="n">
+        <v>-0.1870472349641915</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2784,6 +2853,9 @@
       <c r="AF24" t="n">
         <v>1.075603142421942</v>
       </c>
+      <c r="AG24" t="n">
+        <v>1.101480547156806</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2882,6 +2954,9 @@
       <c r="AF25" t="n">
         <v>0.3198646138682375</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.3216510664407475</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2980,6 +3055,9 @@
       <c r="AF26" t="n">
         <v>0.1306823724851839</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.1324134076158075</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3078,6 +3156,9 @@
       <c r="AF27" t="n">
         <v>0.03493546134284867</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.03714757009816633</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3176,6 +3257,9 @@
       <c r="AF28" t="n">
         <v>0.8244062507508285</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.8289585752612303</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3274,6 +3358,9 @@
       <c r="AF29" t="n">
         <v>1.537100559211789</v>
       </c>
+      <c r="AG29" t="n">
+        <v>1.56217913057743</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3372,6 +3459,9 @@
       <c r="AF30" t="n">
         <v>0.6594893738020788</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.6628732632070267</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3470,6 +3560,9 @@
       <c r="AF31" t="n">
         <v>-0.4332872246800617</v>
       </c>
+      <c r="AG31" t="n">
+        <v>-0.4310093070392395</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3568,6 +3661,9 @@
       <c r="AF32" t="n">
         <v>0.5502612286572387</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.5529461191695229</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3666,6 +3762,9 @@
       <c r="AF33" t="n">
         <v>0.7646393073445094</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.7666037416691018</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3764,6 +3863,9 @@
       <c r="AF34" t="n">
         <v>-0.8445629429029251</v>
       </c>
+      <c r="AG34" t="n">
+        <v>-0.8436598669924829</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3862,6 +3964,9 @@
       <c r="AF35" t="n">
         <v>0.8219233202525428</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.8236108753443021</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3960,6 +4065,9 @@
       <c r="AF36" t="n">
         <v>0.791694697816039</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.7937801669570218</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4058,6 +4166,9 @@
       <c r="AF37" t="n">
         <v>0.7573975733227243</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.7596070690299173</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4156,6 +4267,9 @@
       <c r="AF38" t="n">
         <v>0.6579941494672443</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.6593032955252089</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4254,6 +4368,9 @@
       <c r="AF39" t="n">
         <v>0.6123584590157328</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.6131223390521019</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4352,6 +4469,9 @@
       <c r="AF40" t="n">
         <v>0.7836481806120154</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.7852577245228821</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4450,6 +4570,9 @@
       <c r="AF41" t="n">
         <v>0.5844947340585538</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.5850169364227563</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4548,6 +4671,9 @@
       <c r="AF42" t="n">
         <v>0.6465856558968032</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.6488977718151376</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4646,6 +4772,9 @@
       <c r="AF43" t="n">
         <v>0.688329885284048</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.6894283380662817</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4744,6 +4873,9 @@
       <c r="AF44" t="n">
         <v>0.7142963569398145</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.7153248926038243</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4842,6 +4974,9 @@
       <c r="AF45" t="n">
         <v>0.7294440194117056</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.7317246468787602</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4940,6 +5075,9 @@
       <c r="AF46" t="n">
         <v>-1.344175487630391</v>
       </c>
+      <c r="AG46" t="n">
+        <v>-1.347702850352119</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5038,6 +5176,9 @@
       <c r="AF47" t="n">
         <v>-1.048130184805982</v>
       </c>
+      <c r="AG47" t="n">
+        <v>-1.050937242921557</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5136,6 +5277,9 @@
       <c r="AF48" t="n">
         <v>-0.9071659247027948</v>
       </c>
+      <c r="AG48" t="n">
+        <v>-0.9101040122858168</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5234,6 +5378,9 @@
       <c r="AF49" t="n">
         <v>-0.6681984442197619</v>
       </c>
+      <c r="AG49" t="n">
+        <v>-0.6706981839793089</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5332,6 +5479,9 @@
       <c r="AF50" t="n">
         <v>-0.08814504016559527</v>
       </c>
+      <c r="AG50" t="n">
+        <v>-0.08960155365647667</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5430,6 +5580,9 @@
       <c r="AF51" t="n">
         <v>-0.8815852660757065</v>
       </c>
+      <c r="AG51" t="n">
+        <v>-0.8839193648578232</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5528,6 +5681,9 @@
       <c r="AF52" t="n">
         <v>-0.8815852660757065</v>
       </c>
+      <c r="AG52" t="n">
+        <v>-0.8839193648578232</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5626,6 +5782,9 @@
       <c r="AF53" t="n">
         <v>-1.178795442140667</v>
       </c>
+      <c r="AG53" t="n">
+        <v>-1.182250192388049</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5724,6 +5883,9 @@
       <c r="AF54" t="n">
         <v>-0.1983007663525703</v>
       </c>
+      <c r="AG54" t="n">
+        <v>-0.2001455011134244</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5822,6 +5984,9 @@
       <c r="AF55" t="n">
         <v>-1.072545341413114</v>
       </c>
+      <c r="AG55" t="n">
+        <v>-1.075551485665173</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5920,6 +6085,9 @@
       <c r="AF56" t="n">
         <v>-0.945322805960106</v>
       </c>
+      <c r="AG56" t="n">
+        <v>-0.9476669040790473</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6018,6 +6186,9 @@
       <c r="AF57" t="n">
         <v>-1.01221036237061</v>
       </c>
+      <c r="AG57" t="n">
+        <v>-1.016575213887728</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6116,6 +6287,9 @@
       <c r="AF58" t="n">
         <v>-1.153489798870253</v>
       </c>
+      <c r="AG58" t="n">
+        <v>-1.157717411343043</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6214,6 +6388,9 @@
       <c r="AF59" t="n">
         <v>-0.8333129846507439</v>
       </c>
+      <c r="AG59" t="n">
+        <v>-0.8366534735256099</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6312,6 +6489,9 @@
       <c r="AF60" t="n">
         <v>-0.4675599072648617</v>
       </c>
+      <c r="AG60" t="n">
+        <v>-0.4705328686244381</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6410,6 +6590,9 @@
       <c r="AF61" t="n">
         <v>0.3746805339241112</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.3738612845716797</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6508,6 +6691,9 @@
       <c r="AF62" t="n">
         <v>-1.282176941224393</v>
       </c>
+      <c r="AG62" t="n">
+        <v>-1.28731199378398</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6606,6 +6792,9 @@
       <c r="AF63" t="n">
         <v>-0.5865321601765845</v>
       </c>
+      <c r="AG63" t="n">
+        <v>-0.5895818203348554</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6704,6 +6893,9 @@
       <c r="AF64" t="n">
         <v>-0.9031178134284954</v>
       </c>
+      <c r="AG64" t="n">
+        <v>-0.9076134496473891</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6802,6 +6994,9 @@
       <c r="AF65" t="n">
         <v>-0.0708287885014971</v>
       </c>
+      <c r="AG65" t="n">
+        <v>-0.07308433886988726</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6900,6 +7095,9 @@
       <c r="AF66" t="n">
         <v>-0.8428233694473979</v>
       </c>
+      <c r="AG66" t="n">
+        <v>-0.8464540793859773</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6997,6 +7195,9 @@
       </c>
       <c r="AF67" t="n">
         <v>-0.8299776152312174</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8333340901102371</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>-0.2507797007536665</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-0.2531565315839667</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>0.2331894444317141</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.2310498203198662</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>0.2190959318747434</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.216820170330553</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>-0.07786261598722402</v>
       </c>
+      <c r="AH5" t="n">
+        <v>-0.07970017540239153</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>0.1842635226881597</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.1826654738809051</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.4081331518811342</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.4108379290076491</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.1416244494214456</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.1434082790168974</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>-0.3266718322775248</v>
       </c>
+      <c r="AH9" t="n">
+        <v>-0.3302087192483353</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.3856037472048145</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.3841327627505051</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1543,6 +1573,9 @@
       <c r="AG11" t="n">
         <v>-0.2125757771632915</v>
       </c>
+      <c r="AH11" t="n">
+        <v>-0.2147486161799611</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1644,6 +1677,9 @@
       <c r="AG12" t="n">
         <v>-0.1127200130574647</v>
       </c>
+      <c r="AH12" t="n">
+        <v>-0.1156583398855787</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1745,6 +1781,9 @@
       <c r="AG13" t="n">
         <v>-0.06135187228947872</v>
       </c>
+      <c r="AH13" t="n">
+        <v>-0.06283575447652004</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1846,6 +1885,9 @@
       <c r="AG14" t="n">
         <v>0.03013133438563804</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.02593415246866881</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1947,6 +1989,9 @@
       <c r="AG15" t="n">
         <v>-0.123719205227955</v>
       </c>
+      <c r="AH15" t="n">
+        <v>-0.1286628956107116</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2048,6 +2093,9 @@
       <c r="AG16" t="n">
         <v>0.2895505102993021</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.2838088071965562</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2149,6 +2197,9 @@
       <c r="AG17" t="n">
         <v>0.412024723626019</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.4086670396473573</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2250,6 +2301,9 @@
       <c r="AG18" t="n">
         <v>-0.1671784070136255</v>
       </c>
+      <c r="AH18" t="n">
+        <v>-0.1692503433818739</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2351,6 +2405,9 @@
       <c r="AG19" t="n">
         <v>0.280614619514751</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.2777584110115893</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2452,6 +2509,9 @@
       <c r="AG20" t="n">
         <v>0.1799394134194054</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.1743616735745653</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2553,6 +2613,9 @@
       <c r="AG21" t="n">
         <v>0.4706787520839316</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.4675585757943989</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2654,6 +2717,9 @@
       <c r="AG22" t="n">
         <v>0.2392342586754077</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.2359470824745627</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2755,6 +2821,9 @@
       <c r="AG23" t="n">
         <v>-0.1870472349641915</v>
       </c>
+      <c r="AH23" t="n">
+        <v>-0.1900555955413282</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2856,6 +2925,9 @@
       <c r="AG24" t="n">
         <v>1.101480547156806</v>
       </c>
+      <c r="AH24" t="n">
+        <v>1.129299668993994</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2957,6 +3029,9 @@
       <c r="AG25" t="n">
         <v>0.3216510664407475</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.3232607147532211</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3058,6 +3133,9 @@
       <c r="AG26" t="n">
         <v>0.1324134076158075</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.1340871885005228</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3159,6 +3237,9 @@
       <c r="AG27" t="n">
         <v>0.03714757009816633</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.0392853880968067</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3260,6 +3341,9 @@
       <c r="AG28" t="n">
         <v>0.8289585752612303</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.8332663174741568</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3361,6 +3445,9 @@
       <c r="AG29" t="n">
         <v>1.56217913057743</v>
       </c>
+      <c r="AH29" t="n">
+        <v>1.586804081896783</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3462,6 +3549,9 @@
       <c r="AG30" t="n">
         <v>0.6628732632070267</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.6659806125773015</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3563,6 +3653,9 @@
       <c r="AG31" t="n">
         <v>-0.4310093070392395</v>
       </c>
+      <c r="AH31" t="n">
+        <v>-0.4291558575572681</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3664,6 +3757,9 @@
       <c r="AG32" t="n">
         <v>0.5529461191695229</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.5554006541461357</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3765,6 +3861,9 @@
       <c r="AG33" t="n">
         <v>0.7666037416691018</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.7683761112617313</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3866,6 +3965,9 @@
       <c r="AG34" t="n">
         <v>-0.8436598669924829</v>
       </c>
+      <c r="AH34" t="n">
+        <v>-0.8429522418539489</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3967,6 +4069,9 @@
       <c r="AG35" t="n">
         <v>0.8236108753443021</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.8251033192414315</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4068,6 +4173,9 @@
       <c r="AG36" t="n">
         <v>0.7937801669570218</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.7955475459715146</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4169,6 +4277,9 @@
       <c r="AG37" t="n">
         <v>0.7596070690299173</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.761483538751482</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4270,6 +4381,9 @@
       <c r="AG38" t="n">
         <v>0.6593032955252089</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.660441680873024</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4371,6 +4485,9 @@
       <c r="AG39" t="n">
         <v>0.6131223390521019</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.613742056098293</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4472,6 +4589,9 @@
       <c r="AG40" t="n">
         <v>0.7852577245228821</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.7866930427279178</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4573,6 +4693,9 @@
       <c r="AG41" t="n">
         <v>0.5850169364227563</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.5854207845241697</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4674,6 +4797,9 @@
       <c r="AG42" t="n">
         <v>0.6488977718151376</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.6508557099366759</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4775,6 +4901,9 @@
       <c r="AG43" t="n">
         <v>0.6894283380662817</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.690358754632955</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4876,6 +5005,9 @@
       <c r="AG44" t="n">
         <v>0.7153248926038243</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.7161668980115083</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4977,6 +5109,9 @@
       <c r="AG45" t="n">
         <v>0.7317246468787602</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.7335813201141952</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5078,6 +5213,9 @@
       <c r="AG46" t="n">
         <v>-1.347702850352119</v>
       </c>
+      <c r="AH46" t="n">
+        <v>-1.351169337065472</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5179,6 +5317,9 @@
       <c r="AG47" t="n">
         <v>-1.050937242921557</v>
       </c>
+      <c r="AH47" t="n">
+        <v>-1.05371489346768</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5280,6 +5421,9 @@
       <c r="AG48" t="n">
         <v>-0.9101040122858168</v>
       </c>
+      <c r="AH48" t="n">
+        <v>-0.9130564807580174</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5381,6 +5525,9 @@
       <c r="AG49" t="n">
         <v>-0.6706981839793089</v>
       </c>
+      <c r="AH49" t="n">
+        <v>-0.6731934725152843</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5482,6 +5629,9 @@
       <c r="AG50" t="n">
         <v>-0.08960155365647667</v>
       </c>
+      <c r="AH50" t="n">
+        <v>-0.09102388117643881</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5583,6 +5733,9 @@
       <c r="AG51" t="n">
         <v>-0.8839193648578232</v>
       </c>
+      <c r="AH51" t="n">
+        <v>-0.8863030950656914</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5684,6 +5837,9 @@
       <c r="AG52" t="n">
         <v>-0.8839193648578232</v>
       </c>
+      <c r="AH52" t="n">
+        <v>-0.8863030950656914</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5785,6 +5941,9 @@
       <c r="AG53" t="n">
         <v>-1.182250192388049</v>
       </c>
+      <c r="AH53" t="n">
+        <v>-1.185720750485625</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5886,6 +6045,9 @@
       <c r="AG54" t="n">
         <v>-0.2001455011134244</v>
       </c>
+      <c r="AH54" t="n">
+        <v>-0.2019676045176301</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5987,6 +6149,9 @@
       <c r="AG55" t="n">
         <v>-1.075551485665173</v>
       </c>
+      <c r="AH55" t="n">
+        <v>-1.078515407872996</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6088,6 +6253,9 @@
       <c r="AG56" t="n">
         <v>-0.9476669040790473</v>
       </c>
+      <c r="AH56" t="n">
+        <v>-0.9499323561120199</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6189,6 +6357,9 @@
       <c r="AG57" t="n">
         <v>-1.016575213887728</v>
       </c>
+      <c r="AH57" t="n">
+        <v>-1.020619293357654</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6290,6 +6461,9 @@
       <c r="AG58" t="n">
         <v>-1.157717411343043</v>
       </c>
+      <c r="AH58" t="n">
+        <v>-1.161609159894744</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6391,6 +6565,9 @@
       <c r="AG59" t="n">
         <v>-0.8366534735256099</v>
       </c>
+      <c r="AH59" t="n">
+        <v>-0.8398511906003905</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6492,6 +6669,9 @@
       <c r="AG60" t="n">
         <v>-0.4705328686244381</v>
       </c>
+      <c r="AH60" t="n">
+        <v>-0.4732763838661382</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6593,6 +6773,9 @@
       <c r="AG61" t="n">
         <v>0.3738612845716797</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.3730797580510496</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6694,6 +6877,9 @@
       <c r="AG62" t="n">
         <v>-1.28731199378398</v>
       </c>
+      <c r="AH62" t="n">
+        <v>-1.29206148139937</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6795,6 +6981,9 @@
       <c r="AG63" t="n">
         <v>-0.5895818203348554</v>
       </c>
+      <c r="AH63" t="n">
+        <v>-0.5925017267224899</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6896,6 +7085,9 @@
       <c r="AG64" t="n">
         <v>-0.9076134496473891</v>
       </c>
+      <c r="AH64" t="n">
+        <v>-0.9119159085484093</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6997,6 +7189,9 @@
       <c r="AG65" t="n">
         <v>-0.07308433886988726</v>
       </c>
+      <c r="AH65" t="n">
+        <v>-0.07515985399423204</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7098,6 +7293,9 @@
       <c r="AG66" t="n">
         <v>-0.8464540793859773</v>
       </c>
+      <c r="AH66" t="n">
+        <v>-0.8497312640850151</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7198,6 +7396,9 @@
       </c>
       <c r="AG67" t="n">
         <v>-0.8333340901102371</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8362817089333059</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>-0.2531565315839667</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-0.2553811147917178</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>0.2310498203198662</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.2291166458551038</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>0.216820170330553</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.2146876893980446</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>-0.07970017540239153</v>
       </c>
+      <c r="AI5" t="n">
+        <v>-0.08138058823855469</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>0.1826654738809051</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.1812630011652414</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.4108379290076491</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.4134065896629568</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.1434082790168974</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.145137772210159</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>-0.3302087192483353</v>
       </c>
+      <c r="AI9" t="n">
+        <v>-0.3335186824597914</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.3841327627505051</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.3828346338801218</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1576,6 +1606,9 @@
       <c r="AH11" t="n">
         <v>-0.2147486161799611</v>
       </c>
+      <c r="AI11" t="n">
+        <v>-0.2168056151152981</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1680,6 +1713,9 @@
       <c r="AH12" t="n">
         <v>-0.1156583398855787</v>
       </c>
+      <c r="AI12" t="n">
+        <v>-0.1182373666203401</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1784,6 +1820,9 @@
       <c r="AH13" t="n">
         <v>-0.06283575447652004</v>
       </c>
+      <c r="AI13" t="n">
+        <v>-0.06421453102526611</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1888,6 +1927,9 @@
       <c r="AH14" t="n">
         <v>0.02593415246866881</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.02239360417080716</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1992,6 +2034,9 @@
       <c r="AH15" t="n">
         <v>-0.1286628956107116</v>
       </c>
+      <c r="AI15" t="n">
+        <v>-0.132794873214516</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2096,6 +2141,9 @@
       <c r="AH16" t="n">
         <v>0.2838088071965562</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.2790766523696442</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2200,6 +2248,9 @@
       <c r="AH17" t="n">
         <v>0.4086670396473573</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.4060644397178572</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2304,6 +2355,9 @@
       <c r="AH18" t="n">
         <v>-0.1692503433818739</v>
       </c>
+      <c r="AI18" t="n">
+        <v>-0.1710574540722524</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2408,6 +2462,9 @@
       <c r="AH19" t="n">
         <v>0.2777584110115893</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.2753127191957254</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2512,6 +2569,9 @@
       <c r="AH20" t="n">
         <v>0.1743616735745653</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.1697867670349118</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2616,6 +2676,9 @@
       <c r="AH21" t="n">
         <v>0.4675585757943989</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.4651600965941087</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2720,6 +2783,9 @@
       <c r="AH22" t="n">
         <v>0.2359470824745627</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.2333610737316915</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2824,6 +2890,9 @@
       <c r="AH23" t="n">
         <v>-0.1900555955413282</v>
       </c>
+      <c r="AI23" t="n">
+        <v>-0.1924856673991597</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2928,6 +2997,9 @@
       <c r="AH24" t="n">
         <v>1.129299668993994</v>
       </c>
+      <c r="AI24" t="n">
+        <v>1.158239055296088</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3032,6 +3104,9 @@
       <c r="AH25" t="n">
         <v>0.3232607147532211</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.3246934724784997</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3136,6 +3211,9 @@
       <c r="AH26" t="n">
         <v>0.1340871885005228</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.1356763728877125</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3240,6 +3318,9 @@
       <c r="AH27" t="n">
         <v>0.0392853880968067</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.04132102394519651</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3344,6 +3425,9 @@
       <c r="AH28" t="n">
         <v>0.8332663174741568</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.8373032732707136</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3448,6 +3532,9 @@
       <c r="AH29" t="n">
         <v>1.586804081896783</v>
       </c>
+      <c r="AI29" t="n">
+        <v>1.610580228177559</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3552,6 +3639,9 @@
       <c r="AH30" t="n">
         <v>0.6659806125773015</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.6687987490196934</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3656,6 +3746,9 @@
       <c r="AH31" t="n">
         <v>-0.4291558575572681</v>
       </c>
+      <c r="AI31" t="n">
+        <v>-0.4277048643544347</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3760,6 +3853,9 @@
       <c r="AH32" t="n">
         <v>0.5554006541461357</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.5576149731694793</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3864,6 +3960,9 @@
       <c r="AH33" t="n">
         <v>0.7683761112617313</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.7699552453688659</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3968,6 +4067,9 @@
       <c r="AH34" t="n">
         <v>-0.8429522418539489</v>
       </c>
+      <c r="AI34" t="n">
+        <v>-0.8424383844618349</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4072,6 +4174,9 @@
       <c r="AH35" t="n">
         <v>0.8251033192414315</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.8264096769145663</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4176,6 +4281,9 @@
       <c r="AH36" t="n">
         <v>0.7955475459715146</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.7970196794897383</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4280,6 +4388,9 @@
       <c r="AH37" t="n">
         <v>0.761483538751482</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.7630503049924768</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4384,6 +4495,9 @@
       <c r="AH38" t="n">
         <v>0.660441680873024</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.6614167137586128</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4488,6 +4602,9 @@
       <c r="AH39" t="n">
         <v>0.613742056098293</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.6142291023426124</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4592,6 +4709,9 @@
       <c r="AH40" t="n">
         <v>0.7866930427279178</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.7879613270089294</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4696,6 +4816,9 @@
       <c r="AH41" t="n">
         <v>0.5854207845241697</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.5857202517707819</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4800,6 +4923,9 @@
       <c r="AH42" t="n">
         <v>0.6508557099366759</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.652480545576569</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4904,6 +5030,9 @@
       <c r="AH43" t="n">
         <v>0.690358754632955</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.6911322168933625</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5008,6 +5137,9 @@
       <c r="AH44" t="n">
         <v>0.7161668980115083</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.7168391030104009</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5112,6 +5244,9 @@
       <c r="AH45" t="n">
         <v>0.7335813201141952</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.7350502240473558</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5216,6 +5351,9 @@
       <c r="AH46" t="n">
         <v>-1.351169337065472</v>
       </c>
+      <c r="AI46" t="n">
+        <v>-1.354565082192697</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5320,6 +5458,9 @@
       <c r="AH47" t="n">
         <v>-1.05371489346768</v>
       </c>
+      <c r="AI47" t="n">
+        <v>-1.056453486298179</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5424,6 +5565,9 @@
       <c r="AH48" t="n">
         <v>-0.9130564807580174</v>
       </c>
+      <c r="AI48" t="n">
+        <v>-0.9160041686062517</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5528,6 +5672,9 @@
       <c r="AH49" t="n">
         <v>-0.6731934725152843</v>
       </c>
+      <c r="AI49" t="n">
+        <v>-0.6756700491998647</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5632,6 +5779,9 @@
       <c r="AH50" t="n">
         <v>-0.09102388117643881</v>
       </c>
+      <c r="AI50" t="n">
+        <v>-0.09241005205583297</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5736,6 +5886,9 @@
       <c r="AH51" t="n">
         <v>-0.8863030950656914</v>
       </c>
+      <c r="AI51" t="n">
+        <v>-0.8887170297490068</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5840,6 +5993,9 @@
       <c r="AH52" t="n">
         <v>-0.8863030950656914</v>
       </c>
+      <c r="AI52" t="n">
+        <v>-0.8887170297490068</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5944,6 +6100,9 @@
       <c r="AH53" t="n">
         <v>-1.185720750485625</v>
       </c>
+      <c r="AI53" t="n">
+        <v>-1.189186330677553</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6048,6 +6207,9 @@
       <c r="AH54" t="n">
         <v>-0.2019676045176301</v>
       </c>
+      <c r="AI54" t="n">
+        <v>-0.2037591407871552</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6152,6 +6314,9 @@
       <c r="AH55" t="n">
         <v>-1.078515407872996</v>
       </c>
+      <c r="AI55" t="n">
+        <v>-1.081428265519919</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6256,6 +6421,9 @@
       <c r="AH56" t="n">
         <v>-0.9499323561120199</v>
       </c>
+      <c r="AI56" t="n">
+        <v>-0.9521208674824106</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6360,6 +6528,9 @@
       <c r="AH57" t="n">
         <v>-1.020619293357654</v>
       </c>
+      <c r="AI57" t="n">
+        <v>-1.024356173400974</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6464,6 +6635,9 @@
       <c r="AH58" t="n">
         <v>-1.161609159894744</v>
       </c>
+      <c r="AI58" t="n">
+        <v>-1.165179944649908</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6568,6 +6742,9 @@
       <c r="AH59" t="n">
         <v>-0.8398511906003905</v>
       </c>
+      <c r="AI59" t="n">
+        <v>-0.8429006761337046</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6672,6 +6849,9 @@
       <c r="AH60" t="n">
         <v>-0.4732763838661382</v>
       </c>
+      <c r="AI60" t="n">
+        <v>-0.4757966770212151</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6776,6 +6956,9 @@
       <c r="AH61" t="n">
         <v>0.3730797580510496</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.3723372757578776</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6880,6 +7063,9 @@
       <c r="AH62" t="n">
         <v>-1.29206148139937</v>
       </c>
+      <c r="AI62" t="n">
+        <v>-1.296442211837667</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6984,6 +7170,9 @@
       <c r="AH63" t="n">
         <v>-0.5925017267224899</v>
       </c>
+      <c r="AI63" t="n">
+        <v>-0.5952775536182027</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7088,6 +7277,9 @@
       <c r="AH64" t="n">
         <v>-0.9119159085484093</v>
       </c>
+      <c r="AI64" t="n">
+        <v>-0.916013647976047</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7192,6 +7384,9 @@
       <c r="AH65" t="n">
         <v>-0.07515985399423204</v>
       </c>
+      <c r="AI65" t="n">
+        <v>-0.07706087433338291</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7296,6 +7491,9 @@
       <c r="AH66" t="n">
         <v>-0.8497312640850151</v>
       </c>
+      <c r="AI66" t="n">
+        <v>-0.8526793790388023</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7399,6 +7597,9 @@
       </c>
       <c r="AH67" t="n">
         <v>-0.8362817089333059</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8388586721250266</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>-0.2553811147917178</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.2574518445806598</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>0.2291166458551038</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.227385325042211</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>0.2146876893980446</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.2127039022858405</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>-0.08138058823855469</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>-0.0829103424047144</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>0.1812630011652414</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.1800465113186975</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.4134065896629568</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.4158328982449006</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.145137772210159</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.1467989979499005</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>-0.3335186824597914</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>-0.336592377879926</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.3828346338801218</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.3816995382451923</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1609,6 +1639,9 @@
       <c r="AI11" t="n">
         <v>-0.2168056151152981</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>-0.2187443681433204</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1716,6 +1749,9 @@
       <c r="AI12" t="n">
         <v>-0.1182373666203401</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>-0.1204826063073169</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1823,6 +1859,9 @@
       <c r="AI13" t="n">
         <v>-0.06421453102526611</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>-0.0654931780948925</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1930,6 +1969,9 @@
       <c r="AI14" t="n">
         <v>0.02239360417080716</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.01945941961382317</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2037,6 +2079,9 @@
       <c r="AI15" t="n">
         <v>-0.132794873214516</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>-0.136185740694764</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2144,6 +2189,9 @@
       <c r="AI16" t="n">
         <v>0.2790766523696442</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.2752697951145157</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2251,6 +2299,9 @@
       <c r="AI17" t="n">
         <v>0.4060644397178572</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.4041370217919857</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2358,6 +2409,9 @@
       <c r="AI18" t="n">
         <v>-0.1710574540722524</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>-0.1726241353697149</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2465,6 +2519,9 @@
       <c r="AI19" t="n">
         <v>0.2753127191957254</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.2732405759378168</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2572,6 +2629,9 @@
       <c r="AI20" t="n">
         <v>0.1697867670349118</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.1661250478369932</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2679,6 +2739,9 @@
       <c r="AI21" t="n">
         <v>0.4651600965941087</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.4634076246413136</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2786,6 +2849,9 @@
       <c r="AI22" t="n">
         <v>0.2333610737316915</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.2314049399642298</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2893,6 +2959,9 @@
       <c r="AI23" t="n">
         <v>-0.1924856673991597</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>-0.1943969951385665</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3000,6 +3069,9 @@
       <c r="AI24" t="n">
         <v>1.158239055296088</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>1.187587455608654</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3107,6 +3179,9 @@
       <c r="AI25" t="n">
         <v>0.3246934724784997</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.32595278297244</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3214,6 +3289,9 @@
       <c r="AI26" t="n">
         <v>0.1356763728877125</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.1371598461970668</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3321,6 +3399,9 @@
       <c r="AI27" t="n">
         <v>0.04132102394519651</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.04323318842238869</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3428,6 +3509,9 @@
       <c r="AI28" t="n">
         <v>0.8373032732707136</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.841052109535001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3535,6 +3619,9 @@
       <c r="AI29" t="n">
         <v>1.610580228177559</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>1.633196258672673</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3642,6 +3729,9 @@
       <c r="AI30" t="n">
         <v>0.6687987490196934</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.6713226719482176</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3749,6 +3839,9 @@
       <c r="AI31" t="n">
         <v>-0.4277048643544347</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>-0.4266297071581472</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3856,6 +3949,9 @@
       <c r="AI32" t="n">
         <v>0.5576149731694793</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.5595855031583544</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3963,6 +4059,9 @@
       <c r="AI33" t="n">
         <v>0.7699552453688659</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.7713438935581249</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4070,6 +4169,9 @@
       <c r="AI34" t="n">
         <v>-0.8424383844618349</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>-0.8421126195184681</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4177,6 +4279,9 @@
       <c r="AI35" t="n">
         <v>0.8264096769145663</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.8275407198545592</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4284,6 +4389,9 @@
       <c r="AI36" t="n">
         <v>0.7970196794897383</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.7982209948466364</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4391,6 +4499,9 @@
       <c r="AI37" t="n">
         <v>0.7630503049924768</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.764332472782744</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4498,6 +4609,9 @@
       <c r="AI38" t="n">
         <v>0.6614167137586128</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.6622376870576753</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4605,6 +4719,9 @@
       <c r="AI39" t="n">
         <v>0.6142291023426124</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.6145954868092007</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4712,6 +4829,9 @@
       <c r="AI40" t="n">
         <v>0.7879613270089294</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.7890713760109979</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4819,6 +4939,9 @@
       <c r="AI41" t="n">
         <v>0.5857202517707819</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.585928936289639</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4926,6 +5049,9 @@
       <c r="AI42" t="n">
         <v>0.652480545576569</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.653796127076908</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5033,6 +5159,9 @@
       <c r="AI43" t="n">
         <v>0.6911322168933625</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.6917609266695771</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5140,6 +5269,9 @@
       <c r="AI44" t="n">
         <v>0.7168391030104009</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.7173585539092046</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5247,6 +5379,9 @@
       <c r="AI45" t="n">
         <v>0.7350502240473558</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.7361686740277512</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5354,6 +5489,9 @@
       <c r="AI46" t="n">
         <v>-1.354565082192697</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>-1.357881717795214</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5461,6 +5599,9 @@
       <c r="AI47" t="n">
         <v>-1.056453486298179</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>-1.059144481680245</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5568,6 +5709,9 @@
       <c r="AI48" t="n">
         <v>-0.9160041686062517</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>-0.9189299046035838</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5675,6 +5819,9 @@
       <c r="AI49" t="n">
         <v>-0.6756700491998647</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>-0.6781153291117982</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5782,6 +5929,9 @@
       <c r="AI50" t="n">
         <v>-0.09241005205583297</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>-0.09375849766492171</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5889,6 +6039,9 @@
       <c r="AI51" t="n">
         <v>-0.8887170297490068</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>-0.8911433291853657</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5996,6 +6149,9 @@
       <c r="AI52" t="n">
         <v>-0.8887170297490068</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>-0.8911433291853657</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6103,6 +6259,9 @@
       <c r="AI53" t="n">
         <v>-1.189186330677553</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>-1.192628065349762</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6210,6 +6369,9 @@
       <c r="AI54" t="n">
         <v>-0.2037591407871552</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>-0.2055133629122278</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6317,6 +6479,9 @@
       <c r="AI55" t="n">
         <v>-1.081428265519919</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>-1.08428235625578</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6424,6 +6589,9 @@
       <c r="AI56" t="n">
         <v>-0.9521208674824106</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>-0.9542344047925457</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6531,6 +6699,9 @@
       <c r="AI57" t="n">
         <v>-1.024356173400974</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>-1.027801733770809</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6638,6 +6809,9 @@
       <c r="AI58" t="n">
         <v>-1.165179944649908</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>-1.168447257712659</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6745,6 +6919,9 @@
       <c r="AI59" t="n">
         <v>-0.8429006761337046</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>-0.8457992201250384</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6852,6 +7029,9 @@
       <c r="AI60" t="n">
         <v>-0.4757966770212151</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>-0.4781025728198194</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6959,6 +7139,9 @@
       <c r="AI61" t="n">
         <v>0.3723372757578776</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.3716344360981486</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7066,6 +7249,9 @@
       <c r="AI62" t="n">
         <v>-1.296442211837667</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>-1.300473781985532</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7173,6 +7359,9 @@
       <c r="AI63" t="n">
         <v>-0.5952775536182027</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>-0.5978995953851993</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7280,6 +7469,9 @@
       <c r="AI64" t="n">
         <v>-0.916013647976047</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>-0.919899544253354</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7387,6 +7579,9 @@
       <c r="AI65" t="n">
         <v>-0.07706087433338291</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>-0.07879494136003909</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7494,6 +7689,9 @@
       <c r="AI66" t="n">
         <v>-0.8526793790388023</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>-0.8553242377158899</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7600,6 +7798,9 @@
       </c>
       <c r="AI67" t="n">
         <v>-0.8388586721250266</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8411032414716328</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.2574518445806598</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.2593698114797809</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>0.227385325042211</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.2258485761506207</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>0.2127039022858405</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.2108709305862512</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>-0.0829103424047144</v>
       </c>
+      <c r="AK5" t="n">
+        <v>-0.08429728177909762</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>0.1800465113186975</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.1790046256026691</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.4158328982449006</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.4181136646293134</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.1467989979499005</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.1483813336883099</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>-0.336592377879926</v>
       </c>
+      <c r="AK9" t="n">
+        <v>-0.3394257526999564</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.3816995382451923</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.3807163707869727</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1642,6 +1672,9 @@
       <c r="AJ11" t="n">
         <v>-0.2187443681433204</v>
       </c>
+      <c r="AK11" t="n">
+        <v>-0.2205645480124883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1752,6 +1785,9 @@
       <c r="AJ12" t="n">
         <v>-0.1204826063073169</v>
       </c>
+      <c r="AK12" t="n">
+        <v>-0.1224211370854318</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1862,6 +1898,9 @@
       <c r="AJ13" t="n">
         <v>-0.0654931780948925</v>
       </c>
+      <c r="AK13" t="n">
+        <v>-0.0666772367852093</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1972,6 +2011,9 @@
       <c r="AJ14" t="n">
         <v>0.01945941961382317</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.01707861586033924</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2082,6 +2124,9 @@
       <c r="AJ15" t="n">
         <v>-0.136185740694764</v>
       </c>
+      <c r="AK15" t="n">
+        <v>-0.1389077758777697</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2192,6 +2237,9 @@
       <c r="AJ16" t="n">
         <v>0.2752697951145157</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.2723008842456158</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2302,6 +2350,9 @@
       <c r="AJ17" t="n">
         <v>0.4041370217919857</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.402805682157634</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2412,6 +2463,9 @@
       <c r="AJ18" t="n">
         <v>-0.1726241353697149</v>
       </c>
+      <c r="AK18" t="n">
+        <v>-0.1739744704354413</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2522,6 +2576,9 @@
       <c r="AJ19" t="n">
         <v>0.2732405759378168</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.2715046931596835</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2632,6 +2689,9 @@
       <c r="AJ20" t="n">
         <v>0.1661250478369932</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.1632849859558365</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2742,6 +2802,9 @@
       <c r="AJ21" t="n">
         <v>0.4634076246413136</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.4622257435584143</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2852,6 +2915,9 @@
       <c r="AJ22" t="n">
         <v>0.2314049399642298</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.2300075729325801</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2962,6 +3028,9 @@
       <c r="AJ23" t="n">
         <v>-0.1943969951385665</v>
       </c>
+      <c r="AK23" t="n">
+        <v>-0.1958486878148449</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3072,6 +3141,9 @@
       <c r="AJ24" t="n">
         <v>1.187587455608654</v>
       </c>
+      <c r="AK24" t="n">
+        <v>1.216739613613588</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3182,6 +3254,9 @@
       <c r="AJ25" t="n">
         <v>0.32595278297244</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.3270449416751594</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3292,6 +3367,9 @@
       <c r="AJ26" t="n">
         <v>0.1371598461970668</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.1385220975305882</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3402,6 +3480,9 @@
       <c r="AJ27" t="n">
         <v>0.04323318842238869</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.04500649574645554</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3512,6 +3593,9 @@
       <c r="AJ28" t="n">
         <v>0.841052109535001</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.8445032649617407</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3622,6 +3706,9 @@
       <c r="AJ29" t="n">
         <v>1.633196258672673</v>
       </c>
+      <c r="AK29" t="n">
+        <v>1.654416350407882</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3732,6 +3819,9 @@
       <c r="AJ30" t="n">
         <v>0.6713226719482176</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.6735538675409503</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3842,6 +3932,9 @@
       <c r="AJ31" t="n">
         <v>-0.4266297071581472</v>
       </c>
+      <c r="AK31" t="n">
+        <v>-0.4259004583787466</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3952,6 +4045,9 @@
       <c r="AJ32" t="n">
         <v>0.5595855031583544</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.5613139810215713</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4062,6 +4158,9 @@
       <c r="AJ33" t="n">
         <v>0.7713438935581249</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.7725480167627808</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4172,6 +4271,9 @@
       <c r="AJ34" t="n">
         <v>-0.8421126195184681</v>
       </c>
+      <c r="AK34" t="n">
+        <v>-0.8419660662418363</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4282,6 +4384,9 @@
       <c r="AJ35" t="n">
         <v>0.8275407198545592</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.8285085059996078</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4392,6 +4497,9 @@
       <c r="AJ36" t="n">
         <v>0.7982209948466364</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.7991768113922589</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4502,6 +4610,9 @@
       <c r="AJ37" t="n">
         <v>0.764332472782744</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.7653561923298419</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4612,6 +4723,9 @@
       <c r="AJ38" t="n">
         <v>0.6622376870576753</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.6629152901839065</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4722,6 +4836,9 @@
       <c r="AJ39" t="n">
         <v>0.6145954868092007</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.6148534469021778</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4832,6 +4949,9 @@
       <c r="AJ40" t="n">
         <v>0.7890713760109979</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.7900332066062474</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4942,6 +5062,9 @@
       <c r="AJ41" t="n">
         <v>0.585928936289639</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.5860598676271807</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5052,6 +5175,9 @@
       <c r="AJ42" t="n">
         <v>0.653796127076908</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.6548281878978098</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5162,6 +5288,9 @@
       <c r="AJ43" t="n">
         <v>0.6917609266695771</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.692257794480996</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5272,6 +5401,9 @@
       <c r="AJ44" t="n">
         <v>0.7173585539092046</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.7177422595030053</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5382,6 +5514,9 @@
       <c r="AJ45" t="n">
         <v>0.7361686740277512</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.7369742707290493</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5492,6 +5627,9 @@
       <c r="AJ46" t="n">
         <v>-1.357881717795214</v>
       </c>
+      <c r="AK46" t="n">
+        <v>-1.361112330190082</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5602,6 +5740,9 @@
       <c r="AJ47" t="n">
         <v>-1.059144481680245</v>
       </c>
+      <c r="AK47" t="n">
+        <v>-1.06178046537023</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5712,6 +5853,9 @@
       <c r="AJ48" t="n">
         <v>-0.9189299046035838</v>
       </c>
+      <c r="AK48" t="n">
+        <v>-0.921818541792521</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5822,6 +5966,9 @@
       <c r="AJ49" t="n">
         <v>-0.6781153291117982</v>
       </c>
+      <c r="AK49" t="n">
+        <v>-0.6805183944336691</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5932,6 +6079,9 @@
       <c r="AJ50" t="n">
         <v>-0.09375849766492171</v>
       </c>
+      <c r="AK50" t="n">
+        <v>-0.09506803164675845</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6042,6 +6192,9 @@
       <c r="AJ51" t="n">
         <v>-0.8911433291853657</v>
       </c>
+      <c r="AK51" t="n">
+        <v>-0.8935658398799864</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6152,6 +6305,9 @@
       <c r="AJ52" t="n">
         <v>-0.8911433291853657</v>
       </c>
+      <c r="AK52" t="n">
+        <v>-0.8935658398799864</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6262,6 +6418,9 @@
       <c r="AJ53" t="n">
         <v>-1.192628065349762</v>
       </c>
+      <c r="AK53" t="n">
+        <v>-1.196029103798806</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6372,6 +6531,9 @@
       <c r="AJ54" t="n">
         <v>-0.2055133629122278</v>
       </c>
+      <c r="AK54" t="n">
+        <v>-0.2072246602735638</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6482,6 +6644,9 @@
       <c r="AJ55" t="n">
         <v>-1.08428235625578</v>
       </c>
+      <c r="AK55" t="n">
+        <v>-1.087071113467321</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6592,6 +6757,9 @@
       <c r="AJ56" t="n">
         <v>-0.9542344047925457</v>
       </c>
+      <c r="AK56" t="n">
+        <v>-0.9562751304291917</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6702,6 +6870,9 @@
       <c r="AJ57" t="n">
         <v>-1.027801733770809</v>
       </c>
+      <c r="AK57" t="n">
+        <v>-1.030973537277693</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6812,6 +6983,9 @@
       <c r="AJ58" t="n">
         <v>-1.168447257712659</v>
       </c>
+      <c r="AK58" t="n">
+        <v>-1.171430458596612</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6922,6 +7096,9 @@
       <c r="AJ59" t="n">
         <v>-0.8457992201250384</v>
       </c>
+      <c r="AK59" t="n">
+        <v>-0.848546483946982</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7032,6 +7209,9 @@
       <c r="AJ60" t="n">
         <v>-0.4781025728198194</v>
       </c>
+      <c r="AK60" t="n">
+        <v>-0.4802049165973684</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7142,6 +7322,9 @@
       <c r="AJ61" t="n">
         <v>0.3716344360981486</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.3709712147218335</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7252,6 +7435,9 @@
       <c r="AJ62" t="n">
         <v>-1.300473781985532</v>
       </c>
+      <c r="AK62" t="n">
+        <v>-1.304177804455845</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7362,6 +7548,9 @@
       <c r="AJ63" t="n">
         <v>-0.5978995953851993</v>
       </c>
+      <c r="AK63" t="n">
+        <v>-0.6003621820978463</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7472,6 +7661,9 @@
       <c r="AJ64" t="n">
         <v>-0.919899544253354</v>
       </c>
+      <c r="AK64" t="n">
+        <v>-0.9235703629962012</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7582,6 +7774,9 @@
       <c r="AJ65" t="n">
         <v>-0.07879494136003909</v>
       </c>
+      <c r="AK65" t="n">
+        <v>-0.08037112673786431</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7692,6 +7887,9 @@
       <c r="AJ66" t="n">
         <v>-0.8553242377158899</v>
       </c>
+      <c r="AK66" t="n">
+        <v>-0.8576923240581764</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7801,6 +7999,9 @@
       </c>
       <c r="AJ67" t="n">
         <v>-0.8411032414716328</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8430530085125912</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK67"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.2593698114797809</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.2611383542855388</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>0.2258485761506207</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.2244969735053584</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>0.2108709305862512</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.2091880827757378</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>-0.08429728177909762</v>
       </c>
+      <c r="AL5" t="n">
+        <v>-0.08555025601840535</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>0.1790046256026691</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.1781246746957501</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.4181136646293134</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.4202483321343429</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.1483813336883099</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.1498771256423418</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>-0.3394257526999564</v>
       </c>
+      <c r="AL9" t="n">
+        <v>-0.3420193083782755</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.3807163707869727</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.379873155254663</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1675,6 +1705,9 @@
       <c r="AK11" t="n">
         <v>-0.2205645480124883</v>
       </c>
+      <c r="AL11" t="n">
+        <v>-0.2222675892737525</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1788,6 +1821,9 @@
       <c r="AK12" t="n">
         <v>-0.1224211370854318</v>
       </c>
+      <c r="AL12" t="n">
+        <v>-0.1240808685927327</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1901,6 +1937,9 @@
       <c r="AK13" t="n">
         <v>-0.0666772367852093</v>
       </c>
+      <c r="AL13" t="n">
+        <v>-0.0677726435595534</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2014,6 +2053,9 @@
       <c r="AK14" t="n">
         <v>0.01707861586033924</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.01519688462248393</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2127,6 +2169,9 @@
       <c r="AK15" t="n">
         <v>-0.1389077758777697</v>
       </c>
+      <c r="AL15" t="n">
+        <v>-0.1410333687619557</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2240,6 +2285,9 @@
       <c r="AK16" t="n">
         <v>0.2723008842456158</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.2700815428328798</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2353,6 +2401,9 @@
       <c r="AK17" t="n">
         <v>0.402805682157634</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.401993407366369</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2466,6 +2517,9 @@
       <c r="AK18" t="n">
         <v>-0.1739744704354413</v>
       </c>
+      <c r="AL18" t="n">
+        <v>-0.1751319109237833</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2579,6 +2633,9 @@
       <c r="AK19" t="n">
         <v>0.2715046931596835</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.2700681660238371</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2692,6 +2749,9 @@
       <c r="AK20" t="n">
         <v>0.1632849859558365</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.1611751199366576</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2805,6 +2865,9 @@
       <c r="AK21" t="n">
         <v>0.4622257435584143</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.4615406746532293</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2918,6 +2981,9 @@
       <c r="AK22" t="n">
         <v>0.2300075729325801</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.2290993011687641</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3031,6 +3097,9 @@
       <c r="AK23" t="n">
         <v>-0.1958486878148449</v>
       </c>
+      <c r="AL23" t="n">
+        <v>-0.1968984201174959</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3144,6 +3213,9 @@
       <c r="AK24" t="n">
         <v>1.216739613613588</v>
       </c>
+      <c r="AL24" t="n">
+        <v>1.245190709855826</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3257,6 +3329,9 @@
       <c r="AK25" t="n">
         <v>0.3270449416751594</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.3279784823060745</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3370,6 +3445,9 @@
       <c r="AK26" t="n">
         <v>0.1385220975305882</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.1397525934285819</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3483,6 +3561,9 @@
       <c r="AK27" t="n">
         <v>0.04500649574645554</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.04663077260658671</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3596,6 +3677,9 @@
       <c r="AK28" t="n">
         <v>0.8445032649617407</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.8476538850242169</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3709,6 +3793,9 @@
       <c r="AK29" t="n">
         <v>1.654416350407882</v>
       </c>
+      <c r="AL29" t="n">
+        <v>1.674071829873141</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3822,6 +3909,9 @@
       <c r="AK30" t="n">
         <v>0.6735538675409503</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.6754992010333403</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3935,6 +4025,9 @@
       <c r="AK31" t="n">
         <v>-0.4259004583787466</v>
       </c>
+      <c r="AL31" t="n">
+        <v>-0.4254850262653108</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4048,6 +4141,9 @@
       <c r="AK32" t="n">
         <v>0.5613139810215713</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.5628065402897932</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4161,6 +4257,9 @@
       <c r="AK33" t="n">
         <v>0.7725480167627808</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.7735761374985236</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4274,6 +4373,9 @@
       <c r="AK34" t="n">
         <v>-0.8419660662418363</v>
       </c>
+      <c r="AL34" t="n">
+        <v>-0.8419873535685427</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4387,6 +4489,9 @@
       <c r="AK35" t="n">
         <v>0.8285085059996078</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.8293259678736394</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4500,6 +4605,9 @@
       <c r="AK36" t="n">
         <v>0.7991768113922589</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.7999127433453694</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4613,6 +4721,9 @@
       <c r="AK37" t="n">
         <v>0.7653561923298419</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.7661480202511959</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4726,6 +4837,9 @@
       <c r="AK38" t="n">
         <v>0.6629152901839065</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.6634611760926197</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4839,6 +4953,9 @@
       <c r="AK39" t="n">
         <v>0.6148534469021778</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.6150151997853571</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4952,6 +5069,9 @@
       <c r="AK40" t="n">
         <v>0.7900332066062474</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.7908577013525467</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5065,6 +5185,9 @@
       <c r="AK41" t="n">
         <v>0.5860598676271807</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.5861253559618675</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5178,6 +5301,9 @@
       <c r="AK42" t="n">
         <v>0.6548281878978098</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.6556035676361088</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5291,6 +5417,9 @@
       <c r="AK43" t="n">
         <v>0.692257794480996</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.6926360826612533</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5404,6 +5533,9 @@
       <c r="AK44" t="n">
         <v>0.7177422595030053</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.7180068935703281</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5517,6 +5649,9 @@
       <c r="AK45" t="n">
         <v>0.7369742707290493</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.7375041830108335</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5630,6 +5765,9 @@
       <c r="AK46" t="n">
         <v>-1.361112330190082</v>
       </c>
+      <c r="AL46" t="n">
+        <v>-1.364251396317519</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5743,6 +5881,9 @@
       <c r="AK47" t="n">
         <v>-1.06178046537023</v>
       </c>
+      <c r="AL47" t="n">
+        <v>-1.064355140105768</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5856,6 +5997,9 @@
       <c r="AK48" t="n">
         <v>-0.921818541792521</v>
       </c>
+      <c r="AL48" t="n">
+        <v>-0.9246569480749842</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5969,6 +6113,9 @@
       <c r="AK49" t="n">
         <v>-0.6805183944336691</v>
       </c>
+      <c r="AL49" t="n">
+        <v>-0.6828699563720175</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6082,6 +6229,9 @@
       <c r="AK50" t="n">
         <v>-0.09506803164675845</v>
       </c>
+      <c r="AL50" t="n">
+        <v>-0.09633782662571763</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6195,6 +6345,9 @@
       <c r="AK51" t="n">
         <v>-0.8935658398799864</v>
       </c>
+      <c r="AL51" t="n">
+        <v>-0.895970147000421</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6308,6 +6461,9 @@
       <c r="AK52" t="n">
         <v>-0.8935658398799864</v>
       </c>
+      <c r="AL52" t="n">
+        <v>-0.895970147000421</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6421,6 +6577,9 @@
       <c r="AK53" t="n">
         <v>-1.196029103798806</v>
       </c>
+      <c r="AL53" t="n">
+        <v>-1.199374655102451</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6534,6 +6693,9 @@
       <c r="AK54" t="n">
         <v>-0.2072246602735638</v>
       </c>
+      <c r="AL54" t="n">
+        <v>-0.2088884946961476</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6647,6 +6809,9 @@
       <c r="AK55" t="n">
         <v>-1.087071113467321</v>
       </c>
+      <c r="AL55" t="n">
+        <v>-1.089789081444977</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6760,6 +6925,9 @@
       <c r="AK56" t="n">
         <v>-0.9562751304291917</v>
       </c>
+      <c r="AL56" t="n">
+        <v>-0.9582453465418799</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6873,6 +7041,9 @@
       <c r="AK57" t="n">
         <v>-1.030973537277693</v>
       </c>
+      <c r="AL57" t="n">
+        <v>-1.033890274696267</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6986,6 +7157,9 @@
       <c r="AK58" t="n">
         <v>-1.171430458596612</v>
       </c>
+      <c r="AL58" t="n">
+        <v>-1.174150134617343</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7099,6 +7273,9 @@
       <c r="AK59" t="n">
         <v>-0.848546483946982</v>
       </c>
+      <c r="AL59" t="n">
+        <v>-0.8511441414191374</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7212,6 +7389,9 @@
       <c r="AK60" t="n">
         <v>-0.4802049165973684</v>
       </c>
+      <c r="AL60" t="n">
+        <v>-0.4821160532970444</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7325,6 +7505,9 @@
       <c r="AK61" t="n">
         <v>0.3709712147218335</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.3703470597032633</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7438,6 +7621,9 @@
       <c r="AK62" t="n">
         <v>-1.304177804455845</v>
       </c>
+      <c r="AL62" t="n">
+        <v>-1.307577222462207</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7551,6 +7737,9 @@
       <c r="AK63" t="n">
         <v>-0.6003621820978463</v>
       </c>
+      <c r="AL63" t="n">
+        <v>-0.6026631204631718</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7664,6 +7853,9 @@
       <c r="AK64" t="n">
         <v>-0.9235703629962012</v>
       </c>
+      <c r="AL64" t="n">
+        <v>-0.9270262410313399</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7777,6 +7969,9 @@
       <c r="AK65" t="n">
         <v>-0.08037112673786431</v>
       </c>
+      <c r="AL65" t="n">
+        <v>-0.08179961300009835</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7890,6 +8085,9 @@
       <c r="AK66" t="n">
         <v>-0.8576923240581764</v>
       </c>
+      <c r="AL66" t="n">
+        <v>-0.8598102067834046</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8002,6 +8200,9 @@
       </c>
       <c r="AK67" t="n">
         <v>-0.8430530085125912</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8447443001033317</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.2611383542855388</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.2627626438524924</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>0.2244969735053584</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.2233194442399603</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>0.2091880827757378</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.2076523077990395</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>-0.08555025601840535</v>
       </c>
+      <c r="AM5" t="n">
+        <v>-0.08667880803637931</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>0.1781246746957501</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.1773931374324459</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.4202483321343429</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.4222385829905163</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.1498771256423418</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.1512813507224265</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>-0.3420193083782755</v>
       </c>
+      <c r="AM9" t="n">
+        <v>-0.3443773944070136</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.379873155254663</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.3791574045177778</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1708,6 +1738,9 @@
       <c r="AL11" t="n">
         <v>-0.2222675892737525</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.2238563906106689</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1824,6 +1857,9 @@
       <c r="AL12" t="n">
         <v>-0.1240808685927327</v>
       </c>
+      <c r="AM12" t="n">
+        <v>-0.1254899107420979</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1940,6 +1976,9 @@
       <c r="AL13" t="n">
         <v>-0.0677726435595534</v>
       </c>
+      <c r="AM13" t="n">
+        <v>-0.06878557905871475</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2056,6 +2095,9 @@
       <c r="AL14" t="n">
         <v>0.01519688462248393</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.01375978328679783</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2172,6 +2214,9 @@
       <c r="AL15" t="n">
         <v>-0.1410333687619557</v>
       </c>
+      <c r="AM15" t="n">
+        <v>-0.1426337047006812</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2288,6 +2333,9 @@
       <c r="AL16" t="n">
         <v>0.2700815428328798</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.2685241314209742</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2404,6 +2452,9 @@
       <c r="AL17" t="n">
         <v>0.401993407366369</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.4016263240896835</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2520,6 +2571,9 @@
       <c r="AL18" t="n">
         <v>-0.1751319109237833</v>
       </c>
+      <c r="AM18" t="n">
+        <v>-0.1761190123472645</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2636,6 +2690,9 @@
       <c r="AL19" t="n">
         <v>0.2700681660238371</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.2688950587748528</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2752,6 +2809,9 @@
       <c r="AL20" t="n">
         <v>0.1611751199366576</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.1597056974964753</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2868,6 +2928,9 @@
       <c r="AL21" t="n">
         <v>0.4615406746532293</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.4612813877238746</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2984,6 +3047,9 @@
       <c r="AL22" t="n">
         <v>0.2290993011687641</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.2286129175389854</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3100,6 +3166,9 @@
       <c r="AL23" t="n">
         <v>-0.1968984201174959</v>
       </c>
+      <c r="AM23" t="n">
+        <v>-0.197601619429396</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3216,6 +3285,9 @@
       <c r="AL24" t="n">
         <v>1.245190709855826</v>
       </c>
+      <c r="AM24" t="n">
+        <v>1.272529793458881</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3332,6 +3404,9 @@
       <c r="AL25" t="n">
         <v>0.3279784823060745</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.328763626605505</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3448,6 +3523,9 @@
       <c r="AL26" t="n">
         <v>0.1397525934285819</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.1408451613680659</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3564,6 +3642,9 @@
       <c r="AL27" t="n">
         <v>0.04663077260658671</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.04810038593127571</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3680,6 +3761,9 @@
       <c r="AL28" t="n">
         <v>0.8476538850242169</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.8505068050034379</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3796,6 +3880,9 @@
       <c r="AL29" t="n">
         <v>1.674071829873141</v>
       </c>
+      <c r="AM29" t="n">
+        <v>1.692053017448065</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3912,6 +3999,9 @@
       <c r="AL30" t="n">
         <v>0.6754992010333403</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.6771698935644822</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4028,6 +4118,9 @@
       <c r="AL31" t="n">
         <v>-0.4254850262653108</v>
       </c>
+      <c r="AM31" t="n">
+        <v>-0.4253501464349123</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4144,6 +4237,9 @@
       <c r="AL32" t="n">
         <v>0.5628065402897932</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.5640728674432677</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4260,6 +4356,9 @@
       <c r="AL33" t="n">
         <v>0.7735761374985236</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.7744387509019828</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4376,6 +4475,9 @@
       <c r="AL34" t="n">
         <v>-0.8419873535685427</v>
       </c>
+      <c r="AM34" t="n">
+        <v>-0.8421632628360108</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4492,6 +4594,9 @@
       <c r="AL35" t="n">
         <v>0.8293259678736394</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.8300065488318087</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4608,6 +4713,9 @@
       <c r="AL36" t="n">
         <v>0.7999127433453694</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.8004541918485415</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4724,6 +4832,9 @@
       <c r="AL37" t="n">
         <v>0.7661480202511959</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.7667343749253738</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4840,6 +4951,9 @@
       <c r="AL38" t="n">
         <v>0.6634611760926197</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.6638875819471857</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4956,6 +5070,9 @@
       <c r="AL39" t="n">
         <v>0.6150151997853571</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.6150927319462961</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5072,6 +5189,9 @@
       <c r="AL40" t="n">
         <v>0.7908577013525467</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.7915562931139664</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5188,6 +5308,9 @@
       <c r="AL41" t="n">
         <v>0.5861253559618675</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.5861368794221075</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5304,6 +5427,9 @@
       <c r="AL42" t="n">
         <v>0.6556035676361088</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.6561495382111552</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5420,6 +5546,9 @@
       <c r="AL43" t="n">
         <v>0.6926360826612533</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.6929091002373621</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5536,6 +5665,9 @@
       <c r="AL44" t="n">
         <v>0.7180068935703281</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.7181685501360374</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5652,6 +5784,9 @@
       <c r="AL45" t="n">
         <v>0.7375041830108335</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.7377945511346377</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5768,6 +5903,9 @@
       <c r="AL46" t="n">
         <v>-1.364251396317519</v>
       </c>
+      <c r="AM46" t="n">
+        <v>-1.367294704026416</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5884,6 +6022,9 @@
       <c r="AL47" t="n">
         <v>-1.064355140105768</v>
       </c>
+      <c r="AM47" t="n">
+        <v>-1.066863297282442</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6000,6 +6141,9 @@
       <c r="AL48" t="n">
         <v>-0.9246569480749842</v>
       </c>
+      <c r="AM48" t="n">
+        <v>-0.9274339605058116</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6116,6 +6260,9 @@
       <c r="AL49" t="n">
         <v>-0.6828699563720175</v>
       </c>
+      <c r="AM49" t="n">
+        <v>-0.6851622929075907</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6232,6 +6379,9 @@
       <c r="AL50" t="n">
         <v>-0.09633782662571763</v>
       </c>
+      <c r="AM50" t="n">
+        <v>-0.09756738814479506</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6348,6 +6498,9 @@
       <c r="AL51" t="n">
         <v>-0.895970147000421</v>
       </c>
+      <c r="AM51" t="n">
+        <v>-0.8983435866350405</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6464,6 +6617,9 @@
       <c r="AL52" t="n">
         <v>-0.895970147000421</v>
       </c>
+      <c r="AM52" t="n">
+        <v>-0.8983435866350405</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6580,6 +6736,9 @@
       <c r="AL53" t="n">
         <v>-1.199374655102451</v>
       </c>
+      <c r="AM53" t="n">
+        <v>-1.202651983528938</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6696,6 +6855,9 @@
       <c r="AL54" t="n">
         <v>-0.2088884946961476</v>
       </c>
+      <c r="AM54" t="n">
+        <v>-0.2105013276663599</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6812,6 +6974,9 @@
       <c r="AL55" t="n">
         <v>-1.089789081444977</v>
       </c>
+      <c r="AM55" t="n">
+        <v>-1.092431873630778</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6928,6 +7093,9 @@
       <c r="AL56" t="n">
         <v>-0.9582453465418799</v>
       </c>
+      <c r="AM56" t="n">
+        <v>-0.9601474472183957</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7044,6 +7212,9 @@
       <c r="AL57" t="n">
         <v>-1.033890274696267</v>
       </c>
+      <c r="AM57" t="n">
+        <v>-1.036571277148516</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7160,6 +7331,9 @@
       <c r="AL58" t="n">
         <v>-1.174150134617343</v>
       </c>
+      <c r="AM58" t="n">
+        <v>-1.176627543257623</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7276,6 +7450,9 @@
       <c r="AL59" t="n">
         <v>-0.8511441414191374</v>
       </c>
+      <c r="AM59" t="n">
+        <v>-0.8535955421191812</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7392,6 +7569,9 @@
       <c r="AL60" t="n">
         <v>-0.4821160532970444</v>
       </c>
+      <c r="AM60" t="n">
+        <v>-0.4838493647689923</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7508,6 +7688,9 @@
       <c r="AL61" t="n">
         <v>0.3703470597032633</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.3697609809054739</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7624,6 +7807,9 @@
       <c r="AL62" t="n">
         <v>-1.307577222462207</v>
       </c>
+      <c r="AM62" t="n">
+        <v>-1.310695710409989</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7740,6 +7926,9 @@
       <c r="AL63" t="n">
         <v>-0.6026631204631718</v>
       </c>
+      <c r="AM63" t="n">
+        <v>-0.604803165231769</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7856,6 +8045,9 @@
       <c r="AL64" t="n">
         <v>-0.9270262410313399</v>
       </c>
+      <c r="AM64" t="n">
+        <v>-0.9302701871334284</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7972,6 +8164,9 @@
       <c r="AL65" t="n">
         <v>-0.08179961300009835</v>
       </c>
+      <c r="AM65" t="n">
+        <v>-0.08309132421187765</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8088,6 +8283,9 @@
       <c r="AL66" t="n">
         <v>-0.8598102067834046</v>
       </c>
+      <c r="AM66" t="n">
+        <v>-0.861704048626188</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8203,6 +8401,9 @@
       </c>
       <c r="AL67" t="n">
         <v>-0.8447443001033317</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8462117080709031</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.2627626438524924</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.2642493008102772</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>0.2233194442399603</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.2223037180384313</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>0.2076523077990395</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.2062586196131</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>-0.08667880803637931</v>
       </c>
+      <c r="AN5" t="n">
+        <v>-0.08769289857062718</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>0.1773931374324459</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.1767960246611227</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.4222385829905163</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.4240879655283145</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.1512813507224265</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.152591285732308</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>-0.3443773944070136</v>
       </c>
+      <c r="AN9" t="n">
+        <v>-0.346507541110179</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.3791574045177778</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.3785564317353822</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1741,6 +1771,9 @@
       <c r="AM11" t="n">
         <v>-0.2238563906106689</v>
       </c>
+      <c r="AN11" t="n">
+        <v>-0.2253350383340919</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1860,6 +1893,9 @@
       <c r="AM12" t="n">
         <v>-0.1254899107420979</v>
       </c>
+      <c r="AN12" t="n">
+        <v>-0.126676039462386</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1979,6 +2015,9 @@
       <c r="AM13" t="n">
         <v>-0.06878557905871475</v>
       </c>
+      <c r="AN13" t="n">
+        <v>-0.06972233513265189</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2098,6 +2137,9 @@
       <c r="AM14" t="n">
         <v>0.01375978328679783</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.01271373963128722</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2217,6 +2259,9 @@
       <c r="AM15" t="n">
         <v>-0.1426337047006812</v>
       </c>
+      <c r="AN15" t="n">
+        <v>-0.143777677625425</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2336,6 +2381,9 @@
       <c r="AM16" t="n">
         <v>0.2685241314209742</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.267543218375689</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2455,6 +2503,9 @@
       <c r="AM17" t="n">
         <v>0.4016263240896835</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.4016345270426614</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2574,6 +2625,9 @@
       <c r="AM18" t="n">
         <v>-0.1761190123472645</v>
       </c>
+      <c r="AN18" t="n">
+        <v>-0.1769572203078704</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2693,6 +2747,9 @@
       <c r="AM19" t="n">
         <v>0.2688950587748528</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.2679508816202191</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2812,6 +2869,9 @@
       <c r="AM20" t="n">
         <v>0.1597056974964753</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.1587900251084214</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2931,6 +2991,9 @@
       <c r="AM21" t="n">
         <v>0.4612813877238746</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.4613804804438463</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3050,6 +3113,9 @@
       <c r="AM22" t="n">
         <v>0.2286129175389854</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.2284844997344884</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3169,6 +3235,9 @@
       <c r="AM23" t="n">
         <v>-0.197601619429396</v>
       </c>
+      <c r="AN23" t="n">
+        <v>-0.1980108230973257</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3288,6 +3357,9 @@
       <c r="AM24" t="n">
         <v>1.272529793458881</v>
       </c>
+      <c r="AN24" t="n">
+        <v>1.298432497910141</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3407,6 +3479,9 @@
       <c r="AM25" t="n">
         <v>0.328763626605505</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.3294117964022339</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3526,6 +3601,9 @@
       <c r="AM26" t="n">
         <v>0.1408451613680659</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.1417973926871169</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3645,6 +3723,9 @@
       <c r="AM27" t="n">
         <v>0.04810038593127571</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.04941359814573221</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3764,6 +3845,9 @@
       <c r="AM28" t="n">
         <v>0.8505068050034379</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.8530695916927771</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3883,6 +3967,9 @@
       <c r="AM29" t="n">
         <v>1.692053017448065</v>
       </c>
+      <c r="AN29" t="n">
+        <v>1.708301363396622</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4002,6 +4089,9 @@
       <c r="AM30" t="n">
         <v>0.6771698935644822</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.6785805876882876</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4121,6 +4211,9 @@
       <c r="AM31" t="n">
         <v>-0.4253501464349123</v>
       </c>
+      <c r="AN31" t="n">
+        <v>-0.425462229542996</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4240,6 +4333,9 @@
       <c r="AM32" t="n">
         <v>0.5640728674432677</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.5651254314540077</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4359,6 +4455,9 @@
       <c r="AM33" t="n">
         <v>0.7744387509019828</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.7751477969223864</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4478,6 +4577,9 @@
       <c r="AM34" t="n">
         <v>-0.8421632628360108</v>
       </c>
+      <c r="AN34" t="n">
+        <v>-0.8424792984488602</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4597,6 +4699,9 @@
       <c r="AM35" t="n">
         <v>0.8300065488318087</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.8305638864386344</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4716,6 +4821,9 @@
       <c r="AM36" t="n">
         <v>0.8004541918485415</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.8008259210425105</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4835,6 +4943,9 @@
       <c r="AM37" t="n">
         <v>0.7667343749253738</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.767141080601315</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4954,6 +5065,9 @@
       <c r="AM38" t="n">
         <v>0.6638875819471857</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.6642070013445531</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5073,6 +5187,9 @@
       <c r="AM39" t="n">
         <v>0.6150927319462961</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.615097624856446</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5192,6 +5309,9 @@
       <c r="AM40" t="n">
         <v>0.7915562931139664</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.7921406869985378</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5311,6 +5431,9 @@
       <c r="AM41" t="n">
         <v>0.5861368794221075</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.5861050052189751</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5430,6 +5553,9 @@
       <c r="AM42" t="n">
         <v>0.6561495382111552</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.656493230248871</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5549,6 +5675,9 @@
       <c r="AM43" t="n">
         <v>0.6929091002373621</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.6930899465470154</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5668,6 +5797,9 @@
       <c r="AM44" t="n">
         <v>0.7181685501360374</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.7182425474871779</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5787,6 +5919,9 @@
       <c r="AM45" t="n">
         <v>0.7377945511346377</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.737880001879337</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5906,6 +6041,9 @@
       <c r="AM46" t="n">
         <v>-1.367294704026416</v>
       </c>
+      <c r="AN46" t="n">
+        <v>-1.370239260109094</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6025,6 +6163,9 @@
       <c r="AM47" t="n">
         <v>-1.066863297282442</v>
       </c>
+      <c r="AN47" t="n">
+        <v>-1.069300772365416</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6144,6 +6285,9 @@
       <c r="AM48" t="n">
         <v>-0.9274339605058116</v>
       </c>
+      <c r="AN48" t="n">
+        <v>-0.93014030987358</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6263,6 +6407,9 @@
       <c r="AM49" t="n">
         <v>-0.6851622929075907</v>
       </c>
+      <c r="AN49" t="n">
+        <v>-0.6873891672606568</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6382,6 +6529,9 @@
       <c r="AM50" t="n">
         <v>-0.09756738814479506</v>
       </c>
+      <c r="AN50" t="n">
+        <v>-0.09875652656375392</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6501,6 +6651,9 @@
       <c r="AM51" t="n">
         <v>-0.8983435866350405</v>
       </c>
+      <c r="AN51" t="n">
+        <v>-0.9006752239480783</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6620,6 +6773,9 @@
       <c r="AM52" t="n">
         <v>-0.8983435866350405</v>
       </c>
+      <c r="AN52" t="n">
+        <v>-0.9006752239480783</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6739,6 +6895,9 @@
       <c r="AM53" t="n">
         <v>-1.202651983528938</v>
       </c>
+      <c r="AN53" t="n">
+        <v>-1.205850364356742</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6858,6 +7017,9 @@
       <c r="AM54" t="n">
         <v>-0.2105013276663599</v>
       </c>
+      <c r="AN54" t="n">
+        <v>-0.2120605411995175</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6977,6 +7139,9 @@
       <c r="AM55" t="n">
         <v>-1.092431873630778</v>
       </c>
+      <c r="AN55" t="n">
+        <v>-1.094996117223031</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7096,6 +7261,9 @@
       <c r="AM56" t="n">
         <v>-0.9601474472183957</v>
       </c>
+      <c r="AN56" t="n">
+        <v>-0.9619838778697853</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7215,6 +7383,9 @@
       <c r="AM57" t="n">
         <v>-1.036571277148516</v>
       </c>
+      <c r="AN57" t="n">
+        <v>-1.03903609361339</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7334,6 +7505,9 @@
       <c r="AM58" t="n">
         <v>-1.176627543257623</v>
       </c>
+      <c r="AN58" t="n">
+        <v>-1.178884132713782</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7453,6 +7627,9 @@
       <c r="AM59" t="n">
         <v>-0.8535955421191812</v>
       </c>
+      <c r="AN59" t="n">
+        <v>-0.8559053989555172</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7572,6 +7749,9 @@
       <c r="AM60" t="n">
         <v>-0.4838493647689923</v>
       </c>
+      <c r="AN60" t="n">
+        <v>-0.4854188637712294</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7691,6 +7871,9 @@
       <c r="AM61" t="n">
         <v>0.3697609809054739</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.3692116329727142</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7810,6 +7993,9 @@
       <c r="AM62" t="n">
         <v>-1.310695710409989</v>
       </c>
+      <c r="AN62" t="n">
+        <v>-1.313557156704863</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7929,6 +8115,9 @@
       <c r="AM63" t="n">
         <v>-0.604803165231769</v>
       </c>
+      <c r="AN63" t="n">
+        <v>-0.6067855249693603</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8048,6 +8237,9 @@
       <c r="AM64" t="n">
         <v>-0.9302701871334284</v>
       </c>
+      <c r="AN64" t="n">
+        <v>-0.9333076076553048</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8167,6 +8359,9 @@
       <c r="AM65" t="n">
         <v>-0.08309132421187765</v>
       </c>
+      <c r="AN65" t="n">
+        <v>-0.08425760458351508</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8286,6 +8481,9 @@
       <c r="AM66" t="n">
         <v>-0.861704048626188</v>
       </c>
+      <c r="AN66" t="n">
+        <v>-0.8633992033078955</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8404,6 +8602,9 @@
       </c>
       <c r="AM67" t="n">
         <v>-0.8462117080709031</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.847487730175516</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.2642493008102772</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.2656060483962667</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>0.2223037180384313</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.2214367290754123</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>0.2062586196131</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.2050004897536204</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>-0.08769289857062718</v>
       </c>
+      <c r="AO5" t="n">
+        <v>-0.08860266674280207</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>0.1767960246611227</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.1763192102459426</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.4240879655283145</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.4258015462371782</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.152591285732308</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.1538061884052558</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>-0.346507541110179</v>
       </c>
+      <c r="AO9" t="n">
+        <v>-0.3484198376406805</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.3785564317353822</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.3780576149054545</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1774,6 +1804,9 @@
       <c r="AN11" t="n">
         <v>-0.2253350383340919</v>
       </c>
+      <c r="AO11" t="n">
+        <v>-0.2267085524371727</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1896,6 +1929,9 @@
       <c r="AN12" t="n">
         <v>-0.126676039462386</v>
       </c>
+      <c r="AO12" t="n">
+        <v>-0.127666253279026</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2018,6 +2054,9 @@
       <c r="AN13" t="n">
         <v>-0.06972233513265189</v>
       </c>
+      <c r="AO13" t="n">
+        <v>-0.07058919964082172</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2140,6 +2179,9 @@
       <c r="AN14" t="n">
         <v>0.01271373963128722</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.01200688207992766</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2262,6 +2304,9 @@
       <c r="AN15" t="n">
         <v>-0.143777677625425</v>
       </c>
+      <c r="AO15" t="n">
+        <v>-0.1445310159285804</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2384,6 +2429,9 @@
       <c r="AN16" t="n">
         <v>0.267543218375689</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.2670567779255641</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2506,6 +2554,9 @@
       <c r="AN17" t="n">
         <v>0.4016345270426614</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.4019527055649563</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2628,6 +2679,9 @@
       <c r="AN18" t="n">
         <v>-0.1769572203078704</v>
       </c>
+      <c r="AO18" t="n">
+        <v>-0.177666704208011</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2750,6 +2804,9 @@
       <c r="AN19" t="n">
         <v>0.2679508816202191</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.267202967490069</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2872,6 +2929,9 @@
       <c r="AN20" t="n">
         <v>0.1587900251084214</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.1583455490544733</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2994,6 +3054,9 @@
       <c r="AN21" t="n">
         <v>0.4613804804438463</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.4617748484858952</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3116,6 +3179,9 @@
       <c r="AN22" t="n">
         <v>0.2284844997344884</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.2286540421430391</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3238,6 +3304,9 @@
       <c r="AN23" t="n">
         <v>-0.1980108230973257</v>
       </c>
+      <c r="AO23" t="n">
+        <v>-0.1981751899876528</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3360,6 +3429,9 @@
       <c r="AN24" t="n">
         <v>1.298432497910141</v>
       </c>
+      <c r="AO24" t="n">
+        <v>1.322653296629773</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3482,6 +3554,9 @@
       <c r="AN25" t="n">
         <v>0.3294117964022339</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.3299351860129245</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3604,6 +3679,9 @@
       <c r="AN26" t="n">
         <v>0.1417973926871169</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.1426100726018597</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3726,6 +3804,9 @@
       <c r="AN27" t="n">
         <v>0.04941359814573221</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.05057195674225411</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3848,6 +3929,9 @@
       <c r="AN28" t="n">
         <v>0.8530695916927771</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.8553536515695472</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3970,6 +4054,9 @@
       <c r="AN29" t="n">
         <v>1.708301363396622</v>
       </c>
+      <c r="AO29" t="n">
+        <v>1.722801961701157</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4092,6 +4179,9 @@
       <c r="AN30" t="n">
         <v>0.6785805876882876</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.6797485034897283</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4214,6 +4304,9 @@
       <c r="AN31" t="n">
         <v>-0.425462229542996</v>
       </c>
+      <c r="AO31" t="n">
+        <v>-0.4257880739316989</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4336,6 +4429,9 @@
       <c r="AN32" t="n">
         <v>0.5651254314540077</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.5659787882280545</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4458,6 +4554,9 @@
       <c r="AN33" t="n">
         <v>0.7751477969223864</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.7757161929244173</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4580,6 +4679,9 @@
       <c r="AN34" t="n">
         <v>-0.8424792984488602</v>
       </c>
+      <c r="AO34" t="n">
+        <v>-0.8429201881838992</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4702,6 +4804,9 @@
       <c r="AN35" t="n">
         <v>0.8305638864386344</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.8310115413177223</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4824,6 +4929,9 @@
       <c r="AN36" t="n">
         <v>0.8008259210425105</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.8010517123812361</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4946,6 +5054,9 @@
       <c r="AN37" t="n">
         <v>0.767141080601315</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.767392994261731</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5068,6 +5179,9 @@
       <c r="AN38" t="n">
         <v>0.6642070013445531</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.6644319054830213</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5190,6 +5304,9 @@
       <c r="AN39" t="n">
         <v>0.615097624856446</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.6150409143218226</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5312,6 +5429,9 @@
       <c r="AN40" t="n">
         <v>0.7921406869985378</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.7926226190333301</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5434,6 +5554,9 @@
       <c r="AN41" t="n">
         <v>0.5861050052189751</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.5860393404623134</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5556,6 +5679,9 @@
       <c r="AN42" t="n">
         <v>0.656493230248871</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.6566611537985761</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5678,6 +5804,9 @@
       <c r="AN43" t="n">
         <v>0.6930899465470154</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.6931913002492056</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5800,6 +5929,9 @@
       <c r="AN44" t="n">
         <v>0.7182425474871779</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.7182432767445851</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5922,6 +6054,9 @@
       <c r="AN45" t="n">
         <v>0.737880001879337</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.7377932665505549</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6044,6 +6179,9 @@
       <c r="AN46" t="n">
         <v>-1.370239260109094</v>
       </c>
+      <c r="AO46" t="n">
+        <v>-1.373083189568571</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6166,6 +6304,9 @@
       <c r="AN47" t="n">
         <v>-1.069300772365416</v>
       </c>
+      <c r="AO47" t="n">
+        <v>-1.071664387340989</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6288,6 +6429,9 @@
       <c r="AN48" t="n">
         <v>-0.93014030987358</v>
       </c>
+      <c r="AO48" t="n">
+        <v>-0.9327685216212228</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6410,6 +6554,9 @@
       <c r="AN49" t="n">
         <v>-0.6873891672606568</v>
       </c>
+      <c r="AO49" t="n">
+        <v>-0.6895457315271725</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6532,6 +6679,9 @@
       <c r="AN50" t="n">
         <v>-0.09875652656375392</v>
       </c>
+      <c r="AO50" t="n">
+        <v>-0.09990532761504647</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6654,6 +6804,9 @@
       <c r="AN51" t="n">
         <v>-0.9006752239480783</v>
       </c>
+      <c r="AO51" t="n">
+        <v>-0.9029558029400229</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6776,6 +6929,9 @@
       <c r="AN52" t="n">
         <v>-0.9006752239480783</v>
       </c>
+      <c r="AO52" t="n">
+        <v>-0.9029558029400229</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6898,6 +7054,9 @@
       <c r="AN53" t="n">
         <v>-1.205850364356742</v>
       </c>
+      <c r="AO53" t="n">
+        <v>-1.208961007382205</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7020,6 +7179,9 @@
       <c r="AN54" t="n">
         <v>-0.2120605411995175</v>
       </c>
+      <c r="AO54" t="n">
+        <v>-0.2135643545996568</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7142,6 +7304,9 @@
       <c r="AN55" t="n">
         <v>-1.094996117223031</v>
       </c>
+      <c r="AO55" t="n">
+        <v>-1.097479387178464</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7264,6 +7429,9 @@
       <c r="AN56" t="n">
         <v>-0.9619838778697853</v>
       </c>
+      <c r="AO56" t="n">
+        <v>-0.9637571009898118</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7386,6 +7554,9 @@
       <c r="AN57" t="n">
         <v>-1.03903609361339</v>
       </c>
+      <c r="AO57" t="n">
+        <v>-1.041304130556078</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7508,6 +7679,9 @@
       <c r="AN58" t="n">
         <v>-1.178884132713782</v>
       </c>
+      <c r="AO58" t="n">
+        <v>-1.180941136230049</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7630,6 +7804,9 @@
       <c r="AN59" t="n">
         <v>-0.8559053989555172</v>
       </c>
+      <c r="AO59" t="n">
+        <v>-0.8580795013585393</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7752,6 +7929,9 @@
       <c r="AN60" t="n">
         <v>-0.4854188637712294</v>
       </c>
+      <c r="AO60" t="n">
+        <v>-0.4868388424511309</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7874,6 +8054,9 @@
       <c r="AN61" t="n">
         <v>0.3692116329727142</v>
       </c>
+      <c r="AO61" t="n">
+        <v>0.3686973915727472</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7996,6 +8179,9 @@
       <c r="AN62" t="n">
         <v>-1.313557156704863</v>
       </c>
+      <c r="AO62" t="n">
+        <v>-1.316185224554787</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8118,6 +8304,9 @@
       <c r="AN63" t="n">
         <v>-0.6067855249693603</v>
       </c>
+      <c r="AO63" t="n">
+        <v>-0.6086154049190958</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8240,6 +8429,9 @@
       <c r="AN64" t="n">
         <v>-0.9333076076553048</v>
       </c>
+      <c r="AO64" t="n">
+        <v>-0.9361458616963222</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8362,6 +8554,9 @@
       <c r="AN65" t="n">
         <v>-0.08425760458351508</v>
       </c>
+      <c r="AO65" t="n">
+        <v>-0.08530994261020905</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8484,6 +8679,9 @@
       <c r="AN66" t="n">
         <v>-0.8633992033078955</v>
       </c>
+      <c r="AO66" t="n">
+        <v>-0.8649198928480655</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8605,6 +8803,9 @@
       </c>
       <c r="AN67" t="n">
         <v>-0.847487730175516</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.848602510010745</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.2656060483962667</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.2668414008417637</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>0.2214367290754123</v>
       </c>
+      <c r="AP3" t="n">
+        <v>0.2207049703396702</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>0.2050004897536204</v>
       </c>
+      <c r="AP4" t="n">
+        <v>0.2038702060041122</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>-0.08860266674280207</v>
       </c>
+      <c r="AP5" t="n">
+        <v>-0.08941822510900438</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>0.1763192102459426</v>
       </c>
+      <c r="AP6" t="n">
+        <v>0.1759487117895994</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.4258015462371782</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.4273855889308882</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.1538061884052558</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.1549269939193402</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>-0.3484198376406805</v>
       </c>
+      <c r="AP9" t="n">
+        <v>-0.3501263595018516</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.3780576149054545</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.3776486176597389</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1807,6 +1837,9 @@
       <c r="AO11" t="n">
         <v>-0.2267085524371727</v>
       </c>
+      <c r="AP11" t="n">
+        <v>-0.2279826560327982</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1932,6 +1965,9 @@
       <c r="AO12" t="n">
         <v>-0.127666253279026</v>
       </c>
+      <c r="AP12" t="n">
+        <v>-0.1284864141046674</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2057,6 +2093,9 @@
       <c r="AO13" t="n">
         <v>-0.07058919964082172</v>
       </c>
+      <c r="AP13" t="n">
+        <v>-0.07139235834972421</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2182,6 +2221,9 @@
       <c r="AO14" t="n">
         <v>0.01200688207992766</v>
       </c>
+      <c r="AP14" t="n">
+        <v>0.01158970836291021</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2307,6 +2349,9 @@
       <c r="AO15" t="n">
         <v>-0.1445310159285804</v>
       </c>
+      <c r="AP15" t="n">
+        <v>-0.1449556028714483</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2432,6 +2477,9 @@
       <c r="AO16" t="n">
         <v>0.2670567779255641</v>
       </c>
+      <c r="AP16" t="n">
+        <v>0.2669871377271935</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2557,6 +2605,9 @@
       <c r="AO17" t="n">
         <v>0.4019527055649563</v>
       </c>
+      <c r="AP17" t="n">
+        <v>0.4025205895029276</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2682,6 +2733,9 @@
       <c r="AO18" t="n">
         <v>-0.177666704208011</v>
       </c>
+      <c r="AP18" t="n">
+        <v>-0.1782662346994589</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2807,6 +2861,9 @@
       <c r="AO19" t="n">
         <v>0.267202967490069</v>
       </c>
+      <c r="AP19" t="n">
+        <v>0.2666207577544284</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2932,6 +2989,9 @@
       <c r="AO20" t="n">
         <v>0.1583455490544733</v>
       </c>
+      <c r="AP20" t="n">
+        <v>0.1582946912981098</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3057,6 +3117,9 @@
       <c r="AO21" t="n">
         <v>0.4617748484858952</v>
       </c>
+      <c r="AP21" t="n">
+        <v>0.462406168350168</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3182,6 +3245,9 @@
       <c r="AO22" t="n">
         <v>0.2286540421430391</v>
       </c>
+      <c r="AP22" t="n">
+        <v>0.2290659177304218</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3307,6 +3373,9 @@
       <c r="AO23" t="n">
         <v>-0.1981751899876528</v>
       </c>
+      <c r="AP23" t="n">
+        <v>-0.1981401504257493</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3432,6 +3501,9 @@
       <c r="AO24" t="n">
         <v>1.322653296629773</v>
       </c>
+      <c r="AP24" t="n">
+        <v>1.345017518149685</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3557,6 +3629,9 @@
       <c r="AO25" t="n">
         <v>0.3299351860129245</v>
       </c>
+      <c r="AP25" t="n">
+        <v>0.330346392368947</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3682,6 +3757,9 @@
       <c r="AO26" t="n">
         <v>0.1426100726018597</v>
       </c>
+      <c r="AP26" t="n">
+        <v>0.1432866432236296</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3807,6 +3885,9 @@
       <c r="AO27" t="n">
         <v>0.05057195674225411</v>
       </c>
+      <c r="AP27" t="n">
+        <v>0.05157972330567723</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3932,6 +4013,9 @@
       <c r="AO28" t="n">
         <v>0.8553536515695472</v>
       </c>
+      <c r="AP28" t="n">
+        <v>0.8573734107981725</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4057,6 +4141,9 @@
       <c r="AO29" t="n">
         <v>1.722801961701157</v>
       </c>
+      <c r="AP29" t="n">
+        <v>1.735576508187817</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4182,6 +4269,9 @@
       <c r="AO30" t="n">
         <v>0.6797485034897283</v>
       </c>
+      <c r="AP30" t="n">
+        <v>0.6806926854372624</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4307,6 +4397,9 @@
       <c r="AO31" t="n">
         <v>-0.4257880739316989</v>
       </c>
+      <c r="AP31" t="n">
+        <v>-0.4262954528381976</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4432,6 +4525,9 @@
       <c r="AO32" t="n">
         <v>0.5659787882280545</v>
       </c>
+      <c r="AP32" t="n">
+        <v>0.5666489601077069</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4557,6 +4653,9 @@
       <c r="AO33" t="n">
         <v>0.7757161929244173</v>
       </c>
+      <c r="AP33" t="n">
+        <v>0.7761574250902924</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4682,6 +4781,9 @@
       <c r="AO34" t="n">
         <v>-0.8429201881838992</v>
       </c>
+      <c r="AP34" t="n">
+        <v>-0.8434703156985685</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4807,6 +4909,9 @@
       <c r="AO35" t="n">
         <v>0.8310115413177223</v>
       </c>
+      <c r="AP35" t="n">
+        <v>0.8313627692770522</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4932,6 +5037,9 @@
       <c r="AO36" t="n">
         <v>0.8010517123812361</v>
       </c>
+      <c r="AP36" t="n">
+        <v>0.8011540910091361</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5057,6 +5165,9 @@
       <c r="AO37" t="n">
         <v>0.767392994261731</v>
       </c>
+      <c r="AP37" t="n">
+        <v>0.767513708802075</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5182,6 +5293,9 @@
       <c r="AO38" t="n">
         <v>0.6644319054830213</v>
       </c>
+      <c r="AP38" t="n">
+        <v>0.6645745102728295</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5307,6 +5421,9 @@
       <c r="AO39" t="n">
         <v>0.6150409143218226</v>
       </c>
+      <c r="AP39" t="n">
+        <v>0.6149329808988444</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5432,6 +5549,9 @@
       <c r="AO40" t="n">
         <v>0.7926226190333301</v>
       </c>
+      <c r="AP40" t="n">
+        <v>0.7930136504078171</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5557,6 +5677,9 @@
       <c r="AO41" t="n">
         <v>0.5860393404623134</v>
       </c>
+      <c r="AP41" t="n">
+        <v>0.5859485087185521</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5682,6 +5805,9 @@
       <c r="AO42" t="n">
         <v>0.6566611537985761</v>
       </c>
+      <c r="AP42" t="n">
+        <v>0.6566788068726795</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5807,6 +5933,9 @@
       <c r="AO43" t="n">
         <v>0.6931913002492056</v>
       </c>
+      <c r="AP43" t="n">
+        <v>0.6932252501697858</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5932,6 +6061,9 @@
       <c r="AO44" t="n">
         <v>0.7182432767445851</v>
       </c>
+      <c r="AP44" t="n">
+        <v>0.7181840907063429</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6057,6 +6189,9 @@
       <c r="AO45" t="n">
         <v>0.7377932665505549</v>
       </c>
+      <c r="AP45" t="n">
+        <v>0.7375648925677568</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6182,6 +6317,9 @@
       <c r="AO46" t="n">
         <v>-1.373083189568571</v>
       </c>
+      <c r="AP46" t="n">
+        <v>-1.375825629246917</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6307,6 +6445,9 @@
       <c r="AO47" t="n">
         <v>-1.071664387340989</v>
       </c>
+      <c r="AP47" t="n">
+        <v>-1.073951883247736</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6432,6 +6573,9 @@
       <c r="AO48" t="n">
         <v>-0.9327685216212228</v>
       </c>
+      <c r="AP48" t="n">
+        <v>-0.9353127986189965</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6557,6 +6701,9 @@
       <c r="AO49" t="n">
         <v>-0.6895457315271725</v>
       </c>
+      <c r="AP49" t="n">
+        <v>-0.6916284195113001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6682,6 +6829,9 @@
       <c r="AO50" t="n">
         <v>-0.09990532761504647</v>
       </c>
+      <c r="AP50" t="n">
+        <v>-0.1010141222669953</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6807,6 +6957,9 @@
       <c r="AO51" t="n">
         <v>-0.9029558029400229</v>
       </c>
+      <c r="AP51" t="n">
+        <v>-0.9051776731247351</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6932,6 +7085,9 @@
       <c r="AO52" t="n">
         <v>-0.9029558029400229</v>
       </c>
+      <c r="AP52" t="n">
+        <v>-0.9051776731247351</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7057,6 +7213,9 @@
       <c r="AO53" t="n">
         <v>-1.208961007382205</v>
       </c>
+      <c r="AP53" t="n">
+        <v>-1.211976954781792</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7182,6 +7341,9 @@
       <c r="AO54" t="n">
         <v>-0.2135643545996568</v>
       </c>
+      <c r="AP54" t="n">
+        <v>-0.2150117391090834</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7307,6 +7469,9 @@
       <c r="AO55" t="n">
         <v>-1.097479387178464</v>
       </c>
+      <c r="AP55" t="n">
+        <v>-1.099880132398557</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7432,6 +7597,9 @@
       <c r="AO56" t="n">
         <v>-0.9637571009898118</v>
       </c>
+      <c r="AP56" t="n">
+        <v>-0.9654695675746936</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7557,6 +7725,9 @@
       <c r="AO57" t="n">
         <v>-1.041304130556078</v>
       </c>
+      <c r="AP57" t="n">
+        <v>-1.04339435016487</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7682,6 +7853,9 @@
       <c r="AO58" t="n">
         <v>-1.180941136230049</v>
       </c>
+      <c r="AP58" t="n">
+        <v>-1.182819235385743</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7807,6 +7981,9 @@
       <c r="AO59" t="n">
         <v>-0.8580795013585393</v>
       </c>
+      <c r="AP59" t="n">
+        <v>-0.8601244548667354</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7932,6 +8109,9 @@
       <c r="AO60" t="n">
         <v>-0.4868388424511309</v>
       </c>
+      <c r="AP60" t="n">
+        <v>-0.4881235725968061</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8057,6 +8237,9 @@
       <c r="AO61" t="n">
         <v>0.3686973915727472</v>
       </c>
+      <c r="AP61" t="n">
+        <v>0.3682164226643404</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8182,6 +8365,9 @@
       <c r="AO62" t="n">
         <v>-1.316185224554787</v>
       </c>
+      <c r="AP62" t="n">
+        <v>-1.318602985994281</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8307,6 +8493,9 @@
       <c r="AO63" t="n">
         <v>-0.6086154049190958</v>
       </c>
+      <c r="AP63" t="n">
+        <v>-0.6102995886974505</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8432,6 +8621,9 @@
       <c r="AO64" t="n">
         <v>-0.9361458616963222</v>
       </c>
+      <c r="AP64" t="n">
+        <v>-0.9387938492045866</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8557,6 +8749,9 @@
       <c r="AO65" t="n">
         <v>-0.08530994261020905</v>
       </c>
+      <c r="AP65" t="n">
+        <v>-0.08625973801947114</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8682,6 +8877,9 @@
       <c r="AO66" t="n">
         <v>-0.8649198928480655</v>
       </c>
+      <c r="AP66" t="n">
+        <v>-0.8662889577801536</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8806,6 +9004,9 @@
       </c>
       <c r="AO67" t="n">
         <v>-0.848602510010745</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8495836639839792</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP67"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.2668414008417637</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.267964387114095</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>0.2207049703396702</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>0.2200948013287307</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>0.2038702060041122</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>0.2028591961197966</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>-0.08941822510900438</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>-0.09014948737637016</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>0.1759487117895994</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>0.1756709240748129</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.4273855889308882</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.4288472624548134</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.1549269939193402</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.1559560297133657</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>-0.3501263595018516</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>-0.351640648335125</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.3776486176597389</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.3773175694153265</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1840,6 +1870,9 @@
       <c r="AP11" t="n">
         <v>-0.2279826560327982</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>-0.229163568501326</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1968,6 +2001,9 @@
       <c r="AP12" t="n">
         <v>-0.1284864141046674</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>-0.1291609652839592</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2096,6 +2132,9 @@
       <c r="AP13" t="n">
         <v>-0.07139235834972421</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>-0.07213781307841433</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2224,6 +2263,9 @@
       <c r="AP14" t="n">
         <v>0.01158970836291021</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>0.01141560611108965</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2352,6 +2394,9 @@
       <c r="AP15" t="n">
         <v>-0.1449556028714483</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>-0.1451089730199456</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2480,6 +2525,9 @@
       <c r="AP16" t="n">
         <v>0.2669871377271935</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>0.2672616985073281</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2608,6 +2656,9 @@
       <c r="AP17" t="n">
         <v>0.4025205895029276</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>0.4032832347801409</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2736,6 +2787,9 @@
       <c r="AP18" t="n">
         <v>-0.1782662346994589</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>-0.1787731008959932</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2864,6 +2918,9 @@
       <c r="AP19" t="n">
         <v>0.2666207577544284</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>0.2661760060467605</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2992,6 +3049,9 @@
       <c r="AP20" t="n">
         <v>0.1582946912981098</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>0.1585654639069622</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3120,6 +3180,9 @@
       <c r="AP21" t="n">
         <v>0.462406168350168</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>0.4632212143932542</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3248,6 +3311,9 @@
       <c r="AP22" t="n">
         <v>0.2290659177304218</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>0.2296691884370603</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3376,6 +3442,9 @@
       <c r="AP23" t="n">
         <v>-0.1981401504257493</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>-0.1979471788644732</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3504,6 +3573,9 @@
       <c r="AP24" t="n">
         <v>1.345017518149685</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>1.365413308009183</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3632,6 +3704,9 @@
       <c r="AP25" t="n">
         <v>0.330346392368947</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>0.3306580997907639</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3760,6 +3835,9 @@
       <c r="AP26" t="n">
         <v>0.1432866432236296</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>0.1438327039482847</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3888,6 +3966,9 @@
       <c r="AP27" t="n">
         <v>0.05157972330567723</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>0.05244334566853615</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4016,6 +4097,9 @@
       <c r="AP28" t="n">
         <v>0.8573734107981725</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>0.8591455703430372</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4144,6 +4228,9 @@
       <c r="AP29" t="n">
         <v>1.735576508187817</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>1.746676751964069</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4272,6 +4359,9 @@
       <c r="AP30" t="n">
         <v>0.6806926854372624</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>0.6814333385998925</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4400,6 +4490,9 @@
       <c r="AP31" t="n">
         <v>-0.4262954528381976</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>-0.4269535862279585</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4528,6 +4621,9 @@
       <c r="AP32" t="n">
         <v>0.5666489601077069</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>0.5671528893276163</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4656,6 +4752,9 @@
       <c r="AP33" t="n">
         <v>0.7761574250902924</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>0.776485196309557</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4784,6 +4883,9 @@
       <c r="AP34" t="n">
         <v>-0.8434703156985685</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>-0.8441140885200364</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4912,6 +5014,9 @@
       <c r="AP35" t="n">
         <v>0.8313627692770522</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>0.8316303341054682</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5040,6 +5145,9 @@
       <c r="AP36" t="n">
         <v>0.8011540910091361</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>0.8011541177820403</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5168,6 +5276,9 @@
       <c r="AP37" t="n">
         <v>0.767513708802075</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>0.7675253258210608</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5296,6 +5407,9 @@
       <c r="AP38" t="n">
         <v>0.6645745102728295</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>0.6646465861151889</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5424,6 +5538,9 @@
       <c r="AP39" t="n">
         <v>0.6149329808988444</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>0.6147834686105752</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5552,6 +5669,9 @@
       <c r="AP40" t="n">
         <v>0.7930136504078171</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>0.7933249956507956</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5680,6 +5800,9 @@
       <c r="AP41" t="n">
         <v>0.5859485087185521</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>0.5858401485807873</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5808,6 +5931,9 @@
       <c r="AP42" t="n">
         <v>0.6566788068726795</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>0.656570364861678</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5936,6 +6062,9 @@
       <c r="AP43" t="n">
         <v>0.6932252501697858</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>0.6932031642976432</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6064,6 +6193,9 @@
       <c r="AP44" t="n">
         <v>0.7181840907063429</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>0.7180772286710657</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6192,6 +6324,9 @@
       <c r="AP45" t="n">
         <v>0.7375648925677568</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>0.7372230391948134</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6320,6 +6455,9 @@
       <c r="AP46" t="n">
         <v>-1.375825629246917</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>-1.378466618586768</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6448,6 +6586,9 @@
       <c r="AP47" t="n">
         <v>-1.073951883247736</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>-1.076161845548611</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6576,6 +6717,9 @@
       <c r="AP48" t="n">
         <v>-0.9353127986189965</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>-0.9377688907612045</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6704,6 +6848,9 @@
       <c r="AP49" t="n">
         <v>-0.6916284195113001</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>-0.6936348323528547</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6832,6 +6979,9 @@
       <c r="AP50" t="n">
         <v>-0.1010141222669953</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>-0.1020834564862602</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6960,6 +7110,9 @@
       <c r="AP51" t="n">
         <v>-0.9051776731247351</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>-0.9073346980149677</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7088,6 +7241,9 @@
       <c r="AP52" t="n">
         <v>-0.9051776731247351</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>-0.9073346980149677</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7216,6 +7372,9 @@
       <c r="AP53" t="n">
         <v>-1.211976954781792</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>-1.214892959378851</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7344,6 +7503,9 @@
       <c r="AP54" t="n">
         <v>-0.2150117391090834</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>-0.2164023322035241</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7472,6 +7634,9 @@
       <c r="AP55" t="n">
         <v>-1.099880132398557</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>-1.102197596620223</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7600,6 +7765,9 @@
       <c r="AP56" t="n">
         <v>-0.9654695675746936</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>-0.9671236935828275</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7728,6 +7896,9 @@
       <c r="AP57" t="n">
         <v>-1.04339435016487</v>
       </c>
+      <c r="AQ57" t="n">
+        <v>-1.045325023302507</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7856,6 +8027,9 @@
       <c r="AP58" t="n">
         <v>-1.182819235385743</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>-1.18453828718841</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7984,6 +8158,9 @@
       <c r="AP59" t="n">
         <v>-0.8601244548667354</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>-0.8620474473772484</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8112,6 +8289,9 @@
       <c r="AP60" t="n">
         <v>-0.4881235725968061</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>-0.4892870545706436</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8240,6 +8420,9 @@
       <c r="AP61" t="n">
         <v>0.3682164226643404</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>0.3677667446995643</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8368,6 +8551,9 @@
       <c r="AP62" t="n">
         <v>-1.318602985994281</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>-1.320832623958476</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8496,6 +8682,9 @@
       <c r="AP63" t="n">
         <v>-0.6102995886974505</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>-0.6118460597112967</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8624,6 +8813,9 @@
       <c r="AP64" t="n">
         <v>-0.9387938492045866</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>-0.9412616343161082</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8752,6 +8944,9 @@
       <c r="AP65" t="n">
         <v>-0.08625973801947114</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>-0.08711810859252855</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8880,6 +9075,9 @@
       <c r="AP66" t="n">
         <v>-0.8662889577801536</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>-0.8675276728849408</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9007,6 +9205,9 @@
       </c>
       <c r="AP67" t="n">
         <v>-0.8495836639839792</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8504561840904739</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ67"/>
+  <dimension ref="A1:AR67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.267964387114095</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2689843092815856</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>0.2200948013287307</v>
       </c>
+      <c r="AR3" t="n">
+        <v>0.2195927107573909</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>0.2028591961197966</v>
       </c>
+      <c r="AR4" t="n">
+        <v>0.2019583163061039</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>-0.09014948737637016</v>
       </c>
+      <c r="AR5" t="n">
+        <v>-0.09080602671471083</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>0.1756709240748129</v>
       </c>
+      <c r="AR6" t="n">
+        <v>0.1754728085338409</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.4288472624548134</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.4301943776757053</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.1559560297133657</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.1568967506938492</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>-0.351640648335125</v>
       </c>
+      <c r="AR9" t="n">
+        <v>-0.3529772453555665</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.3773175694153265</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.3770532081601942</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1873,6 +1903,9 @@
       <c r="AQ11" t="n">
         <v>-0.229163568501326</v>
       </c>
+      <c r="AR11" t="n">
+        <v>-0.2302578222511998</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2004,6 +2037,9 @@
       <c r="AQ12" t="n">
         <v>-0.1291609652839592</v>
       </c>
+      <c r="AR12" t="n">
+        <v>-0.1297127197564121</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2135,6 +2171,9 @@
       <c r="AQ13" t="n">
         <v>-0.07213781307841433</v>
       </c>
+      <c r="AR13" t="n">
+        <v>-0.07283131510263735</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2266,6 +2305,9 @@
       <c r="AQ14" t="n">
         <v>0.01141560611108965</v>
       </c>
+      <c r="AR14" t="n">
+        <v>0.01144123927299859</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2397,6 +2439,9 @@
       <c r="AQ15" t="n">
         <v>-0.1451089730199456</v>
       </c>
+      <c r="AR15" t="n">
+        <v>-0.1450439661676609</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2528,6 +2573,9 @@
       <c r="AQ16" t="n">
         <v>0.2672616985073281</v>
       </c>
+      <c r="AR16" t="n">
+        <v>0.2678134486188046</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2659,6 +2707,9 @@
       <c r="AQ17" t="n">
         <v>0.4032832347801409</v>
       </c>
+      <c r="AR17" t="n">
+        <v>0.4041911685376271</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2790,6 +2841,9 @@
       <c r="AQ18" t="n">
         <v>-0.1787731008959932</v>
       </c>
+      <c r="AR18" t="n">
+        <v>-0.1792030632448728</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2921,6 +2975,9 @@
       <c r="AQ19" t="n">
         <v>0.2661760060467605</v>
       </c>
+      <c r="AR19" t="n">
+        <v>0.2658429092751587</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3052,6 +3109,9 @@
       <c r="AQ20" t="n">
         <v>0.1585654639069622</v>
       </c>
+      <c r="AR20" t="n">
+        <v>0.1590918857357275</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3183,6 +3243,9 @@
       <c r="AQ21" t="n">
         <v>0.4632212143932542</v>
       </c>
+      <c r="AR21" t="n">
+        <v>0.4641720308674017</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3314,6 +3377,9 @@
       <c r="AQ22" t="n">
         <v>0.2296691884370603</v>
       </c>
+      <c r="AR22" t="n">
+        <v>0.2304177822275679</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3445,6 +3511,9 @@
       <c r="AQ23" t="n">
         <v>-0.1979471788644732</v>
       </c>
+      <c r="AR23" t="n">
+        <v>-0.1976336740516695</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3576,6 +3645,9 @@
       <c r="AQ24" t="n">
         <v>1.365413308009183</v>
       </c>
+      <c r="AR24" t="n">
+        <v>1.383783694628476</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3707,6 +3779,9 @@
       <c r="AQ25" t="n">
         <v>0.3306580997907639</v>
       </c>
+      <c r="AR25" t="n">
+        <v>0.3308828159682329</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3838,6 +3913,9 @@
       <c r="AQ26" t="n">
         <v>0.1438327039482847</v>
       </c>
+      <c r="AR26" t="n">
+        <v>0.1442555522494773</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3969,6 +4047,9 @@
       <c r="AQ27" t="n">
         <v>0.05244334566853615</v>
       </c>
+      <c r="AR27" t="n">
+        <v>0.05317097558991239</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4100,6 +4181,9 @@
       <c r="AQ28" t="n">
         <v>0.8591455703430372</v>
       </c>
+      <c r="AR28" t="n">
+        <v>0.8606884376781123</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4231,6 +4315,9 @@
       <c r="AQ29" t="n">
         <v>1.746676751964069</v>
       </c>
+      <c r="AR29" t="n">
+        <v>1.75617847385163</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4362,6 +4449,9 @@
       <c r="AQ30" t="n">
         <v>0.6814333385998925</v>
       </c>
+      <c r="AR30" t="n">
+        <v>0.6819912516171152</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4493,6 +4583,9 @@
       <c r="AQ31" t="n">
         <v>-0.4269535862279585</v>
       </c>
+      <c r="AR31" t="n">
+        <v>-0.4277335075842658</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4624,6 +4717,9 @@
       <c r="AQ32" t="n">
         <v>0.5671528893276163</v>
       </c>
+      <c r="AR32" t="n">
+        <v>0.5675079632751379</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4755,6 +4851,9 @@
       <c r="AQ33" t="n">
         <v>0.776485196309557</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0.7767131276906185</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4886,6 +4985,9 @@
       <c r="AQ34" t="n">
         <v>-0.8441140885200364</v>
       </c>
+      <c r="AR34" t="n">
+        <v>-0.8448362453384187</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5017,6 +5119,9 @@
       <c r="AQ35" t="n">
         <v>0.8316303341054682</v>
       </c>
+      <c r="AR35" t="n">
+        <v>0.8318263581348549</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5148,6 +5253,9 @@
       <c r="AQ36" t="n">
         <v>0.8011541177820403</v>
       </c>
+      <c r="AR36" t="n">
+        <v>0.8010712404061966</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5279,6 +5387,9 @@
       <c r="AQ37" t="n">
         <v>0.7675253258210608</v>
       </c>
+      <c r="AR37" t="n">
+        <v>0.7674482911937638</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5410,6 +5521,9 @@
       <c r="AQ38" t="n">
         <v>0.6646465861151889</v>
       </c>
+      <c r="AR38" t="n">
+        <v>0.6646593068907756</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5541,6 +5655,9 @@
       <c r="AQ39" t="n">
         <v>0.6147834686105752</v>
       </c>
+      <c r="AR39" t="n">
+        <v>0.6146012291262736</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5672,6 +5789,9 @@
       <c r="AQ40" t="n">
         <v>0.7933249956507956</v>
       </c>
+      <c r="AR40" t="n">
+        <v>0.7935673827454812</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5803,6 +5923,9 @@
       <c r="AQ41" t="n">
         <v>0.5858401485807873</v>
       </c>
+      <c r="AR41" t="n">
+        <v>0.5857209307505351</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5934,6 +6057,9 @@
       <c r="AQ42" t="n">
         <v>0.656570364861678</v>
       </c>
+      <c r="AR42" t="n">
+        <v>0.6563584436114339</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6065,6 +6191,9 @@
       <c r="AQ43" t="n">
         <v>0.6932031642976432</v>
       </c>
+      <c r="AR43" t="n">
+        <v>0.6931355931938806</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6196,6 +6325,9 @@
       <c r="AQ44" t="n">
         <v>0.7180772286710657</v>
       </c>
+      <c r="AR44" t="n">
+        <v>0.7179337730053811</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6327,6 +6459,9 @@
       <c r="AQ45" t="n">
         <v>0.7372230391948134</v>
       </c>
+      <c r="AR45" t="n">
+        <v>0.7367933480203328</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6458,6 +6593,9 @@
       <c r="AQ46" t="n">
         <v>-1.378466618586768</v>
       </c>
+      <c r="AR46" t="n">
+        <v>-1.381006989944679</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6589,6 +6727,9 @@
       <c r="AQ47" t="n">
         <v>-1.076161845548611</v>
       </c>
+      <c r="AR47" t="n">
+        <v>-1.078293624820085</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6720,6 +6861,9 @@
       <c r="AQ48" t="n">
         <v>-0.9377688907612045</v>
       </c>
+      <c r="AR48" t="n">
+        <v>-0.9401339558218201</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6851,6 +6995,9 @@
       <c r="AQ49" t="n">
         <v>-0.6936348323528547</v>
       </c>
+      <c r="AR49" t="n">
+        <v>-0.6955636201286536</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6982,6 +7129,9 @@
       <c r="AQ50" t="n">
         <v>-0.1020834564862602</v>
       </c>
+      <c r="AR50" t="n">
+        <v>-0.1031140614266418</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7113,6 +7263,9 @@
       <c r="AQ51" t="n">
         <v>-0.9073346980149677</v>
       </c>
+      <c r="AR51" t="n">
+        <v>-0.9094221498748385</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7244,6 +7397,9 @@
       <c r="AQ52" t="n">
         <v>-0.9073346980149677</v>
       </c>
+      <c r="AR52" t="n">
+        <v>-0.9094221498748385</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7375,6 +7531,9 @@
       <c r="AQ53" t="n">
         <v>-1.214892959378851</v>
       </c>
+      <c r="AR53" t="n">
+        <v>-1.217705348749758</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7506,6 +7665,9 @@
       <c r="AQ54" t="n">
         <v>-0.2164023322035241</v>
       </c>
+      <c r="AR54" t="n">
+        <v>-0.2177363530515184</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7637,6 +7799,9 @@
       <c r="AQ55" t="n">
         <v>-1.102197596620223</v>
       </c>
+      <c r="AR55" t="n">
+        <v>-1.104431736257714</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7768,6 +7933,9 @@
       <c r="AQ56" t="n">
         <v>-0.9671236935828275</v>
       </c>
+      <c r="AR56" t="n">
+        <v>-0.9687218408860747</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7899,6 +8067,9 @@
       <c r="AQ57" t="n">
         <v>-1.045325023302507</v>
       </c>
+      <c r="AR57" t="n">
+        <v>-1.047113533003152</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8030,6 +8201,9 @@
       <c r="AQ58" t="n">
         <v>-1.18453828718841</v>
       </c>
+      <c r="AR58" t="n">
+        <v>-1.186117109623662</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8161,6 +8335,9 @@
       <c r="AQ59" t="n">
         <v>-0.8620474473772484</v>
       </c>
+      <c r="AR59" t="n">
+        <v>-0.8638560418893945</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8292,6 +8469,9 @@
       <c r="AQ60" t="n">
         <v>-0.4892870545706436</v>
       </c>
+      <c r="AR60" t="n">
+        <v>-0.4903428115552233</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8423,6 +8603,9 @@
       <c r="AQ61" t="n">
         <v>0.3677667446995643</v>
       </c>
+      <c r="AR61" t="n">
+        <v>0.3673462837879948</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8554,6 +8737,9 @@
       <c r="AQ62" t="n">
         <v>-1.320832623958476</v>
       </c>
+      <c r="AR62" t="n">
+        <v>-1.322895196956036</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8685,6 +8871,9 @@
       <c r="AQ63" t="n">
         <v>-0.6118460597112967</v>
       </c>
+      <c r="AR63" t="n">
+        <v>-0.6132636624435667</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8816,6 +9005,9 @@
       <c r="AQ64" t="n">
         <v>-0.9412616343161082</v>
       </c>
+      <c r="AR64" t="n">
+        <v>-0.943560105278635</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8947,6 +9139,9 @@
       <c r="AQ65" t="n">
         <v>-0.08711810859252855</v>
       </c>
+      <c r="AR65" t="n">
+        <v>-0.0878957337769869</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9078,6 +9273,9 @@
       <c r="AQ66" t="n">
         <v>-0.8675276728849408</v>
       </c>
+      <c r="AR66" t="n">
+        <v>-0.8686556211869605</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9208,6 +9406,9 @@
       </c>
       <c r="AQ67" t="n">
         <v>-0.8504561840904739</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8512424058123551</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR67"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2689843092815856</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2699105343212242</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>0.2195927107573909</v>
       </c>
+      <c r="AS3" t="n">
+        <v>0.2191855364495936</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>0.2019583163061039</v>
       </c>
+      <c r="AS4" t="n">
+        <v>0.2011581047886693</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>-0.09080602671471083</v>
       </c>
+      <c r="AS5" t="n">
+        <v>-0.09139696240886949</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>0.1754728085338409</v>
       </c>
+      <c r="AS6" t="n">
+        <v>0.175342042272638</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.4301943776757053</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.4314351538933686</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.1568967506938492</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.157753496273206</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>-0.3529772453555665</v>
       </c>
+      <c r="AS9" t="n">
+        <v>-0.3541512786546396</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.3770532081601942</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.3768449892479984</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +1936,9 @@
       <c r="AR11" t="n">
         <v>-0.2302578222511998</v>
       </c>
+      <c r="AS11" t="n">
+        <v>-0.2312721026313337</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2040,6 +2073,9 @@
       <c r="AR12" t="n">
         <v>-0.1297127197564121</v>
       </c>
+      <c r="AS12" t="n">
+        <v>-0.1301627111451486</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2174,6 +2210,9 @@
       <c r="AR13" t="n">
         <v>-0.07283131510263735</v>
       </c>
+      <c r="AS13" t="n">
+        <v>-0.07347831272120829</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2308,6 +2347,9 @@
       <c r="AR14" t="n">
         <v>0.01144123927299859</v>
       </c>
+      <c r="AS14" t="n">
+        <v>0.01162681434967981</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2442,6 +2484,9 @@
       <c r="AR15" t="n">
         <v>-0.1450439661676609</v>
       </c>
+      <c r="AS15" t="n">
+        <v>-0.1448085204304685</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2576,6 +2621,9 @@
       <c r="AR16" t="n">
         <v>0.2678134486188046</v>
       </c>
+      <c r="AS16" t="n">
+        <v>0.2685812962620209</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2710,6 +2758,9 @@
       <c r="AR17" t="n">
         <v>0.4041911685376271</v>
       </c>
+      <c r="AS17" t="n">
+        <v>0.405200413016048</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2844,6 +2895,9 @@
       <c r="AR18" t="n">
         <v>-0.1792030632448728</v>
       </c>
+      <c r="AS18" t="n">
+        <v>-0.1795703379079936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2978,6 +3032,9 @@
       <c r="AR19" t="n">
         <v>0.2658429092751587</v>
       </c>
+      <c r="AS19" t="n">
+        <v>0.2655981747206371</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3112,6 +3169,9 @@
       <c r="AR20" t="n">
         <v>0.1590918857357275</v>
       </c>
+      <c r="AS20" t="n">
+        <v>0.1598142247280402</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3246,6 +3306,9 @@
       <c r="AR21" t="n">
         <v>0.4641720308674017</v>
       </c>
+      <c r="AS21" t="n">
+        <v>0.4652159789151308</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3380,6 +3443,9 @@
       <c r="AR22" t="n">
         <v>0.2304177822275679</v>
       </c>
+      <c r="AS22" t="n">
+        <v>0.2312705543642402</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3514,6 +3580,9 @@
       <c r="AR23" t="n">
         <v>-0.1976336740516695</v>
       </c>
+      <c r="AS23" t="n">
+        <v>-0.1972329320365095</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3648,6 +3717,9 @@
       <c r="AR24" t="n">
         <v>1.383783694628476</v>
       </c>
+      <c r="AS24" t="n">
+        <v>1.400118889197145</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3782,6 +3854,9 @@
       <c r="AR25" t="n">
         <v>0.3308828159682329</v>
       </c>
+      <c r="AS25" t="n">
+        <v>0.3310326554410202</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3916,6 +3991,9 @@
       <c r="AR26" t="n">
         <v>0.1442555522494773</v>
       </c>
+      <c r="AS26" t="n">
+        <v>0.1445637667402347</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4050,6 +4128,9 @@
       <c r="AR27" t="n">
         <v>0.05317097558991239</v>
       </c>
+      <c r="AS27" t="n">
+        <v>0.0537720332366697</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4184,6 +4265,9 @@
       <c r="AR28" t="n">
         <v>0.8606884376781123</v>
       </c>
+      <c r="AS28" t="n">
+        <v>0.8620213350501331</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4318,6 +4402,9 @@
       <c r="AR29" t="n">
         <v>1.75617847385163</v>
       </c>
+      <c r="AS29" t="n">
+        <v>1.764176012024641</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4452,6 +4539,9 @@
       <c r="AR30" t="n">
         <v>0.6819912516171152</v>
       </c>
+      <c r="AS30" t="n">
+        <v>0.6823873027980354</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4586,6 +4676,9 @@
       <c r="AR31" t="n">
         <v>-0.4277335075842658</v>
       </c>
+      <c r="AS31" t="n">
+        <v>-0.4286083360703695</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4720,6 +4813,9 @@
       <c r="AR32" t="n">
         <v>0.5675079632751379</v>
       </c>
+      <c r="AS32" t="n">
+        <v>0.5677316085552075</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4854,6 +4950,9 @@
       <c r="AR33" t="n">
         <v>0.7767131276906185</v>
       </c>
+      <c r="AS33" t="n">
+        <v>0.7768545103989115</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4988,6 +5087,9 @@
       <c r="AR34" t="n">
         <v>-0.8448362453384187</v>
       </c>
+      <c r="AS34" t="n">
+        <v>-0.845622106832445</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5122,6 +5224,9 @@
       <c r="AR35" t="n">
         <v>0.8318263581348549</v>
       </c>
+      <c r="AS35" t="n">
+        <v>0.8319622074533249</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5256,6 +5361,9 @@
       <c r="AR36" t="n">
         <v>0.8010712404061966</v>
       </c>
+      <c r="AS36" t="n">
+        <v>0.8009231971741677</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5390,6 +5498,9 @@
       <c r="AR37" t="n">
         <v>0.7674482911937638</v>
       </c>
+      <c r="AS37" t="n">
+        <v>0.7673012865917029</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5524,6 +5635,9 @@
       <c r="AR38" t="n">
         <v>0.6646593068907756</v>
       </c>
+      <c r="AS38" t="n">
+        <v>0.6646231345910215</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5658,6 +5772,9 @@
       <c r="AR39" t="n">
         <v>0.6146012291262736</v>
       </c>
+      <c r="AS39" t="n">
+        <v>0.6143942885513228</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5792,6 +5909,9 @@
       <c r="AR40" t="n">
         <v>0.7935673827454812</v>
       </c>
+      <c r="AS40" t="n">
+        <v>0.7937509429174575</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5926,6 +6046,9 @@
       <c r="AR41" t="n">
         <v>0.5857209307505351</v>
       </c>
+      <c r="AS41" t="n">
+        <v>0.585596590371919</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6060,6 +6183,9 @@
       <c r="AR42" t="n">
         <v>0.6563584436114339</v>
       </c>
+      <c r="AS42" t="n">
+        <v>0.6560639288298266</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6194,6 +6320,9 @@
       <c r="AR43" t="n">
         <v>0.6931355931938806</v>
       </c>
+      <c r="AS43" t="n">
+        <v>0.6930322040843867</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6328,6 +6457,9 @@
       <c r="AR44" t="n">
         <v>0.7179337730053811</v>
       </c>
+      <c r="AS44" t="n">
+        <v>0.7177636333299449</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6462,6 +6594,9 @@
       <c r="AR45" t="n">
         <v>0.7367933480203328</v>
       </c>
+      <c r="AS45" t="n">
+        <v>0.7362988789663377</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6596,6 +6731,9 @@
       <c r="AR46" t="n">
         <v>-1.381006989944679</v>
       </c>
+      <c r="AS46" t="n">
+        <v>-1.383448260529278</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6730,6 +6868,9 @@
       <c r="AR47" t="n">
         <v>-1.078293624820085</v>
       </c>
+      <c r="AS47" t="n">
+        <v>-1.080347254947339</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6864,6 +7005,9 @@
       <c r="AR48" t="n">
         <v>-0.9401339558218201</v>
       </c>
+      <c r="AS48" t="n">
+        <v>-0.9424064154779701</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6998,6 +7142,9 @@
       <c r="AR49" t="n">
         <v>-0.6955636201286536</v>
       </c>
+      <c r="AS49" t="n">
+        <v>-0.6974143621980035</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7132,6 +7279,9 @@
       <c r="AR50" t="n">
         <v>-0.1031140614266418</v>
       </c>
+      <c r="AS50" t="n">
+        <v>-0.1041068245013886</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7266,6 +7416,9 @@
       <c r="AR51" t="n">
         <v>-0.9094221498748385</v>
       </c>
+      <c r="AS51" t="n">
+        <v>-0.9114365947586178</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7400,6 +7553,9 @@
       <c r="AR52" t="n">
         <v>-0.9094221498748385</v>
       </c>
+      <c r="AS52" t="n">
+        <v>-0.9114365947586178</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7534,6 +7690,9 @@
       <c r="AR53" t="n">
         <v>-1.217705348749758</v>
       </c>
+      <c r="AS53" t="n">
+        <v>-1.220411879997977</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7668,6 +7827,9 @@
       <c r="AR54" t="n">
         <v>-0.2177363530515184</v>
       </c>
+      <c r="AS54" t="n">
+        <v>-0.2190145204261084</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7802,6 +7964,9 @@
       <c r="AR55" t="n">
         <v>-1.104431736257714</v>
       </c>
+      <c r="AS55" t="n">
+        <v>-1.106583137167814</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7936,6 +8101,9 @@
       <c r="AR56" t="n">
         <v>-0.9687218408860747</v>
       </c>
+      <c r="AS56" t="n">
+        <v>-0.9702663022188764</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8070,6 +8238,9 @@
       <c r="AR57" t="n">
         <v>-1.047113533003152</v>
       </c>
+      <c r="AS57" t="n">
+        <v>-1.048776224161883</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8204,6 +8375,9 @@
       <c r="AR58" t="n">
         <v>-1.186117109623662</v>
       </c>
+      <c r="AS58" t="n">
+        <v>-1.187573320204478</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8338,6 +8512,9 @@
       <c r="AR59" t="n">
         <v>-0.8638560418893945</v>
       </c>
+      <c r="AS59" t="n">
+        <v>-0.8655579951880927</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8472,6 +8649,9 @@
       <c r="AR60" t="n">
         <v>-0.4903428115552233</v>
       </c>
+      <c r="AS60" t="n">
+        <v>-0.4913037255420413</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8606,6 +8786,9 @@
       <c r="AR61" t="n">
         <v>0.3673462837879948</v>
       </c>
+      <c r="AS61" t="n">
+        <v>0.3669529219523648</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8740,6 +8923,9 @@
       <c r="AR62" t="n">
         <v>-1.322895196956036</v>
       </c>
+      <c r="AS62" t="n">
+        <v>-1.324810460718392</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8874,6 +9060,9 @@
       <c r="AR63" t="n">
         <v>-0.6132636624435667</v>
       </c>
+      <c r="AS63" t="n">
+        <v>-0.6145618031174711</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9008,6 +9197,9 @@
       <c r="AR64" t="n">
         <v>-0.943560105278635</v>
       </c>
+      <c r="AS64" t="n">
+        <v>-0.9457006714763871</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9142,6 +9334,9 @@
       <c r="AR65" t="n">
         <v>-0.0878957337769869</v>
       </c>
+      <c r="AS65" t="n">
+        <v>-0.08860273191596248</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9276,6 +9471,9 @@
       <c r="AR66" t="n">
         <v>-0.8686556211869605</v>
       </c>
+      <c r="AS66" t="n">
+        <v>-0.8696906191597432</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9409,6 +9607,9 @@
       </c>
       <c r="AR67" t="n">
         <v>-0.8512424058123551</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8519620311272288</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS67"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2699105343212242</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2707523178209733</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>0.2191855364495936</v>
       </c>
+      <c r="AT3" t="n">
+        <v>0.2188606449969526</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>0.2011581047886693</v>
       </c>
+      <c r="AT4" t="n">
+        <v>0.2004490013498986</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>-0.09139696240886949</v>
       </c>
+      <c r="AT5" t="n">
+        <v>-0.0919308724706871</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>0.175342042272638</v>
       </c>
+      <c r="AT6" t="n">
+        <v>0.1752671303119932</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.4314351538933686</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.4325780142972078</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.157753496273206</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.1585312701033288</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>-0.3541512786546396</v>
       </c>
+      <c r="AT9" t="n">
+        <v>-0.3551781036042155</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.3768449892479984</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.3766831636166152</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1939,6 +1969,9 @@
       <c r="AS11" t="n">
         <v>-0.2312721026313337</v>
       </c>
+      <c r="AT11" t="n">
+        <v>-0.2322131102265936</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2076,6 +2109,9 @@
       <c r="AS12" t="n">
         <v>-0.1301627111451486</v>
       </c>
+      <c r="AT12" t="n">
+        <v>-0.130530100629951</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2213,6 +2249,9 @@
       <c r="AS13" t="n">
         <v>-0.07347831272120829</v>
       </c>
+      <c r="AT13" t="n">
+        <v>-0.07408391181085988</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2350,6 +2389,9 @@
       <c r="AS14" t="n">
         <v>0.01162681434967981</v>
       </c>
+      <c r="AT14" t="n">
+        <v>0.01193624033321422</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2487,6 +2529,9 @@
       <c r="AS15" t="n">
         <v>-0.1448085204304685</v>
       </c>
+      <c r="AT15" t="n">
+        <v>-0.1444455866479898</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2624,6 +2669,9 @@
       <c r="AS16" t="n">
         <v>0.2685812962620209</v>
       </c>
+      <c r="AT16" t="n">
+        <v>0.2695102417249666</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2761,6 +2809,9 @@
       <c r="AS17" t="n">
         <v>0.405200413016048</v>
       </c>
+      <c r="AT17" t="n">
+        <v>0.406272406474853</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2898,6 +2949,9 @@
       <c r="AS18" t="n">
         <v>-0.1795703379079936</v>
       </c>
+      <c r="AT18" t="n">
+        <v>-0.1798876085332232</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3035,6 +3089,9 @@
       <c r="AS19" t="n">
         <v>0.2655981747206371</v>
       </c>
+      <c r="AT19" t="n">
+        <v>0.2654210318432682</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3172,6 +3229,9 @@
       <c r="AS20" t="n">
         <v>0.1598142247280402</v>
       </c>
+      <c r="AT20" t="n">
+        <v>0.1606790885644735</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3309,6 +3369,9 @@
       <c r="AS21" t="n">
         <v>0.4652159789151308</v>
       </c>
+      <c r="AT21" t="n">
+        <v>0.4663156774559741</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3446,6 +3509,9 @@
       <c r="AS22" t="n">
         <v>0.2312705543642402</v>
       </c>
+      <c r="AT22" t="n">
+        <v>0.23219124974313</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3583,6 +3649,9 @@
       <c r="AS23" t="n">
         <v>-0.1972329320365095</v>
       </c>
+      <c r="AT23" t="n">
+        <v>-0.1967741980443778</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3720,6 +3789,9 @@
       <c r="AS24" t="n">
         <v>1.400118889197145</v>
       </c>
+      <c r="AT24" t="n">
+        <v>1.414448924809389</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3857,6 +3929,9 @@
       <c r="AS25" t="n">
         <v>0.3310326554410202</v>
       </c>
+      <c r="AT25" t="n">
+        <v>0.331119166694622</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3994,6 +4069,9 @@
       <c r="AS26" t="n">
         <v>0.1445637667402347</v>
       </c>
+      <c r="AT26" t="n">
+        <v>0.1447668333545318</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4131,6 +4209,9 @@
       <c r="AS27" t="n">
         <v>0.0537720332366697</v>
       </c>
+      <c r="AT27" t="n">
+        <v>0.0542568187793023</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4268,6 +4349,9 @@
       <c r="AS28" t="n">
         <v>0.8620213350501331</v>
       </c>
+      <c r="AT28" t="n">
+        <v>0.863164082955161</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4405,6 +4489,9 @@
       <c r="AS29" t="n">
         <v>1.764176012024641</v>
       </c>
+      <c r="AT29" t="n">
+        <v>1.770777343276359</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4542,6 +4629,9 @@
       <c r="AS30" t="n">
         <v>0.6823873027980354</v>
       </c>
+      <c r="AT30" t="n">
+        <v>0.6826420449156557</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4679,6 +4769,9 @@
       <c r="AS31" t="n">
         <v>-0.4286083360703695</v>
       </c>
+      <c r="AT31" t="n">
+        <v>-0.4295534644108771</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4816,6 +4909,9 @@
       <c r="AS32" t="n">
         <v>0.5677316085552075</v>
       </c>
+      <c r="AT32" t="n">
+        <v>0.5678409501805843</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4953,6 +5049,9 @@
       <c r="AS33" t="n">
         <v>0.7768545103989115</v>
       </c>
+      <c r="AT33" t="n">
+        <v>0.7769221042074543</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5090,6 +5189,9 @@
       <c r="AS34" t="n">
         <v>-0.845622106832445</v>
       </c>
+      <c r="AT34" t="n">
+        <v>-0.8464577745385676</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5227,6 +5329,9 @@
       <c r="AS35" t="n">
         <v>0.8319622074533249</v>
       </c>
+      <c r="AT35" t="n">
+        <v>0.8320484085254926</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5364,6 +5469,9 @@
       <c r="AS36" t="n">
         <v>0.8009231971741677</v>
       </c>
+      <c r="AT36" t="n">
+        <v>0.8007259668760471</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5501,6 +5609,9 @@
       <c r="AS37" t="n">
         <v>0.7673012865917029</v>
       </c>
+      <c r="AT37" t="n">
+        <v>0.7671011702084601</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5638,6 +5749,9 @@
       <c r="AS38" t="n">
         <v>0.6646231345910215</v>
       </c>
+      <c r="AT38" t="n">
+        <v>0.6645477359842958</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5775,6 +5889,9 @@
       <c r="AS39" t="n">
         <v>0.6143942885513228</v>
       </c>
+      <c r="AT39" t="n">
+        <v>0.6141698340067688</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5912,6 +6029,9 @@
       <c r="AS40" t="n">
         <v>0.7937509429174575</v>
       </c>
+      <c r="AT40" t="n">
+        <v>0.7938851276392904</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6049,6 +6169,9 @@
       <c r="AS41" t="n">
         <v>0.585596590371919</v>
       </c>
+      <c r="AT41" t="n">
+        <v>0.5854719716094947</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6186,6 +6309,9 @@
       <c r="AS42" t="n">
         <v>0.6560639288298266</v>
       </c>
+      <c r="AT42" t="n">
+        <v>0.6557058644946916</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6323,6 +6449,9 @@
       <c r="AS43" t="n">
         <v>0.6930322040843867</v>
       </c>
+      <c r="AT43" t="n">
+        <v>0.69290174196636</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6460,6 +6589,9 @@
       <c r="AS44" t="n">
         <v>0.7177636333299449</v>
       </c>
+      <c r="AT44" t="n">
+        <v>0.7175755543530861</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6597,6 +6729,9 @@
       <c r="AS45" t="n">
         <v>0.7362988789663377</v>
       </c>
+      <c r="AT45" t="n">
+        <v>0.7357601028868148</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6734,6 +6869,9 @@
       <c r="AS46" t="n">
         <v>-1.383448260529278</v>
       </c>
+      <c r="AT46" t="n">
+        <v>-1.385792527703406</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6871,6 +7009,9 @@
       <c r="AS47" t="n">
         <v>-1.080347254947339</v>
       </c>
+      <c r="AT47" t="n">
+        <v>-1.082323370730587</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7008,6 +7149,9 @@
       <c r="AS48" t="n">
         <v>-0.9424064154779701</v>
       </c>
+      <c r="AT48" t="n">
+        <v>-0.944585809898937</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7145,6 +7289,9 @@
       <c r="AS49" t="n">
         <v>-0.6974143621980035</v>
       </c>
+      <c r="AT49" t="n">
+        <v>-0.6991874486680772</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7282,6 +7429,9 @@
       <c r="AS50" t="n">
         <v>-0.1041068245013886</v>
       </c>
+      <c r="AT50" t="n">
+        <v>-0.1050627617238659</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7419,6 +7569,9 @@
       <c r="AS51" t="n">
         <v>-0.9114365947586178</v>
       </c>
+      <c r="AT51" t="n">
+        <v>-0.9133757714161914</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7556,6 +7709,9 @@
       <c r="AS52" t="n">
         <v>-0.9114365947586178</v>
       </c>
+      <c r="AT52" t="n">
+        <v>-0.9133757714161914</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7693,6 +7849,9 @@
       <c r="AS53" t="n">
         <v>-1.220411879997977</v>
       </c>
+      <c r="AT53" t="n">
+        <v>-1.223011589432627</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7830,6 +7989,9 @@
       <c r="AS54" t="n">
         <v>-0.2190145204261084</v>
       </c>
+      <c r="AT54" t="n">
+        <v>-0.2202379741350977</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7967,6 +8129,9 @@
       <c r="AS55" t="n">
         <v>-1.106583137167814</v>
       </c>
+      <c r="AT55" t="n">
+        <v>-1.108652932038945</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8104,6 +8269,9 @@
       <c r="AS56" t="n">
         <v>-0.9702663022188764</v>
       </c>
+      <c r="AT56" t="n">
+        <v>-0.971759289673463</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8241,6 +8409,9 @@
       <c r="AS57" t="n">
         <v>-1.048776224161883</v>
       </c>
+      <c r="AT57" t="n">
+        <v>-1.050328294960998</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8378,6 +8549,9 @@
       <c r="AS58" t="n">
         <v>-1.187573320204478</v>
       </c>
+      <c r="AT58" t="n">
+        <v>-1.188923222038275</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8515,6 +8689,9 @@
       <c r="AS59" t="n">
         <v>-0.8655579951880927</v>
       </c>
+      <c r="AT59" t="n">
+        <v>-0.8671611015881919</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8652,6 +8829,9 @@
       <c r="AS60" t="n">
         <v>-0.4913037255420413</v>
       </c>
+      <c r="AT60" t="n">
+        <v>-0.4921819113666537</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8789,6 +8969,9 @@
       <c r="AS61" t="n">
         <v>0.3669529219523648</v>
       </c>
+      <c r="AT61" t="n">
+        <v>0.3665845386937248</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8926,6 +9109,9 @@
       <c r="AS62" t="n">
         <v>-1.324810460718392</v>
       </c>
+      <c r="AT62" t="n">
+        <v>-1.32659674112593</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9063,6 +9249,9 @@
       <c r="AS63" t="n">
         <v>-0.6145618031174711</v>
       </c>
+      <c r="AT63" t="n">
+        <v>-0.6157501887053385</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9200,6 +9389,9 @@
       <c r="AS64" t="n">
         <v>-0.9457006714763871</v>
       </c>
+      <c r="AT64" t="n">
+        <v>-0.947694997353741</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9337,6 +9529,9 @@
       <c r="AS65" t="n">
         <v>-0.08860273191596248</v>
       </c>
+      <c r="AT65" t="n">
+        <v>-0.08924856787706843</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9474,6 +9669,9 @@
       <c r="AS66" t="n">
         <v>-0.8696906191597432</v>
       </c>
+      <c r="AT66" t="n">
+        <v>-0.8706486863449184</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9610,6 +9808,9 @@
       </c>
       <c r="AS67" t="n">
         <v>-0.8519620311272288</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8526321972919693</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_8.xlsx
+++ b/predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2707523178209733</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.271518657733287</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>0.2188606449969526</v>
       </c>
+      <c r="AU3" t="n">
+        <v>0.2186060740802448</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>0.2004490013498986</v>
       </c>
+      <c r="AU4" t="n">
+        <v>0.199821534155087</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>-0.0919308724706871</v>
       </c>
+      <c r="AU5" t="n">
+        <v>-0.09241572975327531</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>0.1752671303119932</v>
       </c>
+      <c r="AU6" t="n">
+        <v>0.1752374847717845</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.4325780142972078</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.4336314096529542</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.1585312701033288</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.1592355428620525</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>-0.3551781036042155</v>
       </c>
+      <c r="AU9" t="n">
+        <v>-0.3560729947711056</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.3766831636166152</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.3765588288322945</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1972,6 +2002,9 @@
       <c r="AT11" t="n">
         <v>-0.2322131102265936</v>
       </c>
+      <c r="AU11" t="n">
+        <v>-0.2330874445122426</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2112,6 +2145,9 @@
       <c r="AT12" t="n">
         <v>-0.130530100629951</v>
       </c>
+      <c r="AU12" t="n">
+        <v>-0.1308321326065484</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2252,6 +2288,9 @@
       <c r="AT13" t="n">
         <v>-0.07408391181085988</v>
       </c>
+      <c r="AU13" t="n">
+        <v>-0.07465284814538956</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2392,6 +2431,9 @@
       <c r="AT14" t="n">
         <v>0.01193624033321422</v>
       </c>
+      <c r="AU14" t="n">
+        <v>0.01233719593906284</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2532,6 +2574,9 @@
       <c r="AT15" t="n">
         <v>-0.1444455866479898</v>
       </c>
+      <c r="AU15" t="n">
+        <v>-0.143993146871303</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2672,6 +2717,9 @@
       <c r="AT16" t="n">
         <v>0.2695102417249666</v>
       </c>
+      <c r="AU16" t="n">
+        <v>0.2705514113281252</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2812,6 +2860,9 @@
       <c r="AT17" t="n">
         <v>0.406272406474853</v>
       </c>
+      <c r="AU17" t="n">
+        <v>0.4073738384279932</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2952,6 +3003,9 @@
       <c r="AT18" t="n">
         <v>-0.1798876085332232</v>
       </c>
+      <c r="AU18" t="n">
+        <v>-0.1801660613895757</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3092,6 +3146,9 @@
       <c r="AT19" t="n">
         <v>0.2654210318432682</v>
       </c>
+      <c r="AU19" t="n">
+        <v>0.2652931970557689</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3232,6 +3289,9 @@
       <c r="AT20" t="n">
         <v>0.1606790885644735</v>
       </c>
+      <c r="AU20" t="n">
+        <v>0.161639385514699</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3372,6 +3432,9 @@
       <c r="AT21" t="n">
         <v>0.4663156774559741</v>
       </c>
+      <c r="AU21" t="n">
+        <v>0.4674388557753678</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3512,6 +3575,9 @@
       <c r="AT22" t="n">
         <v>0.23219124974313</v>
       </c>
+      <c r="AU22" t="n">
+        <v>0.2331483822612708</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3652,6 +3718,9 @@
       <c r="AT23" t="n">
         <v>-0.1967741980443778</v>
       </c>
+      <c r="AU23" t="n">
+        <v>-0.1962827840391263</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3792,6 +3861,9 @@
       <c r="AT24" t="n">
         <v>1.414448924809389</v>
       </c>
+      <c r="AU24" t="n">
+        <v>1.426836717535453</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3932,6 +4004,9 @@
       <c r="AT25" t="n">
         <v>0.331119166694622</v>
       </c>
+      <c r="AU25" t="n">
+        <v>0.3311531988846796</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4072,6 +4147,9 @@
       <c r="AT26" t="n">
         <v>0.1447668333545318</v>
       </c>
+      <c r="AU26" t="n">
+        <v>0.1448748146285188</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4212,6 +4290,9 @@
       <c r="AT27" t="n">
         <v>0.0542568187793023</v>
       </c>
+      <c r="AU27" t="n">
+        <v>0.05463617058413629</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4352,6 +4433,9 @@
       <c r="AT28" t="n">
         <v>0.863164082955161</v>
       </c>
+      <c r="AU28" t="n">
+        <v>0.8641365564033132</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4492,6 +4576,9 @@
       <c r="AT29" t="n">
         <v>1.770777343276359</v>
       </c>
+      <c r="AU29" t="n">
+        <v>1.776099718103502</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4632,6 +4719,9 @@
       <c r="AT30" t="n">
         <v>0.6826420449156557</v>
       </c>
+      <c r="AU30" t="n">
+        <v>0.6827753636327039</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4772,6 +4862,9 @@
       <c r="AT31" t="n">
         <v>-0.4295534644108771</v>
       </c>
+      <c r="AU31" t="n">
+        <v>-0.4305466726360988</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4912,6 +5005,9 @@
       <c r="AT32" t="n">
         <v>0.5678409501805843</v>
       </c>
+      <c r="AU32" t="n">
+        <v>0.5678525316814232</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5052,6 +5148,9 @@
       <c r="AT33" t="n">
         <v>0.7769221042074543</v>
       </c>
+      <c r="AU33" t="n">
+        <v>0.7769279789240241</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5192,6 +5291,9 @@
       <c r="AT34" t="n">
         <v>-0.8464577745385676</v>
       </c>
+      <c r="AU34" t="n">
+        <v>-0.8473302824503059</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5332,6 +5434,9 @@
       <c r="AT35" t="n">
         <v>0.8320484085254926</v>
       </c>
+      <c r="AU35" t="n">
+        <v>0.8320945929165237</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5472,6 +5577,9 @@
       <c r="AT36" t="n">
         <v>0.8007259668760471</v>
       </c>
+      <c r="AU36" t="n">
+        <v>0.800493758645358</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5612,6 +5720,9 @@
       <c r="AT37" t="n">
         <v>0.7671011702084601</v>
       </c>
+      <c r="AU37" t="n">
+        <v>0.7668629601299366</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5752,6 +5863,9 @@
       <c r="AT38" t="n">
         <v>0.6645477359842958</v>
       </c>
+      <c r="AU38" t="n">
+        <v>0.6644419277256327</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5892,6 +6006,9 @@
       <c r="AT39" t="n">
         <v>0.6141698340067688</v>
       </c>
+      <c r="AU39" t="n">
+        <v>0.6139342172505606</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6032,6 +6149,9 @@
       <c r="AT40" t="n">
         <v>0.7938851276392904</v>
       </c>
+      <c r="AU40" t="n">
+        <v>0.7939786502742069</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6172,6 +6292,9 @@
       <c r="AT41" t="n">
         <v>0.5854719716094947</v>
       </c>
+      <c r="AU41" t="n">
+        <v>0.585351081717534</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6312,6 +6435,9 @@
       <c r="AT42" t="n">
         <v>0.6557058644946916</v>
       </c>
+      <c r="AU42" t="n">
+        <v>0.655301393047274</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6452,6 +6578,9 @@
       <c r="AT43" t="n">
         <v>0.69290174196636</v>
       </c>
+      <c r="AU43" t="n">
+        <v>0.6927520141642132</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6592,6 +6721,9 @@
       <c r="AT44" t="n">
         <v>0.7175755543530861</v>
       </c>
+      <c r="AU44" t="n">
+        <v>0.7173771435733468</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6732,6 +6864,9 @@
       <c r="AT45" t="n">
         <v>0.7357601028868148</v>
       </c>
+      <c r="AU45" t="n">
+        <v>0.735194942193671</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6872,6 +7007,9 @@
       <c r="AT46" t="n">
         <v>-1.385792527703406</v>
       </c>
+      <c r="AU46" t="n">
+        <v>-1.388042369071449</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7012,6 +7150,9 @@
       <c r="AT47" t="n">
         <v>-1.082323370730587</v>
       </c>
+      <c r="AU47" t="n">
+        <v>-1.084223126530888</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7152,6 +7293,9 @@
       <c r="AT48" t="n">
         <v>-0.944585809898937</v>
       </c>
+      <c r="AU48" t="n">
+        <v>-0.9466726538062029</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7292,6 +7436,9 @@
       <c r="AT49" t="n">
         <v>-0.6991874486680772</v>
       </c>
+      <c r="AU49" t="n">
+        <v>-0.7008839649778559</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7432,6 +7579,9 @@
       <c r="AT50" t="n">
         <v>-0.1050627617238659</v>
       </c>
+      <c r="AU50" t="n">
+        <v>-0.1059829916290097</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7572,6 +7722,9 @@
       <c r="AT51" t="n">
         <v>-0.9133757714161914</v>
       </c>
+      <c r="AU51" t="n">
+        <v>-0.9152384672123381</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7712,6 +7865,9 @@
       <c r="AT52" t="n">
         <v>-0.9133757714161914</v>
       </c>
+      <c r="AU52" t="n">
+        <v>-0.9152384672123381</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7852,6 +8008,9 @@
       <c r="AT53" t="n">
         <v>-1.223011589432627</v>
       </c>
+      <c r="AU53" t="n">
+        <v>-1.22550464081614</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7992,6 +8151,9 @@
       <c r="AT54" t="n">
         <v>-0.2202379741350977</v>
       </c>
+      <c r="AU54" t="n">
+        <v>-0.221408200825337</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8132,6 +8294,9 @@
       <c r="AT55" t="n">
         <v>-1.108652932038945</v>
       </c>
+      <c r="AU55" t="n">
+        <v>-1.110642719840917</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8272,6 +8437,9 @@
       <c r="AT56" t="n">
         <v>-0.971759289673463</v>
       </c>
+      <c r="AU56" t="n">
+        <v>-0.9732029263225321</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8412,6 +8580,9 @@
       <c r="AT57" t="n">
         <v>-1.050328294960998</v>
       </c>
+      <c r="AU57" t="n">
+        <v>-1.051783725548361</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8552,6 +8723,9 @@
       <c r="AT58" t="n">
         <v>-1.188923222038275</v>
       </c>
+      <c r="AU58" t="n">
+        <v>-1.190181731980221</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8692,6 +8866,9 @@
       <c r="AT59" t="n">
         <v>-0.8671611015881919</v>
       </c>
+      <c r="AU59" t="n">
+        <v>-0.8686730605874944</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8832,6 +9009,9 @@
       <c r="AT60" t="n">
         <v>-0.4921819113666537</v>
       </c>
+      <c r="AU60" t="n">
+        <v>-0.4929886250326113</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8972,6 +9152,9 @@
       <c r="AT61" t="n">
         <v>0.3665845386937248</v>
       </c>
+      <c r="AU61" t="n">
+        <v>0.3662390461593336</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9112,6 +9295,9 @@
       <c r="AT62" t="n">
         <v>-1.32659674112593</v>
       </c>
+      <c r="AU62" t="n">
+        <v>-1.3282708527204</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9252,6 +9438,9 @@
       <c r="AT63" t="n">
         <v>-0.6157501887053385</v>
       </c>
+      <c r="AU63" t="n">
+        <v>-0.6168386027909225</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9392,6 +9581,9 @@
       <c r="AT64" t="n">
         <v>-0.947694997353741</v>
       </c>
+      <c r="AU64" t="n">
+        <v>-0.9495547724231548</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9532,6 +9724,9 @@
       <c r="AT65" t="n">
         <v>-0.08924856787706843</v>
       </c>
+      <c r="AU65" t="n">
+        <v>-0.08984198786805241</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9672,6 +9867,9 @@
       <c r="AT66" t="n">
         <v>-0.8706486863449184</v>
       </c>
+      <c r="AU66" t="n">
+        <v>-0.8715440529005911</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9811,6 +10009,9 @@
       </c>
       <c r="AT67" t="n">
         <v>-0.8526321972919693</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8532675827695851</v>
       </c>
     </row>
   </sheetData>
